--- a/tests/Feature/config/fond_tenpercent.xlsx
+++ b/tests/Feature/config/fond_tenpercent.xlsx
@@ -149,332 +149,332 @@
   </si>
   <si>
     <t xml:space="preserve">Income no transferResource &amp;&amp; transferRule
- Asset rule  no transferResource &amp;&amp; transferRule
+Using current value: 15000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 16500 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 198000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 18150 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 217800 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 19965 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 239580 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 21962 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 263538 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 24158 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 289892 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 26573 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 318881 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 29231 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 350769 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 32154 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 385846 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 35369 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 424431 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 38906 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 466874 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 42797 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 513561 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 47076 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 564917 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 51784 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 621409 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 56962 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 683550 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 62659 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 751905 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 68925 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 827095 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 75817 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 909805 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 83399 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 1000785 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 91739 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 1100864 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 100912 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 1210950 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 111004 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 1332045 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 122104 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 1465249 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 134315 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 1611774 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 147746 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 1772952 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 162521 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 1950247 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 178773 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 2145272 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 196650 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 2359799 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 216315 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 2595779 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 237946 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 2855357 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 261741 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 3140892 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 287915 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 3454982 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 316707 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 3800480 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 348377 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 4180528 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 383215 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 4598581 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 421537 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 5058439 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 463690 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 5564282 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 510059 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 6120711 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 561065 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 6732782 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 617172 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 7406060 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 678889 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 8146666 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 746778 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 8961333 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 821455 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 9857466 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 903601 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 10843212 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 993961 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 11927534 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1093357 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 13120287 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve">Pensioned, no more salary from here no transferResource &amp;&amp; transferRule
-Using previous value: 1202693 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 14432316 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1322962 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 15875547 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1455259 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 17463102 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1600784 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 19209412 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1760863 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 21130354 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1936949 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 23243389 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 2130644 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 25567728 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 2343708 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 28124501 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 2578079 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 30936951 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 2835887 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 34030646 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 3119476 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 37433710 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 3431423 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 41177081 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 3774566 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 45294789 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 4152022 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 49824268 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 4567225 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 54806695 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 5023947 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 60287365 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 5526342 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 66316101 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 6078976 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 72947711 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 6686874 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 80242482 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 7355561 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 88266731 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
@@ -485,107 +485,107 @@
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000 no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000 no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0Uttak fra 2068, 1/20 Asset rule 5000Divisor is: 250 new rule: 1/19 transfer 250 to income.2068.income.amount reduce fond.2068 by 250
+Using previous value: 0Uttak fra 2068, 1/20 Asset rule +5000Divisor is: 544181 new rule: 1/19 transfer 544181 to income.2068.income.amount reduce fond.2068 by 544181
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 263 new rule: 1/18 transfer 263 to income.2069.income.amount reduce fond.2069 by 263
+Using previous value: 0 Asset rule +5000Divisor is: 598862 new rule: 1/18 transfer 598862 to income.2069.income.amount reduce fond.2069 by 598862
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 278 new rule: 1/17 transfer 278 to income.2070.income.amount reduce fond.2070 by 278
+Using previous value: 0 Asset rule +5000Divisor is: 659026 new rule: 1/17 transfer 659026 to income.2070.income.amount reduce fond.2070 by 659026
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 294 new rule: 1/16 transfer 294 to income.2071.income.amount reduce fond.2071 by 294
+Using previous value: 0 Asset rule +5000Divisor is: 725223 new rule: 1/16 transfer 725223 to income.2071.income.amount reduce fond.2071 by 725223
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 313 new rule: 1/15 transfer 313 to income.2072.income.amount reduce fond.2072 by 313
+Using previous value: 0 Asset rule +5000Divisor is: 798058 new rule: 1/15 transfer 798058 to income.2072.income.amount reduce fond.2072 by 798058
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 333 new rule: 1/14 transfer 333 to income.2073.income.amount reduce fond.2073 by 333
+Using previous value: 0 Asset rule +5000Divisor is: 878197 new rule: 1/14 transfer 878197 to income.2073.income.amount reduce fond.2073 by 878197
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 357 new rule: 1/13 transfer 357 to income.2074.income.amount reduce fond.2074 by 357
+Using previous value: 0 Asset rule +5000Divisor is: 966373 new rule: 1/13 transfer 966373 to income.2074.income.amount reduce fond.2074 by 966373
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 385 new rule: 1/12 transfer 385 to income.2075.income.amount reduce fond.2075 by 385
+Using previous value: 0 Asset rule +5000Divisor is: 1063395 new rule: 1/12 transfer 1063395 to income.2075.income.amount reduce fond.2075 by 1063395
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 417 new rule: 1/11 transfer 417 to income.2076.income.amount reduce fond.2076 by 417
+Using previous value: 0 Asset rule +5000Divisor is: 1170152 new rule: 1/11 transfer 1170152 to income.2076.income.amount reduce fond.2076 by 1170152
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 455 new rule: 1/10 transfer 455 to income.2077.income.amount reduce fond.2077 by 455
+Using previous value: 0 Asset rule +5000Divisor is: 1287621 new rule: 1/10 transfer 1287621 to income.2077.income.amount reduce fond.2077 by 1287621
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 500 new rule: 1/9 transfer 500 to income.2078.income.amount reduce fond.2078 by 500
+Using previous value: 0 Asset rule +5000Divisor is: 1416884 new rule: 1/9 transfer 1416884 to income.2078.income.amount reduce fond.2078 by 1416884
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 556 new rule: 1/8 transfer 556 to income.2079.income.amount reduce fond.2079 by 556
+Using previous value: 0 Asset rule +5000Divisor is: 1559128 new rule: 1/8 transfer 1559128 to income.2079.income.amount reduce fond.2079 by 1559128
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 625 new rule: 1/7 transfer 625 to income.2080.income.amount reduce fond.2080 by 625
+Using previous value: 0 Asset rule +5000Divisor is: 1715665 new rule: 1/7 transfer 1715665 to income.2080.income.amount reduce fond.2080 by 1715665
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 714 new rule: 1/6 transfer 714 to income.2081.income.amount reduce fond.2081 by 714
+Using previous value: 0 Asset rule +5000Divisor is: 1887946 new rule: 1/6 transfer 1887946 to income.2081.income.amount reduce fond.2081 by 1887946
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 833 new rule: 1/5 transfer 833 to income.2082.income.amount reduce fond.2082 by 833
+Using previous value: 0 Asset rule +5000Divisor is: 2077574 new rule: 1/5 transfer 2077574 to income.2082.income.amount reduce fond.2082 by 2077574
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 1000 new rule: 1/4 transfer 1000 to income.2083.income.amount reduce fond.2083 by 1000
+Using previous value: 0 Asset rule +5000Divisor is: 2286332 new rule: 1/4 transfer 2286332 to income.2083.income.amount reduce fond.2083 by 2286332
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 1250 new rule: 1/3 transfer 1250 to income.2084.income.amount reduce fond.2084 by 1250
+Using previous value: 0 Asset rule +5000Divisor is: 2516215 new rule: 1/3 transfer 2516215 to income.2084.income.amount reduce fond.2084 by 2516215
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 1667 new rule: 1/2 transfer 1667 to income.2085.income.amount reduce fond.2085 by 1667
+Using previous value: 0 Asset rule +5000Divisor is: 2769503 new rule: 1/2 transfer 2769503 to income.2085.income.amount reduce fond.2085 by 2769503
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 2500 new rule: 1/1 transfer 2500 to income.2086.income.amount reduce fond.2086 by 2500
+Using previous value: 0 Asset rule +5000Divisor is: 3048953 new rule: 1/1 transfer 3048953 to income.2086.income.amount reduce fond.2086 by 3048953
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule 5000Divisor is: 5000 new rule:  transfer 5000 to income.2087.income.amount reduce fond.2087 by 5000
+Using previous value: 0 Asset rule +5000Divisor is: 3358848 new rule:  transfer 3358848 to income.2087.income.amount reduce fond.2087 by 3358848
 </t>
   </si>
   <si>
@@ -996,7 +996,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -1007,17 +1007,17 @@
     <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="13.997" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -1280,26 +1280,26 @@
         <v>0.0</v>
       </c>
       <c r="U7" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y7" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z7" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA7">
         <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC7" s="2">
         <v>0.625</v>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>198000</v>
+        <v>2376000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8">
@@ -1356,29 +1356,29 @@
         <v>0.0</v>
       </c>
       <c r="U8" s="8">
-        <v>26700.0</v>
+        <v>329200.0</v>
       </c>
       <c r="V8" s="8">
         <v>100000</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="8">
-        <v>44000</v>
+        <v>528000</v>
       </c>
       <c r="Y8" s="8">
-        <v>220000</v>
+        <v>2640000</v>
       </c>
       <c r="Z8" s="8">
-        <v>220000</v>
+        <v>2640000</v>
       </c>
       <c r="AA8" s="7">
         <v>0.0</v>
       </c>
       <c r="AB8" s="7">
-        <v>31500.0</v>
+        <v>334000.0</v>
       </c>
       <c r="AC8" s="9">
-        <v>0.65625</v>
+        <v>0.62781954887218</v>
       </c>
       <c r="AD8" s="7"/>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>217800</v>
+        <v>2613600</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1432,29 +1432,29 @@
         <v>0.0</v>
       </c>
       <c r="U9" s="6">
-        <v>29330.0</v>
+        <v>362080.0</v>
       </c>
       <c r="V9" s="1">
         <v>115000</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>48400</v>
+        <v>580800</v>
       </c>
       <c r="Y9" s="1">
-        <v>242000</v>
+        <v>2904000</v>
       </c>
       <c r="Z9" s="1">
-        <v>242000</v>
+        <v>2904000</v>
       </c>
       <c r="AA9">
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>34850.0</v>
+        <v>367600.0</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.65754716981132</v>
+        <v>0.62794670310899</v>
       </c>
       <c r="AD9"/>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>239580</v>
+        <v>2874960</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1495,11 +1495,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>5000</v>
+        <v>131500</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>4000.0</v>
+        <v>105200.0</v>
       </c>
       <c r="S10" s="2">
         <v>0.01</v>
@@ -1508,29 +1508,29 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="6">
-        <v>33235.0</v>
+        <v>398248.0</v>
       </c>
       <c r="V10" s="1">
-        <v>5000</v>
+        <v>131500</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>53240</v>
+        <v>638880</v>
       </c>
       <c r="Y10" s="1">
-        <v>266200</v>
+        <v>3194400</v>
       </c>
       <c r="Z10" s="1">
-        <v>266200</v>
+        <v>3194400</v>
       </c>
       <c r="AA10">
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>33475.0</v>
+        <v>404560.0</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.62640344311377</v>
+        <v>0.62806222249821</v>
       </c>
       <c r="AD10"/>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>263538.0</v>
+        <v>3162456</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1571,11 +1571,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>5000</v>
+        <v>149650</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>4000.0</v>
+        <v>119720.0</v>
       </c>
       <c r="S11" s="2">
         <v>0.01</v>
@@ -1584,29 +1584,29 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="6">
-        <v>36563.0</v>
+        <v>438032.8</v>
       </c>
       <c r="V11" s="1">
-        <v>5000</v>
+        <v>149650</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>58564</v>
+        <v>702768</v>
       </c>
       <c r="Y11" s="1">
-        <v>292820</v>
+        <v>3513840</v>
       </c>
       <c r="Z11" s="1">
-        <v>292820</v>
+        <v>3513840</v>
       </c>
       <c r="AA11">
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>36803.0</v>
+        <v>445216.0</v>
       </c>
       <c r="AC11" s="2">
-        <v>0.62628480021782</v>
+        <v>0.62816717789247</v>
       </c>
       <c r="AD11"/>
     </row>
@@ -1618,11 +1618,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>773040</v>
+        <v>773044</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>289891.8</v>
+        <v>3478701.6</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1647,11 +1647,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>5000</v>
+        <v>169615</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>4000.0</v>
+        <v>135692.0</v>
       </c>
       <c r="S12" s="2">
         <v>0.01</v>
@@ -1660,29 +1660,29 @@
         <v>0.0</v>
       </c>
       <c r="U12" s="6">
-        <v>40223.0</v>
+        <v>481796.08</v>
       </c>
       <c r="V12" s="1">
-        <v>5000</v>
+        <v>169615</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>64420</v>
+        <v>773044</v>
       </c>
       <c r="Y12" s="1">
-        <v>322100</v>
+        <v>3865220</v>
       </c>
       <c r="Z12" s="1">
-        <v>322100</v>
+        <v>3865220</v>
       </c>
       <c r="AA12">
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>40462.0</v>
+        <v>489937.0</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.62615289384092</v>
+        <v>0.62826241561287</v>
       </c>
       <c r="AD12"/>
     </row>
@@ -1694,11 +1694,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>850344</v>
+        <v>850348</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>318880.98</v>
+        <v>3826571.76</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1723,11 +1723,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>5000</v>
+        <v>191577</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>4000.0</v>
+        <v>153261.6</v>
       </c>
       <c r="S13" s="2">
         <v>0.01</v>
@@ -1736,29 +1736,29 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="6">
-        <v>44249.0</v>
+        <v>529935.384</v>
       </c>
       <c r="V13" s="1">
-        <v>5000</v>
+        <v>191577</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>70862</v>
+        <v>850348</v>
       </c>
       <c r="Y13" s="1">
-        <v>354310</v>
+        <v>4251740</v>
       </c>
       <c r="Z13" s="1">
-        <v>354310</v>
+        <v>4251740</v>
       </c>
       <c r="AA13">
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>44489.0</v>
+        <v>539130.0</v>
       </c>
       <c r="AC13" s="2">
-        <v>0.62605893445161</v>
+        <v>0.628348529019</v>
       </c>
       <c r="AD13"/>
     </row>
@@ -1770,11 +1770,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>935376</v>
+        <v>935382</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>350769.078</v>
+        <v>4209228.936</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1799,11 +1799,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>5000</v>
+        <v>215735</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>4000.0</v>
+        <v>172588.0</v>
       </c>
       <c r="S14" s="2">
         <v>0.01</v>
@@ -1812,29 +1812,29 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="6">
-        <v>48678.0</v>
+        <v>582887.12</v>
       </c>
       <c r="V14" s="1">
-        <v>5000</v>
+        <v>215735</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>77948</v>
+        <v>935382</v>
       </c>
       <c r="Y14" s="1">
-        <v>389740</v>
+        <v>4676910</v>
       </c>
       <c r="Z14" s="1">
-        <v>389740</v>
+        <v>4676910</v>
       </c>
       <c r="AA14">
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>48917.0</v>
+        <v>593242.0</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.62595331934279</v>
+        <v>0.62842673298225</v>
       </c>
       <c r="AD14"/>
     </row>
@@ -1846,11 +1846,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>1028904</v>
+        <v>1028920</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>385845.9858</v>
+        <v>4630151.8296</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1875,11 +1875,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>5000</v>
+        <v>242309</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>4000.0</v>
+        <v>193847.2</v>
       </c>
       <c r="S15" s="2">
         <v>0.01</v>
@@ -1888,29 +1888,29 @@
         <v>0.0</v>
       </c>
       <c r="U15" s="6">
-        <v>53549.0</v>
+        <v>641136.528</v>
       </c>
       <c r="V15" s="1">
-        <v>5000</v>
+        <v>242309</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>85742</v>
+        <v>1028920</v>
       </c>
       <c r="Y15" s="1">
-        <v>428710</v>
+        <v>5144600</v>
       </c>
       <c r="Z15" s="1">
-        <v>428710</v>
+        <v>5144600</v>
       </c>
       <c r="AA15">
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>53788.0</v>
+        <v>652766.0</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.62586395476019</v>
+        <v>0.62849820119607</v>
       </c>
       <c r="AD15"/>
     </row>
@@ -1922,11 +1922,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>1131792</v>
+        <v>1131812</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>424430.58438</v>
+        <v>5093167.01256</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1951,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>5000</v>
+        <v>271540</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>4000.0</v>
+        <v>217232.0</v>
       </c>
       <c r="S16" s="2">
         <v>0.01</v>
@@ -1964,29 +1964,29 @@
         <v>0.0</v>
       </c>
       <c r="U16" s="6">
-        <v>58907.0</v>
+        <v>705209.68</v>
       </c>
       <c r="V16" s="1">
-        <v>5000</v>
+        <v>271540</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>94316</v>
+        <v>1131812</v>
       </c>
       <c r="Y16" s="1">
-        <v>471580</v>
+        <v>5659060</v>
       </c>
       <c r="Z16" s="1">
-        <v>471580</v>
+        <v>5659060</v>
       </c>
       <c r="AA16">
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>59147.0</v>
+        <v>718243.0</v>
       </c>
       <c r="AC16" s="2">
-        <v>0.62578822633205</v>
+        <v>0.62856357230971</v>
       </c>
       <c r="AD16"/>
     </row>
@@ -1998,11 +1998,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>1244964</v>
+        <v>1244993</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>466873.642818</v>
+        <v>5602483.713816</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -2027,11 +2027,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>5000</v>
+        <v>303694</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>4000.0</v>
+        <v>242955.2</v>
       </c>
       <c r="S17" s="2">
         <v>0.01</v>
@@ -2040,29 +2040,29 @@
         <v>0.0</v>
       </c>
       <c r="U17" s="6">
-        <v>64801.0</v>
+        <v>775690.448</v>
       </c>
       <c r="V17" s="1">
-        <v>5000</v>
+        <v>303694</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>103747</v>
+        <v>1244993</v>
       </c>
       <c r="Y17" s="1">
-        <v>518735</v>
+        <v>6224965</v>
       </c>
       <c r="Z17" s="1">
-        <v>518735</v>
+        <v>6224965</v>
       </c>
       <c r="AA17">
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>65041.0</v>
+        <v>790267.0</v>
       </c>
       <c r="AC17" s="2">
-        <v>0.62571310379328</v>
+        <v>0.6286225259294</v>
       </c>
       <c r="AD17"/>
     </row>
@@ -2074,11 +2074,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>1369452</v>
+        <v>1369492</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>513561.0070998</v>
+        <v>6162732.0851976</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -2103,11 +2103,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>5000</v>
+        <v>339063</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>4000.0</v>
+        <v>271250.4</v>
       </c>
       <c r="S18" s="2">
         <v>0.01</v>
@@ -2116,29 +2116,29 @@
         <v>0.0</v>
       </c>
       <c r="U18" s="6">
-        <v>71285.0</v>
+        <v>853218.496</v>
       </c>
       <c r="V18" s="1">
-        <v>5000</v>
+        <v>339063</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>114121</v>
+        <v>1369492</v>
       </c>
       <c r="Y18" s="1">
-        <v>570605</v>
+        <v>6847460</v>
       </c>
       <c r="Z18" s="1">
-        <v>570605</v>
+        <v>6847460</v>
       </c>
       <c r="AA18">
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>71524.0</v>
+        <v>869494.0</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.62564183308404</v>
+        <v>0.62867659042103</v>
       </c>
       <c r="AD18"/>
     </row>
@@ -2150,11 +2150,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>1506396</v>
+        <v>1506441</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>564917.10780978</v>
+        <v>6779005.2937174</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -2179,11 +2179,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>5000</v>
+        <v>377969</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>4000.0</v>
+        <v>302375.2</v>
       </c>
       <c r="S19" s="2">
         <v>0.01</v>
@@ -2192,29 +2192,29 @@
         <v>0.0</v>
       </c>
       <c r="U19" s="6">
-        <v>78417.0</v>
+        <v>938500.248</v>
       </c>
       <c r="V19" s="1">
-        <v>5000</v>
+        <v>377969</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>125533</v>
+        <v>1506441</v>
       </c>
       <c r="Y19" s="1">
-        <v>627665</v>
+        <v>7532205</v>
       </c>
       <c r="Z19" s="1">
-        <v>627665</v>
+        <v>7532205</v>
       </c>
       <c r="AA19">
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>78657.0</v>
+        <v>956643.0</v>
       </c>
       <c r="AC19" s="2">
-        <v>0.62558755457994</v>
+        <v>0.62872522338525</v>
       </c>
       <c r="AD19"/>
     </row>
@@ -2226,11 +2226,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>1657032</v>
+        <v>1657085</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>621408.81859076</v>
+        <v>7456905.8230891</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -2255,11 +2255,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>5000</v>
+        <v>420766</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>4000.0</v>
+        <v>336612.8</v>
       </c>
       <c r="S20" s="2">
         <v>0.01</v>
@@ -2268,29 +2268,29 @@
         <v>0.0</v>
       </c>
       <c r="U20" s="6">
-        <v>86262.0</v>
+        <v>1032310.872</v>
       </c>
       <c r="V20" s="1">
-        <v>5000</v>
+        <v>420766</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>138086</v>
+        <v>1657085</v>
       </c>
       <c r="Y20" s="1">
-        <v>690430</v>
+        <v>8285425</v>
       </c>
       <c r="Z20" s="1">
-        <v>690430</v>
+        <v>8285425</v>
       </c>
       <c r="AA20">
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>86502.0</v>
+        <v>1052507.0</v>
       </c>
       <c r="AC20" s="2">
-        <v>0.6255296993188</v>
+        <v>0.62876944025686</v>
       </c>
       <c r="AD20"/>
     </row>
@@ -2302,11 +2302,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>1822728</v>
+        <v>1822793</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>683549.70044984</v>
+        <v>8202596.4053981</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -2331,11 +2331,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>5000</v>
+        <v>467843</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>4000.0</v>
+        <v>374274.4</v>
       </c>
       <c r="S21" s="2">
         <v>0.01</v>
@@ -2344,29 +2344,29 @@
         <v>0.0</v>
       </c>
       <c r="U21" s="6">
-        <v>94892.0</v>
+        <v>1135501.256</v>
       </c>
       <c r="V21" s="1">
-        <v>5000</v>
+        <v>467843</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>151894</v>
+        <v>1822793</v>
       </c>
       <c r="Y21" s="1">
-        <v>759470</v>
+        <v>9113965</v>
       </c>
       <c r="Z21" s="1">
-        <v>759470</v>
+        <v>9113965</v>
       </c>
       <c r="AA21">
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>95132.0</v>
+        <v>1157957.0</v>
       </c>
       <c r="AC21" s="2">
-        <v>0.62548161005694</v>
+        <v>0.62880954352423</v>
       </c>
       <c r="AD21"/>
     </row>
@@ -2378,11 +2378,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>2004996</v>
+        <v>2005072</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>751904.67049483</v>
+        <v>9022856.0459378</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -2407,11 +2407,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>5000</v>
+        <v>519627</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>4000.0</v>
+        <v>415701.6</v>
       </c>
       <c r="S22" s="2">
         <v>0.01</v>
@@ -2420,29 +2420,29 @@
         <v>0.0</v>
       </c>
       <c r="U22" s="6">
-        <v>104385.0</v>
+        <v>1249010.984</v>
       </c>
       <c r="V22" s="1">
-        <v>5000</v>
+        <v>519627</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>167083</v>
+        <v>2005072</v>
       </c>
       <c r="Y22" s="1">
-        <v>835415</v>
+        <v>10025360</v>
       </c>
       <c r="Z22" s="1">
-        <v>835415</v>
+        <v>10025360</v>
       </c>
       <c r="AA22">
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>104624.0</v>
+        <v>1273952.0</v>
       </c>
       <c r="AC22" s="2">
-        <v>0.62543115558664</v>
+        <v>0.62884594010946</v>
       </c>
       <c r="AD22"/>
     </row>
@@ -2454,11 +2454,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>2205492</v>
+        <v>2205579</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>827095.13754432</v>
+        <v>9925141.6505316</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2483,11 +2483,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>5000</v>
+        <v>576590</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>4000.0</v>
+        <v>461272.0</v>
       </c>
       <c r="S23" s="2">
         <v>0.01</v>
@@ -2496,29 +2496,29 @@
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>114827.0</v>
+        <v>1373871.28</v>
       </c>
       <c r="V23" s="1">
-        <v>5000</v>
+        <v>576590</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>183791</v>
+        <v>2205579</v>
       </c>
       <c r="Y23" s="1">
-        <v>918955</v>
+        <v>11027895</v>
       </c>
       <c r="Z23" s="1">
-        <v>918955</v>
+        <v>11027895</v>
       </c>
       <c r="AA23">
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>115066.0</v>
+        <v>1401548.0</v>
       </c>
       <c r="AC23" s="2">
-        <v>0.62538928534548</v>
+        <v>0.62887965975343</v>
       </c>
       <c r="AD23"/>
     </row>
@@ -2530,11 +2530,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>2426040</v>
+        <v>2426136</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>909804.65129875</v>
+        <v>10917655.815585</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2559,11 +2559,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>5000</v>
+        <v>639249</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>4000.0</v>
+        <v>511399.2</v>
       </c>
       <c r="S24" s="2">
         <v>0.01</v>
@@ -2572,29 +2572,29 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>126313.0</v>
+        <v>1511218.008</v>
       </c>
       <c r="V24" s="1">
-        <v>5000</v>
+        <v>639249</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>202170</v>
+        <v>2426136</v>
       </c>
       <c r="Y24" s="1">
-        <v>1010850</v>
+        <v>12130680</v>
       </c>
       <c r="Z24" s="1">
-        <v>1010850</v>
+        <v>12130680</v>
       </c>
       <c r="AA24">
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>126553.0</v>
+        <v>1541901.0</v>
       </c>
       <c r="AC24" s="2">
-        <v>0.6253545485991</v>
+        <v>0.62890943088461</v>
       </c>
       <c r="AD24"/>
     </row>
@@ -2606,11 +2606,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>2668644</v>
+        <v>2668749</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>1000785.1164286</v>
+        <v>12009421.397143</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2635,11 +2635,11 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>5000</v>
+        <v>708174</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>4000.0</v>
+        <v>566539.2</v>
       </c>
       <c r="S25" s="2">
         <v>0.01</v>
@@ -2648,29 +2648,29 @@
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>138949.0</v>
+        <v>1662298.608</v>
       </c>
       <c r="V25" s="1">
-        <v>5000</v>
+        <v>708174</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>222387</v>
+        <v>2668749</v>
       </c>
       <c r="Y25" s="1">
-        <v>1111935</v>
+        <v>13343745</v>
       </c>
       <c r="Z25" s="1">
-        <v>1111935</v>
+        <v>13343745</v>
       </c>
       <c r="AA25">
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>139188.0</v>
+        <v>1696291.0</v>
       </c>
       <c r="AC25" s="2">
-        <v>0.62531953797841</v>
+        <v>0.62893705077554</v>
       </c>
       <c r="AD25"/>
     </row>
@@ -2682,11 +2682,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>2935500</v>
+        <v>2935623</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>1100863.6280715</v>
+        <v>13210363.536858</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2711,11 +2711,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>5000</v>
+        <v>783991</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>4000.0</v>
+        <v>627192.8</v>
       </c>
       <c r="S26" s="2">
         <v>0.01</v>
@@ -2724,29 +2724,29 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>152847.0</v>
+        <v>1828488.072</v>
       </c>
       <c r="V26" s="1">
-        <v>5000</v>
+        <v>783991</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>244625</v>
+        <v>2935623</v>
       </c>
       <c r="Y26" s="1">
-        <v>1223125</v>
+        <v>14678115</v>
       </c>
       <c r="Z26" s="1">
-        <v>1223125</v>
+        <v>14678115</v>
       </c>
       <c r="AA26">
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>153086.0</v>
+        <v>1866119.0</v>
       </c>
       <c r="AC26" s="2">
-        <v>0.62528745021954</v>
+        <v>0.62896188701664</v>
       </c>
       <c r="AD26"/>
     </row>
@@ -2758,11 +2758,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>3229044</v>
+        <v>3229185</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>1210949.9908787</v>
+        <v>14531399.890543</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2787,11 +2787,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>5000</v>
+        <v>867390</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>4000.0</v>
+        <v>693912.0</v>
       </c>
       <c r="S27" s="2">
         <v>0.01</v>
@@ -2800,29 +2800,29 @@
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>168135.0</v>
+        <v>2011296.88</v>
       </c>
       <c r="V27" s="1">
-        <v>5000</v>
+        <v>867390</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>269087</v>
+        <v>3229185</v>
       </c>
       <c r="Y27" s="1">
-        <v>1345435</v>
+        <v>16145925</v>
       </c>
       <c r="Z27" s="1">
-        <v>1345435</v>
+        <v>16145925</v>
       </c>
       <c r="AA27">
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>168375.0</v>
+        <v>2052931.0</v>
       </c>
       <c r="AC27" s="2">
-        <v>0.62526226665231</v>
+        <v>0.62898471224713</v>
       </c>
       <c r="AD27"/>
     </row>
@@ -2834,11 +2834,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>3551940</v>
+        <v>3552103</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>1332044.9899666</v>
+        <v>15984539.879598</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2863,11 +2863,11 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>5000</v>
+        <v>959129</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>4000.0</v>
+        <v>767303.2</v>
       </c>
       <c r="S28" s="2">
         <v>0.01</v>
@@ -2876,29 +2876,29 @@
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>184952.0</v>
+        <v>2212385.968</v>
       </c>
       <c r="V28" s="1">
-        <v>5000</v>
+        <v>959129</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>295995</v>
+        <v>3552103</v>
       </c>
       <c r="Y28" s="1">
-        <v>1479975</v>
+        <v>17760515</v>
       </c>
       <c r="Z28" s="1">
-        <v>1479975</v>
+        <v>17760515</v>
       </c>
       <c r="AA28">
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>185191.0</v>
+        <v>2258423.0</v>
       </c>
       <c r="AC28" s="2">
-        <v>0.62523337666065</v>
+        <v>0.62900516015159</v>
       </c>
       <c r="AD28"/>
     </row>
@@ -2910,11 +2910,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>3907128</v>
+        <v>3907313</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>1465249.4889632</v>
+        <v>17582993.867558</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2939,11 +2939,11 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>5000</v>
+        <v>1060042</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>4000.0</v>
+        <v>848033.6</v>
       </c>
       <c r="S29" s="2">
         <v>0.01</v>
@@ -2952,29 +2952,29 @@
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>203450.0</v>
+        <v>2433583.664</v>
       </c>
       <c r="V29" s="1">
-        <v>5000</v>
+        <v>1060042</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>325594</v>
+        <v>3907313</v>
       </c>
       <c r="Y29" s="1">
-        <v>1627970</v>
+        <v>19536565</v>
       </c>
       <c r="Z29" s="1">
-        <v>1627970</v>
+        <v>19536565</v>
       </c>
       <c r="AA29">
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>203690.0</v>
+        <v>2484466.0</v>
       </c>
       <c r="AC29" s="2">
-        <v>0.62521102291632</v>
+        <v>0.62902417042438</v>
       </c>
       <c r="AD29"/>
     </row>
@@ -2986,11 +2986,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>4297836</v>
+        <v>4298044</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>1611774.4378596</v>
+        <v>19341293.254314</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -3015,11 +3015,11 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>5000</v>
+        <v>1171046</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>4000.0</v>
+        <v>936836.8</v>
       </c>
       <c r="S30" s="2">
         <v>0.01</v>
@@ -3028,29 +3028,29 @@
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>223799.0</v>
+        <v>2676901.632</v>
       </c>
       <c r="V30" s="1">
-        <v>5000</v>
+        <v>1171046</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>358153</v>
+        <v>4298044</v>
       </c>
       <c r="Y30" s="1">
-        <v>1790765</v>
+        <v>21490220</v>
       </c>
       <c r="Z30" s="1">
-        <v>1790765</v>
+        <v>21490220</v>
       </c>
       <c r="AA30">
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>224038.0</v>
+        <v>2733112.0</v>
       </c>
       <c r="AC30" s="2">
-        <v>0.62518801293696</v>
+        <v>0.62904115335744</v>
       </c>
       <c r="AD30"/>
     </row>
@@ -3062,11 +3062,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>4727616</v>
+        <v>4727848</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>1772951.8816456</v>
+        <v>21275422.579746</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -3091,11 +3091,11 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>5000</v>
+        <v>1293151</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>4000.0</v>
+        <v>1034520.8</v>
       </c>
       <c r="S31" s="2">
         <v>0.01</v>
@@ -3104,29 +3104,29 @@
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>246183.0</v>
+        <v>2944551.792</v>
       </c>
       <c r="V31" s="1">
-        <v>5000</v>
+        <v>1293151</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>393968</v>
+        <v>4727848</v>
       </c>
       <c r="Y31" s="1">
-        <v>1969840</v>
+        <v>23639240</v>
       </c>
       <c r="Z31" s="1">
-        <v>1969840</v>
+        <v>23639240</v>
       </c>
       <c r="AA31">
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>246422.0</v>
+        <v>3006622.0</v>
       </c>
       <c r="AC31" s="2">
-        <v>0.62516997828337</v>
+        <v>0.62905647550132</v>
       </c>
       <c r="AD31"/>
     </row>
@@ -3138,11 +3138,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>5200368</v>
+        <v>5200632</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>1950247.0698101</v>
+        <v>23402964.837721</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -3167,11 +3167,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>5000</v>
+        <v>1427466</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>4000.0</v>
+        <v>1141972.8</v>
       </c>
       <c r="S32" s="2">
         <v>0.01</v>
@@ -3180,29 +3180,29 @@
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>270804.0</v>
+        <v>3238965.272</v>
       </c>
       <c r="V32" s="1">
-        <v>5000</v>
+        <v>1427466</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>433364</v>
+        <v>5200632</v>
       </c>
       <c r="Y32" s="1">
-        <v>2166820</v>
+        <v>26003160</v>
       </c>
       <c r="Z32" s="1">
-        <v>2166820</v>
+        <v>26003160</v>
       </c>
       <c r="AA32">
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>271043.0</v>
+        <v>3307484.0</v>
       </c>
       <c r="AC32" s="2">
-        <v>0.62515107342861</v>
+        <v>0.62907064406023</v>
       </c>
       <c r="AD32"/>
     </row>
@@ -3214,11 +3214,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>5720400</v>
+        <v>5720695</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>2145271.776791</v>
+        <v>25743261.321493</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -3243,11 +3243,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>5000</v>
+        <v>1575213</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>4000.0</v>
+        <v>1260170.4</v>
       </c>
       <c r="S33" s="2">
         <v>0.01</v>
@@ -3256,29 +3256,29 @@
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>297888.0</v>
+        <v>3562822.296</v>
       </c>
       <c r="V33" s="1">
-        <v>5000</v>
+        <v>1575213</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>476700</v>
+        <v>5720695</v>
       </c>
       <c r="Y33" s="1">
-        <v>2383500</v>
+        <v>28603475</v>
       </c>
       <c r="Z33" s="1">
-        <v>2383500</v>
+        <v>28603475</v>
       </c>
       <c r="AA33">
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>298127.0</v>
+        <v>3638432.0</v>
       </c>
       <c r="AC33" s="2">
-        <v>0.62513524847977</v>
+        <v>0.62908342162048</v>
       </c>
       <c r="AD33"/>
     </row>
@@ -3290,11 +3290,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>6292440</v>
+        <v>6292764</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>2359798.9544701</v>
+        <v>28317587.453642</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -3319,11 +3319,11 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>5000</v>
+        <v>1737734</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>4000.0</v>
+        <v>1390187.2</v>
       </c>
       <c r="S34" s="2">
         <v>0.01</v>
@@ -3332,29 +3332,29 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>327681.0</v>
+        <v>3919064.128</v>
       </c>
       <c r="V34" s="1">
-        <v>5000</v>
+        <v>1737734</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>524370</v>
+        <v>6292764</v>
       </c>
       <c r="Y34" s="1">
-        <v>2621850</v>
+        <v>31463820</v>
       </c>
       <c r="Z34" s="1">
-        <v>2621850</v>
+        <v>31463820</v>
       </c>
       <c r="AA34">
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>327920.0</v>
+        <v>4002474.0</v>
       </c>
       <c r="AC34" s="2">
-        <v>0.62512152810874</v>
+        <v>0.62909494350931</v>
       </c>
       <c r="AD34"/>
     </row>
@@ -3366,11 +3366,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>6921684</v>
+        <v>6922040</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>2595778.8499171</v>
+        <v>31149346.199006</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -3395,11 +3395,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>5000</v>
+        <v>1916507</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>4000.0</v>
+        <v>1533205.6</v>
       </c>
       <c r="S35" s="2">
         <v>0.01</v>
@@ -3408,29 +3408,29 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>360453.0</v>
+        <v>4310929.944</v>
       </c>
       <c r="V35" s="1">
-        <v>5000</v>
+        <v>1916507</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>576807</v>
+        <v>6922040</v>
       </c>
       <c r="Y35" s="1">
-        <v>2884035</v>
+        <v>34610200</v>
       </c>
       <c r="Z35" s="1">
-        <v>2884035</v>
+        <v>34610200</v>
       </c>
       <c r="AA35">
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>360692.0</v>
+        <v>4402921.0</v>
       </c>
       <c r="AC35" s="2">
-        <v>0.62510853421189</v>
+        <v>0.62910552300434</v>
       </c>
       <c r="AD35"/>
     </row>
@@ -3442,11 +3442,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>7613844</v>
+        <v>7614244</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>2855356.7349089</v>
+        <v>34264280.818907</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3471,11 +3471,11 @@
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>5000</v>
+        <v>2113158</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>4000.0</v>
+        <v>1690526.4</v>
       </c>
       <c r="S36" s="2">
         <v>0.01</v>
@@ -3484,29 +3484,29 @@
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>396501.0</v>
+        <v>4741982.736</v>
       </c>
       <c r="V36" s="1">
-        <v>5000</v>
+        <v>2113158</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>634487</v>
+        <v>7614244</v>
       </c>
       <c r="Y36" s="1">
-        <v>3172435</v>
+        <v>38071220</v>
       </c>
       <c r="Z36" s="1">
-        <v>3172435</v>
+        <v>38071220</v>
       </c>
       <c r="AA36">
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>396741.0</v>
+        <v>4843413.0</v>
       </c>
       <c r="AC36" s="2">
-        <v>0.62509709510357</v>
+        <v>0.62911514419617</v>
       </c>
       <c r="AD36"/>
     </row>
@@ -3518,11 +3518,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>8375220</v>
+        <v>8375668</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>3140892.4083997</v>
+        <v>37690708.900798</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3547,42 +3547,42 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>5000</v>
+        <v>2329474</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>4000.0</v>
+        <v>1863579.2</v>
       </c>
       <c r="S37" s="2">
         <v>0.01</v>
       </c>
       <c r="T37" s="1">
-        <v>0.0</v>
+        <v>1635.792</v>
       </c>
       <c r="U37" s="6">
-        <v>436154.0</v>
+        <v>5216140.208</v>
       </c>
       <c r="V37" s="1">
-        <v>5000</v>
+        <v>2329474</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>697935</v>
+        <v>8375668</v>
       </c>
       <c r="Y37" s="1">
-        <v>3489675</v>
+        <v>41878340</v>
       </c>
       <c r="Z37" s="1">
-        <v>3489675</v>
+        <v>41878340</v>
       </c>
       <c r="AA37">
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>436394.0</v>
+        <v>5327955.0</v>
       </c>
       <c r="AC37" s="2">
-        <v>0.62508540611773</v>
+        <v>0.62912401477615</v>
       </c>
       <c r="AD37"/>
     </row>
@@ -3594,11 +3594,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>9212736</v>
+        <v>9213234</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>3454981.6492397</v>
+        <v>41459779.790878</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3623,42 +3623,42 @@
         <v>0</v>
       </c>
       <c r="P38" s="6">
-        <v>5000</v>
+        <v>2567421</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>4000.0</v>
+        <v>2053936.8</v>
       </c>
       <c r="S38" s="2">
         <v>0.01</v>
       </c>
       <c r="T38" s="1">
-        <v>0.0</v>
+        <v>3539.368</v>
       </c>
       <c r="U38" s="6">
-        <v>479773.0</v>
+        <v>5737713.632</v>
       </c>
       <c r="V38" s="1">
-        <v>5000</v>
+        <v>2567421</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
-        <v>767728</v>
+        <v>9213234</v>
       </c>
       <c r="Y38" s="1">
-        <v>3838640</v>
+        <v>46066170</v>
       </c>
       <c r="Z38" s="1">
-        <v>3838640</v>
+        <v>46066170</v>
       </c>
       <c r="AA38">
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>480013.0</v>
+        <v>5860949.0</v>
       </c>
       <c r="AC38" s="2">
-        <v>0.62507552791408</v>
+        <v>0.62913187105627</v>
       </c>
       <c r="AD38"/>
     </row>
@@ -3670,11 +3670,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>10134000</v>
+        <v>10134557</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>3800479.8141636</v>
+        <v>45605757.769966</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3699,42 +3699,42 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>5000</v>
+        <v>2829163</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>4000.0</v>
+        <v>2263330.4</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
       </c>
       <c r="T39" s="1">
-        <v>0.0</v>
+        <v>5633.304</v>
       </c>
       <c r="U39" s="6">
-        <v>527754.0</v>
+        <v>6311444.696</v>
       </c>
       <c r="V39" s="1">
-        <v>5000</v>
+        <v>2829163</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>844500</v>
+        <v>10134557</v>
       </c>
       <c r="Y39" s="1">
-        <v>4222500</v>
+        <v>50672785</v>
       </c>
       <c r="Z39" s="1">
-        <v>4222500</v>
+        <v>50672785</v>
       </c>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>527993.0</v>
+        <v>6447244.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>0.62506570380017</v>
+        <v>0.62913914367588</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3746,11 +3746,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>11147400</v>
+        <v>11148012</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>4180527.79558</v>
+        <v>50166333.546962</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3775,42 +3775,42 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>5000</v>
+        <v>3117079</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>4000.0</v>
+        <v>2493663.2</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
       </c>
       <c r="T40" s="11">
-        <v>0.0</v>
+        <v>7936.632</v>
       </c>
       <c r="U40" s="11">
-        <v>580533.0</v>
+        <v>6942548.368</v>
       </c>
       <c r="V40" s="11">
-        <v>5000</v>
+        <v>3117079</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>928950</v>
+        <v>11148012</v>
       </c>
       <c r="Y40" s="11">
-        <v>4644750</v>
+        <v>55740060</v>
       </c>
       <c r="Z40" s="11">
-        <v>4644750</v>
+        <v>55740060</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>580773.0</v>
+        <v>7092167.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>0.62505838669752</v>
+        <v>0.62914563902746</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3822,11 +3822,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>12262140</v>
+        <v>12262813</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>4598580.5751379</v>
+        <v>55182966.901658</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3851,42 +3851,42 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>5000</v>
+        <v>3433787</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>4000.0</v>
+        <v>2747029.6</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
       </c>
       <c r="T41" s="1">
-        <v>0.0</v>
+        <v>10470.296</v>
       </c>
       <c r="U41" s="6">
-        <v>638590.0</v>
+        <v>7636762.704</v>
       </c>
       <c r="V41" s="1">
-        <v>5000</v>
+        <v>3433787</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>1021845</v>
+        <v>12262813</v>
       </c>
       <c r="Y41" s="1">
-        <v>5109225</v>
+        <v>61314065</v>
       </c>
       <c r="Z41" s="1">
-        <v>5109225</v>
+        <v>61314065</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>638830.0</v>
+        <v>7801583.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.62505075608217</v>
+        <v>0.62915157396364</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3898,11 +3898,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>13488348</v>
+        <v>13489094</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>5058438.6326518</v>
+        <v>60701263.591824</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>5000</v>
+        <v>3782166</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>4000.0</v>
+        <v>3025732.8</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
       </c>
       <c r="T42" s="1">
-        <v>0.0</v>
+        <v>13257.328</v>
       </c>
       <c r="U42" s="6">
-        <v>702453.0</v>
+        <v>8400398.672</v>
       </c>
       <c r="V42" s="1">
-        <v>5000</v>
+        <v>3782166</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>1124029</v>
+        <v>13489094</v>
       </c>
       <c r="Y42" s="1">
-        <v>5620145</v>
+        <v>67445470</v>
       </c>
       <c r="Z42" s="1">
-        <v>5620145</v>
+        <v>67445470</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>702692.0</v>
+        <v>8581942.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>0.62504347423879</v>
+        <v>0.62915707607409</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3974,11 +3974,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>14837172</v>
+        <v>14838003</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>5564282.495917</v>
+        <v>66771389.951006</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -4003,42 +4003,42 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>5000</v>
+        <v>4165383</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>4000.0</v>
+        <v>3332306.4</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>0.0</v>
+        <v>16323.064</v>
       </c>
       <c r="U43" s="6">
-        <v>772701.0</v>
+        <v>9240397.936</v>
       </c>
       <c r="V43" s="1">
-        <v>5000</v>
+        <v>4165383</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>1236431</v>
+        <v>14838003</v>
       </c>
       <c r="Y43" s="1">
-        <v>6182155</v>
+        <v>74190015</v>
       </c>
       <c r="Z43" s="1">
-        <v>6182155</v>
+        <v>74190015</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>772941.0</v>
+        <v>9440336.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0.62503770324373</v>
+        <v>0.62916202189674</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -4050,11 +4050,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>16320888</v>
+        <v>16321803</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>6120710.7455087</v>
+        <v>73448528.946107</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -4079,42 +4079,42 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>5000</v>
+        <v>4586921</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>4000.0</v>
+        <v>3669536.8</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>0.0</v>
+        <v>19695.368</v>
       </c>
       <c r="U44" s="6">
-        <v>849975.0</v>
+        <v>10164397.632</v>
       </c>
       <c r="V44" s="1">
-        <v>5000</v>
+        <v>4586921</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>1360074</v>
+        <v>16321803</v>
       </c>
       <c r="Y44" s="1">
-        <v>6800370</v>
+        <v>81609015</v>
       </c>
       <c r="Z44" s="1">
-        <v>6800370</v>
+        <v>81609015</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>850215.0</v>
+        <v>10384569.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>0.62503216263782</v>
+        <v>0.6291664910057</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -4126,11 +4126,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>17952972</v>
+        <v>17953983</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>6732781.8200596</v>
+        <v>80793381.840718</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -4155,42 +4155,42 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>5000</v>
+        <v>5050613</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>4000.0</v>
+        <v>4040490.4</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>0.0</v>
+        <v>23404.904</v>
       </c>
       <c r="U45" s="6">
-        <v>934976.0</v>
+        <v>11180797.096</v>
       </c>
       <c r="V45" s="1">
-        <v>5000</v>
+        <v>5050613</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>1496081</v>
+        <v>17953983</v>
       </c>
       <c r="Y45" s="1">
-        <v>7480405</v>
+        <v>89769915</v>
       </c>
       <c r="Z45" s="1">
-        <v>7480405</v>
+        <v>89769915</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>935216.0</v>
+        <v>11423226.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0.62502698356793</v>
+        <v>0.62917059201571</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -4202,11 +4202,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>19748268</v>
+        <v>19749381</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>7406060.0020655</v>
+        <v>88872720.02479</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -4231,42 +4231,42 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>5000</v>
+        <v>5560674</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>4000.0</v>
+        <v>4448539.2</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>0.0</v>
+        <v>27485.392</v>
       </c>
       <c r="U46" s="6">
-        <v>1028478.0</v>
+        <v>12298835.608</v>
       </c>
       <c r="V46" s="1">
-        <v>5000</v>
+        <v>5560674</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>1645689</v>
+        <v>19749381</v>
       </c>
       <c r="Y46" s="1">
-        <v>8228445</v>
+        <v>98746905</v>
       </c>
       <c r="Z46" s="1">
-        <v>8228445</v>
+        <v>98746905</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>1028717.0</v>
+        <v>12565748.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0.62502210051832</v>
+        <v>0.62917428533095</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -4278,11 +4278,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>21723084</v>
+        <v>21724319</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>8146666.002272</v>
+        <v>97759992.027269</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -4307,42 +4307,42 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>5000</v>
+        <v>6121741</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>4000.0</v>
+        <v>4897392.8</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>0.0</v>
+        <v>31973.928</v>
       </c>
       <c r="U47" s="6">
-        <v>1131329.0</v>
+        <v>13528679.072</v>
       </c>
       <c r="V47" s="1">
-        <v>5000</v>
+        <v>6121741</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>1810257</v>
+        <v>21724319</v>
       </c>
       <c r="Y47" s="1">
-        <v>9051285</v>
+        <v>108621595</v>
       </c>
       <c r="Z47" s="1">
-        <v>9051285</v>
+        <v>108621595</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>1131568.0</v>
+        <v>13822523.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>0.62501788222532</v>
+        <v>0.62917767362755</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -4354,11 +4354,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>23895384</v>
+        <v>23896750</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>8961332.6024993</v>
+        <v>107535991.23</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -4383,42 +4383,42 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>5000</v>
+        <v>6738915</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>4000.0</v>
+        <v>5391132.0</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>0.0</v>
+        <v>36911.32</v>
       </c>
       <c r="U48" s="6">
-        <v>1244465.0</v>
+        <v>14881506.68</v>
       </c>
       <c r="V48" s="1">
-        <v>5000</v>
+        <v>6738915</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>1991282</v>
+        <v>23896750</v>
       </c>
       <c r="Y48" s="1">
-        <v>9956410</v>
+        <v>119483750</v>
       </c>
       <c r="Z48" s="1">
-        <v>9956410</v>
+        <v>119483750</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>1244704.0</v>
+        <v>15204974.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>0.62501393434638</v>
+        <v>0.62918071228973</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4430,11 +4430,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>26284920</v>
+        <v>26286425</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>9857465.8627492</v>
+        <v>118289590.353</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4459,42 +4459,42 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>5000</v>
+        <v>7417807</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>4000.0</v>
+        <v>5934245.6</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>0.0</v>
+        <v>42342.456</v>
       </c>
       <c r="U49" s="6">
-        <v>1368915.0</v>
+        <v>16369617.544</v>
       </c>
       <c r="V49" s="1">
-        <v>5000</v>
+        <v>7417807</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>2190410</v>
+        <v>26286425</v>
       </c>
       <c r="Y49" s="1">
-        <v>10952050</v>
+        <v>131432125</v>
       </c>
       <c r="Z49" s="1">
-        <v>10952050</v>
+        <v>131432125</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>1369155.0</v>
+        <v>16725671.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>0.62501084172902</v>
+        <v>0.62918348665278</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4506,11 +4506,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>28913412</v>
+        <v>28915067</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>10843212.449024</v>
+        <v>130118549.3883</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4535,42 +4535,42 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>5000</v>
+        <v>8164588</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>4000.0</v>
+        <v>6531670.4</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>0.0</v>
+        <v>48316.704</v>
       </c>
       <c r="U50" s="6">
-        <v>1505810.0</v>
+        <v>18006538.296</v>
       </c>
       <c r="V50" s="1">
-        <v>5000</v>
+        <v>8164588</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>2409451</v>
+        <v>28915067</v>
       </c>
       <c r="Y50" s="1">
-        <v>12047255</v>
+        <v>144575335</v>
       </c>
       <c r="Z50" s="1">
-        <v>12047255</v>
+        <v>144575335</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>1506050.0</v>
+        <v>18398439.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>0.62500752183615</v>
+        <v>0.62918606415244</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4582,11 +4582,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>31804752</v>
+        <v>31806573</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>11927533.693926</v>
+        <v>143130404.32714</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4611,42 +4611,42 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>5000</v>
+        <v>8986047</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>4000.0</v>
+        <v>7188837.6</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>0.0</v>
+        <v>54888.376</v>
       </c>
       <c r="U51" s="6">
-        <v>1656395.0</v>
+        <v>19807151.624</v>
       </c>
       <c r="V51" s="1">
-        <v>5000</v>
+        <v>8986047</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>2650396</v>
+        <v>31806573</v>
       </c>
       <c r="Y51" s="1">
-        <v>13251980</v>
+        <v>159032865</v>
       </c>
       <c r="Z51" s="1">
-        <v>13251980</v>
+        <v>159032865</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>1656635.0</v>
+        <v>20238481.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>0.62500471592049</v>
+        <v>0.62918832424541</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4658,11 +4658,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>34985220</v>
+        <v>34987230</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>13120287.063319</v>
+        <v>157443444.75985</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4687,42 +4687,42 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>5000</v>
+        <v>9889652</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>4000.0</v>
+        <v>7911721.6</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>0.0</v>
+        <v>62117.216</v>
       </c>
       <c r="U52" s="6">
-        <v>1822038.0</v>
+        <v>21787825.784</v>
       </c>
       <c r="V52" s="1">
-        <v>5000</v>
+        <v>9889652</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>2915435</v>
+        <v>34987230</v>
       </c>
       <c r="Y52" s="1">
-        <v>14577175</v>
+        <v>174936150</v>
       </c>
       <c r="Z52" s="1">
-        <v>14577175</v>
+        <v>174936150</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>1822278.0</v>
+        <v>22262529.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>0.62500210074306</v>
+        <v>0.62919042253914</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4734,11 +4734,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>250.0</v>
+        <v>544181.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>14432315.769652</v>
+        <v>173187789.23584</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4763,23 +4763,23 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>4750.0</v>
+        <v>10339436.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>3800.0</v>
+        <v>8271548.8</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>0.0</v>
+        <v>65715.488</v>
       </c>
       <c r="U53" s="13">
-        <v>-1202730.0</v>
+        <v>-14515030.488</v>
       </c>
       <c r="V53" s="13">
-        <v>4750.0</v>
+        <v>10339436.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4795,10 +4795,10 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>-1202503.0</v>
+        <v>-14018739.0</v>
       </c>
       <c r="AC53" s="14">
-        <v>-6328.9631578947</v>
+        <v>-33.896285542074</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4810,11 +4810,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>263.0</v>
+        <v>598862.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>15875547.346616</v>
+        <v>190506568.15942</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4839,23 +4839,23 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>4737.0</v>
+        <v>10779518.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>3789.6</v>
+        <v>8623614.4</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>0.0</v>
+        <v>69236.144</v>
       </c>
       <c r="U54" s="6">
-        <v>-1322999.896</v>
+        <v>-15961783.144</v>
       </c>
       <c r="V54" s="1">
-        <v>4737.0</v>
+        <v>10779518.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -4871,10 +4871,10 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>-1322773.0</v>
+        <v>-15444366.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>-6981.0692421364</v>
+        <v>-35.818776869244</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -4886,11 +4886,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>278.0</v>
+        <v>659026.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>17463102.081278</v>
+        <v>209557224.97536</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4915,23 +4915,23 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>4722.0</v>
+        <v>11203444.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>3777.6</v>
+        <v>8962755.2</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>0.0</v>
+        <v>72627.552</v>
       </c>
       <c r="U55" s="6">
-        <v>-1455295.776</v>
+        <v>-17552729.552</v>
       </c>
       <c r="V55" s="1">
-        <v>4722.0</v>
+        <v>11203444.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -4947,10 +4947,10 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>-1455070.0</v>
+        <v>-17014964.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>-7703.6742905548</v>
+        <v>-37.968155149434</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -4962,11 +4962,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>294.0</v>
+        <v>725223.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>19209412.289406</v>
+        <v>230512947.4729</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4991,23 +4991,23 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>4706.0</v>
+        <v>11603565.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>3764.8</v>
+        <v>9282852.0</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>0.0</v>
+        <v>75828.52</v>
       </c>
       <c r="U56" s="6">
-        <v>-1600821.648</v>
+        <v>-19302240.52</v>
       </c>
       <c r="V56" s="1">
-        <v>4706.0</v>
+        <v>11603565.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -5023,10 +5023,10 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>-1600596.0</v>
+        <v>-18745269.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>-8502.9536761581</v>
+        <v>-40.386874637234</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -5038,11 +5038,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>313.0</v>
+        <v>798058.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>21130353.518347</v>
+        <v>253564242.22019</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -5067,23 +5067,23 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>4687.0</v>
+        <v>11970864.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>3749.6</v>
+        <v>9576691.2</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>0.0</v>
+        <v>78766.912</v>
       </c>
       <c r="U57" s="13">
-        <v>-1760899.496</v>
+        <v>-21226119.912</v>
       </c>
       <c r="V57" s="13">
-        <v>4687.0</v>
+        <v>11970864.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -5099,10 +5099,10 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>-1760676.0</v>
+        <v>-20651519.0</v>
       </c>
       <c r="AC57" s="14">
-        <v>-9391.2737358652</v>
+        <v>-43.128714435316</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -5114,11 +5114,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>333.0</v>
+        <v>878197.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>23243388.870182</v>
+        <v>278920666.44221</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -5143,23 +5143,23 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>4667.0</v>
+        <v>12294753.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>3733.6</v>
+        <v>9835802.4</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>0.0</v>
+        <v>81358.024</v>
       </c>
       <c r="U58" s="6">
-        <v>-1936986.336</v>
+        <v>-23341746.024</v>
       </c>
       <c r="V58" s="1">
-        <v>4667.0</v>
+        <v>12294753.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -5175,10 +5175,10 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>-1936762.0</v>
+        <v>-22751599.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>-10374.76965931</v>
+        <v>-46.262822441411</v>
       </c>
       <c r="AD58"/>
     </row>
@@ -5190,11 +5190,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>357.0</v>
+        <v>966373.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>25567727.7572</v>
+        <v>306812733.08642</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -5219,23 +5219,23 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>4643.0</v>
+        <v>12562855.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>3714.4</v>
+        <v>10050284.0</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>0.0</v>
+        <v>83502.84</v>
       </c>
       <c r="U59" s="6">
-        <v>-2130680.144</v>
+        <v>-25668229.84</v>
       </c>
       <c r="V59" s="1">
-        <v>4643.0</v>
+        <v>12562855.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -5251,10 +5251,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>-2130458.0</v>
+        <v>-25065214.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>-11471.343958647</v>
+        <v>-49.87961335222</v>
       </c>
       <c r="AD59"/>
     </row>
@@ -5266,11 +5266,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>385.0</v>
+        <v>1063395.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>28124500.532921</v>
+        <v>337494006.39506</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -5295,23 +5295,23 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>4615.0</v>
+        <v>12760746.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>3692.0</v>
+        <v>10208596.8</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>0.0</v>
+        <v>85085.968</v>
       </c>
       <c r="U60" s="6">
-        <v>-2343744.92</v>
+        <v>-28226585.968</v>
       </c>
       <c r="V60" s="1">
-        <v>4615.0</v>
+        <v>12760746.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -5327,10 +5327,10 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>-2343523.0</v>
+        <v>-27614071.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>-12695.14084507</v>
+        <v>-54.099640804699</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -5342,11 +5342,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>417.0</v>
+        <v>1170152.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>30936950.586212</v>
+        <v>371243407.03457</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5371,23 +5371,23 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>4583.0</v>
+        <v>12871669.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>3666.4</v>
+        <v>10297335.2</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>0.0</v>
+        <v>85973.352</v>
       </c>
       <c r="U61" s="6">
-        <v>-2578115.664</v>
+        <v>-31039923.352</v>
       </c>
       <c r="V61" s="1">
-        <v>4583.0</v>
+        <v>12871669.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -5403,10 +5403,10 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>-2577896.0</v>
+        <v>-30422084.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>-14062.2736199</v>
+        <v>-59.087294740099</v>
       </c>
       <c r="AD61"/>
     </row>
@@ -5418,11 +5418,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>455.0</v>
+        <v>1287621.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>34030645.644834</v>
+        <v>408367747.73802</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5447,23 +5447,23 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>4545.0</v>
+        <v>12876215.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>3636.0</v>
+        <v>10300972.0</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>0.0</v>
+        <v>86009.72</v>
       </c>
       <c r="U62" s="6">
-        <v>-2835923.36</v>
+        <v>-34133654.72</v>
       </c>
       <c r="V62" s="1">
-        <v>4545.0</v>
+        <v>12876215.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -5479,10 +5479,10 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>-2835705.0</v>
+        <v>-33515597.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>-15597.937293729</v>
+        <v>-65.072688286115</v>
       </c>
       <c r="AD62"/>
     </row>
@@ -5494,11 +5494,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>500.0</v>
+        <v>1416884.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>37433710.209318</v>
+        <v>449204522.51183</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5523,23 +5523,23 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>4500.0</v>
+        <v>12751953.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>3600.0</v>
+        <v>10201562.4</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>0.0</v>
+        <v>85015.624</v>
       </c>
       <c r="U63" s="6">
-        <v>-3119511.0</v>
+        <v>-37535725.624</v>
       </c>
       <c r="V63" s="1">
-        <v>4500.0</v>
+        <v>12751953.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -5555,10 +5555,10 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>-3119296.0</v>
+        <v>-36923632.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>-17329.422222222</v>
+        <v>-72.388190263876</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5570,11 +5570,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>556.0</v>
+        <v>1559128.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>41177081.23025</v>
+        <v>494124974.76301</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5599,23 +5599,23 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>4444.0</v>
+        <v>12473020.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>3555.2</v>
+        <v>9978416.0</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>0.0</v>
+        <v>82784.16</v>
       </c>
       <c r="U64" s="6">
-        <v>-3431458.552</v>
+        <v>-41276865.16</v>
       </c>
       <c r="V64" s="1">
-        <v>4444.0</v>
+        <v>12473020.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -5631,10 +5631,10 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>-3431245.0</v>
+        <v>-40678160.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>-19302.683393339</v>
+        <v>-81.532299314841</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5646,11 +5646,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>625.0</v>
+        <v>1715665.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>45294789.353275</v>
+        <v>543537472.23931</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5675,23 +5675,23 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>4375.0</v>
+        <v>12009657.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>3500.0</v>
+        <v>9607725.6</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>0.0</v>
+        <v>79077.256</v>
       </c>
       <c r="U65" s="6">
-        <v>-3774600.0</v>
+        <v>-45390866.256</v>
       </c>
       <c r="V65" s="1">
-        <v>4375.0</v>
+        <v>12009657.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -5707,10 +5707,10 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>-3774391.0</v>
+        <v>-44814403.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>-21567.948571429</v>
+        <v>-93.288265851389</v>
       </c>
       <c r="AD65"/>
     </row>
@@ -5722,11 +5722,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>714.0</v>
+        <v>1887946.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>49824268.288603</v>
+        <v>597891219.46325</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5751,23 +5751,23 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>4286.0</v>
+        <v>11327677.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>3428.8</v>
+        <v>9062141.6</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
       </c>
       <c r="T66" s="1">
-        <v>0.0</v>
+        <v>73621.416</v>
       </c>
       <c r="U66" s="6">
-        <v>-4152056.288</v>
+        <v>-49914889.416</v>
       </c>
       <c r="V66" s="1">
-        <v>4286.0</v>
+        <v>11327677.0</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -5783,10 +5783,10 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>-4151851.0</v>
+        <v>-49371161.0</v>
       </c>
       <c r="AC66" s="2">
-        <v>-24217.516332245</v>
+        <v>-108.96135412406</v>
       </c>
       <c r="AD66"/>
     </row>
@@ -5798,11 +5798,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>833.0</v>
+        <v>2077574.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>54806695.117464</v>
+        <v>657680341.40957</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5827,23 +5827,23 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>4167.0</v>
+        <v>10387871.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>3333.6</v>
+        <v>8310296.8</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
       </c>
       <c r="T67" s="1">
-        <v>0.0</v>
+        <v>66102.968</v>
       </c>
       <c r="U67" s="6">
-        <v>-4567257.336</v>
+        <v>-54889797.968</v>
       </c>
       <c r="V67" s="1">
-        <v>4167.0</v>
+        <v>10387871.0</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -5859,10 +5859,10 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>-4567058.0</v>
+        <v>-54391180.0</v>
       </c>
       <c r="AC67" s="2">
-        <v>-27400.155987521</v>
+        <v>-130.90069177794</v>
       </c>
       <c r="AD67"/>
     </row>
@@ -5874,11 +5874,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>1000.0</v>
+        <v>2286332.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>60287364.62921</v>
+        <v>723448375.55052</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5903,23 +5903,23 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>4000.0</v>
+        <v>9145326.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>3200.0</v>
+        <v>7316260.8</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
       </c>
       <c r="T68" s="1">
-        <v>0.0</v>
+        <v>56162.608</v>
       </c>
       <c r="U68" s="6">
-        <v>-5023979.0</v>
+        <v>-60360526.608</v>
       </c>
       <c r="V68" s="1">
-        <v>4000.0</v>
+        <v>9145326.0</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -5935,10 +5935,10 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>-5023787.0</v>
+        <v>-59921552.0</v>
       </c>
       <c r="AC68" s="2">
-        <v>-31398.66875</v>
+        <v>-163.8037616155</v>
       </c>
       <c r="AD68"/>
     </row>
@@ -5950,11 +5950,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>1250.0</v>
+        <v>2516215.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>66316101.092131</v>
+        <v>795793213.10557</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5979,23 +5979,23 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>3750.0</v>
+        <v>7548644.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>3000.0</v>
+        <v>6038915.2</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
       </c>
       <c r="T69" s="1">
-        <v>0.0</v>
+        <v>43389.152</v>
       </c>
       <c r="U69" s="6">
-        <v>-5526371.0</v>
+        <v>-66376490.152</v>
       </c>
       <c r="V69" s="1">
-        <v>3750.0</v>
+        <v>7548644.0</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -6011,10 +6011,10 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>-5526192.0</v>
+        <v>-66014155.0</v>
       </c>
       <c r="AC69" s="2">
-        <v>-36841.28</v>
+        <v>-218.62918359907</v>
       </c>
       <c r="AD69"/>
     </row>
@@ -6026,11 +6026,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>1667.0</v>
+        <v>2769503.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>72947711.201345</v>
+        <v>875372534.41613</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -6055,23 +6055,23 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>3333.0</v>
+        <v>5539005.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>2666.4</v>
+        <v>4431204.0</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
       </c>
       <c r="T70" s="1">
-        <v>0.0</v>
+        <v>27312.04</v>
       </c>
       <c r="U70" s="6">
-        <v>-6079001.664</v>
+        <v>-72992023.04</v>
       </c>
       <c r="V70" s="1">
-        <v>3333.0</v>
+        <v>5539005.0</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -6087,10 +6087,10 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>-6078843.0</v>
+        <v>-72726151.0</v>
       </c>
       <c r="AC70" s="2">
-        <v>-45595.882088209</v>
+        <v>-328.24555583539</v>
       </c>
       <c r="AD70"/>
     </row>
@@ -6102,11 +6102,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>2500.0</v>
+        <v>3048953.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>80242482.321479</v>
+        <v>962909787.85774</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -6131,23 +6131,23 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>2500.0</v>
+        <v>3048953.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>2000.0</v>
+        <v>2439162.4</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
       </c>
       <c r="T71" s="1">
-        <v>0.0</v>
+        <v>7391.624</v>
       </c>
       <c r="U71" s="6">
-        <v>-6686893.0</v>
+        <v>-80266873.624</v>
       </c>
       <c r="V71" s="1">
-        <v>2500.0</v>
+        <v>3048953.0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -6163,10 +6163,10 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>-6686774.0</v>
+        <v>-80120524.0</v>
       </c>
       <c r="AC71" s="2">
-        <v>-66867.74</v>
+        <v>-656.95112387761</v>
       </c>
       <c r="AD71"/>
     </row>
@@ -6178,11 +6178,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>5000.0</v>
+        <v>3358848.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>88266730.553627</v>
+        <v>1059200766.6435</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -6218,7 +6218,7 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-7355560.0</v>
+        <v>-88266730.0</v>
       </c>
       <c r="V72" s="5">
         <v>0.0</v>
@@ -6237,7 +6237,7 @@
         <v>0.0</v>
       </c>
       <c r="AB72" s="15">
-        <v>-7355561.0</v>
+        <v>-88266731.0</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15"/>
@@ -6499,7 +6499,7 @@
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6515,11 +6515,11 @@
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -6745,7 +6745,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F7" s="2">
         <v>0.1</v>
@@ -6775,24 +6775,24 @@
         <v>0.0</v>
       </c>
       <c r="U7" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y7" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7">
         <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
@@ -6813,7 +6813,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="8">
-        <v>198000</v>
+        <v>2376000</v>
       </c>
       <c r="F8" s="9">
         <v>0.1</v>
@@ -6843,24 +6843,24 @@
         <v>0.0</v>
       </c>
       <c r="U8" s="8">
-        <v>27500.0</v>
+        <v>330000.0</v>
       </c>
       <c r="V8" s="8">
         <v>0</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="8">
-        <v>44000</v>
+        <v>528000</v>
       </c>
       <c r="Y8" s="8">
-        <v>220000</v>
+        <v>2640000</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="7">
         <v>0.0</v>
       </c>
       <c r="AB8" s="7">
-        <v>27500.0</v>
+        <v>330000.0</v>
       </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="7" t="s">
@@ -6881,7 +6881,7 @@
         <v>0.1</v>
       </c>
       <c r="E9" s="5">
-        <v>217800</v>
+        <v>2613600</v>
       </c>
       <c r="F9" s="2">
         <v>0.1</v>
@@ -6911,24 +6911,24 @@
         <v>0.0</v>
       </c>
       <c r="U9" s="6">
-        <v>30250.0</v>
+        <v>363000.0</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>48400</v>
+        <v>580800</v>
       </c>
       <c r="Y9" s="1">
-        <v>242000</v>
+        <v>2904000</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9">
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>30250.0</v>
+        <v>363000.0</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
@@ -6949,7 +6949,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="5">
-        <v>239580</v>
+        <v>2874960</v>
       </c>
       <c r="F10" s="2">
         <v>0.1</v>
@@ -6979,24 +6979,24 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="6">
-        <v>33275.0</v>
+        <v>399300.0</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>53240</v>
+        <v>638880</v>
       </c>
       <c r="Y10" s="1">
-        <v>266200</v>
+        <v>3194400</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10">
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>33275.0</v>
+        <v>399300.0</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
@@ -7017,7 +7017,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="5">
-        <v>263538.0</v>
+        <v>3162456</v>
       </c>
       <c r="F11" s="2">
         <v>0.1</v>
@@ -7047,24 +7047,24 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="6">
-        <v>36603.0</v>
+        <v>439230.0</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>58564</v>
+        <v>702768</v>
       </c>
       <c r="Y11" s="1">
-        <v>292820</v>
+        <v>3513840</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11">
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>36603.0</v>
+        <v>439230.0</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
@@ -7079,13 +7079,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>773040</v>
+        <v>773044</v>
       </c>
       <c r="D12" s="2">
         <v>0.1</v>
       </c>
       <c r="E12" s="5">
-        <v>289891.8</v>
+        <v>3478701.6</v>
       </c>
       <c r="F12" s="2">
         <v>0.1</v>
@@ -7115,24 +7115,24 @@
         <v>0.0</v>
       </c>
       <c r="U12" s="6">
-        <v>40263.0</v>
+        <v>483153.0</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>64420</v>
+        <v>773044</v>
       </c>
       <c r="Y12" s="1">
-        <v>322100</v>
+        <v>3865220</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12">
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>40262.0</v>
+        <v>483152.0</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
@@ -7147,13 +7147,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>850344</v>
+        <v>850348</v>
       </c>
       <c r="D13" s="2">
         <v>0.1</v>
       </c>
       <c r="E13" s="5">
-        <v>318880.98</v>
+        <v>3826571.76</v>
       </c>
       <c r="F13" s="2">
         <v>0.1</v>
@@ -7183,24 +7183,24 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="6">
-        <v>44289.0</v>
+        <v>531468.0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>70862</v>
+        <v>850348</v>
       </c>
       <c r="Y13" s="1">
-        <v>354310</v>
+        <v>4251740</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13">
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>44289.0</v>
+        <v>531467.0</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
@@ -7215,13 +7215,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>935376</v>
+        <v>935382</v>
       </c>
       <c r="D14" s="2">
         <v>0.1</v>
       </c>
       <c r="E14" s="5">
-        <v>350769.078</v>
+        <v>4209228.936</v>
       </c>
       <c r="F14" s="2">
         <v>0.1</v>
@@ -7251,24 +7251,24 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="6">
-        <v>48718.0</v>
+        <v>584613.0</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>77948</v>
+        <v>935382</v>
       </c>
       <c r="Y14" s="1">
-        <v>389740</v>
+        <v>4676910</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>48717.0</v>
+        <v>584613.0</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
@@ -7283,13 +7283,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>1028904</v>
+        <v>1028920</v>
       </c>
       <c r="D15" s="2">
         <v>0.1</v>
       </c>
       <c r="E15" s="5">
-        <v>385845.9858</v>
+        <v>4630151.8296</v>
       </c>
       <c r="F15" s="2">
         <v>0.1</v>
@@ -7319,24 +7319,24 @@
         <v>0.0</v>
       </c>
       <c r="U15" s="6">
-        <v>53589.0</v>
+        <v>643075.0</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>85742</v>
+        <v>1028920</v>
       </c>
       <c r="Y15" s="1">
-        <v>428710</v>
+        <v>5144600</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15">
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>53588.0</v>
+        <v>643074.0</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
@@ -7351,13 +7351,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>1131792</v>
+        <v>1131812</v>
       </c>
       <c r="D16" s="2">
         <v>0.1</v>
       </c>
       <c r="E16" s="5">
-        <v>424430.58438</v>
+        <v>5093167.01256</v>
       </c>
       <c r="F16" s="2">
         <v>0.1</v>
@@ -7387,24 +7387,24 @@
         <v>0.0</v>
       </c>
       <c r="U16" s="6">
-        <v>58947.0</v>
+        <v>707382.0</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>94316</v>
+        <v>1131812</v>
       </c>
       <c r="Y16" s="1">
-        <v>471580</v>
+        <v>5659060</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16">
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>58947.0</v>
+        <v>707381.0</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
@@ -7419,13 +7419,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>1244964</v>
+        <v>1244993</v>
       </c>
       <c r="D17" s="2">
         <v>0.1</v>
       </c>
       <c r="E17" s="5">
-        <v>466873.642818</v>
+        <v>5602483.713816</v>
       </c>
       <c r="F17" s="2">
         <v>0.1</v>
@@ -7455,24 +7455,24 @@
         <v>0.0</v>
       </c>
       <c r="U17" s="6">
-        <v>64841.0</v>
+        <v>778120.0</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>103747</v>
+        <v>1244993</v>
       </c>
       <c r="Y17" s="1">
-        <v>518735</v>
+        <v>6224965</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17">
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>64841.0</v>
+        <v>778119.0</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
@@ -7487,13 +7487,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>1369452</v>
+        <v>1369492</v>
       </c>
       <c r="D18" s="2">
         <v>0.1</v>
       </c>
       <c r="E18" s="5">
-        <v>513561.0070998</v>
+        <v>6162732.0851976</v>
       </c>
       <c r="F18" s="2">
         <v>0.1</v>
@@ -7523,24 +7523,24 @@
         <v>0.0</v>
       </c>
       <c r="U18" s="6">
-        <v>71325.0</v>
+        <v>855931.0</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>114121</v>
+        <v>1369492</v>
       </c>
       <c r="Y18" s="1">
-        <v>570605</v>
+        <v>6847460</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18">
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>71324.0</v>
+        <v>855931.0</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
@@ -7555,13 +7555,13 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>1506396</v>
+        <v>1506441</v>
       </c>
       <c r="D19" s="2">
         <v>0.1</v>
       </c>
       <c r="E19" s="5">
-        <v>564917.10780978</v>
+        <v>6779005.2937174</v>
       </c>
       <c r="F19" s="2">
         <v>0.1</v>
@@ -7591,24 +7591,24 @@
         <v>0.0</v>
       </c>
       <c r="U19" s="6">
-        <v>78457.0</v>
+        <v>941524.0</v>
       </c>
       <c r="V19" s="1">
         <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>125533</v>
+        <v>1506441</v>
       </c>
       <c r="Y19" s="1">
-        <v>627665</v>
+        <v>7532205</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19">
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>78457.0</v>
+        <v>941524.0</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
@@ -7623,13 +7623,13 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>1657032</v>
+        <v>1657085</v>
       </c>
       <c r="D20" s="2">
         <v>0.1</v>
       </c>
       <c r="E20" s="5">
-        <v>621408.81859076</v>
+        <v>7456905.8230891</v>
       </c>
       <c r="F20" s="2">
         <v>0.1</v>
@@ -7659,24 +7659,24 @@
         <v>0.0</v>
       </c>
       <c r="U20" s="6">
-        <v>86302.0</v>
+        <v>1035677.0</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>138086</v>
+        <v>1657085</v>
       </c>
       <c r="Y20" s="1">
-        <v>690430</v>
+        <v>8285425</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20">
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>86302.0</v>
+        <v>1035676.0</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
@@ -7691,13 +7691,13 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>1822728</v>
+        <v>1822793</v>
       </c>
       <c r="D21" s="2">
         <v>0.1</v>
       </c>
       <c r="E21" s="5">
-        <v>683549.70044984</v>
+        <v>8202596.4053981</v>
       </c>
       <c r="F21" s="2">
         <v>0.1</v>
@@ -7727,24 +7727,24 @@
         <v>0.0</v>
       </c>
       <c r="U21" s="6">
-        <v>94932.0</v>
+        <v>1139244.0</v>
       </c>
       <c r="V21" s="1">
         <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>151894</v>
+        <v>1822793</v>
       </c>
       <c r="Y21" s="1">
-        <v>759470</v>
+        <v>9113965</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21">
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>94932.0</v>
+        <v>1139243.0</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
@@ -7759,13 +7759,13 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>2004996</v>
+        <v>2005072</v>
       </c>
       <c r="D22" s="2">
         <v>0.1</v>
       </c>
       <c r="E22" s="5">
-        <v>751904.67049483</v>
+        <v>9022856.0459378</v>
       </c>
       <c r="F22" s="2">
         <v>0.1</v>
@@ -7795,24 +7795,24 @@
         <v>0.0</v>
       </c>
       <c r="U22" s="6">
-        <v>104425.0</v>
+        <v>1253168.0</v>
       </c>
       <c r="V22" s="1">
         <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>167083</v>
+        <v>2005072</v>
       </c>
       <c r="Y22" s="1">
-        <v>835415</v>
+        <v>10025360</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22">
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>104424.0</v>
+        <v>1253167.0</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
@@ -7827,13 +7827,13 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>2205492</v>
+        <v>2205579</v>
       </c>
       <c r="D23" s="2">
         <v>0.1</v>
       </c>
       <c r="E23" s="5">
-        <v>827095.13754432</v>
+        <v>9925141.6505316</v>
       </c>
       <c r="F23" s="2">
         <v>0.1</v>
@@ -7863,24 +7863,24 @@
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>114867.0</v>
+        <v>1378484.0</v>
       </c>
       <c r="V23" s="1">
         <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>183791</v>
+        <v>2205579</v>
       </c>
       <c r="Y23" s="1">
-        <v>918955</v>
+        <v>11027895</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23">
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>114866.0</v>
+        <v>1378484.0</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
@@ -7895,13 +7895,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>2426040</v>
+        <v>2426136</v>
       </c>
       <c r="D24" s="2">
         <v>0.1</v>
       </c>
       <c r="E24" s="5">
-        <v>909804.65129875</v>
+        <v>10917655.815585</v>
       </c>
       <c r="F24" s="2">
         <v>0.1</v>
@@ -7931,24 +7931,24 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>126353.0</v>
+        <v>1516332.0</v>
       </c>
       <c r="V24" s="1">
         <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>202170</v>
+        <v>2426136</v>
       </c>
       <c r="Y24" s="1">
-        <v>1010850</v>
+        <v>12130680</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24">
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>126353.0</v>
+        <v>1516331.0</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
@@ -7963,13 +7963,13 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>2668644</v>
+        <v>2668749</v>
       </c>
       <c r="D25" s="2">
         <v>0.1</v>
       </c>
       <c r="E25" s="5">
-        <v>1000785.1164286</v>
+        <v>12009421.397143</v>
       </c>
       <c r="F25" s="2">
         <v>0.1</v>
@@ -7999,24 +7999,24 @@
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>138989.0</v>
+        <v>1667964.0</v>
       </c>
       <c r="V25" s="1">
         <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>222387</v>
+        <v>2668749</v>
       </c>
       <c r="Y25" s="1">
-        <v>1111935</v>
+        <v>13343745</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25">
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>138988.0</v>
+        <v>1667964.0</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
@@ -8031,13 +8031,13 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>2935500</v>
+        <v>2935623</v>
       </c>
       <c r="D26" s="2">
         <v>0.1</v>
       </c>
       <c r="E26" s="5">
-        <v>1100863.6280715</v>
+        <v>13210363.536858</v>
       </c>
       <c r="F26" s="2">
         <v>0.1</v>
@@ -8067,24 +8067,24 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>152887.0</v>
+        <v>1834760.0</v>
       </c>
       <c r="V26" s="1">
         <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>244625</v>
+        <v>2935623</v>
       </c>
       <c r="Y26" s="1">
-        <v>1223125</v>
+        <v>14678115</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26">
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>152886.0</v>
+        <v>1834759.0</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
@@ -8099,13 +8099,13 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>3229044</v>
+        <v>3229185</v>
       </c>
       <c r="D27" s="2">
         <v>0.1</v>
       </c>
       <c r="E27" s="5">
-        <v>1210949.9908787</v>
+        <v>14531399.890543</v>
       </c>
       <c r="F27" s="2">
         <v>0.1</v>
@@ -8135,24 +8135,24 @@
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>168175.0</v>
+        <v>2018236.0</v>
       </c>
       <c r="V27" s="1">
         <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>269087</v>
+        <v>3229185</v>
       </c>
       <c r="Y27" s="1">
-        <v>1345435</v>
+        <v>16145925</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27">
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>168175.0</v>
+        <v>2018235.0</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
@@ -8167,13 +8167,13 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>3551940</v>
+        <v>3552103</v>
       </c>
       <c r="D28" s="2">
         <v>0.1</v>
       </c>
       <c r="E28" s="5">
-        <v>1332044.9899666</v>
+        <v>15984539.879598</v>
       </c>
       <c r="F28" s="2">
         <v>0.1</v>
@@ -8203,24 +8203,24 @@
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>184992.0</v>
+        <v>2220059.0</v>
       </c>
       <c r="V28" s="1">
         <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>295995</v>
+        <v>3552103</v>
       </c>
       <c r="Y28" s="1">
-        <v>1479975</v>
+        <v>17760515</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28">
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>184991.0</v>
+        <v>2220058.0</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
@@ -8235,13 +8235,13 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>3907128</v>
+        <v>3907313</v>
       </c>
       <c r="D29" s="2">
         <v>0.1</v>
       </c>
       <c r="E29" s="5">
-        <v>1465249.4889632</v>
+        <v>17582993.867558</v>
       </c>
       <c r="F29" s="2">
         <v>0.1</v>
@@ -8271,24 +8271,24 @@
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>203490.0</v>
+        <v>2442064.0</v>
       </c>
       <c r="V29" s="1">
         <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>325594</v>
+        <v>3907313</v>
       </c>
       <c r="Y29" s="1">
-        <v>1627970</v>
+        <v>19536565</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29">
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>203490.0</v>
+        <v>2442064.0</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
@@ -8303,13 +8303,13 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>4297836</v>
+        <v>4298044</v>
       </c>
       <c r="D30" s="2">
         <v>0.1</v>
       </c>
       <c r="E30" s="5">
-        <v>1611774.4378596</v>
+        <v>19341293.254314</v>
       </c>
       <c r="F30" s="2">
         <v>0.1</v>
@@ -8339,24 +8339,24 @@
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>223839.0</v>
+        <v>2686270.0</v>
       </c>
       <c r="V30" s="1">
         <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>358153</v>
+        <v>4298044</v>
       </c>
       <c r="Y30" s="1">
-        <v>1790765</v>
+        <v>21490220</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30">
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>223838.0</v>
+        <v>2686270.0</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
@@ -8371,13 +8371,13 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>4727616</v>
+        <v>4727848</v>
       </c>
       <c r="D31" s="2">
         <v>0.1</v>
       </c>
       <c r="E31" s="5">
-        <v>1772951.8816456</v>
+        <v>21275422.579746</v>
       </c>
       <c r="F31" s="2">
         <v>0.1</v>
@@ -8407,24 +8407,24 @@
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>246223.0</v>
+        <v>2954897.0</v>
       </c>
       <c r="V31" s="1">
         <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>393968</v>
+        <v>4727848</v>
       </c>
       <c r="Y31" s="1">
-        <v>1969840</v>
+        <v>23639240</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31">
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>246222.0</v>
+        <v>2954896.0</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
@@ -8439,13 +8439,13 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>5200368</v>
+        <v>5200632</v>
       </c>
       <c r="D32" s="2">
         <v>0.1</v>
       </c>
       <c r="E32" s="5">
-        <v>1950247.0698101</v>
+        <v>23402964.837721</v>
       </c>
       <c r="F32" s="2">
         <v>0.1</v>
@@ -8475,24 +8475,24 @@
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>270844.0</v>
+        <v>3250385.0</v>
       </c>
       <c r="V32" s="1">
         <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>433364</v>
+        <v>5200632</v>
       </c>
       <c r="Y32" s="1">
-        <v>2166820</v>
+        <v>26003160</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32">
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>270843.0</v>
+        <v>3250385.0</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
@@ -8507,13 +8507,13 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>5720400</v>
+        <v>5720695</v>
       </c>
       <c r="D33" s="2">
         <v>0.1</v>
       </c>
       <c r="E33" s="5">
-        <v>2145271.776791</v>
+        <v>25743261.321493</v>
       </c>
       <c r="F33" s="2">
         <v>0.1</v>
@@ -8543,24 +8543,24 @@
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>297928.0</v>
+        <v>3575424.0</v>
       </c>
       <c r="V33" s="1">
         <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>476700</v>
+        <v>5720695</v>
       </c>
       <c r="Y33" s="1">
-        <v>2383500</v>
+        <v>28603475</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33">
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>297927.0</v>
+        <v>3575423.0</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
@@ -8575,13 +8575,13 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>6292440</v>
+        <v>6292764</v>
       </c>
       <c r="D34" s="2">
         <v>0.1</v>
       </c>
       <c r="E34" s="5">
-        <v>2359798.9544701</v>
+        <v>28317587.453642</v>
       </c>
       <c r="F34" s="2">
         <v>0.1</v>
@@ -8611,24 +8611,24 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>327721.0</v>
+        <v>3932966.0</v>
       </c>
       <c r="V34" s="1">
         <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>524370</v>
+        <v>6292764</v>
       </c>
       <c r="Y34" s="1">
-        <v>2621850</v>
+        <v>31463820</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34">
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>327720.0</v>
+        <v>3932965.0</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
@@ -8643,13 +8643,13 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>6921684</v>
+        <v>6922040</v>
       </c>
       <c r="D35" s="2">
         <v>0.1</v>
       </c>
       <c r="E35" s="5">
-        <v>2595778.8499171</v>
+        <v>31149346.199006</v>
       </c>
       <c r="F35" s="2">
         <v>0.1</v>
@@ -8679,24 +8679,24 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>360493.0</v>
+        <v>4326262.0</v>
       </c>
       <c r="V35" s="1">
         <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>576807</v>
+        <v>6922040</v>
       </c>
       <c r="Y35" s="1">
-        <v>2884035</v>
+        <v>34610200</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35">
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>360492.0</v>
+        <v>4326261.0</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
@@ -8711,13 +8711,13 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>7613844</v>
+        <v>7614244</v>
       </c>
       <c r="D36" s="2">
         <v>0.1</v>
       </c>
       <c r="E36" s="5">
-        <v>2855356.7349089</v>
+        <v>34264280.818907</v>
       </c>
       <c r="F36" s="2">
         <v>0.1</v>
@@ -8747,24 +8747,24 @@
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>396541.0</v>
+        <v>4758888.0</v>
       </c>
       <c r="V36" s="1">
         <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>634487</v>
+        <v>7614244</v>
       </c>
       <c r="Y36" s="1">
-        <v>3172435</v>
+        <v>38071220</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36">
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>396541.0</v>
+        <v>4758887.0</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
@@ -8779,13 +8779,13 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>8375220</v>
+        <v>8375668</v>
       </c>
       <c r="D37" s="2">
         <v>0.1</v>
       </c>
       <c r="E37" s="5">
-        <v>3140892.4083997</v>
+        <v>37690708.900798</v>
       </c>
       <c r="F37" s="2">
         <v>0.1</v>
@@ -8815,24 +8815,24 @@
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>436194.0</v>
+        <v>5234776.0</v>
       </c>
       <c r="V37" s="1">
         <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>697935</v>
+        <v>8375668</v>
       </c>
       <c r="Y37" s="1">
-        <v>3489675</v>
+        <v>41878340</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37">
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>436194.0</v>
+        <v>5234776.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
@@ -8847,13 +8847,13 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>9212736</v>
+        <v>9213234</v>
       </c>
       <c r="D38" s="2">
         <v>0.1</v>
       </c>
       <c r="E38" s="5">
-        <v>3454981.6492397</v>
+        <v>41459779.790878</v>
       </c>
       <c r="F38" s="2">
         <v>0.1</v>
@@ -8883,24 +8883,24 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="6">
-        <v>479813.0</v>
+        <v>5758253.0</v>
       </c>
       <c r="V38" s="1">
         <v>0</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
-        <v>767728</v>
+        <v>9213234</v>
       </c>
       <c r="Y38" s="1">
-        <v>3838640</v>
+        <v>46066170</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38">
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>479813.0</v>
+        <v>5758252.0</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s">
@@ -8915,13 +8915,13 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>10134000</v>
+        <v>10134557</v>
       </c>
       <c r="D39" s="2">
         <v>0.1</v>
       </c>
       <c r="E39" s="5">
-        <v>3800479.8141636</v>
+        <v>45605757.769966</v>
       </c>
       <c r="F39" s="2">
         <v>0.1</v>
@@ -8951,24 +8951,24 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>527794.0</v>
+        <v>6334078.0</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>844500</v>
+        <v>10134557</v>
       </c>
       <c r="Y39" s="1">
-        <v>4222500</v>
+        <v>50672785</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>527793.0</v>
+        <v>6334077.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
@@ -8983,13 +8983,13 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>11147400</v>
+        <v>11148012</v>
       </c>
       <c r="D40" s="12">
         <v>0.1</v>
       </c>
       <c r="E40" s="11">
-        <v>4180527.79558</v>
+        <v>50166333.546962</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
@@ -9019,24 +9019,24 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>580573.0</v>
+        <v>6967485.0</v>
       </c>
       <c r="V40" s="11">
         <v>0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>928950</v>
+        <v>11148012</v>
       </c>
       <c r="Y40" s="11">
-        <v>4644750</v>
+        <v>55740060</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>580573.0</v>
+        <v>6967484.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
@@ -9051,13 +9051,13 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>12262140</v>
+        <v>12262813</v>
       </c>
       <c r="D41" s="2">
         <v>0.1</v>
       </c>
       <c r="E41" s="5">
-        <v>4598580.5751379</v>
+        <v>55182966.901658</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
@@ -9087,24 +9087,24 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>638630.0</v>
+        <v>7664233.0</v>
       </c>
       <c r="V41" s="1">
         <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>1021845</v>
+        <v>12262813</v>
       </c>
       <c r="Y41" s="1">
-        <v>5109225</v>
+        <v>61314065</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>638630.0</v>
+        <v>7664232.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
@@ -9119,13 +9119,13 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>13488348</v>
+        <v>13489094</v>
       </c>
       <c r="D42" s="2">
         <v>0.1</v>
       </c>
       <c r="E42" s="5">
-        <v>5058438.6326518</v>
+        <v>60701263.591824</v>
       </c>
       <c r="F42" s="2">
         <v>0.1</v>
@@ -9155,24 +9155,24 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>702493.0</v>
+        <v>8430656.0</v>
       </c>
       <c r="V42" s="1">
         <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>1124029</v>
+        <v>13489094</v>
       </c>
       <c r="Y42" s="1">
-        <v>5620145</v>
+        <v>67445470</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>702492.0</v>
+        <v>8430655.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
@@ -9187,13 +9187,13 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>14837172</v>
+        <v>14838003</v>
       </c>
       <c r="D43" s="2">
         <v>0.1</v>
       </c>
       <c r="E43" s="5">
-        <v>5564282.495917</v>
+        <v>66771389.951006</v>
       </c>
       <c r="F43" s="2">
         <v>0.1</v>
@@ -9223,24 +9223,24 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>772741.0</v>
+        <v>9273721.0</v>
       </c>
       <c r="V43" s="1">
         <v>0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>1236431</v>
+        <v>14838003</v>
       </c>
       <c r="Y43" s="1">
-        <v>6182155</v>
+        <v>74190015</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>772741.0</v>
+        <v>9273721.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
@@ -9255,13 +9255,13 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>16320888</v>
+        <v>16321803</v>
       </c>
       <c r="D44" s="2">
         <v>0.1</v>
       </c>
       <c r="E44" s="5">
-        <v>6120710.7455087</v>
+        <v>73448528.946107</v>
       </c>
       <c r="F44" s="2">
         <v>0.1</v>
@@ -9291,24 +9291,24 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>850015.0</v>
+        <v>10201093.0</v>
       </c>
       <c r="V44" s="1">
         <v>0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>1360074</v>
+        <v>16321803</v>
       </c>
       <c r="Y44" s="1">
-        <v>6800370</v>
+        <v>81609015</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>850015.0</v>
+        <v>10201092.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
@@ -9323,13 +9323,13 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>17952972</v>
+        <v>17953983</v>
       </c>
       <c r="D45" s="2">
         <v>0.1</v>
       </c>
       <c r="E45" s="5">
-        <v>6732781.8200596</v>
+        <v>80793381.840718</v>
       </c>
       <c r="F45" s="2">
         <v>0.1</v>
@@ -9359,24 +9359,24 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>935016.0</v>
+        <v>11221202.0</v>
       </c>
       <c r="V45" s="1">
         <v>0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>1496081</v>
+        <v>17953983</v>
       </c>
       <c r="Y45" s="1">
-        <v>7480405</v>
+        <v>89769915</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>935016.0</v>
+        <v>11221201.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
@@ -9391,13 +9391,13 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>19748268</v>
+        <v>19749381</v>
       </c>
       <c r="D46" s="2">
         <v>0.1</v>
       </c>
       <c r="E46" s="5">
-        <v>7406060.0020655</v>
+        <v>88872720.02479</v>
       </c>
       <c r="F46" s="2">
         <v>0.1</v>
@@ -9427,24 +9427,24 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>1028518.0</v>
+        <v>12343321.0</v>
       </c>
       <c r="V46" s="1">
         <v>0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>1645689</v>
+        <v>19749381</v>
       </c>
       <c r="Y46" s="1">
-        <v>8228445</v>
+        <v>98746905</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>1028517.0</v>
+        <v>12343321.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
@@ -9459,13 +9459,13 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>21723084</v>
+        <v>21724319</v>
       </c>
       <c r="D47" s="2">
         <v>0.1</v>
       </c>
       <c r="E47" s="5">
-        <v>8146666.002272</v>
+        <v>97759992.027269</v>
       </c>
       <c r="F47" s="2">
         <v>0.1</v>
@@ -9495,24 +9495,24 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>1131369.0</v>
+        <v>13577653.0</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>1810257</v>
+        <v>21724319</v>
       </c>
       <c r="Y47" s="1">
-        <v>9051285</v>
+        <v>108621595</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>1131368.0</v>
+        <v>13577653.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
@@ -9527,13 +9527,13 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>23895384</v>
+        <v>23896750</v>
       </c>
       <c r="D48" s="2">
         <v>0.1</v>
       </c>
       <c r="E48" s="5">
-        <v>8961332.6024993</v>
+        <v>107535991.23</v>
       </c>
       <c r="F48" s="2">
         <v>0.1</v>
@@ -9563,24 +9563,24 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>1244505.0</v>
+        <v>14935418.0</v>
       </c>
       <c r="V48" s="1">
         <v>0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>1991282</v>
+        <v>23896750</v>
       </c>
       <c r="Y48" s="1">
-        <v>9956410</v>
+        <v>119483750</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>1244504.0</v>
+        <v>14935417.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
@@ -9595,13 +9595,13 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>26284920</v>
+        <v>26286425</v>
       </c>
       <c r="D49" s="2">
         <v>0.1</v>
       </c>
       <c r="E49" s="5">
-        <v>9857465.8627492</v>
+        <v>118289590.353</v>
       </c>
       <c r="F49" s="2">
         <v>0.1</v>
@@ -9631,24 +9631,24 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>1368955.0</v>
+        <v>16428960.0</v>
       </c>
       <c r="V49" s="1">
         <v>0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>2190410</v>
+        <v>26286425</v>
       </c>
       <c r="Y49" s="1">
-        <v>10952050</v>
+        <v>131432125</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>1368955.0</v>
+        <v>16428959.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
@@ -9663,13 +9663,13 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>28913412</v>
+        <v>28915067</v>
       </c>
       <c r="D50" s="2">
         <v>0.1</v>
       </c>
       <c r="E50" s="5">
-        <v>10843212.449024</v>
+        <v>130118549.3883</v>
       </c>
       <c r="F50" s="2">
         <v>0.1</v>
@@ -9699,24 +9699,24 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>1505850.0</v>
+        <v>18071855.0</v>
       </c>
       <c r="V50" s="1">
         <v>0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>2409451</v>
+        <v>28915067</v>
       </c>
       <c r="Y50" s="1">
-        <v>12047255</v>
+        <v>144575335</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>1505850.0</v>
+        <v>18071855.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
@@ -9731,13 +9731,13 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>31804752</v>
+        <v>31806573</v>
       </c>
       <c r="D51" s="2">
         <v>0.1</v>
       </c>
       <c r="E51" s="5">
-        <v>11927533.693926</v>
+        <v>143130404.32714</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
@@ -9767,24 +9767,24 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>1656435.0</v>
+        <v>19879040.0</v>
       </c>
       <c r="V51" s="1">
         <v>0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>2650396</v>
+        <v>31806573</v>
       </c>
       <c r="Y51" s="1">
-        <v>13251980</v>
+        <v>159032865</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>1656435.0</v>
+        <v>19879039.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
@@ -9799,13 +9799,13 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>34985220</v>
+        <v>34987230</v>
       </c>
       <c r="D52" s="2">
         <v>0.1</v>
       </c>
       <c r="E52" s="5">
-        <v>13120287.063319</v>
+        <v>157443444.75985</v>
       </c>
       <c r="F52" s="2">
         <v>0.1</v>
@@ -9835,24 +9835,24 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>1822078.0</v>
+        <v>21866943.0</v>
       </c>
       <c r="V52" s="1">
         <v>0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>2915435</v>
+        <v>34987230</v>
       </c>
       <c r="Y52" s="1">
-        <v>14577175</v>
+        <v>174936150</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>1822078.0</v>
+        <v>21866943.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
@@ -9867,11 +9867,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>250.0</v>
+        <v>544181.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>14432315.769652</v>
+        <v>173187789.23584</v>
       </c>
       <c r="F53" s="14">
         <v>0.1</v>
@@ -9901,7 +9901,7 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-1202692.0</v>
+        <v>-14432315.0</v>
       </c>
       <c r="V53" s="13">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>-1202693.0</v>
+        <v>-14432316.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
@@ -9933,11 +9933,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>263.0</v>
+        <v>598862.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>15875547.346616</v>
+        <v>190506568.15942</v>
       </c>
       <c r="F54" s="2">
         <v>0.1</v>
@@ -9967,7 +9967,7 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-1322962.0</v>
+        <v>-15875547.0</v>
       </c>
       <c r="V54" s="1">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>-1322962.0</v>
+        <v>-15875547.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
@@ -9999,11 +9999,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>278.0</v>
+        <v>659026.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>17463102.081278</v>
+        <v>209557224.97536</v>
       </c>
       <c r="F55" s="2">
         <v>0.1</v>
@@ -10033,7 +10033,7 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-1455258.0</v>
+        <v>-17463102.0</v>
       </c>
       <c r="V55" s="1">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>-1455259.0</v>
+        <v>-17463102.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
@@ -10065,11 +10065,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>294.0</v>
+        <v>725223.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>19209412.289406</v>
+        <v>230512947.4729</v>
       </c>
       <c r="F56" s="2">
         <v>0.1</v>
@@ -10099,7 +10099,7 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-1600784.0</v>
+        <v>-19209412.0</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -10116,7 +10116,7 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>-1600784.0</v>
+        <v>-19209412.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
@@ -10131,11 +10131,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>313.0</v>
+        <v>798058.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>21130353.518347</v>
+        <v>253564242.22019</v>
       </c>
       <c r="F57" s="14">
         <v>0.1</v>
@@ -10165,7 +10165,7 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-1760862.0</v>
+        <v>-21130353.0</v>
       </c>
       <c r="V57" s="13">
         <v>0</v>
@@ -10182,7 +10182,7 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>-1760863.0</v>
+        <v>-21130354.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
@@ -10197,11 +10197,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>333.0</v>
+        <v>878197.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>23243388.870182</v>
+        <v>278920666.44221</v>
       </c>
       <c r="F58" s="2">
         <v>0.1</v>
@@ -10231,7 +10231,7 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-1936949.0</v>
+        <v>-23243388.0</v>
       </c>
       <c r="V58" s="1">
         <v>0</v>
@@ -10248,7 +10248,7 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>-1936949.0</v>
+        <v>-23243389.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
@@ -10263,11 +10263,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>357.0</v>
+        <v>966373.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>25567727.7572</v>
+        <v>306812733.08642</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
@@ -10297,7 +10297,7 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-2130643.0</v>
+        <v>-25567727.0</v>
       </c>
       <c r="V59" s="1">
         <v>0</v>
@@ -10314,7 +10314,7 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>-2130644.0</v>
+        <v>-25567728.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
@@ -10329,11 +10329,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>385.0</v>
+        <v>1063395.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>28124500.532921</v>
+        <v>337494006.39506</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
@@ -10363,7 +10363,7 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-2343708.0</v>
+        <v>-28124500.0</v>
       </c>
       <c r="V60" s="1">
         <v>0</v>
@@ -10380,7 +10380,7 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>-2343708.0</v>
+        <v>-28124501.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
@@ -10395,11 +10395,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>417.0</v>
+        <v>1170152.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>30936950.586212</v>
+        <v>371243407.03457</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
@@ -10429,7 +10429,7 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-2578079.0</v>
+        <v>-30936950.0</v>
       </c>
       <c r="V61" s="1">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>-2578079.0</v>
+        <v>-30936951.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
@@ -10461,11 +10461,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>455.0</v>
+        <v>1287621.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>34030645.644834</v>
+        <v>408367747.73802</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
@@ -10495,7 +10495,7 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-2835887.0</v>
+        <v>-34030645.0</v>
       </c>
       <c r="V62" s="1">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>-2835887.0</v>
+        <v>-34030646.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
@@ -10527,11 +10527,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>500.0</v>
+        <v>1416884.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>37433710.209318</v>
+        <v>449204522.51183</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
@@ -10561,7 +10561,7 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-3119475.0</v>
+        <v>-37433710.0</v>
       </c>
       <c r="V63" s="1">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>-3119476.0</v>
+        <v>-37433710.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
@@ -10593,11 +10593,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>556.0</v>
+        <v>1559128.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>41177081.23025</v>
+        <v>494124974.76301</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
@@ -10627,7 +10627,7 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-3431423.0</v>
+        <v>-41177081.0</v>
       </c>
       <c r="V64" s="1">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>-3431423.0</v>
+        <v>-41177081.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
@@ -10659,11 +10659,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>625.0</v>
+        <v>1715665.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>45294789.353275</v>
+        <v>543537472.23931</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
@@ -10693,7 +10693,7 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-3774565.0</v>
+        <v>-45294789.0</v>
       </c>
       <c r="V65" s="1">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>-3774566.0</v>
+        <v>-45294789.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
@@ -10725,11 +10725,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>714.0</v>
+        <v>1887946.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>49824268.288603</v>
+        <v>597891219.46325</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
@@ -10759,7 +10759,7 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-4152022.0</v>
+        <v>-49824268.0</v>
       </c>
       <c r="V66" s="1">
         <v>0</v>
@@ -10776,7 +10776,7 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>-4152022.0</v>
+        <v>-49824268.0</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
@@ -10791,11 +10791,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>833.0</v>
+        <v>2077574.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>54806695.117464</v>
+        <v>657680341.40957</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
@@ -10825,7 +10825,7 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-4567224.0</v>
+        <v>-54806695.0</v>
       </c>
       <c r="V67" s="1">
         <v>0</v>
@@ -10842,7 +10842,7 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>-4567225.0</v>
+        <v>-54806695.0</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
@@ -10857,11 +10857,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>1000.0</v>
+        <v>2286332.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>60287364.62921</v>
+        <v>723448375.55052</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
@@ -10891,7 +10891,7 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-5023947.0</v>
+        <v>-60287364.0</v>
       </c>
       <c r="V68" s="1">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>-5023947.0</v>
+        <v>-60287365.0</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
@@ -10923,11 +10923,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>1250.0</v>
+        <v>2516215.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>66316101.092131</v>
+        <v>795793213.10557</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
@@ -10957,7 +10957,7 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-5526341.0</v>
+        <v>-66316101.0</v>
       </c>
       <c r="V69" s="1">
         <v>0</v>
@@ -10974,7 +10974,7 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>-5526342.0</v>
+        <v>-66316101.0</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
@@ -10989,11 +10989,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>1667.0</v>
+        <v>2769503.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>72947711.201345</v>
+        <v>875372534.41613</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
@@ -11023,7 +11023,7 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-6078975.0</v>
+        <v>-72947711.0</v>
       </c>
       <c r="V70" s="1">
         <v>0</v>
@@ -11040,7 +11040,7 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>-6078976.0</v>
+        <v>-72947711.0</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
@@ -11055,11 +11055,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>2500.0</v>
+        <v>3048953.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>80242482.321479</v>
+        <v>962909787.85774</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
@@ -11089,7 +11089,7 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-6686873.0</v>
+        <v>-80242482.0</v>
       </c>
       <c r="V71" s="1">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>-6686874.0</v>
+        <v>-80242482.0</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
@@ -11121,11 +11121,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>5000.0</v>
+        <v>3358848.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>88266730.553627</v>
+        <v>1059200766.6435</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
@@ -11155,7 +11155,7 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-7355560.0</v>
+        <v>-88266730.0</v>
       </c>
       <c r="V72" s="5">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0.0</v>
       </c>
       <c r="AB72" s="15">
-        <v>-7355561.0</v>
+        <v>-88266731.0</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
@@ -11447,11 +11447,11 @@
     <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -11895,25 +11895,25 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>5000</v>
+        <v>131500</v>
       </c>
       <c r="Q10" s="2">
         <v>0.1</v>
       </c>
       <c r="R10" s="1">
-        <v>4000.0</v>
+        <v>105200.0</v>
       </c>
       <c r="S10" s="2">
         <v>0.01</v>
       </c>
       <c r="T10" s="1">
-        <v>40.0</v>
+        <v>1052.0</v>
       </c>
       <c r="U10" s="6">
-        <v>-40.0</v>
+        <v>-1052.0</v>
       </c>
       <c r="V10" s="1">
-        <v>5000</v>
+        <v>131500</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -11927,7 +11927,7 @@
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>200.0</v>
+        <v>5260.0</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
@@ -11963,25 +11963,25 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>5000</v>
+        <v>149650</v>
       </c>
       <c r="Q11" s="2">
         <v>0.1</v>
       </c>
       <c r="R11" s="1">
-        <v>4000.0</v>
+        <v>119720.0</v>
       </c>
       <c r="S11" s="2">
         <v>0.01</v>
       </c>
       <c r="T11" s="1">
-        <v>40.0</v>
+        <v>1197.2</v>
       </c>
       <c r="U11" s="6">
-        <v>-40.0</v>
+        <v>-1197.2</v>
       </c>
       <c r="V11" s="1">
-        <v>5000</v>
+        <v>149650</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -11995,7 +11995,7 @@
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>200.0</v>
+        <v>5986.0</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
@@ -12031,25 +12031,25 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>5000</v>
+        <v>169615</v>
       </c>
       <c r="Q12" s="2">
         <v>0.1</v>
       </c>
       <c r="R12" s="1">
-        <v>4000.0</v>
+        <v>135692.0</v>
       </c>
       <c r="S12" s="2">
         <v>0.01</v>
       </c>
       <c r="T12" s="1">
-        <v>40.0</v>
+        <v>1356.92</v>
       </c>
       <c r="U12" s="6">
-        <v>-40.0</v>
+        <v>-1356.92</v>
       </c>
       <c r="V12" s="1">
-        <v>5000</v>
+        <v>169615</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -12063,7 +12063,7 @@
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>200.0</v>
+        <v>6785.0</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
@@ -12099,25 +12099,25 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>5000</v>
+        <v>191577</v>
       </c>
       <c r="Q13" s="2">
         <v>0.1</v>
       </c>
       <c r="R13" s="1">
-        <v>4000.0</v>
+        <v>153261.6</v>
       </c>
       <c r="S13" s="2">
         <v>0.01</v>
       </c>
       <c r="T13" s="1">
-        <v>40.0</v>
+        <v>1532.616</v>
       </c>
       <c r="U13" s="6">
-        <v>-40.0</v>
+        <v>-1532.616</v>
       </c>
       <c r="V13" s="1">
-        <v>5000</v>
+        <v>191577</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -12131,7 +12131,7 @@
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>200.0</v>
+        <v>7663.0</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
@@ -12167,25 +12167,25 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>5000</v>
+        <v>215735</v>
       </c>
       <c r="Q14" s="2">
         <v>0.1</v>
       </c>
       <c r="R14" s="1">
-        <v>4000.0</v>
+        <v>172588.0</v>
       </c>
       <c r="S14" s="2">
         <v>0.01</v>
       </c>
       <c r="T14" s="1">
-        <v>40.0</v>
+        <v>1725.88</v>
       </c>
       <c r="U14" s="6">
-        <v>-40.0</v>
+        <v>-1725.88</v>
       </c>
       <c r="V14" s="1">
-        <v>5000</v>
+        <v>215735</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -12199,7 +12199,7 @@
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>200.0</v>
+        <v>8629.0</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
@@ -12235,25 +12235,25 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>5000</v>
+        <v>242309</v>
       </c>
       <c r="Q15" s="2">
         <v>0.1</v>
       </c>
       <c r="R15" s="1">
-        <v>4000.0</v>
+        <v>193847.2</v>
       </c>
       <c r="S15" s="2">
         <v>0.01</v>
       </c>
       <c r="T15" s="1">
-        <v>40.0</v>
+        <v>1938.472</v>
       </c>
       <c r="U15" s="6">
-        <v>-40.0</v>
+        <v>-1938.472</v>
       </c>
       <c r="V15" s="1">
-        <v>5000</v>
+        <v>242309</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -12267,7 +12267,7 @@
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>200.0</v>
+        <v>9692.0</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
@@ -12303,25 +12303,25 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>5000</v>
+        <v>271540</v>
       </c>
       <c r="Q16" s="2">
         <v>0.1</v>
       </c>
       <c r="R16" s="1">
-        <v>4000.0</v>
+        <v>217232.0</v>
       </c>
       <c r="S16" s="2">
         <v>0.01</v>
       </c>
       <c r="T16" s="1">
-        <v>40.0</v>
+        <v>2172.32</v>
       </c>
       <c r="U16" s="6">
-        <v>-40.0</v>
+        <v>-2172.32</v>
       </c>
       <c r="V16" s="1">
-        <v>5000</v>
+        <v>271540</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -12335,7 +12335,7 @@
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>200.0</v>
+        <v>10862.0</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
@@ -12371,25 +12371,25 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>5000</v>
+        <v>303694</v>
       </c>
       <c r="Q17" s="2">
         <v>0.1</v>
       </c>
       <c r="R17" s="1">
-        <v>4000.0</v>
+        <v>242955.2</v>
       </c>
       <c r="S17" s="2">
         <v>0.01</v>
       </c>
       <c r="T17" s="1">
-        <v>40.0</v>
+        <v>2429.552</v>
       </c>
       <c r="U17" s="6">
-        <v>-40.0</v>
+        <v>-2429.552</v>
       </c>
       <c r="V17" s="1">
-        <v>5000</v>
+        <v>303694</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -12403,7 +12403,7 @@
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>200.0</v>
+        <v>12148.0</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
@@ -12439,25 +12439,25 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>5000</v>
+        <v>339063</v>
       </c>
       <c r="Q18" s="2">
         <v>0.1</v>
       </c>
       <c r="R18" s="1">
-        <v>4000.0</v>
+        <v>271250.4</v>
       </c>
       <c r="S18" s="2">
         <v>0.01</v>
       </c>
       <c r="T18" s="1">
-        <v>40.0</v>
+        <v>2712.504</v>
       </c>
       <c r="U18" s="6">
-        <v>-40.0</v>
+        <v>-2712.504</v>
       </c>
       <c r="V18" s="1">
-        <v>5000</v>
+        <v>339063</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -12471,7 +12471,7 @@
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>200.0</v>
+        <v>13563.0</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
@@ -12507,25 +12507,25 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>5000</v>
+        <v>377969</v>
       </c>
       <c r="Q19" s="2">
         <v>0.1</v>
       </c>
       <c r="R19" s="1">
-        <v>4000.0</v>
+        <v>302375.2</v>
       </c>
       <c r="S19" s="2">
         <v>0.01</v>
       </c>
       <c r="T19" s="1">
-        <v>40.0</v>
+        <v>3023.752</v>
       </c>
       <c r="U19" s="6">
-        <v>-40.0</v>
+        <v>-3023.752</v>
       </c>
       <c r="V19" s="1">
-        <v>5000</v>
+        <v>377969</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -12539,7 +12539,7 @@
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>200.0</v>
+        <v>15119.0</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
@@ -12575,25 +12575,25 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>5000</v>
+        <v>420766</v>
       </c>
       <c r="Q20" s="2">
         <v>0.1</v>
       </c>
       <c r="R20" s="1">
-        <v>4000.0</v>
+        <v>336612.8</v>
       </c>
       <c r="S20" s="2">
         <v>0.01</v>
       </c>
       <c r="T20" s="1">
-        <v>40.0</v>
+        <v>3366.128</v>
       </c>
       <c r="U20" s="6">
-        <v>-40.0</v>
+        <v>-3366.128</v>
       </c>
       <c r="V20" s="1">
-        <v>5000</v>
+        <v>420766</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -12607,7 +12607,7 @@
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>200.0</v>
+        <v>16831.0</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
@@ -12643,25 +12643,25 @@
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>5000</v>
+        <v>467843</v>
       </c>
       <c r="Q21" s="2">
         <v>0.1</v>
       </c>
       <c r="R21" s="1">
-        <v>4000.0</v>
+        <v>374274.4</v>
       </c>
       <c r="S21" s="2">
         <v>0.01</v>
       </c>
       <c r="T21" s="1">
-        <v>40.0</v>
+        <v>3742.744</v>
       </c>
       <c r="U21" s="6">
-        <v>-40.0</v>
+        <v>-3742.744</v>
       </c>
       <c r="V21" s="1">
-        <v>5000</v>
+        <v>467843</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
@@ -12675,7 +12675,7 @@
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>200.0</v>
+        <v>18714.0</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
@@ -12711,25 +12711,25 @@
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>5000</v>
+        <v>519627</v>
       </c>
       <c r="Q22" s="2">
         <v>0.1</v>
       </c>
       <c r="R22" s="1">
-        <v>4000.0</v>
+        <v>415701.6</v>
       </c>
       <c r="S22" s="2">
         <v>0.01</v>
       </c>
       <c r="T22" s="1">
-        <v>40.0</v>
+        <v>4157.016</v>
       </c>
       <c r="U22" s="6">
-        <v>-40.0</v>
+        <v>-4157.016</v>
       </c>
       <c r="V22" s="1">
-        <v>5000</v>
+        <v>519627</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
@@ -12743,7 +12743,7 @@
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>200.0</v>
+        <v>20785.0</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
@@ -12779,25 +12779,25 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>5000</v>
+        <v>576590</v>
       </c>
       <c r="Q23" s="2">
         <v>0.1</v>
       </c>
       <c r="R23" s="1">
-        <v>4000.0</v>
+        <v>461272.0</v>
       </c>
       <c r="S23" s="2">
         <v>0.01</v>
       </c>
       <c r="T23" s="1">
-        <v>40.0</v>
+        <v>4612.72</v>
       </c>
       <c r="U23" s="6">
-        <v>-40.0</v>
+        <v>-4612.72</v>
       </c>
       <c r="V23" s="1">
-        <v>5000</v>
+        <v>576590</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
@@ -12811,7 +12811,7 @@
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>200.0</v>
+        <v>23064.0</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
@@ -12847,25 +12847,25 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>5000</v>
+        <v>639249</v>
       </c>
       <c r="Q24" s="2">
         <v>0.1</v>
       </c>
       <c r="R24" s="1">
-        <v>4000.0</v>
+        <v>511399.2</v>
       </c>
       <c r="S24" s="2">
         <v>0.01</v>
       </c>
       <c r="T24" s="1">
-        <v>40.0</v>
+        <v>5113.992</v>
       </c>
       <c r="U24" s="6">
-        <v>-40.0</v>
+        <v>-5113.992</v>
       </c>
       <c r="V24" s="1">
-        <v>5000</v>
+        <v>639249</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
@@ -12879,7 +12879,7 @@
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>200.0</v>
+        <v>25570.0</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
@@ -12915,25 +12915,25 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>5000</v>
+        <v>708174</v>
       </c>
       <c r="Q25" s="2">
         <v>0.1</v>
       </c>
       <c r="R25" s="1">
-        <v>4000.0</v>
+        <v>566539.2</v>
       </c>
       <c r="S25" s="2">
         <v>0.01</v>
       </c>
       <c r="T25" s="1">
-        <v>40.0</v>
+        <v>5665.392</v>
       </c>
       <c r="U25" s="6">
-        <v>-40.0</v>
+        <v>-5665.392</v>
       </c>
       <c r="V25" s="1">
-        <v>5000</v>
+        <v>708174</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
@@ -12947,7 +12947,7 @@
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>200.0</v>
+        <v>28327.0</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
@@ -12983,25 +12983,25 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>5000</v>
+        <v>783991</v>
       </c>
       <c r="Q26" s="2">
         <v>0.1</v>
       </c>
       <c r="R26" s="1">
-        <v>4000.0</v>
+        <v>627192.8</v>
       </c>
       <c r="S26" s="2">
         <v>0.01</v>
       </c>
       <c r="T26" s="1">
-        <v>40.0</v>
+        <v>6271.928</v>
       </c>
       <c r="U26" s="6">
-        <v>-40.0</v>
+        <v>-6271.928</v>
       </c>
       <c r="V26" s="1">
-        <v>5000</v>
+        <v>783991</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
@@ -13015,7 +13015,7 @@
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>200.0</v>
+        <v>31360.0</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
@@ -13051,25 +13051,25 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>5000</v>
+        <v>867390</v>
       </c>
       <c r="Q27" s="2">
         <v>0.1</v>
       </c>
       <c r="R27" s="1">
-        <v>4000.0</v>
+        <v>693912.0</v>
       </c>
       <c r="S27" s="2">
         <v>0.01</v>
       </c>
       <c r="T27" s="1">
-        <v>40.0</v>
+        <v>6939.12</v>
       </c>
       <c r="U27" s="6">
-        <v>-40.0</v>
+        <v>-6939.12</v>
       </c>
       <c r="V27" s="1">
-        <v>5000</v>
+        <v>867390</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
@@ -13083,7 +13083,7 @@
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>200.0</v>
+        <v>34696.0</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
@@ -13119,25 +13119,25 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>5000</v>
+        <v>959129</v>
       </c>
       <c r="Q28" s="2">
         <v>0.1</v>
       </c>
       <c r="R28" s="1">
-        <v>4000.0</v>
+        <v>767303.2</v>
       </c>
       <c r="S28" s="2">
         <v>0.01</v>
       </c>
       <c r="T28" s="1">
-        <v>40.0</v>
+        <v>7673.032</v>
       </c>
       <c r="U28" s="6">
-        <v>-40.0</v>
+        <v>-7673.032</v>
       </c>
       <c r="V28" s="1">
-        <v>5000</v>
+        <v>959129</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
@@ -13151,7 +13151,7 @@
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>200.0</v>
+        <v>38365.0</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
@@ -13187,25 +13187,25 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>5000</v>
+        <v>1060042</v>
       </c>
       <c r="Q29" s="2">
         <v>0.1</v>
       </c>
       <c r="R29" s="1">
-        <v>4000.0</v>
+        <v>848033.6</v>
       </c>
       <c r="S29" s="2">
         <v>0.01</v>
       </c>
       <c r="T29" s="1">
-        <v>40.0</v>
+        <v>8480.336</v>
       </c>
       <c r="U29" s="6">
-        <v>-40.0</v>
+        <v>-8480.336</v>
       </c>
       <c r="V29" s="1">
-        <v>5000</v>
+        <v>1060042</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
@@ -13219,7 +13219,7 @@
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>200.0</v>
+        <v>42402.0</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
@@ -13255,25 +13255,25 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>5000</v>
+        <v>1171046</v>
       </c>
       <c r="Q30" s="2">
         <v>0.1</v>
       </c>
       <c r="R30" s="1">
-        <v>4000.0</v>
+        <v>936836.8</v>
       </c>
       <c r="S30" s="2">
         <v>0.01</v>
       </c>
       <c r="T30" s="1">
-        <v>40.0</v>
+        <v>9368.368</v>
       </c>
       <c r="U30" s="6">
-        <v>-40.0</v>
+        <v>-9368.368</v>
       </c>
       <c r="V30" s="1">
-        <v>5000</v>
+        <v>1171046</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
@@ -13287,7 +13287,7 @@
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>200.0</v>
+        <v>46842.0</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
@@ -13323,25 +13323,25 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>5000</v>
+        <v>1293151</v>
       </c>
       <c r="Q31" s="2">
         <v>0.1</v>
       </c>
       <c r="R31" s="1">
-        <v>4000.0</v>
+        <v>1034520.8</v>
       </c>
       <c r="S31" s="2">
         <v>0.01</v>
       </c>
       <c r="T31" s="1">
-        <v>40.0</v>
+        <v>10345.208</v>
       </c>
       <c r="U31" s="6">
-        <v>-40.0</v>
+        <v>-10345.208</v>
       </c>
       <c r="V31" s="1">
-        <v>5000</v>
+        <v>1293151</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
@@ -13355,7 +13355,7 @@
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>200.0</v>
+        <v>51726.0</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
@@ -13391,25 +13391,25 @@
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>5000</v>
+        <v>1427466</v>
       </c>
       <c r="Q32" s="2">
         <v>0.1</v>
       </c>
       <c r="R32" s="1">
-        <v>4000.0</v>
+        <v>1141972.8</v>
       </c>
       <c r="S32" s="2">
         <v>0.01</v>
       </c>
       <c r="T32" s="1">
-        <v>40.0</v>
+        <v>11419.728</v>
       </c>
       <c r="U32" s="6">
-        <v>-40.0</v>
+        <v>-11419.728</v>
       </c>
       <c r="V32" s="1">
-        <v>5000</v>
+        <v>1427466</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
@@ -13423,7 +13423,7 @@
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>200.0</v>
+        <v>57099.0</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
@@ -13459,25 +13459,25 @@
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>5000</v>
+        <v>1575213</v>
       </c>
       <c r="Q33" s="2">
         <v>0.1</v>
       </c>
       <c r="R33" s="1">
-        <v>4000.0</v>
+        <v>1260170.4</v>
       </c>
       <c r="S33" s="2">
         <v>0.01</v>
       </c>
       <c r="T33" s="1">
-        <v>40.0</v>
+        <v>12601.704</v>
       </c>
       <c r="U33" s="6">
-        <v>-40.0</v>
+        <v>-12601.704</v>
       </c>
       <c r="V33" s="1">
-        <v>5000</v>
+        <v>1575213</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
@@ -13491,7 +13491,7 @@
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>200.0</v>
+        <v>63009.0</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
@@ -13527,25 +13527,25 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>5000</v>
+        <v>1737734</v>
       </c>
       <c r="Q34" s="2">
         <v>0.1</v>
       </c>
       <c r="R34" s="1">
-        <v>4000.0</v>
+        <v>1390187.2</v>
       </c>
       <c r="S34" s="2">
         <v>0.01</v>
       </c>
       <c r="T34" s="1">
-        <v>40.0</v>
+        <v>13901.872</v>
       </c>
       <c r="U34" s="6">
-        <v>-40.0</v>
+        <v>-13901.872</v>
       </c>
       <c r="V34" s="1">
-        <v>5000</v>
+        <v>1737734</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
@@ -13559,7 +13559,7 @@
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>200.0</v>
+        <v>69509.0</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
@@ -13595,25 +13595,25 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>5000</v>
+        <v>1916507</v>
       </c>
       <c r="Q35" s="2">
         <v>0.1</v>
       </c>
       <c r="R35" s="1">
-        <v>4000.0</v>
+        <v>1533205.6</v>
       </c>
       <c r="S35" s="2">
         <v>0.01</v>
       </c>
       <c r="T35" s="1">
-        <v>40.0</v>
+        <v>15332.056</v>
       </c>
       <c r="U35" s="6">
-        <v>-40.0</v>
+        <v>-15332.056</v>
       </c>
       <c r="V35" s="1">
-        <v>5000</v>
+        <v>1916507</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
@@ -13627,7 +13627,7 @@
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>200.0</v>
+        <v>76660.0</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
@@ -13663,25 +13663,25 @@
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>5000</v>
+        <v>2113158</v>
       </c>
       <c r="Q36" s="2">
         <v>0.1</v>
       </c>
       <c r="R36" s="1">
-        <v>4000.0</v>
+        <v>1690526.4</v>
       </c>
       <c r="S36" s="2">
         <v>0.01</v>
       </c>
       <c r="T36" s="1">
-        <v>40.0</v>
+        <v>16905.264</v>
       </c>
       <c r="U36" s="6">
-        <v>-40.0</v>
+        <v>-16905.264</v>
       </c>
       <c r="V36" s="1">
-        <v>5000</v>
+        <v>2113158</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
@@ -13695,7 +13695,7 @@
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>200.0</v>
+        <v>84526.0</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
@@ -13731,25 +13731,25 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>5000</v>
+        <v>2329474</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>4000.0</v>
+        <v>1863579.2</v>
       </c>
       <c r="S37" s="2">
         <v>0.01</v>
       </c>
       <c r="T37" s="1">
-        <v>40.0</v>
+        <v>18635.792</v>
       </c>
       <c r="U37" s="6">
-        <v>-40.0</v>
+        <v>-18635.792</v>
       </c>
       <c r="V37" s="1">
-        <v>5000</v>
+        <v>2329474</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -13763,7 +13763,7 @@
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>200.0</v>
+        <v>93179.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
@@ -13799,25 +13799,25 @@
         <v>0</v>
       </c>
       <c r="P38" s="6">
-        <v>5000</v>
+        <v>2567421</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>4000.0</v>
+        <v>2053936.8</v>
       </c>
       <c r="S38" s="2">
         <v>0.01</v>
       </c>
       <c r="T38" s="1">
-        <v>40.0</v>
+        <v>20539.368</v>
       </c>
       <c r="U38" s="6">
-        <v>-40.0</v>
+        <v>-20539.368</v>
       </c>
       <c r="V38" s="1">
-        <v>5000</v>
+        <v>2567421</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
@@ -13831,7 +13831,7 @@
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>200.0</v>
+        <v>102697.0</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s">
@@ -13867,25 +13867,25 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>5000</v>
+        <v>2829163</v>
       </c>
       <c r="Q39" s="2">
         <v>0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>4000.0</v>
+        <v>2263330.4</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
       </c>
       <c r="T39" s="1">
-        <v>40.0</v>
+        <v>22633.304</v>
       </c>
       <c r="U39" s="6">
-        <v>-40.0</v>
+        <v>-22633.304</v>
       </c>
       <c r="V39" s="1">
-        <v>5000</v>
+        <v>2829163</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -13899,7 +13899,7 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>200.0</v>
+        <v>113167.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
@@ -13935,25 +13935,25 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>5000</v>
+        <v>3117079</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>4000.0</v>
+        <v>2493663.2</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
       </c>
       <c r="T40" s="11">
-        <v>40.0</v>
+        <v>24936.632</v>
       </c>
       <c r="U40" s="11">
-        <v>-40.0</v>
+        <v>-24936.632</v>
       </c>
       <c r="V40" s="11">
-        <v>5000</v>
+        <v>3117079</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -13967,7 +13967,7 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>200.0</v>
+        <v>124683.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
@@ -14003,25 +14003,25 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>5000</v>
+        <v>3433787</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>4000.0</v>
+        <v>2747029.6</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
       </c>
       <c r="T41" s="1">
-        <v>40.0</v>
+        <v>27470.296</v>
       </c>
       <c r="U41" s="6">
-        <v>-40.0</v>
+        <v>-27470.296</v>
       </c>
       <c r="V41" s="1">
-        <v>5000</v>
+        <v>3433787</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -14035,7 +14035,7 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>200.0</v>
+        <v>137351.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
@@ -14071,25 +14071,25 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>5000</v>
+        <v>3782166</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>4000.0</v>
+        <v>3025732.8</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
       </c>
       <c r="T42" s="1">
-        <v>40.0</v>
+        <v>30257.328</v>
       </c>
       <c r="U42" s="6">
-        <v>-40.0</v>
+        <v>-30257.328</v>
       </c>
       <c r="V42" s="1">
-        <v>5000</v>
+        <v>3782166</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -14103,7 +14103,7 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>200.0</v>
+        <v>151287.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
@@ -14139,25 +14139,25 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>5000</v>
+        <v>4165383</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>4000.0</v>
+        <v>3332306.4</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>40.0</v>
+        <v>33323.064</v>
       </c>
       <c r="U43" s="6">
-        <v>-40.0</v>
+        <v>-33323.064</v>
       </c>
       <c r="V43" s="1">
-        <v>5000</v>
+        <v>4165383</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -14171,7 +14171,7 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>200.0</v>
+        <v>166615.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
@@ -14207,25 +14207,25 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>5000</v>
+        <v>4586921</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>4000.0</v>
+        <v>3669536.8</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>40.0</v>
+        <v>36695.368</v>
       </c>
       <c r="U44" s="6">
-        <v>-40.0</v>
+        <v>-36695.368</v>
       </c>
       <c r="V44" s="1">
-        <v>5000</v>
+        <v>4586921</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -14239,7 +14239,7 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>200.0</v>
+        <v>183477.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
@@ -14275,25 +14275,25 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>5000</v>
+        <v>5050613</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>4000.0</v>
+        <v>4040490.4</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>40.0</v>
+        <v>40404.904</v>
       </c>
       <c r="U45" s="6">
-        <v>-40.0</v>
+        <v>-40404.904</v>
       </c>
       <c r="V45" s="1">
-        <v>5000</v>
+        <v>5050613</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -14307,7 +14307,7 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>200.0</v>
+        <v>202025.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
@@ -14343,25 +14343,25 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>5000</v>
+        <v>5560674</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>4000.0</v>
+        <v>4448539.2</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>40.0</v>
+        <v>44485.392</v>
       </c>
       <c r="U46" s="6">
-        <v>-40.0</v>
+        <v>-44485.392</v>
       </c>
       <c r="V46" s="1">
-        <v>5000</v>
+        <v>5560674</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -14375,7 +14375,7 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>200.0</v>
+        <v>222427.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
@@ -14411,25 +14411,25 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>5000</v>
+        <v>6121741</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>4000.0</v>
+        <v>4897392.8</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>40.0</v>
+        <v>48973.928</v>
       </c>
       <c r="U47" s="6">
-        <v>-40.0</v>
+        <v>-48973.928</v>
       </c>
       <c r="V47" s="1">
-        <v>5000</v>
+        <v>6121741</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -14443,7 +14443,7 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>200.0</v>
+        <v>244870.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
@@ -14479,25 +14479,25 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>5000</v>
+        <v>6738915</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>4000.0</v>
+        <v>5391132.0</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>40.0</v>
+        <v>53911.32</v>
       </c>
       <c r="U48" s="6">
-        <v>-40.0</v>
+        <v>-53911.32</v>
       </c>
       <c r="V48" s="1">
-        <v>5000</v>
+        <v>6738915</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -14511,7 +14511,7 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>200.0</v>
+        <v>269557.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
@@ -14547,25 +14547,25 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>5000</v>
+        <v>7417807</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>4000.0</v>
+        <v>5934245.6</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>40.0</v>
+        <v>59342.456</v>
       </c>
       <c r="U49" s="6">
-        <v>-40.0</v>
+        <v>-59342.456</v>
       </c>
       <c r="V49" s="1">
-        <v>5000</v>
+        <v>7417807</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -14579,7 +14579,7 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>200.0</v>
+        <v>296712.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
@@ -14615,25 +14615,25 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>5000</v>
+        <v>8164588</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>4000.0</v>
+        <v>6531670.4</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>40.0</v>
+        <v>65316.704</v>
       </c>
       <c r="U50" s="6">
-        <v>-40.0</v>
+        <v>-65316.704</v>
       </c>
       <c r="V50" s="1">
-        <v>5000</v>
+        <v>8164588</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -14647,7 +14647,7 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>200.0</v>
+        <v>326584.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
@@ -14683,25 +14683,25 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>5000</v>
+        <v>8986047</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>4000.0</v>
+        <v>7188837.6</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>40.0</v>
+        <v>71888.376</v>
       </c>
       <c r="U51" s="6">
-        <v>-40.0</v>
+        <v>-71888.376</v>
       </c>
       <c r="V51" s="1">
-        <v>5000</v>
+        <v>8986047</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -14715,7 +14715,7 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>200.0</v>
+        <v>359442.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
@@ -14751,25 +14751,25 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>5000</v>
+        <v>9889652</v>
       </c>
       <c r="Q52" s="2">
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>4000.0</v>
+        <v>7911721.6</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>40.0</v>
+        <v>79117.216</v>
       </c>
       <c r="U52" s="6">
-        <v>-40.0</v>
+        <v>-79117.216</v>
       </c>
       <c r="V52" s="1">
-        <v>5000</v>
+        <v>9889652</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -14783,7 +14783,7 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>200.0</v>
+        <v>395586.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
@@ -14819,25 +14819,25 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>4750.0</v>
+        <v>10339436.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>3800.0</v>
+        <v>8271548.8</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>38.0</v>
+        <v>82715.488</v>
       </c>
       <c r="U53" s="13">
-        <v>-38.0</v>
+        <v>-82715.488</v>
       </c>
       <c r="V53" s="13">
-        <v>4750.0</v>
+        <v>10339436.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -14851,7 +14851,7 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>190.0</v>
+        <v>413577.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
@@ -14887,25 +14887,25 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>4737.0</v>
+        <v>10779518.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>3789.6</v>
+        <v>8623614.4</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>37.896</v>
+        <v>86236.144</v>
       </c>
       <c r="U54" s="6">
-        <v>-37.896</v>
+        <v>-86236.144</v>
       </c>
       <c r="V54" s="1">
-        <v>4737.0</v>
+        <v>10779518.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -14919,7 +14919,7 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>189.0</v>
+        <v>431181.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
@@ -14955,25 +14955,25 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>4722.0</v>
+        <v>11203444.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>3777.6</v>
+        <v>8962755.2</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>37.776</v>
+        <v>89627.552</v>
       </c>
       <c r="U55" s="6">
-        <v>-37.776</v>
+        <v>-89627.552</v>
       </c>
       <c r="V55" s="1">
-        <v>4722.0</v>
+        <v>11203444.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -14987,7 +14987,7 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>189.0</v>
+        <v>448138.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
@@ -15023,25 +15023,25 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>4706.0</v>
+        <v>11603565.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>3764.8</v>
+        <v>9282852.0</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>37.648</v>
+        <v>92828.52</v>
       </c>
       <c r="U56" s="6">
-        <v>-37.648</v>
+        <v>-92828.52</v>
       </c>
       <c r="V56" s="1">
-        <v>4706.0</v>
+        <v>11603565.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -15055,7 +15055,7 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>188.0</v>
+        <v>464143.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
@@ -15091,25 +15091,25 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>4687.0</v>
+        <v>11970864.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>3749.6</v>
+        <v>9576691.2</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>37.496</v>
+        <v>95766.912</v>
       </c>
       <c r="U57" s="13">
-        <v>-37.496</v>
+        <v>-95766.912</v>
       </c>
       <c r="V57" s="13">
-        <v>4687.0</v>
+        <v>11970864.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -15123,7 +15123,7 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>187.0</v>
+        <v>478835.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
@@ -15159,25 +15159,25 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>4667.0</v>
+        <v>12294753.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>3733.6</v>
+        <v>9835802.4</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>37.336</v>
+        <v>98358.024</v>
       </c>
       <c r="U58" s="6">
-        <v>-37.336</v>
+        <v>-98358.024</v>
       </c>
       <c r="V58" s="1">
-        <v>4667.0</v>
+        <v>12294753.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -15191,7 +15191,7 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>187.0</v>
+        <v>491790.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
@@ -15227,25 +15227,25 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>4643.0</v>
+        <v>12562855.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>3714.4</v>
+        <v>10050284.0</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>37.144</v>
+        <v>100502.84</v>
       </c>
       <c r="U59" s="6">
-        <v>-37.144</v>
+        <v>-100502.84</v>
       </c>
       <c r="V59" s="1">
-        <v>4643.0</v>
+        <v>12562855.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -15259,7 +15259,7 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>186.0</v>
+        <v>502514.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
@@ -15295,25 +15295,25 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>4615.0</v>
+        <v>12760746.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>3692.0</v>
+        <v>10208596.8</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>36.92</v>
+        <v>102085.968</v>
       </c>
       <c r="U60" s="6">
-        <v>-36.92</v>
+        <v>-102085.968</v>
       </c>
       <c r="V60" s="1">
-        <v>4615.0</v>
+        <v>12760746.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -15327,7 +15327,7 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>185.0</v>
+        <v>510430.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
@@ -15363,25 +15363,25 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>4583.0</v>
+        <v>12871669.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>3666.4</v>
+        <v>10297335.2</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>36.664</v>
+        <v>102973.352</v>
       </c>
       <c r="U61" s="6">
-        <v>-36.664</v>
+        <v>-102973.352</v>
       </c>
       <c r="V61" s="1">
-        <v>4583.0</v>
+        <v>12871669.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -15395,7 +15395,7 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>183.0</v>
+        <v>514867.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
@@ -15431,25 +15431,25 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>4545.0</v>
+        <v>12876215.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>3636.0</v>
+        <v>10300972.0</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>36.36</v>
+        <v>103009.72</v>
       </c>
       <c r="U62" s="6">
-        <v>-36.36</v>
+        <v>-103009.72</v>
       </c>
       <c r="V62" s="1">
-        <v>4545.0</v>
+        <v>12876215.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -15463,7 +15463,7 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>182.0</v>
+        <v>515049.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
@@ -15499,25 +15499,25 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>4500.0</v>
+        <v>12751953.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>3600.0</v>
+        <v>10201562.4</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>36.0</v>
+        <v>102015.624</v>
       </c>
       <c r="U63" s="6">
-        <v>-36.0</v>
+        <v>-102015.624</v>
       </c>
       <c r="V63" s="1">
-        <v>4500.0</v>
+        <v>12751953.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -15531,7 +15531,7 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>180.0</v>
+        <v>510078.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
@@ -15567,25 +15567,25 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>4444.0</v>
+        <v>12473020.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>3555.2</v>
+        <v>9978416.0</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>35.552</v>
+        <v>99784.16</v>
       </c>
       <c r="U64" s="6">
-        <v>-35.552</v>
+        <v>-99784.16</v>
       </c>
       <c r="V64" s="1">
-        <v>4444.0</v>
+        <v>12473020.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -15599,7 +15599,7 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>178.0</v>
+        <v>498921.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
@@ -15635,25 +15635,25 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>4375.0</v>
+        <v>12009657.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>3500.0</v>
+        <v>9607725.6</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>35.0</v>
+        <v>96077.256</v>
       </c>
       <c r="U65" s="6">
-        <v>-35.0</v>
+        <v>-96077.256</v>
       </c>
       <c r="V65" s="1">
-        <v>4375.0</v>
+        <v>12009657.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -15667,7 +15667,7 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>175.0</v>
+        <v>480386.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
@@ -15703,25 +15703,25 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>4286.0</v>
+        <v>11327677.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>3428.8</v>
+        <v>9062141.6</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
       </c>
       <c r="T66" s="1">
-        <v>34.288</v>
+        <v>90621.416</v>
       </c>
       <c r="U66" s="6">
-        <v>-34.288</v>
+        <v>-90621.416</v>
       </c>
       <c r="V66" s="1">
-        <v>4286.0</v>
+        <v>11327677.0</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -15735,7 +15735,7 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>171.0</v>
+        <v>453107.0</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
@@ -15771,25 +15771,25 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>4167.0</v>
+        <v>10387871.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>3333.6</v>
+        <v>8310296.8</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
       </c>
       <c r="T67" s="1">
-        <v>33.336</v>
+        <v>83102.968</v>
       </c>
       <c r="U67" s="6">
-        <v>-33.336</v>
+        <v>-83102.968</v>
       </c>
       <c r="V67" s="1">
-        <v>4167.0</v>
+        <v>10387871.0</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -15803,7 +15803,7 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>167.0</v>
+        <v>415515.0</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
@@ -15839,25 +15839,25 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>4000.0</v>
+        <v>9145326.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>3200.0</v>
+        <v>7316260.8</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
       </c>
       <c r="T68" s="1">
-        <v>32.0</v>
+        <v>73162.608</v>
       </c>
       <c r="U68" s="6">
-        <v>-32.0</v>
+        <v>-73162.608</v>
       </c>
       <c r="V68" s="1">
-        <v>4000.0</v>
+        <v>9145326.0</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -15871,7 +15871,7 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>160.0</v>
+        <v>365813.0</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
@@ -15907,25 +15907,25 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>3750.0</v>
+        <v>7548644.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>3000.0</v>
+        <v>6038915.2</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
       </c>
       <c r="T69" s="1">
-        <v>30.0</v>
+        <v>60389.152</v>
       </c>
       <c r="U69" s="6">
-        <v>-30.0</v>
+        <v>-60389.152</v>
       </c>
       <c r="V69" s="1">
-        <v>3750.0</v>
+        <v>7548644.0</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -15939,7 +15939,7 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>150.0</v>
+        <v>301946.0</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
@@ -15975,25 +15975,25 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>3333.0</v>
+        <v>5539005.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>2666.4</v>
+        <v>4431204.0</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
       </c>
       <c r="T70" s="1">
-        <v>26.664</v>
+        <v>44312.04</v>
       </c>
       <c r="U70" s="6">
-        <v>-26.664</v>
+        <v>-44312.04</v>
       </c>
       <c r="V70" s="1">
-        <v>3333.0</v>
+        <v>5539005.0</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -16007,7 +16007,7 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>133.0</v>
+        <v>221560.0</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
@@ -16043,25 +16043,25 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>2500.0</v>
+        <v>3048953.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>2000.0</v>
+        <v>2439162.4</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
       </c>
       <c r="T71" s="1">
-        <v>20.0</v>
+        <v>24391.624</v>
       </c>
       <c r="U71" s="6">
-        <v>-20.0</v>
+        <v>-24391.624</v>
       </c>
       <c r="V71" s="1">
-        <v>2500.0</v>
+        <v>3048953.0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -16075,7 +16075,7 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>100.0</v>
+        <v>121958.0</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">

--- a/tests/Feature/config/fond_tenpercent.xlsx
+++ b/tests/Feature/config/fond_tenpercent.xlsx
@@ -996,7 +996,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>2376000</v>
+        <v>198000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>2613600</v>
+        <v>217800</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>2874960</v>
+        <v>239580</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>3162456</v>
+        <v>263538</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>3478701.6</v>
+        <v>289891.8</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>3826571.76</v>
+        <v>318880.98</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>4209228.936</v>
+        <v>350769.078</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>4630151.8296</v>
+        <v>385845.9858</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>5093167.01256</v>
+        <v>424430.58438</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>5602483.713816</v>
+        <v>466873.642818</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>6162732.0851976</v>
+        <v>513561.0070998</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>6779005.2937174</v>
+        <v>564917.10780978</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>7456905.8230891</v>
+        <v>621408.81859076</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>8202596.4053981</v>
+        <v>683549.70044984</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>9022856.0459378</v>
+        <v>751904.67049482</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>9925141.6505316</v>
+        <v>827095.1375443</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>10917655.815585</v>
+        <v>909804.65129873</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>12009421.397143</v>
+        <v>1000785.1164286</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>13210363.536858</v>
+        <v>1100863.6280715</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>14531399.890543</v>
+        <v>1210949.9908786</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>15984539.879598</v>
+        <v>1332044.9899665</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>17582993.867558</v>
+        <v>1465249.4889632</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>19341293.254314</v>
+        <v>1611774.4378595</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>21275422.579746</v>
+        <v>1772951.8816455</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>23402964.837721</v>
+        <v>1950247.0698101</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>25743261.321493</v>
+        <v>2145271.7767911</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>28317587.453642</v>
+        <v>2359798.9544702</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>31149346.199006</v>
+        <v>2595778.8499172</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>34264280.818907</v>
+        <v>2855356.7349089</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>37690708.900798</v>
+        <v>3140892.4083998</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>41459779.790878</v>
+        <v>3454981.6492398</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>45605757.769966</v>
+        <v>3800479.8141638</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>50166333.546962</v>
+        <v>4180527.7955802</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>55182966.901658</v>
+        <v>4598580.5751382</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>60701263.591824</v>
+        <v>5058438.632652</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>66771389.951006</v>
+        <v>5564282.4959172</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>73448528.946107</v>
+        <v>6120710.7455089</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>80793381.840718</v>
+        <v>6732781.8200598</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>88872720.02479</v>
+        <v>7406060.0020658</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>97759992.027269</v>
+        <v>8146666.0022724</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>107535991.23</v>
+        <v>8961332.6024996</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>118289590.353</v>
+        <v>9857465.8627496</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>130118549.3883</v>
+        <v>10843212.449025</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>143130404.32714</v>
+        <v>11927533.693928</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>157443444.75985</v>
+        <v>13120287.063321</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>173187789.23584</v>
+        <v>14432315.769653</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>190506568.15942</v>
+        <v>15875547.346618</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>209557224.97536</v>
+        <v>17463102.08128</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>230512947.4729</v>
+        <v>19209412.289408</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>253564242.22019</v>
+        <v>21130353.518349</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>278920666.44221</v>
+        <v>23243388.870184</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>306812733.08642</v>
+        <v>25567727.757202</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>337494006.39506</v>
+        <v>28124500.532922</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>371243407.03457</v>
+        <v>30936950.586214</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>408367747.73802</v>
+        <v>34030645.644835</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>449204522.51183</v>
+        <v>37433710.209319</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>494124974.76301</v>
+        <v>41177081.230251</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>543537472.23931</v>
+        <v>45294789.353276</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>597891219.46325</v>
+        <v>49824268.288604</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>657680341.40957</v>
+        <v>54806695.117464</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>723448375.55052</v>
+        <v>60287364.62921</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>795793213.10557</v>
+        <v>66316101.092131</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>875372534.41613</v>
+        <v>72947711.201344</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>962909787.85774</v>
+        <v>80242482.321478</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>1059200766.6435</v>
+        <v>88266730.553626</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -6499,7 +6499,7 @@
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6745,7 +6745,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F7" s="2">
         <v>0.1</v>
@@ -6813,7 +6813,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="8">
-        <v>2376000</v>
+        <v>198000</v>
       </c>
       <c r="F8" s="9">
         <v>0.1</v>
@@ -6881,7 +6881,7 @@
         <v>0.1</v>
       </c>
       <c r="E9" s="5">
-        <v>2613600</v>
+        <v>217800</v>
       </c>
       <c r="F9" s="2">
         <v>0.1</v>
@@ -6949,7 +6949,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="5">
-        <v>2874960</v>
+        <v>239580</v>
       </c>
       <c r="F10" s="2">
         <v>0.1</v>
@@ -7017,7 +7017,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="5">
-        <v>3162456</v>
+        <v>263538</v>
       </c>
       <c r="F11" s="2">
         <v>0.1</v>
@@ -7085,7 +7085,7 @@
         <v>0.1</v>
       </c>
       <c r="E12" s="5">
-        <v>3478701.6</v>
+        <v>289891.8</v>
       </c>
       <c r="F12" s="2">
         <v>0.1</v>
@@ -7153,7 +7153,7 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="5">
-        <v>3826571.76</v>
+        <v>318880.98</v>
       </c>
       <c r="F13" s="2">
         <v>0.1</v>
@@ -7221,7 +7221,7 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="5">
-        <v>4209228.936</v>
+        <v>350769.078</v>
       </c>
       <c r="F14" s="2">
         <v>0.1</v>
@@ -7289,7 +7289,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="5">
-        <v>4630151.8296</v>
+        <v>385845.9858</v>
       </c>
       <c r="F15" s="2">
         <v>0.1</v>
@@ -7357,7 +7357,7 @@
         <v>0.1</v>
       </c>
       <c r="E16" s="5">
-        <v>5093167.01256</v>
+        <v>424430.58438</v>
       </c>
       <c r="F16" s="2">
         <v>0.1</v>
@@ -7425,7 +7425,7 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="5">
-        <v>5602483.713816</v>
+        <v>466873.642818</v>
       </c>
       <c r="F17" s="2">
         <v>0.1</v>
@@ -7493,7 +7493,7 @@
         <v>0.1</v>
       </c>
       <c r="E18" s="5">
-        <v>6162732.0851976</v>
+        <v>513561.0070998</v>
       </c>
       <c r="F18" s="2">
         <v>0.1</v>
@@ -7561,7 +7561,7 @@
         <v>0.1</v>
       </c>
       <c r="E19" s="5">
-        <v>6779005.2937174</v>
+        <v>564917.10780978</v>
       </c>
       <c r="F19" s="2">
         <v>0.1</v>
@@ -7629,7 +7629,7 @@
         <v>0.1</v>
       </c>
       <c r="E20" s="5">
-        <v>7456905.8230891</v>
+        <v>621408.81859076</v>
       </c>
       <c r="F20" s="2">
         <v>0.1</v>
@@ -7697,7 +7697,7 @@
         <v>0.1</v>
       </c>
       <c r="E21" s="5">
-        <v>8202596.4053981</v>
+        <v>683549.70044984</v>
       </c>
       <c r="F21" s="2">
         <v>0.1</v>
@@ -7765,7 +7765,7 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="5">
-        <v>9022856.0459378</v>
+        <v>751904.67049482</v>
       </c>
       <c r="F22" s="2">
         <v>0.1</v>
@@ -7833,7 +7833,7 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="5">
-        <v>9925141.6505316</v>
+        <v>827095.1375443</v>
       </c>
       <c r="F23" s="2">
         <v>0.1</v>
@@ -7901,7 +7901,7 @@
         <v>0.1</v>
       </c>
       <c r="E24" s="5">
-        <v>10917655.815585</v>
+        <v>909804.65129873</v>
       </c>
       <c r="F24" s="2">
         <v>0.1</v>
@@ -7969,7 +7969,7 @@
         <v>0.1</v>
       </c>
       <c r="E25" s="5">
-        <v>12009421.397143</v>
+        <v>1000785.1164286</v>
       </c>
       <c r="F25" s="2">
         <v>0.1</v>
@@ -8037,7 +8037,7 @@
         <v>0.1</v>
       </c>
       <c r="E26" s="5">
-        <v>13210363.536858</v>
+        <v>1100863.6280715</v>
       </c>
       <c r="F26" s="2">
         <v>0.1</v>
@@ -8105,7 +8105,7 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="5">
-        <v>14531399.890543</v>
+        <v>1210949.9908786</v>
       </c>
       <c r="F27" s="2">
         <v>0.1</v>
@@ -8173,7 +8173,7 @@
         <v>0.1</v>
       </c>
       <c r="E28" s="5">
-        <v>15984539.879598</v>
+        <v>1332044.9899665</v>
       </c>
       <c r="F28" s="2">
         <v>0.1</v>
@@ -8241,7 +8241,7 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="5">
-        <v>17582993.867558</v>
+        <v>1465249.4889632</v>
       </c>
       <c r="F29" s="2">
         <v>0.1</v>
@@ -8309,7 +8309,7 @@
         <v>0.1</v>
       </c>
       <c r="E30" s="5">
-        <v>19341293.254314</v>
+        <v>1611774.4378595</v>
       </c>
       <c r="F30" s="2">
         <v>0.1</v>
@@ -8377,7 +8377,7 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="5">
-        <v>21275422.579746</v>
+        <v>1772951.8816455</v>
       </c>
       <c r="F31" s="2">
         <v>0.1</v>
@@ -8445,7 +8445,7 @@
         <v>0.1</v>
       </c>
       <c r="E32" s="5">
-        <v>23402964.837721</v>
+        <v>1950247.0698101</v>
       </c>
       <c r="F32" s="2">
         <v>0.1</v>
@@ -8513,7 +8513,7 @@
         <v>0.1</v>
       </c>
       <c r="E33" s="5">
-        <v>25743261.321493</v>
+        <v>2145271.7767911</v>
       </c>
       <c r="F33" s="2">
         <v>0.1</v>
@@ -8581,7 +8581,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="5">
-        <v>28317587.453642</v>
+        <v>2359798.9544702</v>
       </c>
       <c r="F34" s="2">
         <v>0.1</v>
@@ -8649,7 +8649,7 @@
         <v>0.1</v>
       </c>
       <c r="E35" s="5">
-        <v>31149346.199006</v>
+        <v>2595778.8499172</v>
       </c>
       <c r="F35" s="2">
         <v>0.1</v>
@@ -8717,7 +8717,7 @@
         <v>0.1</v>
       </c>
       <c r="E36" s="5">
-        <v>34264280.818907</v>
+        <v>2855356.7349089</v>
       </c>
       <c r="F36" s="2">
         <v>0.1</v>
@@ -8785,7 +8785,7 @@
         <v>0.1</v>
       </c>
       <c r="E37" s="5">
-        <v>37690708.900798</v>
+        <v>3140892.4083998</v>
       </c>
       <c r="F37" s="2">
         <v>0.1</v>
@@ -8853,7 +8853,7 @@
         <v>0.1</v>
       </c>
       <c r="E38" s="5">
-        <v>41459779.790878</v>
+        <v>3454981.6492398</v>
       </c>
       <c r="F38" s="2">
         <v>0.1</v>
@@ -8921,7 +8921,7 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="5">
-        <v>45605757.769966</v>
+        <v>3800479.8141638</v>
       </c>
       <c r="F39" s="2">
         <v>0.1</v>
@@ -8989,7 +8989,7 @@
         <v>0.1</v>
       </c>
       <c r="E40" s="11">
-        <v>50166333.546962</v>
+        <v>4180527.7955802</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
@@ -9057,7 +9057,7 @@
         <v>0.1</v>
       </c>
       <c r="E41" s="5">
-        <v>55182966.901658</v>
+        <v>4598580.5751382</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
@@ -9125,7 +9125,7 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="5">
-        <v>60701263.591824</v>
+        <v>5058438.632652</v>
       </c>
       <c r="F42" s="2">
         <v>0.1</v>
@@ -9193,7 +9193,7 @@
         <v>0.1</v>
       </c>
       <c r="E43" s="5">
-        <v>66771389.951006</v>
+        <v>5564282.4959172</v>
       </c>
       <c r="F43" s="2">
         <v>0.1</v>
@@ -9261,7 +9261,7 @@
         <v>0.1</v>
       </c>
       <c r="E44" s="5">
-        <v>73448528.946107</v>
+        <v>6120710.7455089</v>
       </c>
       <c r="F44" s="2">
         <v>0.1</v>
@@ -9329,7 +9329,7 @@
         <v>0.1</v>
       </c>
       <c r="E45" s="5">
-        <v>80793381.840718</v>
+        <v>6732781.8200598</v>
       </c>
       <c r="F45" s="2">
         <v>0.1</v>
@@ -9397,7 +9397,7 @@
         <v>0.1</v>
       </c>
       <c r="E46" s="5">
-        <v>88872720.02479</v>
+        <v>7406060.0020658</v>
       </c>
       <c r="F46" s="2">
         <v>0.1</v>
@@ -9465,7 +9465,7 @@
         <v>0.1</v>
       </c>
       <c r="E47" s="5">
-        <v>97759992.027269</v>
+        <v>8146666.0022724</v>
       </c>
       <c r="F47" s="2">
         <v>0.1</v>
@@ -9533,7 +9533,7 @@
         <v>0.1</v>
       </c>
       <c r="E48" s="5">
-        <v>107535991.23</v>
+        <v>8961332.6024996</v>
       </c>
       <c r="F48" s="2">
         <v>0.1</v>
@@ -9601,7 +9601,7 @@
         <v>0.1</v>
       </c>
       <c r="E49" s="5">
-        <v>118289590.353</v>
+        <v>9857465.8627496</v>
       </c>
       <c r="F49" s="2">
         <v>0.1</v>
@@ -9669,7 +9669,7 @@
         <v>0.1</v>
       </c>
       <c r="E50" s="5">
-        <v>130118549.3883</v>
+        <v>10843212.449025</v>
       </c>
       <c r="F50" s="2">
         <v>0.1</v>
@@ -9737,7 +9737,7 @@
         <v>0.1</v>
       </c>
       <c r="E51" s="5">
-        <v>143130404.32714</v>
+        <v>11927533.693928</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
@@ -9805,7 +9805,7 @@
         <v>0.1</v>
       </c>
       <c r="E52" s="5">
-        <v>157443444.75985</v>
+        <v>13120287.063321</v>
       </c>
       <c r="F52" s="2">
         <v>0.1</v>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>173187789.23584</v>
+        <v>14432315.769653</v>
       </c>
       <c r="F53" s="14">
         <v>0.1</v>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>190506568.15942</v>
+        <v>15875547.346618</v>
       </c>
       <c r="F54" s="2">
         <v>0.1</v>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>209557224.97536</v>
+        <v>17463102.08128</v>
       </c>
       <c r="F55" s="2">
         <v>0.1</v>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>230512947.4729</v>
+        <v>19209412.289408</v>
       </c>
       <c r="F56" s="2">
         <v>0.1</v>
@@ -10135,7 +10135,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>253564242.22019</v>
+        <v>21130353.518349</v>
       </c>
       <c r="F57" s="14">
         <v>0.1</v>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>278920666.44221</v>
+        <v>23243388.870184</v>
       </c>
       <c r="F58" s="2">
         <v>0.1</v>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>306812733.08642</v>
+        <v>25567727.757202</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>337494006.39506</v>
+        <v>28124500.532922</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>371243407.03457</v>
+        <v>30936950.586214</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>408367747.73802</v>
+        <v>34030645.644835</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>449204522.51183</v>
+        <v>37433710.209319</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>494124974.76301</v>
+        <v>41177081.230251</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
@@ -10663,7 +10663,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>543537472.23931</v>
+        <v>45294789.353276</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>597891219.46325</v>
+        <v>49824268.288604</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>657680341.40957</v>
+        <v>54806695.117464</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>723448375.55052</v>
+        <v>60287364.62921</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>795793213.10557</v>
+        <v>66316101.092131</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>875372534.41613</v>
+        <v>72947711.201344</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>962909787.85774</v>
+        <v>80242482.321478</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>1059200766.6435</v>
+        <v>88266730.553626</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>

--- a/tests/Feature/config/fond_tenpercent.xlsx
+++ b/tests/Feature/config/fond_tenpercent.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
     <sheet name="Income" sheetId="2" r:id="rId5"/>
-    <sheet name="fond privat" sheetId="3" r:id="rId6"/>
+    <sheet name="fond" sheetId="3" r:id="rId6"/>
     <sheet name="Statistics" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>private</t>
   </si>
@@ -144,448 +144,445 @@
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve">Income no transferResource &amp;&amp; transferRule
-Using current value: 15000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
+Using current amount: 15000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 198000 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 198000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 217800 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 217800 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 239580 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 239580 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 263538 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 263538 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 289892 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 289892 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 318881 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 318881 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 350769 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 350769 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 385846 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 385846 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 424431 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 424431 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 466874 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 466874 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 513561 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 513561 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 564917 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 564917 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 621409 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 621409 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 683550 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 683550 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 751905 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 751905 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 827095 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 827095 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 909805 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 909805 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1000785 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 1000785 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1100864 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 1100864 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1210950 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 1210950 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1332045 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 1332045 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1465249 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 1465249 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1611774 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 1611774 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1772952 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 1772952 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1950247 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 1950247 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 2145272 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 2145272 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 2359799 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 2359799 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 2595779 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 2595779 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 2855357 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 2855357 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 3140892 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 3140892 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 3454982 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 3454982 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 3800480 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 3800480 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 4180528 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 4180528 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 4598581 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 4598581 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 5058439 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 5058439 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 5564282 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 5564282 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 6120711 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 6120711 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 6732782 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 6732782 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 7406060 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 7406060 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 8146666 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 8146666 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 8961333 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 8961333 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 9857466 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 9857466 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 10843212 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 10843212 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 11927534 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 11927534 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 13120287 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 13120287 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve">Pensioned, no more salary from here no transferResource &amp;&amp; transferRule
-Using previous value: 14432316 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 14432316 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 15875547 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 15875547 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 17463102 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 17463102 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 19209412 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 19209412 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 21130354 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 21130354 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 23243389 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 23243389 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 25567728 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 25567728 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 28124501 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 28124501 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 30936951 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 30936951 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 34030646 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 34030646 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 37433710 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 37433710 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 41177081 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 41177081 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 45294789 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 45294789 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 49824268 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 49824268 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 54806695 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 54806695 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 60287365 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 60287365 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 66316101 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 66316101 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 72947711 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 72947711 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 80242482 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 80242482 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 88266731 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 88266731 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
-  </si>
-  <si>
-    <t>fond privat</t>
   </si>
   <si>
     <t>fond</t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000 no transferResource &amp;&amp; transferRule
+Using previous amount: 0 Asset rule +5000 no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0Uttak fra 2068, 1/20 Asset rule +5000Divisor is: 544181 new rule: 1/19 transfer 544181 to income.2068.income.amount reduce fond.2068 by 544181
+Using previous amount: 0Uttak fra 2068, 1/20 Asset rule +5000Divisor is: 544181 new rule: 1/19 transfer 544181 to income.2068.income.amount reduce fond.2068 by 544181
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 598862 new rule: 1/18 transfer 598862 to income.2069.income.amount reduce fond.2069 by 598862
+Using previous amount: 0 Asset rule +5000Divisor is: 598862 new rule: 1/18 transfer 598862 to income.2069.income.amount reduce fond.2069 by 598862
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 659026 new rule: 1/17 transfer 659026 to income.2070.income.amount reduce fond.2070 by 659026
+Using previous amount: 0 Asset rule +5000Divisor is: 659026 new rule: 1/17 transfer 659026 to income.2070.income.amount reduce fond.2070 by 659026
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 725223 new rule: 1/16 transfer 725223 to income.2071.income.amount reduce fond.2071 by 725223
+Using previous amount: 0 Asset rule +5000Divisor is: 725223 new rule: 1/16 transfer 725223 to income.2071.income.amount reduce fond.2071 by 725223
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 798058 new rule: 1/15 transfer 798058 to income.2072.income.amount reduce fond.2072 by 798058
+Using previous amount: 0 Asset rule +5000Divisor is: 798058 new rule: 1/15 transfer 798058 to income.2072.income.amount reduce fond.2072 by 798058
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 878197 new rule: 1/14 transfer 878197 to income.2073.income.amount reduce fond.2073 by 878197
+Using previous amount: 0 Asset rule +5000Divisor is: 878197 new rule: 1/14 transfer 878197 to income.2073.income.amount reduce fond.2073 by 878197
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 966373 new rule: 1/13 transfer 966373 to income.2074.income.amount reduce fond.2074 by 966373
+Using previous amount: 0 Asset rule +5000Divisor is: 966373 new rule: 1/13 transfer 966373 to income.2074.income.amount reduce fond.2074 by 966373
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 1063395 new rule: 1/12 transfer 1063395 to income.2075.income.amount reduce fond.2075 by 1063395
+Using previous amount: 0 Asset rule +5000Divisor is: 1063395 new rule: 1/12 transfer 1063395 to income.2075.income.amount reduce fond.2075 by 1063395
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 1170152 new rule: 1/11 transfer 1170152 to income.2076.income.amount reduce fond.2076 by 1170152
+Using previous amount: 0 Asset rule +5000Divisor is: 1170152 new rule: 1/11 transfer 1170152 to income.2076.income.amount reduce fond.2076 by 1170152
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 1287621 new rule: 1/10 transfer 1287621 to income.2077.income.amount reduce fond.2077 by 1287621
+Using previous amount: 0 Asset rule +5000Divisor is: 1287621 new rule: 1/10 transfer 1287621 to income.2077.income.amount reduce fond.2077 by 1287621
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 1416884 new rule: 1/9 transfer 1416884 to income.2078.income.amount reduce fond.2078 by 1416884
+Using previous amount: 0 Asset rule +5000Divisor is: 1416884 new rule: 1/9 transfer 1416884 to income.2078.income.amount reduce fond.2078 by 1416884
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 1559128 new rule: 1/8 transfer 1559128 to income.2079.income.amount reduce fond.2079 by 1559128
+Using previous amount: 0 Asset rule +5000Divisor is: 1559128 new rule: 1/8 transfer 1559128 to income.2079.income.amount reduce fond.2079 by 1559128
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 1715665 new rule: 1/7 transfer 1715665 to income.2080.income.amount reduce fond.2080 by 1715665
+Using previous amount: 0 Asset rule +5000Divisor is: 1715665 new rule: 1/7 transfer 1715665 to income.2080.income.amount reduce fond.2080 by 1715665
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 1887946 new rule: 1/6 transfer 1887946 to income.2081.income.amount reduce fond.2081 by 1887946
+Using previous amount: 0 Asset rule +5000Divisor is: 1887946 new rule: 1/6 transfer 1887946 to income.2081.income.amount reduce fond.2081 by 1887946
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 2077574 new rule: 1/5 transfer 2077574 to income.2082.income.amount reduce fond.2082 by 2077574
+Using previous amount: 0 Asset rule +5000Divisor is: 2077574 new rule: 1/5 transfer 2077574 to income.2082.income.amount reduce fond.2082 by 2077574
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 2286332 new rule: 1/4 transfer 2286332 to income.2083.income.amount reduce fond.2083 by 2286332
+Using previous amount: 0 Asset rule +5000Divisor is: 2286332 new rule: 1/4 transfer 2286332 to income.2083.income.amount reduce fond.2083 by 2286332
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 2516215 new rule: 1/3 transfer 2516215 to income.2084.income.amount reduce fond.2084 by 2516215
+Using previous amount: 0 Asset rule +5000Divisor is: 2516215 new rule: 1/3 transfer 2516215 to income.2084.income.amount reduce fond.2084 by 2516215
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 2769503 new rule: 1/2 transfer 2769503 to income.2085.income.amount reduce fond.2085 by 2769503
+Using previous amount: 0 Asset rule +5000Divisor is: 2769503 new rule: 1/2 transfer 2769503 to income.2085.income.amount reduce fond.2085 by 2769503
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 3048953 new rule: 1/1 transfer 3048953 to income.2086.income.amount reduce fond.2086 by 3048953
+Using previous amount: 0 Asset rule +5000Divisor is: 3048953 new rule: 1/1 transfer 3048953 to income.2086.income.amount reduce fond.2086 by 3048953
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 3358848 new rule:  transfer 3358848 to income.2087.income.amount reduce fond.2087 by 3358848
+Using previous amount: 0 Asset rule +5000Divisor is: 3358848 new rule:  transfer 3358848 to income.2087.income.amount reduce fond.2087 by 3358848
 </t>
   </si>
   <si>
@@ -11432,8 +11429,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -11482,7 +11479,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -11863,7 +11860,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -11931,7 +11928,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -11999,7 +11996,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -12067,7 +12064,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -12135,7 +12132,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -12203,7 +12200,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -12271,7 +12268,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -12339,7 +12336,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -12407,7 +12404,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -12475,7 +12472,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -12543,7 +12540,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -12611,7 +12608,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -12679,7 +12676,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -12747,7 +12744,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -12815,7 +12812,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -12883,7 +12880,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -12951,7 +12948,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -13019,7 +13016,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -13087,7 +13084,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -13155,7 +13152,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -13223,7 +13220,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -13291,7 +13288,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -13359,7 +13356,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -13427,7 +13424,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -13495,7 +13492,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -13563,7 +13560,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -13631,7 +13628,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -13699,7 +13696,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -13767,7 +13764,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -13835,7 +13832,7 @@
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -13903,7 +13900,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -13971,7 +13968,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -14039,7 +14036,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -14107,7 +14104,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -14175,7 +14172,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -14243,7 +14240,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -14311,7 +14308,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -14379,7 +14376,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -14447,7 +14444,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -14515,7 +14512,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -14583,7 +14580,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -14651,7 +14648,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -14719,7 +14716,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -14787,7 +14784,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -14855,7 +14852,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -14923,7 +14920,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -14991,7 +14988,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -15059,7 +15056,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -15127,7 +15124,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -15195,7 +15192,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -15263,7 +15260,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -15331,7 +15328,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -15399,7 +15396,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -15467,7 +15464,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -15535,7 +15532,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -15603,7 +15600,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -15671,7 +15668,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -15739,7 +15736,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -15807,7 +15804,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -15875,7 +15872,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -15943,7 +15940,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -16011,7 +16008,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -16079,7 +16076,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -16145,7 +16142,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -16403,10 +16400,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/tests/Feature/config/fond_tenpercent.xlsx
+++ b/tests/Feature/config/fond_tenpercent.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>private</t>
   </si>
@@ -146,356 +146,359 @@
     <t>income</t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Income no transferResource &amp;&amp; transferRule
-Using current amount: 15000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">IncomeUsing current amount: 15000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 198000 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 198000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 217800 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 217800 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 239580 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 239580 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 263538 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 263538 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 289892 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 289892 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 318881 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 318881 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 350769 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 350769 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 385846 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 385846 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 424431 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 424431 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 466874 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 466874 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 513561 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 513561 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 564917 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 564917 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 621409 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 621409 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 683550 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 683550 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 751905 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 751905 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 827095 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 827095 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 909805 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 909805 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 1000785 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1000785 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 1100864 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1100864 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 1210950 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1210950 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 1332045 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1332045 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 1465249 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1465249 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 1611774 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1611774 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 1772952 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1772952 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 1950247 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1950247 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 2145272 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 2145272 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 2359799 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 2359799 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 2595779 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 2595779 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 2855357 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 2855357 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 3140892 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 3140892 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 3454982 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 3454982 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 3800480 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 3800480 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 4180528 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 4180528 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 4598581 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 4598581 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 5058439 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 5058439 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 5564282 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 5564282 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 6120711 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 6120711 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 6732782 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 6732782 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 7406060 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 7406060 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 8146666 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 8146666 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 8961333 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 8961333 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 9857466 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 9857466 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 10843212 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 10843212 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 11927534 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 11927534 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 13120287 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 13120287 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pensioned, no more salary from here no transferResource &amp;&amp; transferRule
-Using previous amount: 14432316 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Pensioned, no more salary from hereUsing previous amount: 14432316 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 15875547 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 15875547 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 17463102 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 17463102 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 19209412 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 19209412 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 21130354 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 21130354 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 23243389 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 23243389 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 25567728 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 25567728 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 28124501 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 28124501 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 30936951 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 30936951 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 34030646 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 34030646 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 37433710 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 37433710 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 41177081 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 41177081 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 45294789 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 45294789 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 49824268 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 49824268 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 54806695 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 54806695 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 60287365 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 60287365 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 66316101 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 66316101 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 72947711 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 72947711 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 80242482 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 80242482 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 88266731 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 88266731 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t>fond</t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 0 Asset rule +5000 no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000 no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 0Uttak fra 2068, 1/20 Asset rule +50001/19 transfer 544181 to income.2068.income.amount reduce fond.2068 by 544181
+    <t xml:space="preserve">Using previous amount: 0Uttak fra 2068, 1/20 Asset rule +5000Divisor is: 544181 new rule: 1/19 transfer 544181 to income.2068.income.amount reduce fond.2068 by 544181
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous amount: 0 Asset rule +50000</t>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 598862 new rule: 1/18 transfer 598862 to income.2069.income.amount reduce fond.2069 by 598862
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 659026 new rule: 1/17 transfer 659026 to income.2070.income.amount reduce fond.2070 by 659026
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 725223 new rule: 1/16 transfer 725223 to income.2071.income.amount reduce fond.2071 by 725223
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 798058 new rule: 1/15 transfer 798058 to income.2072.income.amount reduce fond.2072 by 798058
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 878197 new rule: 1/14 transfer 878197 to income.2073.income.amount reduce fond.2073 by 878197
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 966373 new rule: 1/13 transfer 966373 to income.2074.income.amount reduce fond.2074 by 966373
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 1063395 new rule: 1/12 transfer 1063395 to income.2075.income.amount reduce fond.2075 by 1063395
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 1170152 new rule: 1/11 transfer 1170152 to income.2076.income.amount reduce fond.2076 by 1170152
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 1287621 new rule: 1/10 transfer 1287621 to income.2077.income.amount reduce fond.2077 by 1287621
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 1416884 new rule: 1/9 transfer 1416884 to income.2078.income.amount reduce fond.2078 by 1416884
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 1559128 new rule: 1/8 transfer 1559128 to income.2079.income.amount reduce fond.2079 by 1559128
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 1715665 new rule: 1/7 transfer 1715665 to income.2080.income.amount reduce fond.2080 by 1715665
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 1887946 new rule: 1/6 transfer 1887946 to income.2081.income.amount reduce fond.2081 by 1887946
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 2077574 new rule: 1/5 transfer 2077574 to income.2082.income.amount reduce fond.2082 by 2077574
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 2286332 new rule: 1/4 transfer 2286332 to income.2083.income.amount reduce fond.2083 by 2286332
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 2516215 new rule: 1/3 transfer 2516215 to income.2084.income.amount reduce fond.2084 by 2516215
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 2769503 new rule: 1/2 transfer 2769503 to income.2085.income.amount reduce fond.2085 by 2769503
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 3048953 new rule: 1/1 transfer 3048953 to income.2086.income.amount reduce fond.2086 by 3048953
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous amount: 0 Asset rule +5000Divisor is: 3358848 new rule:  transfer 3358848 to income.2087.income.amount reduce fond.2087 by 3358848
+</t>
   </si>
   <si>
     <t>total</t>
@@ -1259,7 +1262,7 @@
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="S8" s="8">
         <v>80000.0</v>
@@ -1334,7 +1337,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>5000.0</v>
+        <v>105000</v>
       </c>
       <c r="S9" s="1">
         <v>92000.0</v>
@@ -1409,7 +1412,7 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>5000.0</v>
+        <v>110000</v>
       </c>
       <c r="S10" s="1">
         <v>105200.0</v>
@@ -1484,7 +1487,7 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>5000.0</v>
+        <v>115000</v>
       </c>
       <c r="S11" s="1">
         <v>119720.0</v>
@@ -1559,7 +1562,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>5000.0</v>
+        <v>120000</v>
       </c>
       <c r="S12" s="1">
         <v>135692.0</v>
@@ -1634,7 +1637,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>5000.0</v>
+        <v>125000</v>
       </c>
       <c r="S13" s="1">
         <v>153261.6</v>
@@ -1709,7 +1712,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>5000.0</v>
+        <v>130000</v>
       </c>
       <c r="S14" s="1">
         <v>172588.0</v>
@@ -1784,7 +1787,7 @@
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>5000.0</v>
+        <v>135000</v>
       </c>
       <c r="S15" s="1">
         <v>193847.2</v>
@@ -1859,7 +1862,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>5000.0</v>
+        <v>140000</v>
       </c>
       <c r="S16" s="1">
         <v>217232.0</v>
@@ -1934,7 +1937,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>5000.0</v>
+        <v>145000</v>
       </c>
       <c r="S17" s="1">
         <v>242955.2</v>
@@ -2009,7 +2012,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>5000.0</v>
+        <v>150000</v>
       </c>
       <c r="S18" s="1">
         <v>271250.4</v>
@@ -2084,7 +2087,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>5000.0</v>
+        <v>155000</v>
       </c>
       <c r="S19" s="1">
         <v>302375.2</v>
@@ -2159,7 +2162,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>5000.0</v>
+        <v>160000</v>
       </c>
       <c r="S20" s="1">
         <v>336612.8</v>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>5000.0</v>
+        <v>165000</v>
       </c>
       <c r="S21" s="1">
         <v>374274.4</v>
@@ -2309,7 +2312,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>5000.0</v>
+        <v>170000</v>
       </c>
       <c r="S22" s="1">
         <v>415701.6</v>
@@ -2384,7 +2387,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>5000.0</v>
+        <v>175000</v>
       </c>
       <c r="S23" s="1">
         <v>461272.0</v>
@@ -2459,7 +2462,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>5000.0</v>
+        <v>180000</v>
       </c>
       <c r="S24" s="1">
         <v>511399.2</v>
@@ -2534,7 +2537,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>5000.0</v>
+        <v>185000</v>
       </c>
       <c r="S25" s="1">
         <v>566539.2</v>
@@ -2609,7 +2612,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>5000.0</v>
+        <v>190000</v>
       </c>
       <c r="S26" s="1">
         <v>627192.8</v>
@@ -2684,7 +2687,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>5000.0</v>
+        <v>195000</v>
       </c>
       <c r="S27" s="1">
         <v>693912.0</v>
@@ -2759,7 +2762,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>5000.0</v>
+        <v>200000</v>
       </c>
       <c r="S28" s="1">
         <v>767303.2</v>
@@ -2834,7 +2837,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>5000.0</v>
+        <v>205000</v>
       </c>
       <c r="S29" s="1">
         <v>848033.6</v>
@@ -2909,7 +2912,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>5000.0</v>
+        <v>210000</v>
       </c>
       <c r="S30" s="1">
         <v>936836.8</v>
@@ -2984,7 +2987,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>5000.0</v>
+        <v>215000</v>
       </c>
       <c r="S31" s="1">
         <v>1034520.8</v>
@@ -3059,7 +3062,7 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>5000.0</v>
+        <v>220000</v>
       </c>
       <c r="S32" s="1">
         <v>1141972.8</v>
@@ -3134,7 +3137,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>5000.0</v>
+        <v>225000</v>
       </c>
       <c r="S33" s="1">
         <v>1260170.4</v>
@@ -3209,7 +3212,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>5000.0</v>
+        <v>230000</v>
       </c>
       <c r="S34" s="1">
         <v>1390187.2</v>
@@ -3284,7 +3287,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>5000.0</v>
+        <v>235000</v>
       </c>
       <c r="S35" s="1">
         <v>1533205.6</v>
@@ -3359,7 +3362,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>5000.0</v>
+        <v>240000</v>
       </c>
       <c r="S36" s="1">
         <v>1690526.4</v>
@@ -3434,7 +3437,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>5000.0</v>
+        <v>245000</v>
       </c>
       <c r="S37" s="1">
         <v>1863579.2</v>
@@ -3509,7 +3512,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>5000.0</v>
+        <v>250000</v>
       </c>
       <c r="S38" s="1">
         <v>2053936.8</v>
@@ -3584,7 +3587,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>5000.0</v>
+        <v>255000</v>
       </c>
       <c r="S39" s="1">
         <v>2263330.4</v>
@@ -3659,7 +3662,7 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>5000.0</v>
+        <v>260000</v>
       </c>
       <c r="S40" s="11">
         <v>2493663.2</v>
@@ -3734,7 +3737,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>5000.0</v>
+        <v>265000</v>
       </c>
       <c r="S41" s="1">
         <v>2747029.6</v>
@@ -3809,7 +3812,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>5000.0</v>
+        <v>270000</v>
       </c>
       <c r="S42" s="1">
         <v>3025732.8</v>
@@ -3884,7 +3887,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>5000.0</v>
+        <v>275000</v>
       </c>
       <c r="S43" s="1">
         <v>3332306.4</v>
@@ -3959,7 +3962,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>5000.0</v>
+        <v>280000</v>
       </c>
       <c r="S44" s="1">
         <v>3669536.8</v>
@@ -4034,7 +4037,7 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>5000.0</v>
+        <v>285000</v>
       </c>
       <c r="S45" s="1">
         <v>4040490.4</v>
@@ -4109,7 +4112,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>5000.0</v>
+        <v>290000</v>
       </c>
       <c r="S46" s="1">
         <v>4448539.2</v>
@@ -4184,7 +4187,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>5000.0</v>
+        <v>295000</v>
       </c>
       <c r="S47" s="1">
         <v>4897392.8</v>
@@ -4259,7 +4262,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>5000.0</v>
+        <v>300000</v>
       </c>
       <c r="S48" s="1">
         <v>5391132.0</v>
@@ -4334,7 +4337,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>5000.0</v>
+        <v>305000</v>
       </c>
       <c r="S49" s="1">
         <v>5934245.6</v>
@@ -4409,7 +4412,7 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>5000.0</v>
+        <v>310000</v>
       </c>
       <c r="S50" s="1">
         <v>6531670.4</v>
@@ -4484,7 +4487,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>5000.0</v>
+        <v>315000</v>
       </c>
       <c r="S51" s="1">
         <v>7188837.6</v>
@@ -4559,7 +4562,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>5000.0</v>
+        <v>320000</v>
       </c>
       <c r="S52" s="1">
         <v>7911721.6</v>
@@ -4634,7 +4637,7 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>5000.0</v>
+        <v>0</v>
       </c>
       <c r="S53" s="13">
         <v>8271548.8</v>
@@ -4676,7 +4679,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>598862.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4705,22 +4708,22 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>0</v>
+        <v>10779518.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>5000.0</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1">
-        <v>0.0</v>
+        <v>8623614.4</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="6"/>
       <c r="V54" s="1">
-        <v>-15875547.0</v>
+        <v>-15961783.144</v>
       </c>
       <c r="W54" s="1">
-        <v>0</v>
+        <v>10779518.0</v>
       </c>
       <c r="X54" s="1"/>
       <c r="Y54" s="1">
@@ -4736,7 +4739,10 @@
         <v>0.0</v>
       </c>
       <c r="AC54">
-        <v>-15875547.0</v>
+        <v>-15444366.0</v>
+      </c>
+      <c r="AD54">
+        <v>-35.818776869244</v>
       </c>
       <c r="AE54"/>
     </row>
@@ -4748,7 +4754,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>659026.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4777,22 +4783,22 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>0</v>
+        <v>11203444.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>0.0</v>
+        <v>8962755.2</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="6"/>
       <c r="V55" s="1">
-        <v>-17463102.0</v>
+        <v>-17552729.552</v>
       </c>
       <c r="W55" s="1">
-        <v>0</v>
+        <v>11203444.0</v>
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="1">
@@ -4808,7 +4814,10 @@
         <v>0.0</v>
       </c>
       <c r="AC55">
-        <v>-17463102.0</v>
+        <v>-17014964.0</v>
+      </c>
+      <c r="AD55">
+        <v>-37.968155149434</v>
       </c>
       <c r="AE55"/>
     </row>
@@ -4820,7 +4829,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>725223.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4849,22 +4858,22 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>0</v>
+        <v>11603565.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>0.0</v>
+        <v>9282852.0</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="6"/>
       <c r="V56" s="1">
-        <v>-19209412.0</v>
+        <v>-19302240.52</v>
       </c>
       <c r="W56" s="1">
-        <v>0</v>
+        <v>11603565.0</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="1">
@@ -4880,7 +4889,10 @@
         <v>0.0</v>
       </c>
       <c r="AC56">
-        <v>-19209412.0</v>
+        <v>-18745269.0</v>
+      </c>
+      <c r="AD56">
+        <v>-40.386874637234</v>
       </c>
       <c r="AE56"/>
     </row>
@@ -4892,7 +4904,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>798058.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4921,22 +4933,22 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>0</v>
+        <v>11970864.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
         <v>0</v>
       </c>
       <c r="S57" s="13">
-        <v>0.0</v>
+        <v>9576691.2</v>
       </c>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
       <c r="V57" s="13">
-        <v>-21130353.0</v>
+        <v>-21226119.912</v>
       </c>
       <c r="W57" s="13">
-        <v>0</v>
+        <v>11970864.0</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13">
@@ -4952,9 +4964,11 @@
         <v>0.0</v>
       </c>
       <c r="AC57" s="3">
-        <v>-21130354.0</v>
-      </c>
-      <c r="AD57" s="3"/>
+        <v>-20651519.0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>-43.128714435316</v>
+      </c>
       <c r="AE57"/>
     </row>
     <row r="58" spans="1:31">
@@ -4965,7 +4979,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>878197.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4994,22 +5008,22 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>0</v>
+        <v>12294753.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
         <v>0</v>
       </c>
       <c r="S58" s="1">
-        <v>0.0</v>
+        <v>9835802.4</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="6"/>
       <c r="V58" s="1">
-        <v>-23243388.0</v>
+        <v>-23341746.024</v>
       </c>
       <c r="W58" s="1">
-        <v>0</v>
+        <v>12294753.0</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="1">
@@ -5025,7 +5039,10 @@
         <v>0.0</v>
       </c>
       <c r="AC58">
-        <v>-23243389.0</v>
+        <v>-22751599.0</v>
+      </c>
+      <c r="AD58">
+        <v>-46.262822441411</v>
       </c>
       <c r="AE58"/>
     </row>
@@ -5037,7 +5054,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>966373.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -5066,22 +5083,22 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>0</v>
+        <v>12562855.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
         <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>0.0</v>
+        <v>10050284.0</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="6"/>
       <c r="V59" s="1">
-        <v>-25567727.0</v>
+        <v>-25668229.84</v>
       </c>
       <c r="W59" s="1">
-        <v>0</v>
+        <v>12562855.0</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1">
@@ -5097,7 +5114,10 @@
         <v>0.0</v>
       </c>
       <c r="AC59">
-        <v>-25567728.0</v>
+        <v>-25065214.0</v>
+      </c>
+      <c r="AD59">
+        <v>-49.87961335222</v>
       </c>
       <c r="AE59"/>
     </row>
@@ -5109,7 +5129,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>1063395.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -5138,22 +5158,22 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>0</v>
+        <v>12760746.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
         <v>0</v>
       </c>
       <c r="S60" s="1">
-        <v>0.0</v>
+        <v>10208596.8</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="6"/>
       <c r="V60" s="1">
-        <v>-28124500.0</v>
+        <v>-28226585.968</v>
       </c>
       <c r="W60" s="1">
-        <v>0</v>
+        <v>12760746.0</v>
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="1">
@@ -5169,7 +5189,10 @@
         <v>0.0</v>
       </c>
       <c r="AC60">
-        <v>-28124501.0</v>
+        <v>-27614071.0</v>
+      </c>
+      <c r="AD60">
+        <v>-54.099640804699</v>
       </c>
       <c r="AE60"/>
     </row>
@@ -5181,7 +5204,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>1170152.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -5210,22 +5233,22 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>0</v>
+        <v>12871669.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
         <v>0</v>
       </c>
       <c r="S61" s="1">
-        <v>0.0</v>
+        <v>10297335.2</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="6"/>
       <c r="V61" s="1">
-        <v>-30936950.0</v>
+        <v>-31039923.352</v>
       </c>
       <c r="W61" s="1">
-        <v>0</v>
+        <v>12871669.0</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="1">
@@ -5241,7 +5264,10 @@
         <v>0.0</v>
       </c>
       <c r="AC61">
-        <v>-30936951.0</v>
+        <v>-30422084.0</v>
+      </c>
+      <c r="AD61">
+        <v>-59.087294740099</v>
       </c>
       <c r="AE61"/>
     </row>
@@ -5253,7 +5279,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>1287621.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5282,22 +5308,22 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>0</v>
+        <v>12876215.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
         <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>0.0</v>
+        <v>10300972.0</v>
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="6"/>
       <c r="V62" s="1">
-        <v>-34030645.0</v>
+        <v>-34133654.72</v>
       </c>
       <c r="W62" s="1">
-        <v>0</v>
+        <v>12876215.0</v>
       </c>
       <c r="X62" s="1"/>
       <c r="Y62" s="1">
@@ -5313,7 +5339,10 @@
         <v>0.0</v>
       </c>
       <c r="AC62">
-        <v>-34030646.0</v>
+        <v>-33515597.0</v>
+      </c>
+      <c r="AD62">
+        <v>-65.072688286115</v>
       </c>
       <c r="AE62"/>
     </row>
@@ -5325,7 +5354,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>1416884.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5354,22 +5383,22 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>0</v>
+        <v>12751953.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
         <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>0.0</v>
+        <v>10201562.4</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="6"/>
       <c r="V63" s="1">
-        <v>-37433710.0</v>
+        <v>-37535725.624</v>
       </c>
       <c r="W63" s="1">
-        <v>0</v>
+        <v>12751953.0</v>
       </c>
       <c r="X63" s="1"/>
       <c r="Y63" s="1">
@@ -5385,7 +5414,10 @@
         <v>0.0</v>
       </c>
       <c r="AC63">
-        <v>-37433710.0</v>
+        <v>-36923632.0</v>
+      </c>
+      <c r="AD63">
+        <v>-72.388190263876</v>
       </c>
       <c r="AE63"/>
     </row>
@@ -5397,7 +5429,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>1559128.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5426,22 +5458,22 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>0</v>
+        <v>12473020.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
         <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>0.0</v>
+        <v>9978416.0</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="6"/>
       <c r="V64" s="1">
-        <v>-41177081.0</v>
+        <v>-41276865.16</v>
       </c>
       <c r="W64" s="1">
-        <v>0</v>
+        <v>12473020.0</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1">
@@ -5457,7 +5489,10 @@
         <v>0.0</v>
       </c>
       <c r="AC64">
-        <v>-41177081.0</v>
+        <v>-40678160.0</v>
+      </c>
+      <c r="AD64">
+        <v>-81.532299314841</v>
       </c>
       <c r="AE64"/>
     </row>
@@ -5469,7 +5504,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>1715665.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5498,22 +5533,22 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>0</v>
+        <v>12009657.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
         <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>0.0</v>
+        <v>9607725.6</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="6"/>
       <c r="V65" s="1">
-        <v>-45294789.0</v>
+        <v>-45390866.256</v>
       </c>
       <c r="W65" s="1">
-        <v>0</v>
+        <v>12009657.0</v>
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="1">
@@ -5529,7 +5564,10 @@
         <v>0.0</v>
       </c>
       <c r="AC65">
-        <v>-45294789.0</v>
+        <v>-44814403.0</v>
+      </c>
+      <c r="AD65">
+        <v>-93.288265851389</v>
       </c>
       <c r="AE65"/>
     </row>
@@ -5541,7 +5579,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>1887946.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5570,22 +5608,22 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>0</v>
+        <v>11327677.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
         <v>0</v>
       </c>
       <c r="S66" s="1">
-        <v>0.0</v>
+        <v>9062141.6</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" s="6"/>
       <c r="V66" s="1">
-        <v>-49824268.0</v>
+        <v>-49914889.416</v>
       </c>
       <c r="W66" s="1">
-        <v>0</v>
+        <v>11327677.0</v>
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="1">
@@ -5601,7 +5639,10 @@
         <v>0.0</v>
       </c>
       <c r="AC66">
-        <v>-49824268.0</v>
+        <v>-49371161.0</v>
+      </c>
+      <c r="AD66">
+        <v>-108.96135412406</v>
       </c>
       <c r="AE66"/>
     </row>
@@ -5613,7 +5654,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>2077574.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -5642,22 +5683,22 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>0</v>
+        <v>10387871.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
         <v>0</v>
       </c>
       <c r="S67" s="1">
-        <v>0.0</v>
+        <v>8310296.8</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" s="6"/>
       <c r="V67" s="1">
-        <v>-54806695.0</v>
+        <v>-54889797.968</v>
       </c>
       <c r="W67" s="1">
-        <v>0</v>
+        <v>10387871.0</v>
       </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="1">
@@ -5673,7 +5714,10 @@
         <v>0.0</v>
       </c>
       <c r="AC67">
-        <v>-54806695.0</v>
+        <v>-54391180.0</v>
+      </c>
+      <c r="AD67">
+        <v>-130.90069177794</v>
       </c>
       <c r="AE67"/>
     </row>
@@ -5685,7 +5729,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>2286332.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -5714,22 +5758,22 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>0</v>
+        <v>9145326.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
         <v>0</v>
       </c>
       <c r="S68" s="1">
-        <v>0.0</v>
+        <v>7316260.8</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="6"/>
       <c r="V68" s="1">
-        <v>-60287364.0</v>
+        <v>-60360526.608</v>
       </c>
       <c r="W68" s="1">
-        <v>0</v>
+        <v>9145326.0</v>
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="1">
@@ -5745,7 +5789,10 @@
         <v>0.0</v>
       </c>
       <c r="AC68">
-        <v>-60287365.0</v>
+        <v>-59921552.0</v>
+      </c>
+      <c r="AD68">
+        <v>-163.8037616155</v>
       </c>
       <c r="AE68"/>
     </row>
@@ -5757,7 +5804,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>2516215.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -5786,22 +5833,22 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>0</v>
+        <v>7548644.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
         <v>0</v>
       </c>
       <c r="S69" s="1">
-        <v>0.0</v>
+        <v>6038915.2</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="6"/>
       <c r="V69" s="1">
-        <v>-66316101.0</v>
+        <v>-66376490.152</v>
       </c>
       <c r="W69" s="1">
-        <v>0</v>
+        <v>7548644.0</v>
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1">
@@ -5817,7 +5864,10 @@
         <v>0.0</v>
       </c>
       <c r="AC69">
-        <v>-66316101.0</v>
+        <v>-66014155.0</v>
+      </c>
+      <c r="AD69">
+        <v>-218.62918359907</v>
       </c>
       <c r="AE69"/>
     </row>
@@ -5829,7 +5879,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>2769503.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -5858,22 +5908,22 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>0</v>
+        <v>5539005.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
         <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>0.0</v>
+        <v>4431204.0</v>
       </c>
       <c r="T70" s="1"/>
       <c r="U70" s="6"/>
       <c r="V70" s="1">
-        <v>-72947711.0</v>
+        <v>-72992023.04</v>
       </c>
       <c r="W70" s="1">
-        <v>0</v>
+        <v>5539005.0</v>
       </c>
       <c r="X70" s="1"/>
       <c r="Y70" s="1">
@@ -5889,7 +5939,10 @@
         <v>0.0</v>
       </c>
       <c r="AC70">
-        <v>-72947711.0</v>
+        <v>-72726151.0</v>
+      </c>
+      <c r="AD70">
+        <v>-328.24555583539</v>
       </c>
       <c r="AE70"/>
     </row>
@@ -5901,7 +5954,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>3048953.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -5930,22 +5983,22 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>0</v>
+        <v>3048953.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
         <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>0.0</v>
+        <v>2439162.4</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="6"/>
       <c r="V71" s="1">
-        <v>-80242482.0</v>
+        <v>-80266873.624</v>
       </c>
       <c r="W71" s="1">
-        <v>0</v>
+        <v>3048953.0</v>
       </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="1">
@@ -5961,7 +6014,10 @@
         <v>0.0</v>
       </c>
       <c r="AC71">
-        <v>-80242482.0</v>
+        <v>-80120524.0</v>
+      </c>
+      <c r="AD71">
+        <v>-656.95112387761</v>
       </c>
       <c r="AE71"/>
     </row>
@@ -5973,7 +6029,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>3358848.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -6002,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
@@ -6017,7 +6073,7 @@
         <v>-88266730.0</v>
       </c>
       <c r="W72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X72" s="5"/>
       <c r="Y72" s="5">
@@ -9822,7 +9878,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>598862.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9890,7 +9946,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>659026.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -9958,7 +10014,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>725223.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -10026,7 +10082,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>798058.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -10095,7 +10151,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>878197.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -10163,7 +10219,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>966373.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -10231,7 +10287,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>1063395.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -10299,7 +10355,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>1170152.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -10367,7 +10423,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>1287621.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10435,7 +10491,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>1416884.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10503,7 +10559,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>1559128.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10571,7 +10627,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>1715665.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10639,7 +10695,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>1887946.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -10707,7 +10763,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>2077574.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -10775,7 +10831,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>2286332.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -10843,7 +10899,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>2516215.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -10911,7 +10967,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>2769503.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -10979,7 +11035,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>3048953.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -11047,7 +11103,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>3358848.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -11373,7 +11429,7 @@
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -11692,7 +11748,7 @@
         <v>0.1</v>
       </c>
       <c r="R8" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="S8" s="8">
         <v>80000.0</v>
@@ -11761,7 +11817,7 @@
         <v>0.1</v>
       </c>
       <c r="R9" s="1">
-        <v>5000.0</v>
+        <v>105000</v>
       </c>
       <c r="S9" s="1">
         <v>92000.0</v>
@@ -11829,7 +11885,7 @@
         <v>0.1</v>
       </c>
       <c r="R10" s="1">
-        <v>5000.0</v>
+        <v>110000</v>
       </c>
       <c r="S10" s="1">
         <v>105200.0</v>
@@ -11897,7 +11953,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" s="1">
-        <v>5000.0</v>
+        <v>115000</v>
       </c>
       <c r="S11" s="1">
         <v>119720.0</v>
@@ -11965,7 +12021,7 @@
         <v>0.1</v>
       </c>
       <c r="R12" s="1">
-        <v>5000.0</v>
+        <v>120000</v>
       </c>
       <c r="S12" s="1">
         <v>135692.0</v>
@@ -12033,7 +12089,7 @@
         <v>0.1</v>
       </c>
       <c r="R13" s="1">
-        <v>5000.0</v>
+        <v>125000</v>
       </c>
       <c r="S13" s="1">
         <v>153261.6</v>
@@ -12101,7 +12157,7 @@
         <v>0.1</v>
       </c>
       <c r="R14" s="1">
-        <v>5000.0</v>
+        <v>130000</v>
       </c>
       <c r="S14" s="1">
         <v>172588.0</v>
@@ -12169,7 +12225,7 @@
         <v>0.1</v>
       </c>
       <c r="R15" s="1">
-        <v>5000.0</v>
+        <v>135000</v>
       </c>
       <c r="S15" s="1">
         <v>193847.2</v>
@@ -12237,7 +12293,7 @@
         <v>0.1</v>
       </c>
       <c r="R16" s="1">
-        <v>5000.0</v>
+        <v>140000</v>
       </c>
       <c r="S16" s="1">
         <v>217232.0</v>
@@ -12305,7 +12361,7 @@
         <v>0.1</v>
       </c>
       <c r="R17" s="1">
-        <v>5000.0</v>
+        <v>145000</v>
       </c>
       <c r="S17" s="1">
         <v>242955.2</v>
@@ -12373,7 +12429,7 @@
         <v>0.1</v>
       </c>
       <c r="R18" s="1">
-        <v>5000.0</v>
+        <v>150000</v>
       </c>
       <c r="S18" s="1">
         <v>271250.4</v>
@@ -12441,7 +12497,7 @@
         <v>0.1</v>
       </c>
       <c r="R19" s="1">
-        <v>5000.0</v>
+        <v>155000</v>
       </c>
       <c r="S19" s="1">
         <v>302375.2</v>
@@ -12509,7 +12565,7 @@
         <v>0.1</v>
       </c>
       <c r="R20" s="1">
-        <v>5000.0</v>
+        <v>160000</v>
       </c>
       <c r="S20" s="1">
         <v>336612.8</v>
@@ -12577,7 +12633,7 @@
         <v>0.1</v>
       </c>
       <c r="R21" s="1">
-        <v>5000.0</v>
+        <v>165000</v>
       </c>
       <c r="S21" s="1">
         <v>374274.4</v>
@@ -12645,7 +12701,7 @@
         <v>0.1</v>
       </c>
       <c r="R22" s="1">
-        <v>5000.0</v>
+        <v>170000</v>
       </c>
       <c r="S22" s="1">
         <v>415701.6</v>
@@ -12713,7 +12769,7 @@
         <v>0.1</v>
       </c>
       <c r="R23" s="1">
-        <v>5000.0</v>
+        <v>175000</v>
       </c>
       <c r="S23" s="1">
         <v>461272.0</v>
@@ -12781,7 +12837,7 @@
         <v>0.1</v>
       </c>
       <c r="R24" s="1">
-        <v>5000.0</v>
+        <v>180000</v>
       </c>
       <c r="S24" s="1">
         <v>511399.2</v>
@@ -12849,7 +12905,7 @@
         <v>0.1</v>
       </c>
       <c r="R25" s="1">
-        <v>5000.0</v>
+        <v>185000</v>
       </c>
       <c r="S25" s="1">
         <v>566539.2</v>
@@ -12917,7 +12973,7 @@
         <v>0.1</v>
       </c>
       <c r="R26" s="1">
-        <v>5000.0</v>
+        <v>190000</v>
       </c>
       <c r="S26" s="1">
         <v>627192.8</v>
@@ -12985,7 +13041,7 @@
         <v>0.1</v>
       </c>
       <c r="R27" s="1">
-        <v>5000.0</v>
+        <v>195000</v>
       </c>
       <c r="S27" s="1">
         <v>693912.0</v>
@@ -13053,7 +13109,7 @@
         <v>0.1</v>
       </c>
       <c r="R28" s="1">
-        <v>5000.0</v>
+        <v>200000</v>
       </c>
       <c r="S28" s="1">
         <v>767303.2</v>
@@ -13121,7 +13177,7 @@
         <v>0.1</v>
       </c>
       <c r="R29" s="1">
-        <v>5000.0</v>
+        <v>205000</v>
       </c>
       <c r="S29" s="1">
         <v>848033.6</v>
@@ -13189,7 +13245,7 @@
         <v>0.1</v>
       </c>
       <c r="R30" s="1">
-        <v>5000.0</v>
+        <v>210000</v>
       </c>
       <c r="S30" s="1">
         <v>936836.8</v>
@@ -13257,7 +13313,7 @@
         <v>0.1</v>
       </c>
       <c r="R31" s="1">
-        <v>5000.0</v>
+        <v>215000</v>
       </c>
       <c r="S31" s="1">
         <v>1034520.8</v>
@@ -13325,7 +13381,7 @@
         <v>0.1</v>
       </c>
       <c r="R32" s="1">
-        <v>5000.0</v>
+        <v>220000</v>
       </c>
       <c r="S32" s="1">
         <v>1141972.8</v>
@@ -13393,7 +13449,7 @@
         <v>0.1</v>
       </c>
       <c r="R33" s="1">
-        <v>5000.0</v>
+        <v>225000</v>
       </c>
       <c r="S33" s="1">
         <v>1260170.4</v>
@@ -13461,7 +13517,7 @@
         <v>0.1</v>
       </c>
       <c r="R34" s="1">
-        <v>5000.0</v>
+        <v>230000</v>
       </c>
       <c r="S34" s="1">
         <v>1390187.2</v>
@@ -13529,7 +13585,7 @@
         <v>0.1</v>
       </c>
       <c r="R35" s="1">
-        <v>5000.0</v>
+        <v>235000</v>
       </c>
       <c r="S35" s="1">
         <v>1533205.6</v>
@@ -13597,7 +13653,7 @@
         <v>0.1</v>
       </c>
       <c r="R36" s="1">
-        <v>5000.0</v>
+        <v>240000</v>
       </c>
       <c r="S36" s="1">
         <v>1690526.4</v>
@@ -13665,7 +13721,7 @@
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>5000.0</v>
+        <v>245000</v>
       </c>
       <c r="S37" s="1">
         <v>1863579.2</v>
@@ -13733,7 +13789,7 @@
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>5000.0</v>
+        <v>250000</v>
       </c>
       <c r="S38" s="1">
         <v>2053936.8</v>
@@ -13801,7 +13857,7 @@
         <v>0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>5000.0</v>
+        <v>255000</v>
       </c>
       <c r="S39" s="1">
         <v>2263330.4</v>
@@ -13869,7 +13925,7 @@
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>5000.0</v>
+        <v>260000</v>
       </c>
       <c r="S40" s="11">
         <v>2493663.2</v>
@@ -13938,7 +13994,7 @@
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>5000.0</v>
+        <v>265000</v>
       </c>
       <c r="S41" s="1">
         <v>2747029.6</v>
@@ -14006,7 +14062,7 @@
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>5000.0</v>
+        <v>270000</v>
       </c>
       <c r="S42" s="1">
         <v>3025732.8</v>
@@ -14074,7 +14130,7 @@
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>5000.0</v>
+        <v>275000</v>
       </c>
       <c r="S43" s="1">
         <v>3332306.4</v>
@@ -14142,7 +14198,7 @@
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>5000.0</v>
+        <v>280000</v>
       </c>
       <c r="S44" s="1">
         <v>3669536.8</v>
@@ -14210,7 +14266,7 @@
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>5000.0</v>
+        <v>285000</v>
       </c>
       <c r="S45" s="1">
         <v>4040490.4</v>
@@ -14278,7 +14334,7 @@
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>5000.0</v>
+        <v>290000</v>
       </c>
       <c r="S46" s="1">
         <v>4448539.2</v>
@@ -14346,7 +14402,7 @@
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>5000.0</v>
+        <v>295000</v>
       </c>
       <c r="S47" s="1">
         <v>4897392.8</v>
@@ -14414,7 +14470,7 @@
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>5000.0</v>
+        <v>300000</v>
       </c>
       <c r="S48" s="1">
         <v>5391132.0</v>
@@ -14482,7 +14538,7 @@
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>5000.0</v>
+        <v>305000</v>
       </c>
       <c r="S49" s="1">
         <v>5934245.6</v>
@@ -14550,7 +14606,7 @@
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>5000.0</v>
+        <v>310000</v>
       </c>
       <c r="S50" s="1">
         <v>6531670.4</v>
@@ -14618,7 +14674,7 @@
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>5000.0</v>
+        <v>315000</v>
       </c>
       <c r="S51" s="1">
         <v>7188837.6</v>
@@ -14686,7 +14742,7 @@
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>5000.0</v>
+        <v>320000</v>
       </c>
       <c r="S52" s="1">
         <v>7911721.6</v>
@@ -14754,7 +14810,7 @@
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>5000.0</v>
+        <v>0</v>
       </c>
       <c r="S53" s="13">
         <v>8271548.8</v>
@@ -14817,26 +14873,26 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>0</v>
+        <v>10779518.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>5000.0</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1">
-        <v>0.0</v>
+        <v>8623614.4</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="6">
-        <v>0.0</v>
+        <v>86236.144</v>
       </c>
       <c r="V54" s="1">
-        <v>0.0</v>
+        <v>-86236.144</v>
       </c>
       <c r="W54" s="1">
-        <v>0</v>
+        <v>10779518.0</v>
       </c>
       <c r="X54" s="1"/>
       <c r="Y54" s="1">
@@ -14850,7 +14906,7 @@
         <v>0.0</v>
       </c>
       <c r="AC54">
-        <v>0.0</v>
+        <v>431181.0</v>
       </c>
       <c r="AE54" t="s">
         <v>112</v>
@@ -14885,7 +14941,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>0</v>
+        <v>11203444.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
@@ -14894,17 +14950,17 @@
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>0.0</v>
+        <v>8962755.2</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="6">
-        <v>0.0</v>
+        <v>89627.552</v>
       </c>
       <c r="V55" s="1">
-        <v>0.0</v>
+        <v>-89627.552</v>
       </c>
       <c r="W55" s="1">
-        <v>0</v>
+        <v>11203444.0</v>
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="1">
@@ -14918,10 +14974,10 @@
         <v>0.0</v>
       </c>
       <c r="AC55">
-        <v>0.0</v>
+        <v>448138.0</v>
       </c>
       <c r="AE55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -14953,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>0</v>
+        <v>11603565.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
@@ -14962,17 +15018,17 @@
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>0.0</v>
+        <v>9282852.0</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="6">
-        <v>0.0</v>
+        <v>92828.52</v>
       </c>
       <c r="V56" s="1">
-        <v>0.0</v>
+        <v>-92828.52</v>
       </c>
       <c r="W56" s="1">
-        <v>0</v>
+        <v>11603565.0</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="1">
@@ -14986,10 +15042,10 @@
         <v>0.0</v>
       </c>
       <c r="AC56">
-        <v>0.0</v>
+        <v>464143.0</v>
       </c>
       <c r="AE56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -15021,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>0</v>
+        <v>11970864.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
@@ -15030,17 +15086,17 @@
         <v>0</v>
       </c>
       <c r="S57" s="13">
-        <v>0.0</v>
+        <v>9576691.2</v>
       </c>
       <c r="T57" s="13"/>
       <c r="U57" s="13">
-        <v>0.0</v>
+        <v>95766.912</v>
       </c>
       <c r="V57" s="13">
-        <v>0.0</v>
+        <v>-95766.912</v>
       </c>
       <c r="W57" s="13">
-        <v>0</v>
+        <v>11970864.0</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13">
@@ -15054,11 +15110,11 @@
         <v>0.0</v>
       </c>
       <c r="AC57" s="3">
-        <v>0.0</v>
+        <v>478835.0</v>
       </c>
       <c r="AD57" s="3"/>
       <c r="AE57" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -15090,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>0</v>
+        <v>12294753.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
@@ -15099,17 +15155,17 @@
         <v>0</v>
       </c>
       <c r="S58" s="1">
-        <v>0.0</v>
+        <v>9835802.4</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="6">
-        <v>0.0</v>
+        <v>98358.024</v>
       </c>
       <c r="V58" s="1">
-        <v>0.0</v>
+        <v>-98358.024</v>
       </c>
       <c r="W58" s="1">
-        <v>0</v>
+        <v>12294753.0</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="1">
@@ -15123,10 +15179,10 @@
         <v>0.0</v>
       </c>
       <c r="AC58">
-        <v>0.0</v>
+        <v>491790.0</v>
       </c>
       <c r="AE58" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -15158,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>0</v>
+        <v>12562855.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
@@ -15167,17 +15223,17 @@
         <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>0.0</v>
+        <v>10050284.0</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="6">
-        <v>0.0</v>
+        <v>100502.84</v>
       </c>
       <c r="V59" s="1">
-        <v>0.0</v>
+        <v>-100502.84</v>
       </c>
       <c r="W59" s="1">
-        <v>0</v>
+        <v>12562855.0</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1">
@@ -15191,10 +15247,10 @@
         <v>0.0</v>
       </c>
       <c r="AC59">
-        <v>0.0</v>
+        <v>502514.0</v>
       </c>
       <c r="AE59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -15226,7 +15282,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>0</v>
+        <v>12760746.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
@@ -15235,17 +15291,17 @@
         <v>0</v>
       </c>
       <c r="S60" s="1">
-        <v>0.0</v>
+        <v>10208596.8</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="6">
-        <v>0.0</v>
+        <v>102085.968</v>
       </c>
       <c r="V60" s="1">
-        <v>0.0</v>
+        <v>-102085.968</v>
       </c>
       <c r="W60" s="1">
-        <v>0</v>
+        <v>12760746.0</v>
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="1">
@@ -15259,10 +15315,10 @@
         <v>0.0</v>
       </c>
       <c r="AC60">
-        <v>0.0</v>
+        <v>510430.0</v>
       </c>
       <c r="AE60" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -15294,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>0</v>
+        <v>12871669.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
@@ -15303,17 +15359,17 @@
         <v>0</v>
       </c>
       <c r="S61" s="1">
-        <v>0.0</v>
+        <v>10297335.2</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="6">
-        <v>0.0</v>
+        <v>102973.352</v>
       </c>
       <c r="V61" s="1">
-        <v>0.0</v>
+        <v>-102973.352</v>
       </c>
       <c r="W61" s="1">
-        <v>0</v>
+        <v>12871669.0</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="1">
@@ -15327,10 +15383,10 @@
         <v>0.0</v>
       </c>
       <c r="AC61">
-        <v>0.0</v>
+        <v>514867.0</v>
       </c>
       <c r="AE61" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -15362,7 +15418,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>0</v>
+        <v>12876215.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
@@ -15371,17 +15427,17 @@
         <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>0.0</v>
+        <v>10300972.0</v>
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="6">
-        <v>0.0</v>
+        <v>103009.72</v>
       </c>
       <c r="V62" s="1">
-        <v>0.0</v>
+        <v>-103009.72</v>
       </c>
       <c r="W62" s="1">
-        <v>0</v>
+        <v>12876215.0</v>
       </c>
       <c r="X62" s="1"/>
       <c r="Y62" s="1">
@@ -15395,10 +15451,10 @@
         <v>0.0</v>
       </c>
       <c r="AC62">
-        <v>0.0</v>
+        <v>515049.0</v>
       </c>
       <c r="AE62" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -15430,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>0</v>
+        <v>12751953.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
@@ -15439,17 +15495,17 @@
         <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>0.0</v>
+        <v>10201562.4</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="6">
-        <v>0.0</v>
+        <v>102015.624</v>
       </c>
       <c r="V63" s="1">
-        <v>0.0</v>
+        <v>-102015.624</v>
       </c>
       <c r="W63" s="1">
-        <v>0</v>
+        <v>12751953.0</v>
       </c>
       <c r="X63" s="1"/>
       <c r="Y63" s="1">
@@ -15463,10 +15519,10 @@
         <v>0.0</v>
       </c>
       <c r="AC63">
-        <v>0.0</v>
+        <v>510078.0</v>
       </c>
       <c r="AE63" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -15498,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>0</v>
+        <v>12473020.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
@@ -15507,17 +15563,17 @@
         <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>0.0</v>
+        <v>9978416.0</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="6">
-        <v>0.0</v>
+        <v>99784.16</v>
       </c>
       <c r="V64" s="1">
-        <v>0.0</v>
+        <v>-99784.16</v>
       </c>
       <c r="W64" s="1">
-        <v>0</v>
+        <v>12473020.0</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1">
@@ -15531,10 +15587,10 @@
         <v>0.0</v>
       </c>
       <c r="AC64">
-        <v>0.0</v>
+        <v>498921.0</v>
       </c>
       <c r="AE64" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -15566,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>0</v>
+        <v>12009657.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
@@ -15575,17 +15631,17 @@
         <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>0.0</v>
+        <v>9607725.6</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="6">
-        <v>0.0</v>
+        <v>96077.256</v>
       </c>
       <c r="V65" s="1">
-        <v>0.0</v>
+        <v>-96077.256</v>
       </c>
       <c r="W65" s="1">
-        <v>0</v>
+        <v>12009657.0</v>
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="1">
@@ -15599,10 +15655,10 @@
         <v>0.0</v>
       </c>
       <c r="AC65">
-        <v>0.0</v>
+        <v>480386.0</v>
       </c>
       <c r="AE65" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -15634,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>0</v>
+        <v>11327677.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
@@ -15643,17 +15699,17 @@
         <v>0</v>
       </c>
       <c r="S66" s="1">
-        <v>0.0</v>
+        <v>9062141.6</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" s="6">
-        <v>0.0</v>
+        <v>90621.416</v>
       </c>
       <c r="V66" s="1">
-        <v>0.0</v>
+        <v>-90621.416</v>
       </c>
       <c r="W66" s="1">
-        <v>0</v>
+        <v>11327677.0</v>
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="1">
@@ -15667,10 +15723,10 @@
         <v>0.0</v>
       </c>
       <c r="AC66">
-        <v>0.0</v>
+        <v>453107.0</v>
       </c>
       <c r="AE66" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -15702,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>0</v>
+        <v>10387871.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
@@ -15711,17 +15767,17 @@
         <v>0</v>
       </c>
       <c r="S67" s="1">
-        <v>0.0</v>
+        <v>8310296.8</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" s="6">
-        <v>0.0</v>
+        <v>83102.968</v>
       </c>
       <c r="V67" s="1">
-        <v>0.0</v>
+        <v>-83102.968</v>
       </c>
       <c r="W67" s="1">
-        <v>0</v>
+        <v>10387871.0</v>
       </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="1">
@@ -15735,10 +15791,10 @@
         <v>0.0</v>
       </c>
       <c r="AC67">
-        <v>0.0</v>
+        <v>415515.0</v>
       </c>
       <c r="AE67" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -15770,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>0</v>
+        <v>9145326.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
@@ -15779,17 +15835,17 @@
         <v>0</v>
       </c>
       <c r="S68" s="1">
-        <v>0.0</v>
+        <v>7316260.8</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="6">
-        <v>0.0</v>
+        <v>73162.608</v>
       </c>
       <c r="V68" s="1">
-        <v>0.0</v>
+        <v>-73162.608</v>
       </c>
       <c r="W68" s="1">
-        <v>0</v>
+        <v>9145326.0</v>
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="1">
@@ -15803,10 +15859,10 @@
         <v>0.0</v>
       </c>
       <c r="AC68">
-        <v>0.0</v>
+        <v>365813.0</v>
       </c>
       <c r="AE68" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -15838,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>0</v>
+        <v>7548644.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
@@ -15847,17 +15903,17 @@
         <v>0</v>
       </c>
       <c r="S69" s="1">
-        <v>0.0</v>
+        <v>6038915.2</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="6">
-        <v>0.0</v>
+        <v>60389.152</v>
       </c>
       <c r="V69" s="1">
-        <v>0.0</v>
+        <v>-60389.152</v>
       </c>
       <c r="W69" s="1">
-        <v>0</v>
+        <v>7548644.0</v>
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1">
@@ -15871,10 +15927,10 @@
         <v>0.0</v>
       </c>
       <c r="AC69">
-        <v>0.0</v>
+        <v>301946.0</v>
       </c>
       <c r="AE69" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -15906,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>0</v>
+        <v>5539005.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
@@ -15915,17 +15971,17 @@
         <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>0.0</v>
+        <v>4431204.0</v>
       </c>
       <c r="T70" s="1"/>
       <c r="U70" s="6">
-        <v>0.0</v>
+        <v>44312.04</v>
       </c>
       <c r="V70" s="1">
-        <v>0.0</v>
+        <v>-44312.04</v>
       </c>
       <c r="W70" s="1">
-        <v>0</v>
+        <v>5539005.0</v>
       </c>
       <c r="X70" s="1"/>
       <c r="Y70" s="1">
@@ -15939,10 +15995,10 @@
         <v>0.0</v>
       </c>
       <c r="AC70">
-        <v>0.0</v>
+        <v>221560.0</v>
       </c>
       <c r="AE70" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -15974,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>0</v>
+        <v>3048953.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.1</v>
@@ -15983,17 +16039,17 @@
         <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>0.0</v>
+        <v>2439162.4</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="6">
-        <v>0.0</v>
+        <v>24391.624</v>
       </c>
       <c r="V71" s="1">
-        <v>0.0</v>
+        <v>-24391.624</v>
       </c>
       <c r="W71" s="1">
-        <v>0</v>
+        <v>3048953.0</v>
       </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="1">
@@ -16007,10 +16063,10 @@
         <v>0.0</v>
       </c>
       <c r="AC71">
-        <v>0.0</v>
+        <v>121958.0</v>
       </c>
       <c r="AE71" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -16042,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q72" s="16">
         <v>0.1</v>
@@ -16061,7 +16117,7 @@
         <v>0.0</v>
       </c>
       <c r="W72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X72" s="5"/>
       <c r="Y72" s="5">
@@ -16079,7 +16135,7 @@
       </c>
       <c r="AD72" s="15"/>
       <c r="AE72" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -16332,7 +16388,7 @@
         <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16855,90 +16911,198 @@
       <c r="A54">
         <v>2069</v>
       </c>
+      <c r="B54">
+        <v>100.0</v>
+      </c>
+      <c r="C54">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
         <v>2070</v>
       </c>
+      <c r="B55">
+        <v>100.0</v>
+      </c>
+      <c r="C55">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
         <v>2071</v>
       </c>
+      <c r="B56">
+        <v>100.0</v>
+      </c>
+      <c r="C56">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
         <v>2072</v>
       </c>
+      <c r="B57">
+        <v>100.0</v>
+      </c>
+      <c r="C57">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
         <v>2073</v>
       </c>
+      <c r="B58">
+        <v>100.0</v>
+      </c>
+      <c r="C58">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
         <v>2074</v>
       </c>
+      <c r="B59">
+        <v>100.0</v>
+      </c>
+      <c r="C59">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
         <v>2075</v>
       </c>
+      <c r="B60">
+        <v>100.0</v>
+      </c>
+      <c r="C60">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
         <v>2076</v>
       </c>
+      <c r="B61">
+        <v>100.0</v>
+      </c>
+      <c r="C61">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
         <v>2077</v>
       </c>
+      <c r="B62">
+        <v>100.0</v>
+      </c>
+      <c r="C62">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
         <v>2078</v>
       </c>
+      <c r="B63">
+        <v>100.0</v>
+      </c>
+      <c r="C63">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
         <v>2079</v>
       </c>
+      <c r="B64">
+        <v>100.0</v>
+      </c>
+      <c r="C64">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
         <v>2080</v>
       </c>
+      <c r="B65">
+        <v>100.0</v>
+      </c>
+      <c r="C65">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
         <v>2081</v>
       </c>
+      <c r="B66">
+        <v>100.0</v>
+      </c>
+      <c r="C66">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
         <v>2082</v>
       </c>
+      <c r="B67">
+        <v>100.0</v>
+      </c>
+      <c r="C67">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
         <v>2083</v>
       </c>
+      <c r="B68">
+        <v>100.0</v>
+      </c>
+      <c r="C68">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
         <v>2084</v>
       </c>
+      <c r="B69">
+        <v>100.0</v>
+      </c>
+      <c r="C69">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
         <v>2085</v>
       </c>
+      <c r="B70">
+        <v>100.0</v>
+      </c>
+      <c r="C70">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
         <v>2086</v>
+      </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
       </c>
     </row>
     <row r="72" spans="1:3">

--- a/tests/Feature/config/fond_tenpercent.xlsx
+++ b/tests/Feature/config/fond_tenpercent.xlsx
@@ -1135,13 +1135,13 @@
       <c r="Z6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.0</v>
-      </c>
-      <c r="AC6">
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" s="1">
         <v>0.0</v>
       </c>
       <c r="AE6"/>
@@ -1207,13 +1207,13 @@
       <c r="Z7" s="1">
         <v>2400000</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>2400000</v>
       </c>
-      <c r="AB7">
-        <v>0.0</v>
-      </c>
-      <c r="AC7">
+      <c r="AB7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" s="1">
         <v>300000.0</v>
       </c>
       <c r="AD7">
@@ -1282,13 +1282,13 @@
       <c r="Z8" s="8">
         <v>2640000</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="8">
         <v>2640000</v>
       </c>
-      <c r="AB8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AC8" s="7">
+      <c r="AB8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" s="8">
         <v>334000.0</v>
       </c>
       <c r="AD8" s="7">
@@ -1357,13 +1357,13 @@
       <c r="Z9" s="1">
         <v>2904000</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <v>2904000</v>
       </c>
-      <c r="AB9">
-        <v>0.0</v>
-      </c>
-      <c r="AC9">
+      <c r="AB9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" s="1">
         <v>367600.0</v>
       </c>
       <c r="AD9">
@@ -1432,13 +1432,13 @@
       <c r="Z10" s="1">
         <v>3194400</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <v>3194400</v>
       </c>
-      <c r="AB10">
-        <v>0.0</v>
-      </c>
-      <c r="AC10">
+      <c r="AB10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" s="1">
         <v>404560.0</v>
       </c>
       <c r="AD10">
@@ -1507,13 +1507,13 @@
       <c r="Z11" s="1">
         <v>3513840</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <v>3513840</v>
       </c>
-      <c r="AB11">
-        <v>0.0</v>
-      </c>
-      <c r="AC11">
+      <c r="AB11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" s="1">
         <v>445216.0</v>
       </c>
       <c r="AD11">
@@ -1582,13 +1582,13 @@
       <c r="Z12" s="1">
         <v>3865220</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="1">
         <v>3865220</v>
       </c>
-      <c r="AB12">
-        <v>0.0</v>
-      </c>
-      <c r="AC12">
+      <c r="AB12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" s="1">
         <v>489937.0</v>
       </c>
       <c r="AD12">
@@ -1657,13 +1657,13 @@
       <c r="Z13" s="1">
         <v>4251740</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <v>4251740</v>
       </c>
-      <c r="AB13">
-        <v>0.0</v>
-      </c>
-      <c r="AC13">
+      <c r="AB13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" s="1">
         <v>539130.0</v>
       </c>
       <c r="AD13">
@@ -1732,13 +1732,13 @@
       <c r="Z14" s="1">
         <v>4676910</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <v>4676910</v>
       </c>
-      <c r="AB14">
-        <v>0.0</v>
-      </c>
-      <c r="AC14">
+      <c r="AB14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" s="1">
         <v>593242.0</v>
       </c>
       <c r="AD14">
@@ -1807,13 +1807,13 @@
       <c r="Z15" s="1">
         <v>5144600</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <v>5144600</v>
       </c>
-      <c r="AB15">
-        <v>0.0</v>
-      </c>
-      <c r="AC15">
+      <c r="AB15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="1">
         <v>652766.0</v>
       </c>
       <c r="AD15">
@@ -1882,13 +1882,13 @@
       <c r="Z16" s="1">
         <v>5659060</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <v>5659060</v>
       </c>
-      <c r="AB16">
-        <v>0.0</v>
-      </c>
-      <c r="AC16">
+      <c r="AB16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" s="1">
         <v>718243.0</v>
       </c>
       <c r="AD16">
@@ -1957,13 +1957,13 @@
       <c r="Z17" s="1">
         <v>6224965</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <v>6224965</v>
       </c>
-      <c r="AB17">
-        <v>0.0</v>
-      </c>
-      <c r="AC17">
+      <c r="AB17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" s="1">
         <v>790267.0</v>
       </c>
       <c r="AD17">
@@ -2032,13 +2032,13 @@
       <c r="Z18" s="1">
         <v>6847460</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="1">
         <v>6847460</v>
       </c>
-      <c r="AB18">
-        <v>0.0</v>
-      </c>
-      <c r="AC18">
+      <c r="AB18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" s="1">
         <v>869494.0</v>
       </c>
       <c r="AD18">
@@ -2107,13 +2107,13 @@
       <c r="Z19" s="1">
         <v>7532205</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <v>7532205</v>
       </c>
-      <c r="AB19">
-        <v>0.0</v>
-      </c>
-      <c r="AC19">
+      <c r="AB19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" s="1">
         <v>956643.0</v>
       </c>
       <c r="AD19">
@@ -2182,13 +2182,13 @@
       <c r="Z20" s="1">
         <v>8285425</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="1">
         <v>8285425</v>
       </c>
-      <c r="AB20">
-        <v>0.0</v>
-      </c>
-      <c r="AC20">
+      <c r="AB20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" s="1">
         <v>1052507.0</v>
       </c>
       <c r="AD20">
@@ -2257,13 +2257,13 @@
       <c r="Z21" s="1">
         <v>9113965</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <v>9113965</v>
       </c>
-      <c r="AB21">
-        <v>0.0</v>
-      </c>
-      <c r="AC21">
+      <c r="AB21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="1">
         <v>1157957.0</v>
       </c>
       <c r="AD21">
@@ -2332,13 +2332,13 @@
       <c r="Z22" s="1">
         <v>10025360</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>10025360</v>
       </c>
-      <c r="AB22">
-        <v>0.0</v>
-      </c>
-      <c r="AC22">
+      <c r="AB22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" s="1">
         <v>1273952.0</v>
       </c>
       <c r="AD22">
@@ -2407,13 +2407,13 @@
       <c r="Z23" s="1">
         <v>11027895</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="1">
         <v>11027895</v>
       </c>
-      <c r="AB23">
-        <v>0.0</v>
-      </c>
-      <c r="AC23">
+      <c r="AB23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC23" s="1">
         <v>1401548.0</v>
       </c>
       <c r="AD23">
@@ -2482,13 +2482,13 @@
       <c r="Z24" s="1">
         <v>12130680</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="1">
         <v>12130680</v>
       </c>
-      <c r="AB24">
-        <v>0.0</v>
-      </c>
-      <c r="AC24">
+      <c r="AB24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="1">
         <v>1541901.0</v>
       </c>
       <c r="AD24">
@@ -2557,13 +2557,13 @@
       <c r="Z25" s="1">
         <v>13343745</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="1">
         <v>13343745</v>
       </c>
-      <c r="AB25">
-        <v>0.0</v>
-      </c>
-      <c r="AC25">
+      <c r="AB25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC25" s="1">
         <v>1696291.0</v>
       </c>
       <c r="AD25">
@@ -2632,13 +2632,13 @@
       <c r="Z26" s="1">
         <v>14678115</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="1">
         <v>14678115</v>
       </c>
-      <c r="AB26">
-        <v>0.0</v>
-      </c>
-      <c r="AC26">
+      <c r="AB26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC26" s="1">
         <v>1866119.0</v>
       </c>
       <c r="AD26">
@@ -2707,13 +2707,13 @@
       <c r="Z27" s="1">
         <v>16145925</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="1">
         <v>16145925</v>
       </c>
-      <c r="AB27">
-        <v>0.0</v>
-      </c>
-      <c r="AC27">
+      <c r="AB27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="1">
         <v>2052931.0</v>
       </c>
       <c r="AD27">
@@ -2782,13 +2782,13 @@
       <c r="Z28" s="1">
         <v>17760515</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="1">
         <v>17760515</v>
       </c>
-      <c r="AB28">
-        <v>0.0</v>
-      </c>
-      <c r="AC28">
+      <c r="AB28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC28" s="1">
         <v>2258423.0</v>
       </c>
       <c r="AD28">
@@ -2857,13 +2857,13 @@
       <c r="Z29" s="1">
         <v>19536565</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="1">
         <v>19536565</v>
       </c>
-      <c r="AB29">
-        <v>0.0</v>
-      </c>
-      <c r="AC29">
+      <c r="AB29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC29" s="1">
         <v>2484466.0</v>
       </c>
       <c r="AD29">
@@ -2932,13 +2932,13 @@
       <c r="Z30" s="1">
         <v>21490220</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <v>21490220</v>
       </c>
-      <c r="AB30">
-        <v>0.0</v>
-      </c>
-      <c r="AC30">
+      <c r="AB30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC30" s="1">
         <v>2733112.0</v>
       </c>
       <c r="AD30">
@@ -3007,13 +3007,13 @@
       <c r="Z31" s="1">
         <v>23639240</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="1">
         <v>23639240</v>
       </c>
-      <c r="AB31">
-        <v>0.0</v>
-      </c>
-      <c r="AC31">
+      <c r="AB31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC31" s="1">
         <v>3006622.0</v>
       </c>
       <c r="AD31">
@@ -3082,13 +3082,13 @@
       <c r="Z32" s="1">
         <v>26003160</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="1">
         <v>26003160</v>
       </c>
-      <c r="AB32">
-        <v>0.0</v>
-      </c>
-      <c r="AC32">
+      <c r="AB32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC32" s="1">
         <v>3307484.0</v>
       </c>
       <c r="AD32">
@@ -3157,13 +3157,13 @@
       <c r="Z33" s="1">
         <v>28603475</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="1">
         <v>28603475</v>
       </c>
-      <c r="AB33">
-        <v>0.0</v>
-      </c>
-      <c r="AC33">
+      <c r="AB33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" s="1">
         <v>3638432.0</v>
       </c>
       <c r="AD33">
@@ -3232,13 +3232,13 @@
       <c r="Z34" s="1">
         <v>31463820</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="1">
         <v>31463820</v>
       </c>
-      <c r="AB34">
-        <v>0.0</v>
-      </c>
-      <c r="AC34">
+      <c r="AB34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" s="1">
         <v>4002474.0</v>
       </c>
       <c r="AD34">
@@ -3307,13 +3307,13 @@
       <c r="Z35" s="1">
         <v>34610200</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="1">
         <v>34610200</v>
       </c>
-      <c r="AB35">
-        <v>0.0</v>
-      </c>
-      <c r="AC35">
+      <c r="AB35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" s="1">
         <v>4402921.0</v>
       </c>
       <c r="AD35">
@@ -3382,13 +3382,13 @@
       <c r="Z36" s="1">
         <v>38071220</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="1">
         <v>38071220</v>
       </c>
-      <c r="AB36">
-        <v>0.0</v>
-      </c>
-      <c r="AC36">
+      <c r="AB36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" s="1">
         <v>4843413.0</v>
       </c>
       <c r="AD36">
@@ -3457,13 +3457,13 @@
       <c r="Z37" s="1">
         <v>41878340</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="1">
         <v>41878340</v>
       </c>
-      <c r="AB37">
-        <v>0.0</v>
-      </c>
-      <c r="AC37">
+      <c r="AB37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC37" s="1">
         <v>5327955.0</v>
       </c>
       <c r="AD37">
@@ -3532,13 +3532,13 @@
       <c r="Z38" s="1">
         <v>46066170</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="1">
         <v>46066170</v>
       </c>
-      <c r="AB38">
-        <v>0.0</v>
-      </c>
-      <c r="AC38">
+      <c r="AB38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="1">
         <v>5860949.0</v>
       </c>
       <c r="AD38">
@@ -3607,13 +3607,13 @@
       <c r="Z39" s="1">
         <v>50672785</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="1">
         <v>50672785</v>
       </c>
-      <c r="AB39">
-        <v>0.0</v>
-      </c>
-      <c r="AC39">
+      <c r="AB39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC39" s="1">
         <v>6447244.0</v>
       </c>
       <c r="AD39">
@@ -3682,13 +3682,13 @@
       <c r="Z40" s="11">
         <v>55740060</v>
       </c>
-      <c r="AA40" s="10">
+      <c r="AA40" s="11">
         <v>55740060</v>
       </c>
-      <c r="AB40" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="AC40" s="10">
+      <c r="AB40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="11">
         <v>7092167.0</v>
       </c>
       <c r="AD40" s="10">
@@ -3757,13 +3757,13 @@
       <c r="Z41" s="1">
         <v>61314065</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="1">
         <v>61314065</v>
       </c>
-      <c r="AB41">
-        <v>0.0</v>
-      </c>
-      <c r="AC41">
+      <c r="AB41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC41" s="1">
         <v>7801583.0</v>
       </c>
       <c r="AD41">
@@ -3832,13 +3832,13 @@
       <c r="Z42" s="1">
         <v>67445470</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="1">
         <v>67445470</v>
       </c>
-      <c r="AB42">
-        <v>0.0</v>
-      </c>
-      <c r="AC42">
+      <c r="AB42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" s="1">
         <v>8581942.0</v>
       </c>
       <c r="AD42">
@@ -3907,13 +3907,13 @@
       <c r="Z43" s="1">
         <v>74190015</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="1">
         <v>74190015</v>
       </c>
-      <c r="AB43">
-        <v>0.0</v>
-      </c>
-      <c r="AC43">
+      <c r="AB43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" s="1">
         <v>9440336.0</v>
       </c>
       <c r="AD43">
@@ -3982,13 +3982,13 @@
       <c r="Z44" s="1">
         <v>81609015</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="1">
         <v>81609015</v>
       </c>
-      <c r="AB44">
-        <v>0.0</v>
-      </c>
-      <c r="AC44">
+      <c r="AB44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" s="1">
         <v>10384569.0</v>
       </c>
       <c r="AD44">
@@ -4057,13 +4057,13 @@
       <c r="Z45" s="1">
         <v>89769915</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="1">
         <v>89769915</v>
       </c>
-      <c r="AB45">
-        <v>0.0</v>
-      </c>
-      <c r="AC45">
+      <c r="AB45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC45" s="1">
         <v>11423226.0</v>
       </c>
       <c r="AD45">
@@ -4132,13 +4132,13 @@
       <c r="Z46" s="1">
         <v>98746905</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" s="1">
         <v>98746905</v>
       </c>
-      <c r="AB46">
-        <v>0.0</v>
-      </c>
-      <c r="AC46">
+      <c r="AB46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC46" s="1">
         <v>12565748.0</v>
       </c>
       <c r="AD46">
@@ -4207,13 +4207,13 @@
       <c r="Z47" s="1">
         <v>108621595</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="1">
         <v>108621595</v>
       </c>
-      <c r="AB47">
-        <v>0.0</v>
-      </c>
-      <c r="AC47">
+      <c r="AB47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC47" s="1">
         <v>13822523.0</v>
       </c>
       <c r="AD47">
@@ -4282,13 +4282,13 @@
       <c r="Z48" s="1">
         <v>119483750</v>
       </c>
-      <c r="AA48">
+      <c r="AA48" s="1">
         <v>119483750</v>
       </c>
-      <c r="AB48">
-        <v>0.0</v>
-      </c>
-      <c r="AC48">
+      <c r="AB48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC48" s="1">
         <v>15204974.0</v>
       </c>
       <c r="AD48">
@@ -4357,13 +4357,13 @@
       <c r="Z49" s="1">
         <v>131432125</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" s="1">
         <v>131432125</v>
       </c>
-      <c r="AB49">
-        <v>0.0</v>
-      </c>
-      <c r="AC49">
+      <c r="AB49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC49" s="1">
         <v>16725671.0</v>
       </c>
       <c r="AD49">
@@ -4432,13 +4432,13 @@
       <c r="Z50" s="1">
         <v>144575335</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="1">
         <v>144575335</v>
       </c>
-      <c r="AB50">
-        <v>0.0</v>
-      </c>
-      <c r="AC50">
+      <c r="AB50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC50" s="1">
         <v>18398439.0</v>
       </c>
       <c r="AD50">
@@ -4507,13 +4507,13 @@
       <c r="Z51" s="1">
         <v>159032865</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="1">
         <v>159032865</v>
       </c>
-      <c r="AB51">
-        <v>0.0</v>
-      </c>
-      <c r="AC51">
+      <c r="AB51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC51" s="1">
         <v>20238481.0</v>
       </c>
       <c r="AD51">
@@ -4582,13 +4582,13 @@
       <c r="Z52" s="1">
         <v>174936150</v>
       </c>
-      <c r="AA52">
+      <c r="AA52" s="1">
         <v>174936150</v>
       </c>
-      <c r="AB52">
-        <v>0.0</v>
-      </c>
-      <c r="AC52">
+      <c r="AB52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC52" s="1">
         <v>22262529.0</v>
       </c>
       <c r="AD52">
@@ -4657,13 +4657,13 @@
       <c r="Z53" s="13">
         <v>0</v>
       </c>
-      <c r="AA53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="AC53" s="3">
+      <c r="AA53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="13">
         <v>-14018739.0</v>
       </c>
       <c r="AD53" s="3">
@@ -4732,13 +4732,13 @@
       <c r="Z54" s="1">
         <v>0</v>
       </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0.0</v>
-      </c>
-      <c r="AC54">
+      <c r="AA54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC54" s="1">
         <v>-15444366.0</v>
       </c>
       <c r="AD54">
@@ -4807,13 +4807,13 @@
       <c r="Z55" s="1">
         <v>0</v>
       </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0.0</v>
-      </c>
-      <c r="AC55">
+      <c r="AA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC55" s="1">
         <v>-17014964.0</v>
       </c>
       <c r="AD55">
@@ -4882,13 +4882,13 @@
       <c r="Z56" s="1">
         <v>0</v>
       </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0.0</v>
-      </c>
-      <c r="AC56">
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC56" s="1">
         <v>-18745269.0</v>
       </c>
       <c r="AD56">
@@ -4957,13 +4957,13 @@
       <c r="Z57" s="13">
         <v>0</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AA57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="13">
         <v>-20651519.0</v>
       </c>
       <c r="AD57" s="3">
@@ -5032,13 +5032,13 @@
       <c r="Z58" s="1">
         <v>0</v>
       </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0.0</v>
-      </c>
-      <c r="AC58">
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC58" s="1">
         <v>-22751599.0</v>
       </c>
       <c r="AD58">
@@ -5107,13 +5107,13 @@
       <c r="Z59" s="1">
         <v>0</v>
       </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0.0</v>
-      </c>
-      <c r="AC59">
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC59" s="1">
         <v>-25065214.0</v>
       </c>
       <c r="AD59">
@@ -5182,13 +5182,13 @@
       <c r="Z60" s="1">
         <v>0</v>
       </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0.0</v>
-      </c>
-      <c r="AC60">
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC60" s="1">
         <v>-27614071.0</v>
       </c>
       <c r="AD60">
@@ -5257,13 +5257,13 @@
       <c r="Z61" s="1">
         <v>0</v>
       </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0.0</v>
-      </c>
-      <c r="AC61">
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC61" s="1">
         <v>-30422084.0</v>
       </c>
       <c r="AD61">
@@ -5332,13 +5332,13 @@
       <c r="Z62" s="1">
         <v>0</v>
       </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0.0</v>
-      </c>
-      <c r="AC62">
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC62" s="1">
         <v>-33515597.0</v>
       </c>
       <c r="AD62">
@@ -5407,13 +5407,13 @@
       <c r="Z63" s="1">
         <v>0</v>
       </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0.0</v>
-      </c>
-      <c r="AC63">
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC63" s="1">
         <v>-36923632.0</v>
       </c>
       <c r="AD63">
@@ -5482,13 +5482,13 @@
       <c r="Z64" s="1">
         <v>0</v>
       </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0.0</v>
-      </c>
-      <c r="AC64">
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC64" s="1">
         <v>-40678160.0</v>
       </c>
       <c r="AD64">
@@ -5557,13 +5557,13 @@
       <c r="Z65" s="1">
         <v>0</v>
       </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0.0</v>
-      </c>
-      <c r="AC65">
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC65" s="1">
         <v>-44814403.0</v>
       </c>
       <c r="AD65">
@@ -5632,13 +5632,13 @@
       <c r="Z66" s="1">
         <v>0</v>
       </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0.0</v>
-      </c>
-      <c r="AC66">
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC66" s="1">
         <v>-49371161.0</v>
       </c>
       <c r="AD66">
@@ -5707,13 +5707,13 @@
       <c r="Z67" s="1">
         <v>0</v>
       </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>0.0</v>
-      </c>
-      <c r="AC67">
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC67" s="1">
         <v>-54391180.0</v>
       </c>
       <c r="AD67">
@@ -5782,13 +5782,13 @@
       <c r="Z68" s="1">
         <v>0</v>
       </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0.0</v>
-      </c>
-      <c r="AC68">
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC68" s="1">
         <v>-59921552.0</v>
       </c>
       <c r="AD68">
@@ -5857,13 +5857,13 @@
       <c r="Z69" s="1">
         <v>0</v>
       </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0.0</v>
-      </c>
-      <c r="AC69">
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC69" s="1">
         <v>-66014155.0</v>
       </c>
       <c r="AD69">
@@ -5932,13 +5932,13 @@
       <c r="Z70" s="1">
         <v>0</v>
       </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0.0</v>
-      </c>
-      <c r="AC70">
+      <c r="AA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC70" s="1">
         <v>-72726151.0</v>
       </c>
       <c r="AD70">
@@ -6007,13 +6007,13 @@
       <c r="Z71" s="1">
         <v>0</v>
       </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0.0</v>
-      </c>
-      <c r="AC71">
+      <c r="AA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC71" s="1">
         <v>-80120524.0</v>
       </c>
       <c r="AD71">
@@ -6082,13 +6082,13 @@
       <c r="Z72" s="5">
         <v>0</v>
       </c>
-      <c r="AA72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="AC72" s="15">
+      <c r="AA72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="5">
         <v>-88266731.0</v>
       </c>
       <c r="AD72" s="15"/>
@@ -6120,6 +6120,9 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -6147,6 +6150,9 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -6174,6 +6180,9 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -6201,6 +6210,9 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -6228,6 +6240,9 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -6255,6 +6270,9 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -6282,6 +6300,9 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -6309,6 +6330,9 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -6568,11 +6592,11 @@
       <c r="Z6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6"/>
-      <c r="AB6">
-        <v>0.0</v>
-      </c>
-      <c r="AC6">
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" s="1">
         <v>0.0</v>
       </c>
       <c r="AE6" t="s">
@@ -6638,11 +6662,11 @@
       <c r="Z7" s="1">
         <v>2400000</v>
       </c>
-      <c r="AA7"/>
-      <c r="AB7">
-        <v>0.0</v>
-      </c>
-      <c r="AC7">
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" s="1">
         <v>300000.0</v>
       </c>
       <c r="AE7" t="s">
@@ -6708,11 +6732,11 @@
       <c r="Z8" s="8">
         <v>2640000</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AC8" s="7">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" s="8">
         <v>330000.0</v>
       </c>
       <c r="AD8" s="7"/>
@@ -6779,11 +6803,11 @@
       <c r="Z9" s="1">
         <v>2904000</v>
       </c>
-      <c r="AA9"/>
-      <c r="AB9">
-        <v>0.0</v>
-      </c>
-      <c r="AC9">
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" s="1">
         <v>363000.0</v>
       </c>
       <c r="AE9" t="s">
@@ -6849,11 +6873,11 @@
       <c r="Z10" s="1">
         <v>3194400</v>
       </c>
-      <c r="AA10"/>
-      <c r="AB10">
-        <v>0.0</v>
-      </c>
-      <c r="AC10">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" s="1">
         <v>399300.0</v>
       </c>
       <c r="AE10" t="s">
@@ -6919,11 +6943,11 @@
       <c r="Z11" s="1">
         <v>3513840</v>
       </c>
-      <c r="AA11"/>
-      <c r="AB11">
-        <v>0.0</v>
-      </c>
-      <c r="AC11">
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" s="1">
         <v>439230.0</v>
       </c>
       <c r="AE11" t="s">
@@ -6989,11 +7013,11 @@
       <c r="Z12" s="1">
         <v>3865220</v>
       </c>
-      <c r="AA12"/>
-      <c r="AB12">
-        <v>0.0</v>
-      </c>
-      <c r="AC12">
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" s="1">
         <v>483152.0</v>
       </c>
       <c r="AE12" t="s">
@@ -7059,11 +7083,11 @@
       <c r="Z13" s="1">
         <v>4251740</v>
       </c>
-      <c r="AA13"/>
-      <c r="AB13">
-        <v>0.0</v>
-      </c>
-      <c r="AC13">
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" s="1">
         <v>531467.0</v>
       </c>
       <c r="AE13" t="s">
@@ -7129,11 +7153,11 @@
       <c r="Z14" s="1">
         <v>4676910</v>
       </c>
-      <c r="AA14"/>
-      <c r="AB14">
-        <v>0.0</v>
-      </c>
-      <c r="AC14">
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" s="1">
         <v>584613.0</v>
       </c>
       <c r="AE14" t="s">
@@ -7199,11 +7223,11 @@
       <c r="Z15" s="1">
         <v>5144600</v>
       </c>
-      <c r="AA15"/>
-      <c r="AB15">
-        <v>0.0</v>
-      </c>
-      <c r="AC15">
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="1">
         <v>643074.0</v>
       </c>
       <c r="AE15" t="s">
@@ -7269,11 +7293,11 @@
       <c r="Z16" s="1">
         <v>5659060</v>
       </c>
-      <c r="AA16"/>
-      <c r="AB16">
-        <v>0.0</v>
-      </c>
-      <c r="AC16">
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" s="1">
         <v>707381.0</v>
       </c>
       <c r="AE16" t="s">
@@ -7339,11 +7363,11 @@
       <c r="Z17" s="1">
         <v>6224965</v>
       </c>
-      <c r="AA17"/>
-      <c r="AB17">
-        <v>0.0</v>
-      </c>
-      <c r="AC17">
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" s="1">
         <v>778119.0</v>
       </c>
       <c r="AE17" t="s">
@@ -7409,11 +7433,11 @@
       <c r="Z18" s="1">
         <v>6847460</v>
       </c>
-      <c r="AA18"/>
-      <c r="AB18">
-        <v>0.0</v>
-      </c>
-      <c r="AC18">
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" s="1">
         <v>855931.0</v>
       </c>
       <c r="AE18" t="s">
@@ -7479,11 +7503,11 @@
       <c r="Z19" s="1">
         <v>7532205</v>
       </c>
-      <c r="AA19"/>
-      <c r="AB19">
-        <v>0.0</v>
-      </c>
-      <c r="AC19">
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" s="1">
         <v>941524.0</v>
       </c>
       <c r="AE19" t="s">
@@ -7549,11 +7573,11 @@
       <c r="Z20" s="1">
         <v>8285425</v>
       </c>
-      <c r="AA20"/>
-      <c r="AB20">
-        <v>0.0</v>
-      </c>
-      <c r="AC20">
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" s="1">
         <v>1035676.0</v>
       </c>
       <c r="AE20" t="s">
@@ -7619,11 +7643,11 @@
       <c r="Z21" s="1">
         <v>9113965</v>
       </c>
-      <c r="AA21"/>
-      <c r="AB21">
-        <v>0.0</v>
-      </c>
-      <c r="AC21">
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="1">
         <v>1139243.0</v>
       </c>
       <c r="AE21" t="s">
@@ -7689,11 +7713,11 @@
       <c r="Z22" s="1">
         <v>10025360</v>
       </c>
-      <c r="AA22"/>
-      <c r="AB22">
-        <v>0.0</v>
-      </c>
-      <c r="AC22">
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" s="1">
         <v>1253167.0</v>
       </c>
       <c r="AE22" t="s">
@@ -7759,11 +7783,11 @@
       <c r="Z23" s="1">
         <v>11027895</v>
       </c>
-      <c r="AA23"/>
-      <c r="AB23">
-        <v>0.0</v>
-      </c>
-      <c r="AC23">
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC23" s="1">
         <v>1378484.0</v>
       </c>
       <c r="AE23" t="s">
@@ -7829,11 +7853,11 @@
       <c r="Z24" s="1">
         <v>12130680</v>
       </c>
-      <c r="AA24"/>
-      <c r="AB24">
-        <v>0.0</v>
-      </c>
-      <c r="AC24">
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="1">
         <v>1516331.0</v>
       </c>
       <c r="AE24" t="s">
@@ -7899,11 +7923,11 @@
       <c r="Z25" s="1">
         <v>13343745</v>
       </c>
-      <c r="AA25"/>
-      <c r="AB25">
-        <v>0.0</v>
-      </c>
-      <c r="AC25">
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC25" s="1">
         <v>1667964.0</v>
       </c>
       <c r="AE25" t="s">
@@ -7969,11 +7993,11 @@
       <c r="Z26" s="1">
         <v>14678115</v>
       </c>
-      <c r="AA26"/>
-      <c r="AB26">
-        <v>0.0</v>
-      </c>
-      <c r="AC26">
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC26" s="1">
         <v>1834759.0</v>
       </c>
       <c r="AE26" t="s">
@@ -8039,11 +8063,11 @@
       <c r="Z27" s="1">
         <v>16145925</v>
       </c>
-      <c r="AA27"/>
-      <c r="AB27">
-        <v>0.0</v>
-      </c>
-      <c r="AC27">
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="1">
         <v>2018235.0</v>
       </c>
       <c r="AE27" t="s">
@@ -8109,11 +8133,11 @@
       <c r="Z28" s="1">
         <v>17760515</v>
       </c>
-      <c r="AA28"/>
-      <c r="AB28">
-        <v>0.0</v>
-      </c>
-      <c r="AC28">
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC28" s="1">
         <v>2220058.0</v>
       </c>
       <c r="AE28" t="s">
@@ -8179,11 +8203,11 @@
       <c r="Z29" s="1">
         <v>19536565</v>
       </c>
-      <c r="AA29"/>
-      <c r="AB29">
-        <v>0.0</v>
-      </c>
-      <c r="AC29">
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC29" s="1">
         <v>2442064.0</v>
       </c>
       <c r="AE29" t="s">
@@ -8249,11 +8273,11 @@
       <c r="Z30" s="1">
         <v>21490220</v>
       </c>
-      <c r="AA30"/>
-      <c r="AB30">
-        <v>0.0</v>
-      </c>
-      <c r="AC30">
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC30" s="1">
         <v>2686270.0</v>
       </c>
       <c r="AE30" t="s">
@@ -8319,11 +8343,11 @@
       <c r="Z31" s="1">
         <v>23639240</v>
       </c>
-      <c r="AA31"/>
-      <c r="AB31">
-        <v>0.0</v>
-      </c>
-      <c r="AC31">
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC31" s="1">
         <v>2954896.0</v>
       </c>
       <c r="AE31" t="s">
@@ -8389,11 +8413,11 @@
       <c r="Z32" s="1">
         <v>26003160</v>
       </c>
-      <c r="AA32"/>
-      <c r="AB32">
-        <v>0.0</v>
-      </c>
-      <c r="AC32">
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC32" s="1">
         <v>3250385.0</v>
       </c>
       <c r="AE32" t="s">
@@ -8459,11 +8483,11 @@
       <c r="Z33" s="1">
         <v>28603475</v>
       </c>
-      <c r="AA33"/>
-      <c r="AB33">
-        <v>0.0</v>
-      </c>
-      <c r="AC33">
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" s="1">
         <v>3575423.0</v>
       </c>
       <c r="AE33" t="s">
@@ -8529,11 +8553,11 @@
       <c r="Z34" s="1">
         <v>31463820</v>
       </c>
-      <c r="AA34"/>
-      <c r="AB34">
-        <v>0.0</v>
-      </c>
-      <c r="AC34">
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" s="1">
         <v>3932965.0</v>
       </c>
       <c r="AE34" t="s">
@@ -8599,11 +8623,11 @@
       <c r="Z35" s="1">
         <v>34610200</v>
       </c>
-      <c r="AA35"/>
-      <c r="AB35">
-        <v>0.0</v>
-      </c>
-      <c r="AC35">
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" s="1">
         <v>4326261.0</v>
       </c>
       <c r="AE35" t="s">
@@ -8669,11 +8693,11 @@
       <c r="Z36" s="1">
         <v>38071220</v>
       </c>
-      <c r="AA36"/>
-      <c r="AB36">
-        <v>0.0</v>
-      </c>
-      <c r="AC36">
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" s="1">
         <v>4758887.0</v>
       </c>
       <c r="AE36" t="s">
@@ -8739,11 +8763,11 @@
       <c r="Z37" s="1">
         <v>41878340</v>
       </c>
-      <c r="AA37"/>
-      <c r="AB37">
-        <v>0.0</v>
-      </c>
-      <c r="AC37">
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC37" s="1">
         <v>5234776.0</v>
       </c>
       <c r="AE37" t="s">
@@ -8809,11 +8833,11 @@
       <c r="Z38" s="1">
         <v>46066170</v>
       </c>
-      <c r="AA38"/>
-      <c r="AB38">
-        <v>0.0</v>
-      </c>
-      <c r="AC38">
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="1">
         <v>5758252.0</v>
       </c>
       <c r="AE38" t="s">
@@ -8879,11 +8903,11 @@
       <c r="Z39" s="1">
         <v>50672785</v>
       </c>
-      <c r="AA39"/>
-      <c r="AB39">
-        <v>0.0</v>
-      </c>
-      <c r="AC39">
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC39" s="1">
         <v>6334077.0</v>
       </c>
       <c r="AE39" t="s">
@@ -8949,11 +8973,11 @@
       <c r="Z40" s="11">
         <v>55740060</v>
       </c>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="AC40" s="10">
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="11">
         <v>6967484.0</v>
       </c>
       <c r="AD40" s="10"/>
@@ -9020,11 +9044,11 @@
       <c r="Z41" s="1">
         <v>61314065</v>
       </c>
-      <c r="AA41"/>
-      <c r="AB41">
-        <v>0.0</v>
-      </c>
-      <c r="AC41">
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC41" s="1">
         <v>7664232.0</v>
       </c>
       <c r="AE41" t="s">
@@ -9090,11 +9114,11 @@
       <c r="Z42" s="1">
         <v>67445470</v>
       </c>
-      <c r="AA42"/>
-      <c r="AB42">
-        <v>0.0</v>
-      </c>
-      <c r="AC42">
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" s="1">
         <v>8430655.0</v>
       </c>
       <c r="AE42" t="s">
@@ -9160,11 +9184,11 @@
       <c r="Z43" s="1">
         <v>74190015</v>
       </c>
-      <c r="AA43"/>
-      <c r="AB43">
-        <v>0.0</v>
-      </c>
-      <c r="AC43">
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" s="1">
         <v>9273721.0</v>
       </c>
       <c r="AE43" t="s">
@@ -9230,11 +9254,11 @@
       <c r="Z44" s="1">
         <v>81609015</v>
       </c>
-      <c r="AA44"/>
-      <c r="AB44">
-        <v>0.0</v>
-      </c>
-      <c r="AC44">
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" s="1">
         <v>10201092.0</v>
       </c>
       <c r="AE44" t="s">
@@ -9300,11 +9324,11 @@
       <c r="Z45" s="1">
         <v>89769915</v>
       </c>
-      <c r="AA45"/>
-      <c r="AB45">
-        <v>0.0</v>
-      </c>
-      <c r="AC45">
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC45" s="1">
         <v>11221201.0</v>
       </c>
       <c r="AE45" t="s">
@@ -9370,11 +9394,11 @@
       <c r="Z46" s="1">
         <v>98746905</v>
       </c>
-      <c r="AA46"/>
-      <c r="AB46">
-        <v>0.0</v>
-      </c>
-      <c r="AC46">
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC46" s="1">
         <v>12343321.0</v>
       </c>
       <c r="AE46" t="s">
@@ -9440,11 +9464,11 @@
       <c r="Z47" s="1">
         <v>108621595</v>
       </c>
-      <c r="AA47"/>
-      <c r="AB47">
-        <v>0.0</v>
-      </c>
-      <c r="AC47">
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC47" s="1">
         <v>13577653.0</v>
       </c>
       <c r="AE47" t="s">
@@ -9510,11 +9534,11 @@
       <c r="Z48" s="1">
         <v>119483750</v>
       </c>
-      <c r="AA48"/>
-      <c r="AB48">
-        <v>0.0</v>
-      </c>
-      <c r="AC48">
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC48" s="1">
         <v>14935417.0</v>
       </c>
       <c r="AE48" t="s">
@@ -9580,11 +9604,11 @@
       <c r="Z49" s="1">
         <v>131432125</v>
       </c>
-      <c r="AA49"/>
-      <c r="AB49">
-        <v>0.0</v>
-      </c>
-      <c r="AC49">
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC49" s="1">
         <v>16428959.0</v>
       </c>
       <c r="AE49" t="s">
@@ -9650,11 +9674,11 @@
       <c r="Z50" s="1">
         <v>144575335</v>
       </c>
-      <c r="AA50"/>
-      <c r="AB50">
-        <v>0.0</v>
-      </c>
-      <c r="AC50">
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC50" s="1">
         <v>18071855.0</v>
       </c>
       <c r="AE50" t="s">
@@ -9720,11 +9744,11 @@
       <c r="Z51" s="1">
         <v>159032865</v>
       </c>
-      <c r="AA51"/>
-      <c r="AB51">
-        <v>0.0</v>
-      </c>
-      <c r="AC51">
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC51" s="1">
         <v>19879039.0</v>
       </c>
       <c r="AE51" t="s">
@@ -9790,11 +9814,11 @@
       <c r="Z52" s="1">
         <v>174936150</v>
       </c>
-      <c r="AA52"/>
-      <c r="AB52">
-        <v>0.0</v>
-      </c>
-      <c r="AC52">
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC52" s="1">
         <v>21866943.0</v>
       </c>
       <c r="AE52" t="s">
@@ -9858,11 +9882,11 @@
       <c r="Z53" s="13">
         <v>0</v>
       </c>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="AC53" s="3">
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="13">
         <v>-14432316.0</v>
       </c>
       <c r="AD53" s="3"/>
@@ -9927,11 +9951,11 @@
       <c r="Z54" s="1">
         <v>0</v>
       </c>
-      <c r="AA54"/>
-      <c r="AB54">
-        <v>0.0</v>
-      </c>
-      <c r="AC54">
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC54" s="1">
         <v>-15875547.0</v>
       </c>
       <c r="AE54" t="s">
@@ -9995,11 +10019,11 @@
       <c r="Z55" s="1">
         <v>0</v>
       </c>
-      <c r="AA55"/>
-      <c r="AB55">
-        <v>0.0</v>
-      </c>
-      <c r="AC55">
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC55" s="1">
         <v>-17463102.0</v>
       </c>
       <c r="AE55" t="s">
@@ -10063,11 +10087,11 @@
       <c r="Z56" s="1">
         <v>0</v>
       </c>
-      <c r="AA56"/>
-      <c r="AB56">
-        <v>0.0</v>
-      </c>
-      <c r="AC56">
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC56" s="1">
         <v>-19209412.0</v>
       </c>
       <c r="AE56" t="s">
@@ -10131,11 +10155,11 @@
       <c r="Z57" s="13">
         <v>0</v>
       </c>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="13">
         <v>-21130354.0</v>
       </c>
       <c r="AD57" s="3"/>
@@ -10200,11 +10224,11 @@
       <c r="Z58" s="1">
         <v>0</v>
       </c>
-      <c r="AA58"/>
-      <c r="AB58">
-        <v>0.0</v>
-      </c>
-      <c r="AC58">
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC58" s="1">
         <v>-23243389.0</v>
       </c>
       <c r="AE58" t="s">
@@ -10268,11 +10292,11 @@
       <c r="Z59" s="1">
         <v>0</v>
       </c>
-      <c r="AA59"/>
-      <c r="AB59">
-        <v>0.0</v>
-      </c>
-      <c r="AC59">
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC59" s="1">
         <v>-25567728.0</v>
       </c>
       <c r="AE59" t="s">
@@ -10336,11 +10360,11 @@
       <c r="Z60" s="1">
         <v>0</v>
       </c>
-      <c r="AA60"/>
-      <c r="AB60">
-        <v>0.0</v>
-      </c>
-      <c r="AC60">
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC60" s="1">
         <v>-28124501.0</v>
       </c>
       <c r="AE60" t="s">
@@ -10404,11 +10428,11 @@
       <c r="Z61" s="1">
         <v>0</v>
       </c>
-      <c r="AA61"/>
-      <c r="AB61">
-        <v>0.0</v>
-      </c>
-      <c r="AC61">
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC61" s="1">
         <v>-30936951.0</v>
       </c>
       <c r="AE61" t="s">
@@ -10472,11 +10496,11 @@
       <c r="Z62" s="1">
         <v>0</v>
       </c>
-      <c r="AA62"/>
-      <c r="AB62">
-        <v>0.0</v>
-      </c>
-      <c r="AC62">
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC62" s="1">
         <v>-34030646.0</v>
       </c>
       <c r="AE62" t="s">
@@ -10540,11 +10564,11 @@
       <c r="Z63" s="1">
         <v>0</v>
       </c>
-      <c r="AA63"/>
-      <c r="AB63">
-        <v>0.0</v>
-      </c>
-      <c r="AC63">
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC63" s="1">
         <v>-37433710.0</v>
       </c>
       <c r="AE63" t="s">
@@ -10608,11 +10632,11 @@
       <c r="Z64" s="1">
         <v>0</v>
       </c>
-      <c r="AA64"/>
-      <c r="AB64">
-        <v>0.0</v>
-      </c>
-      <c r="AC64">
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC64" s="1">
         <v>-41177081.0</v>
       </c>
       <c r="AE64" t="s">
@@ -10676,11 +10700,11 @@
       <c r="Z65" s="1">
         <v>0</v>
       </c>
-      <c r="AA65"/>
-      <c r="AB65">
-        <v>0.0</v>
-      </c>
-      <c r="AC65">
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC65" s="1">
         <v>-45294789.0</v>
       </c>
       <c r="AE65" t="s">
@@ -10744,11 +10768,11 @@
       <c r="Z66" s="1">
         <v>0</v>
       </c>
-      <c r="AA66"/>
-      <c r="AB66">
-        <v>0.0</v>
-      </c>
-      <c r="AC66">
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC66" s="1">
         <v>-49824268.0</v>
       </c>
       <c r="AE66" t="s">
@@ -10812,11 +10836,11 @@
       <c r="Z67" s="1">
         <v>0</v>
       </c>
-      <c r="AA67"/>
-      <c r="AB67">
-        <v>0.0</v>
-      </c>
-      <c r="AC67">
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC67" s="1">
         <v>-54806695.0</v>
       </c>
       <c r="AE67" t="s">
@@ -10880,11 +10904,11 @@
       <c r="Z68" s="1">
         <v>0</v>
       </c>
-      <c r="AA68"/>
-      <c r="AB68">
-        <v>0.0</v>
-      </c>
-      <c r="AC68">
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC68" s="1">
         <v>-60287365.0</v>
       </c>
       <c r="AE68" t="s">
@@ -10948,11 +10972,11 @@
       <c r="Z69" s="1">
         <v>0</v>
       </c>
-      <c r="AA69"/>
-      <c r="AB69">
-        <v>0.0</v>
-      </c>
-      <c r="AC69">
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC69" s="1">
         <v>-66316101.0</v>
       </c>
       <c r="AE69" t="s">
@@ -11016,11 +11040,11 @@
       <c r="Z70" s="1">
         <v>0</v>
       </c>
-      <c r="AA70"/>
-      <c r="AB70">
-        <v>0.0</v>
-      </c>
-      <c r="AC70">
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC70" s="1">
         <v>-72947711.0</v>
       </c>
       <c r="AE70" t="s">
@@ -11084,11 +11108,11 @@
       <c r="Z71" s="1">
         <v>0</v>
       </c>
-      <c r="AA71"/>
-      <c r="AB71">
-        <v>0.0</v>
-      </c>
-      <c r="AC71">
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC71" s="1">
         <v>-80242482.0</v>
       </c>
       <c r="AE71" t="s">
@@ -11152,11 +11176,11 @@
       <c r="Z72" s="5">
         <v>0</v>
       </c>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="AC72" s="15">
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="5">
         <v>-88266731.0</v>
       </c>
       <c r="AD72" s="15"/>
@@ -11190,6 +11214,9 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -11217,6 +11244,9 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -11244,6 +11274,9 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -11271,6 +11304,9 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -11298,6 +11334,9 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -11325,6 +11364,9 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -11352,6 +11394,9 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -11379,6 +11424,9 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -11636,11 +11684,11 @@
       <c r="Z6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6"/>
-      <c r="AB6">
-        <v>0.0</v>
-      </c>
-      <c r="AC6">
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" s="1">
         <v>0.0</v>
       </c>
       <c r="AE6" t="s">
@@ -11702,11 +11750,11 @@
       <c r="Z7" s="1">
         <v>0</v>
       </c>
-      <c r="AA7"/>
-      <c r="AB7">
-        <v>0.0</v>
-      </c>
-      <c r="AC7">
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" s="1">
         <v>0.0</v>
       </c>
       <c r="AE7" t="s">
@@ -11770,11 +11818,11 @@
       <c r="Z8" s="8">
         <v>0</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AC8" s="7">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" s="8">
         <v>4000.0</v>
       </c>
       <c r="AD8" s="7"/>
@@ -11839,11 +11887,11 @@
       <c r="Z9" s="1">
         <v>0</v>
       </c>
-      <c r="AA9"/>
-      <c r="AB9">
-        <v>0.0</v>
-      </c>
-      <c r="AC9">
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" s="1">
         <v>4600.0</v>
       </c>
       <c r="AE9" t="s">
@@ -11907,11 +11955,11 @@
       <c r="Z10" s="1">
         <v>0</v>
       </c>
-      <c r="AA10"/>
-      <c r="AB10">
-        <v>0.0</v>
-      </c>
-      <c r="AC10">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" s="1">
         <v>5260.0</v>
       </c>
       <c r="AE10" t="s">
@@ -11975,11 +12023,11 @@
       <c r="Z11" s="1">
         <v>0</v>
       </c>
-      <c r="AA11"/>
-      <c r="AB11">
-        <v>0.0</v>
-      </c>
-      <c r="AC11">
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" s="1">
         <v>5986.0</v>
       </c>
       <c r="AE11" t="s">
@@ -12043,11 +12091,11 @@
       <c r="Z12" s="1">
         <v>0</v>
       </c>
-      <c r="AA12"/>
-      <c r="AB12">
-        <v>0.0</v>
-      </c>
-      <c r="AC12">
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" s="1">
         <v>6785.0</v>
       </c>
       <c r="AE12" t="s">
@@ -12111,11 +12159,11 @@
       <c r="Z13" s="1">
         <v>0</v>
       </c>
-      <c r="AA13"/>
-      <c r="AB13">
-        <v>0.0</v>
-      </c>
-      <c r="AC13">
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" s="1">
         <v>7663.0</v>
       </c>
       <c r="AE13" t="s">
@@ -12179,11 +12227,11 @@
       <c r="Z14" s="1">
         <v>0</v>
       </c>
-      <c r="AA14"/>
-      <c r="AB14">
-        <v>0.0</v>
-      </c>
-      <c r="AC14">
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" s="1">
         <v>8629.0</v>
       </c>
       <c r="AE14" t="s">
@@ -12247,11 +12295,11 @@
       <c r="Z15" s="1">
         <v>0</v>
       </c>
-      <c r="AA15"/>
-      <c r="AB15">
-        <v>0.0</v>
-      </c>
-      <c r="AC15">
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="1">
         <v>9692.0</v>
       </c>
       <c r="AE15" t="s">
@@ -12315,11 +12363,11 @@
       <c r="Z16" s="1">
         <v>0</v>
       </c>
-      <c r="AA16"/>
-      <c r="AB16">
-        <v>0.0</v>
-      </c>
-      <c r="AC16">
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" s="1">
         <v>10862.0</v>
       </c>
       <c r="AE16" t="s">
@@ -12383,11 +12431,11 @@
       <c r="Z17" s="1">
         <v>0</v>
       </c>
-      <c r="AA17"/>
-      <c r="AB17">
-        <v>0.0</v>
-      </c>
-      <c r="AC17">
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" s="1">
         <v>12148.0</v>
       </c>
       <c r="AE17" t="s">
@@ -12451,11 +12499,11 @@
       <c r="Z18" s="1">
         <v>0</v>
       </c>
-      <c r="AA18"/>
-      <c r="AB18">
-        <v>0.0</v>
-      </c>
-      <c r="AC18">
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" s="1">
         <v>13563.0</v>
       </c>
       <c r="AE18" t="s">
@@ -12519,11 +12567,11 @@
       <c r="Z19" s="1">
         <v>0</v>
       </c>
-      <c r="AA19"/>
-      <c r="AB19">
-        <v>0.0</v>
-      </c>
-      <c r="AC19">
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" s="1">
         <v>15119.0</v>
       </c>
       <c r="AE19" t="s">
@@ -12587,11 +12635,11 @@
       <c r="Z20" s="1">
         <v>0</v>
       </c>
-      <c r="AA20"/>
-      <c r="AB20">
-        <v>0.0</v>
-      </c>
-      <c r="AC20">
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" s="1">
         <v>16831.0</v>
       </c>
       <c r="AE20" t="s">
@@ -12655,11 +12703,11 @@
       <c r="Z21" s="1">
         <v>0</v>
       </c>
-      <c r="AA21"/>
-      <c r="AB21">
-        <v>0.0</v>
-      </c>
-      <c r="AC21">
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="1">
         <v>18714.0</v>
       </c>
       <c r="AE21" t="s">
@@ -12723,11 +12771,11 @@
       <c r="Z22" s="1">
         <v>0</v>
       </c>
-      <c r="AA22"/>
-      <c r="AB22">
-        <v>0.0</v>
-      </c>
-      <c r="AC22">
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" s="1">
         <v>20785.0</v>
       </c>
       <c r="AE22" t="s">
@@ -12791,11 +12839,11 @@
       <c r="Z23" s="1">
         <v>0</v>
       </c>
-      <c r="AA23"/>
-      <c r="AB23">
-        <v>0.0</v>
-      </c>
-      <c r="AC23">
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC23" s="1">
         <v>23064.0</v>
       </c>
       <c r="AE23" t="s">
@@ -12859,11 +12907,11 @@
       <c r="Z24" s="1">
         <v>0</v>
       </c>
-      <c r="AA24"/>
-      <c r="AB24">
-        <v>0.0</v>
-      </c>
-      <c r="AC24">
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="1">
         <v>25570.0</v>
       </c>
       <c r="AE24" t="s">
@@ -12927,11 +12975,11 @@
       <c r="Z25" s="1">
         <v>0</v>
       </c>
-      <c r="AA25"/>
-      <c r="AB25">
-        <v>0.0</v>
-      </c>
-      <c r="AC25">
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC25" s="1">
         <v>28327.0</v>
       </c>
       <c r="AE25" t="s">
@@ -12995,11 +13043,11 @@
       <c r="Z26" s="1">
         <v>0</v>
       </c>
-      <c r="AA26"/>
-      <c r="AB26">
-        <v>0.0</v>
-      </c>
-      <c r="AC26">
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC26" s="1">
         <v>31360.0</v>
       </c>
       <c r="AE26" t="s">
@@ -13063,11 +13111,11 @@
       <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="AA27"/>
-      <c r="AB27">
-        <v>0.0</v>
-      </c>
-      <c r="AC27">
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="1">
         <v>34696.0</v>
       </c>
       <c r="AE27" t="s">
@@ -13131,11 +13179,11 @@
       <c r="Z28" s="1">
         <v>0</v>
       </c>
-      <c r="AA28"/>
-      <c r="AB28">
-        <v>0.0</v>
-      </c>
-      <c r="AC28">
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC28" s="1">
         <v>38365.0</v>
       </c>
       <c r="AE28" t="s">
@@ -13199,11 +13247,11 @@
       <c r="Z29" s="1">
         <v>0</v>
       </c>
-      <c r="AA29"/>
-      <c r="AB29">
-        <v>0.0</v>
-      </c>
-      <c r="AC29">
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC29" s="1">
         <v>42402.0</v>
       </c>
       <c r="AE29" t="s">
@@ -13267,11 +13315,11 @@
       <c r="Z30" s="1">
         <v>0</v>
       </c>
-      <c r="AA30"/>
-      <c r="AB30">
-        <v>0.0</v>
-      </c>
-      <c r="AC30">
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC30" s="1">
         <v>46842.0</v>
       </c>
       <c r="AE30" t="s">
@@ -13335,11 +13383,11 @@
       <c r="Z31" s="1">
         <v>0</v>
       </c>
-      <c r="AA31"/>
-      <c r="AB31">
-        <v>0.0</v>
-      </c>
-      <c r="AC31">
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC31" s="1">
         <v>51726.0</v>
       </c>
       <c r="AE31" t="s">
@@ -13403,11 +13451,11 @@
       <c r="Z32" s="1">
         <v>0</v>
       </c>
-      <c r="AA32"/>
-      <c r="AB32">
-        <v>0.0</v>
-      </c>
-      <c r="AC32">
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC32" s="1">
         <v>57099.0</v>
       </c>
       <c r="AE32" t="s">
@@ -13471,11 +13519,11 @@
       <c r="Z33" s="1">
         <v>0</v>
       </c>
-      <c r="AA33"/>
-      <c r="AB33">
-        <v>0.0</v>
-      </c>
-      <c r="AC33">
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" s="1">
         <v>63009.0</v>
       </c>
       <c r="AE33" t="s">
@@ -13539,11 +13587,11 @@
       <c r="Z34" s="1">
         <v>0</v>
       </c>
-      <c r="AA34"/>
-      <c r="AB34">
-        <v>0.0</v>
-      </c>
-      <c r="AC34">
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" s="1">
         <v>69509.0</v>
       </c>
       <c r="AE34" t="s">
@@ -13607,11 +13655,11 @@
       <c r="Z35" s="1">
         <v>0</v>
       </c>
-      <c r="AA35"/>
-      <c r="AB35">
-        <v>0.0</v>
-      </c>
-      <c r="AC35">
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" s="1">
         <v>76660.0</v>
       </c>
       <c r="AE35" t="s">
@@ -13675,11 +13723,11 @@
       <c r="Z36" s="1">
         <v>0</v>
       </c>
-      <c r="AA36"/>
-      <c r="AB36">
-        <v>0.0</v>
-      </c>
-      <c r="AC36">
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" s="1">
         <v>84526.0</v>
       </c>
       <c r="AE36" t="s">
@@ -13743,11 +13791,11 @@
       <c r="Z37" s="1">
         <v>0</v>
       </c>
-      <c r="AA37"/>
-      <c r="AB37">
-        <v>0.0</v>
-      </c>
-      <c r="AC37">
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC37" s="1">
         <v>93179.0</v>
       </c>
       <c r="AE37" t="s">
@@ -13811,11 +13859,11 @@
       <c r="Z38" s="1">
         <v>0</v>
       </c>
-      <c r="AA38"/>
-      <c r="AB38">
-        <v>0.0</v>
-      </c>
-      <c r="AC38">
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="1">
         <v>102697.0</v>
       </c>
       <c r="AE38" t="s">
@@ -13879,11 +13927,11 @@
       <c r="Z39" s="1">
         <v>0</v>
       </c>
-      <c r="AA39"/>
-      <c r="AB39">
-        <v>0.0</v>
-      </c>
-      <c r="AC39">
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC39" s="1">
         <v>113167.0</v>
       </c>
       <c r="AE39" t="s">
@@ -13947,11 +13995,11 @@
       <c r="Z40" s="11">
         <v>0</v>
       </c>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="AC40" s="10">
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="11">
         <v>124683.0</v>
       </c>
       <c r="AD40" s="10"/>
@@ -14016,11 +14064,11 @@
       <c r="Z41" s="1">
         <v>0</v>
       </c>
-      <c r="AA41"/>
-      <c r="AB41">
-        <v>0.0</v>
-      </c>
-      <c r="AC41">
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC41" s="1">
         <v>137351.0</v>
       </c>
       <c r="AE41" t="s">
@@ -14084,11 +14132,11 @@
       <c r="Z42" s="1">
         <v>0</v>
       </c>
-      <c r="AA42"/>
-      <c r="AB42">
-        <v>0.0</v>
-      </c>
-      <c r="AC42">
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" s="1">
         <v>151287.0</v>
       </c>
       <c r="AE42" t="s">
@@ -14152,11 +14200,11 @@
       <c r="Z43" s="1">
         <v>0</v>
       </c>
-      <c r="AA43"/>
-      <c r="AB43">
-        <v>0.0</v>
-      </c>
-      <c r="AC43">
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" s="1">
         <v>166615.0</v>
       </c>
       <c r="AE43" t="s">
@@ -14220,11 +14268,11 @@
       <c r="Z44" s="1">
         <v>0</v>
       </c>
-      <c r="AA44"/>
-      <c r="AB44">
-        <v>0.0</v>
-      </c>
-      <c r="AC44">
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" s="1">
         <v>183477.0</v>
       </c>
       <c r="AE44" t="s">
@@ -14288,11 +14336,11 @@
       <c r="Z45" s="1">
         <v>0</v>
       </c>
-      <c r="AA45"/>
-      <c r="AB45">
-        <v>0.0</v>
-      </c>
-      <c r="AC45">
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC45" s="1">
         <v>202025.0</v>
       </c>
       <c r="AE45" t="s">
@@ -14356,11 +14404,11 @@
       <c r="Z46" s="1">
         <v>0</v>
       </c>
-      <c r="AA46"/>
-      <c r="AB46">
-        <v>0.0</v>
-      </c>
-      <c r="AC46">
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC46" s="1">
         <v>222427.0</v>
       </c>
       <c r="AE46" t="s">
@@ -14424,11 +14472,11 @@
       <c r="Z47" s="1">
         <v>0</v>
       </c>
-      <c r="AA47"/>
-      <c r="AB47">
-        <v>0.0</v>
-      </c>
-      <c r="AC47">
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC47" s="1">
         <v>244870.0</v>
       </c>
       <c r="AE47" t="s">
@@ -14492,11 +14540,11 @@
       <c r="Z48" s="1">
         <v>0</v>
       </c>
-      <c r="AA48"/>
-      <c r="AB48">
-        <v>0.0</v>
-      </c>
-      <c r="AC48">
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC48" s="1">
         <v>269557.0</v>
       </c>
       <c r="AE48" t="s">
@@ -14560,11 +14608,11 @@
       <c r="Z49" s="1">
         <v>0</v>
       </c>
-      <c r="AA49"/>
-      <c r="AB49">
-        <v>0.0</v>
-      </c>
-      <c r="AC49">
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC49" s="1">
         <v>296712.0</v>
       </c>
       <c r="AE49" t="s">
@@ -14628,11 +14676,11 @@
       <c r="Z50" s="1">
         <v>0</v>
       </c>
-      <c r="AA50"/>
-      <c r="AB50">
-        <v>0.0</v>
-      </c>
-      <c r="AC50">
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC50" s="1">
         <v>326584.0</v>
       </c>
       <c r="AE50" t="s">
@@ -14696,11 +14744,11 @@
       <c r="Z51" s="1">
         <v>0</v>
       </c>
-      <c r="AA51"/>
-      <c r="AB51">
-        <v>0.0</v>
-      </c>
-      <c r="AC51">
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC51" s="1">
         <v>359442.0</v>
       </c>
       <c r="AE51" t="s">
@@ -14764,11 +14812,11 @@
       <c r="Z52" s="1">
         <v>0</v>
       </c>
-      <c r="AA52"/>
-      <c r="AB52">
-        <v>0.0</v>
-      </c>
-      <c r="AC52">
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC52" s="1">
         <v>395586.0</v>
       </c>
       <c r="AE52" t="s">
@@ -14832,11 +14880,11 @@
       <c r="Z53" s="13">
         <v>0</v>
       </c>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="AC53" s="3">
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="13">
         <v>413577.0</v>
       </c>
       <c r="AD53" s="3"/>
@@ -14901,11 +14949,11 @@
       <c r="Z54" s="1">
         <v>0</v>
       </c>
-      <c r="AA54"/>
-      <c r="AB54">
-        <v>0.0</v>
-      </c>
-      <c r="AC54">
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC54" s="1">
         <v>431181.0</v>
       </c>
       <c r="AE54" t="s">
@@ -14969,11 +15017,11 @@
       <c r="Z55" s="1">
         <v>0</v>
       </c>
-      <c r="AA55"/>
-      <c r="AB55">
-        <v>0.0</v>
-      </c>
-      <c r="AC55">
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC55" s="1">
         <v>448138.0</v>
       </c>
       <c r="AE55" t="s">
@@ -15037,11 +15085,11 @@
       <c r="Z56" s="1">
         <v>0</v>
       </c>
-      <c r="AA56"/>
-      <c r="AB56">
-        <v>0.0</v>
-      </c>
-      <c r="AC56">
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC56" s="1">
         <v>464143.0</v>
       </c>
       <c r="AE56" t="s">
@@ -15105,11 +15153,11 @@
       <c r="Z57" s="13">
         <v>0</v>
       </c>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="13">
         <v>478835.0</v>
       </c>
       <c r="AD57" s="3"/>
@@ -15174,11 +15222,11 @@
       <c r="Z58" s="1">
         <v>0</v>
       </c>
-      <c r="AA58"/>
-      <c r="AB58">
-        <v>0.0</v>
-      </c>
-      <c r="AC58">
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC58" s="1">
         <v>491790.0</v>
       </c>
       <c r="AE58" t="s">
@@ -15242,11 +15290,11 @@
       <c r="Z59" s="1">
         <v>0</v>
       </c>
-      <c r="AA59"/>
-      <c r="AB59">
-        <v>0.0</v>
-      </c>
-      <c r="AC59">
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC59" s="1">
         <v>502514.0</v>
       </c>
       <c r="AE59" t="s">
@@ -15310,11 +15358,11 @@
       <c r="Z60" s="1">
         <v>0</v>
       </c>
-      <c r="AA60"/>
-      <c r="AB60">
-        <v>0.0</v>
-      </c>
-      <c r="AC60">
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC60" s="1">
         <v>510430.0</v>
       </c>
       <c r="AE60" t="s">
@@ -15378,11 +15426,11 @@
       <c r="Z61" s="1">
         <v>0</v>
       </c>
-      <c r="AA61"/>
-      <c r="AB61">
-        <v>0.0</v>
-      </c>
-      <c r="AC61">
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC61" s="1">
         <v>514867.0</v>
       </c>
       <c r="AE61" t="s">
@@ -15446,11 +15494,11 @@
       <c r="Z62" s="1">
         <v>0</v>
       </c>
-      <c r="AA62"/>
-      <c r="AB62">
-        <v>0.0</v>
-      </c>
-      <c r="AC62">
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC62" s="1">
         <v>515049.0</v>
       </c>
       <c r="AE62" t="s">
@@ -15514,11 +15562,11 @@
       <c r="Z63" s="1">
         <v>0</v>
       </c>
-      <c r="AA63"/>
-      <c r="AB63">
-        <v>0.0</v>
-      </c>
-      <c r="AC63">
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC63" s="1">
         <v>510078.0</v>
       </c>
       <c r="AE63" t="s">
@@ -15582,11 +15630,11 @@
       <c r="Z64" s="1">
         <v>0</v>
       </c>
-      <c r="AA64"/>
-      <c r="AB64">
-        <v>0.0</v>
-      </c>
-      <c r="AC64">
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC64" s="1">
         <v>498921.0</v>
       </c>
       <c r="AE64" t="s">
@@ -15650,11 +15698,11 @@
       <c r="Z65" s="1">
         <v>0</v>
       </c>
-      <c r="AA65"/>
-      <c r="AB65">
-        <v>0.0</v>
-      </c>
-      <c r="AC65">
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC65" s="1">
         <v>480386.0</v>
       </c>
       <c r="AE65" t="s">
@@ -15718,11 +15766,11 @@
       <c r="Z66" s="1">
         <v>0</v>
       </c>
-      <c r="AA66"/>
-      <c r="AB66">
-        <v>0.0</v>
-      </c>
-      <c r="AC66">
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC66" s="1">
         <v>453107.0</v>
       </c>
       <c r="AE66" t="s">
@@ -15786,11 +15834,11 @@
       <c r="Z67" s="1">
         <v>0</v>
       </c>
-      <c r="AA67"/>
-      <c r="AB67">
-        <v>0.0</v>
-      </c>
-      <c r="AC67">
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC67" s="1">
         <v>415515.0</v>
       </c>
       <c r="AE67" t="s">
@@ -15854,11 +15902,11 @@
       <c r="Z68" s="1">
         <v>0</v>
       </c>
-      <c r="AA68"/>
-      <c r="AB68">
-        <v>0.0</v>
-      </c>
-      <c r="AC68">
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC68" s="1">
         <v>365813.0</v>
       </c>
       <c r="AE68" t="s">
@@ -15922,11 +15970,11 @@
       <c r="Z69" s="1">
         <v>0</v>
       </c>
-      <c r="AA69"/>
-      <c r="AB69">
-        <v>0.0</v>
-      </c>
-      <c r="AC69">
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC69" s="1">
         <v>301946.0</v>
       </c>
       <c r="AE69" t="s">
@@ -15990,11 +16038,11 @@
       <c r="Z70" s="1">
         <v>0</v>
       </c>
-      <c r="AA70"/>
-      <c r="AB70">
-        <v>0.0</v>
-      </c>
-      <c r="AC70">
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC70" s="1">
         <v>221560.0</v>
       </c>
       <c r="AE70" t="s">
@@ -16058,11 +16106,11 @@
       <c r="Z71" s="1">
         <v>0</v>
       </c>
-      <c r="AA71"/>
-      <c r="AB71">
-        <v>0.0</v>
-      </c>
-      <c r="AC71">
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC71" s="1">
         <v>121958.0</v>
       </c>
       <c r="AE71" t="s">
@@ -16126,11 +16174,11 @@
       <c r="Z72" s="5">
         <v>0</v>
       </c>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="AC72" s="15">
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="5">
         <v>0.0</v>
       </c>
       <c r="AD72" s="15"/>
@@ -16164,6 +16212,9 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -16191,6 +16242,9 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -16218,6 +16272,9 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -16245,6 +16302,9 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -16272,6 +16332,9 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -16299,6 +16362,9 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -16326,6 +16392,9 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -16353,6 +16422,9 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/tests/Feature/config/fond_tenpercent.xlsx
+++ b/tests/Feature/config/fond_tenpercent.xlsx
@@ -113,7 +113,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -149,211 +149,211 @@
     <t>income</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Income0 Asset rule </t>
+    <t xml:space="preserve">Income Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Pensioned, no more salary from here00 Asset rule </t>
+    <t xml:space="preserve">Pensioned, no more salary from here Asset rule: </t>
   </si>
   <si>
     <t>fond</t>
   </si>
   <si>
-    <t>00 Asset rule Using current amount: 100000 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1505000 = 1500000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Adding: 115000 = 110000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1510000 = 1505000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 121000 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1666000 = 1661000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 133100 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1837600 = 1832600 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 146410 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2026360 = 2021360 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 161051 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2233996 = 2228996 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 177156 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2462396 = 2457396 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 194872 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2713636 = 2708636 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 214359 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2990000 = 2985000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 235795 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 3294000 = 3289000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 259375 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 3628400 = 3623400 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 285313 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 3996240 = 3991240 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 313844 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 4400864 = 4395864 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 345228 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 4845950 = 4840950 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 379751 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 5335545 = 5330545 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 417726 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 5874100 = 5869100 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 459499 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 6466510 = 6461510 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 505449 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 7118161 = 7113161 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 555994 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 7834977 = 7829977 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 611593 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 8623475 = 8618475 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 672752 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 9490823 = 9485823 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 740027 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 10444905 = 10439905 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 814030 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 11494396 = 11489396 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 895433 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 12648836 = 12643836 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 984976 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 13918720 = 13913720 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 1083474 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 15315592 = 15310592 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 1191821 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 16852151 = 16847151 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 1311003 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 18542366 = 18537366 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 1442103 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 20401603 = 20396603 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 1586313 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 22446763 = 22441763 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 1744944 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 24696439 = 24691439 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 1919438 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 27171083 = 27166083 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 2111382 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 29893191 = 29888191 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 2322520 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 32887510 = 32882510 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 2554772 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 36181261 = 36176261 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 2810249 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 39804387 = 39799387 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 3091274 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 43789826 = 43784826 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 3400401 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 48173809 = 48168809 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 3740441 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 52996190 = 52991190 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 4114485 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 58300809 = 58295809 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 4525934 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 64135890 = 64130890 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 4978527 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 70554479 = 70549479 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 5476380 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 77614927 = 77609927 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 6024018 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 85381420 = 85376420 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 6626420 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 93924562 = 93919562 + (5000 * 1)</t>
   </si>
   <si>
-    <t>00Uttak fra 2068, 1|20 Asset rule 1|19Adding divisor: 364453 new rule: 1|19</t>
+    <t>Uttak fra 2068, 1|20 Asset rule:1|20 Adding divisor: 5165851 rewritten rule: 1|19</t>
   </si>
   <si>
-    <t>000 Asset rule 1|18Adding divisor: 400898 new rule: 1|18</t>
+    <t xml:space="preserve"> Asset rule:1|19 Adding divisor: 5682436 rewritten rule: 1|18</t>
   </si>
   <si>
-    <t>000 Asset rule 1|17Adding divisor: 440988 new rule: 1|17</t>
+    <t xml:space="preserve"> Asset rule:1|18 Adding divisor: 6250680 rewritten rule: 1|17</t>
   </si>
   <si>
-    <t>000 Asset rule 1|16Adding divisor: 485087 new rule: 1|16</t>
+    <t xml:space="preserve"> Asset rule:1|17 Adding divisor: 6875748 rewritten rule: 1|16</t>
   </si>
   <si>
-    <t>000 Asset rule 1|15Adding divisor: 533596 new rule: 1|15</t>
+    <t xml:space="preserve"> Asset rule:1|16 Adding divisor: 7563322 rewritten rule: 1|15</t>
   </si>
   <si>
-    <t>000 Asset rule 1|14Adding divisor: 586955 new rule: 1|14</t>
+    <t xml:space="preserve"> Asset rule:1|15 Adding divisor: 8319654 rewritten rule: 1|14</t>
   </si>
   <si>
-    <t>000 Asset rule 1|13Adding divisor: 645651 new rule: 1|13</t>
+    <t xml:space="preserve"> Asset rule:1|14 Adding divisor: 9151620 rewritten rule: 1|13</t>
   </si>
   <si>
-    <t>000 Asset rule 1|12Adding divisor: 710216 new rule: 1|12</t>
+    <t xml:space="preserve"> Asset rule:1|13 Adding divisor: 10066782 rewritten rule: 1|12</t>
   </si>
   <si>
-    <t>000 Asset rule 1|11Adding divisor: 781238 new rule: 1|11</t>
+    <t xml:space="preserve"> Asset rule:1|12 Adding divisor: 11073460 rewritten rule: 1|11</t>
   </si>
   <si>
-    <t>000 Asset rule 1|10Adding divisor: 859361 new rule: 1|10</t>
+    <t xml:space="preserve"> Asset rule:1|11 Adding divisor: 12180806 rewritten rule: 1|10</t>
   </si>
   <si>
-    <t>000 Asset rule 1|9Adding divisor: 945298 new rule: 1|9</t>
+    <t xml:space="preserve"> Asset rule:1|10 Adding divisor: 13398887 rewritten rule: 1|9</t>
   </si>
   <si>
-    <t>000 Asset rule 1|8Adding divisor: 1039827 new rule: 1|8</t>
+    <t xml:space="preserve"> Asset rule:1|9 Adding divisor: 14738775 rewritten rule: 1|8</t>
   </si>
   <si>
-    <t>000 Asset rule 1|7Adding divisor: 1143810 new rule: 1|7</t>
+    <t xml:space="preserve"> Asset rule:1|8 Adding divisor: 16212653 rewritten rule: 1|7</t>
   </si>
   <si>
-    <t>000 Asset rule 1|6Adding divisor: 1258191 new rule: 1|6</t>
+    <t xml:space="preserve"> Asset rule:1|7 Adding divisor: 17833918 rewritten rule: 1|6</t>
   </si>
   <si>
-    <t>000 Asset rule 1|5Adding divisor: 1384010 new rule: 1|5</t>
+    <t xml:space="preserve"> Asset rule:1|6 Adding divisor: 19617310 rewritten rule: 1|5</t>
   </si>
   <si>
-    <t>000 Asset rule 1|4Adding divisor: 1522411 new rule: 1|4</t>
+    <t xml:space="preserve"> Asset rule:1|5 Adding divisor: 21579041 rewritten rule: 1|4</t>
   </si>
   <si>
-    <t>000 Asset rule 1|3Adding divisor: 1674653 new rule: 1|3</t>
+    <t xml:space="preserve"> Asset rule:1|4 Adding divisor: 23736945 rewritten rule: 1|3</t>
   </si>
   <si>
-    <t>000 Asset rule 1|2Adding divisor: 1842118 new rule: 1|2</t>
+    <t xml:space="preserve"> Asset rule:1|3 Adding divisor: 26110640 rewritten rule: 1|2</t>
   </si>
   <si>
-    <t>000 Asset rule 1|1Adding divisor: 2026330 new rule: 1|1</t>
+    <t xml:space="preserve"> Asset rule:1|2 Adding divisor: 28721704 rewritten rule: 1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule Adding divisor: 2228962 new rule: </t>
+    <t xml:space="preserve"> Asset rule:1|1 Adding divisor: 31593873 rewritten rule: </t>
   </si>
   <si>
     <t>total</t>
@@ -778,10 +778,10 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -1140,20 +1140,20 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>110000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>110000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="S8" s="1">
-        <v>110000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="T8" s="1">
-        <v>110000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="U8" s="6">
-        <v>88000.0</v>
+        <v>1204000.0</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
@@ -1219,20 +1219,20 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="8">
-        <v>121000.0</v>
+        <v>1661000.0</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="8">
-        <v>121000.0</v>
+        <v>1661000.0</v>
       </c>
       <c r="S9" s="8">
-        <v>110000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="T9" s="8">
-        <v>110000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="U9" s="8">
-        <v>96800.0</v>
+        <v>1328800.0</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="8">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>133100.0</v>
+        <v>1832600.0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>133100.0</v>
+        <v>1832600.0</v>
       </c>
       <c r="S10" s="1">
-        <v>110000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="T10" s="1">
-        <v>110000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="U10" s="6">
-        <v>106480.0</v>
+        <v>1466080.0</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
@@ -1377,20 +1377,20 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>146410.0</v>
+        <v>2021360.0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>146410.0</v>
+        <v>2021360.0</v>
       </c>
       <c r="S11" s="1">
-        <v>110000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="T11" s="1">
-        <v>110000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="U11" s="6">
-        <v>117128.0</v>
+        <v>1617088.0</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
@@ -1456,28 +1456,28 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>161051.0</v>
+        <v>2228996.0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>161051.0</v>
+        <v>2228996.0</v>
       </c>
       <c r="S12" s="1">
-        <v>110000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="T12" s="1">
-        <v>110000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="U12" s="6">
-        <v>128840.8</v>
+        <v>1783196.8</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>831.968</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
-        <v>106293.55</v>
+        <v>105461.582</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
@@ -1535,28 +1535,28 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>177156.0</v>
+        <v>2457396.0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>177156.0</v>
+        <v>2457396.0</v>
       </c>
       <c r="S13" s="1">
-        <v>110000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="T13" s="1">
-        <v>110000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="U13" s="6">
-        <v>141724.8</v>
+        <v>1965916.8</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>2659.168</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
-        <v>116923.4</v>
+        <v>114264.232</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
@@ -1614,28 +1614,28 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>194872.0</v>
+        <v>2708636.0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>194872.0</v>
+        <v>2708636.0</v>
       </c>
       <c r="S14" s="1">
-        <v>110000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T14" s="1">
-        <v>110000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U14" s="6">
-        <v>155897.6</v>
+        <v>2166908.8</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>4669.088</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
-        <v>128615.85</v>
+        <v>123946.762</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
@@ -1693,28 +1693,28 @@
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>214359.0</v>
+        <v>2985000.0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>214359.0</v>
+        <v>2985000.0</v>
       </c>
       <c r="S15" s="1">
-        <v>110000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="T15" s="1">
-        <v>110000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="U15" s="6">
-        <v>171487.2</v>
+        <v>2388000.0</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>6880.0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
-        <v>141477.6</v>
+        <v>134597.6</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
@@ -1772,28 +1772,28 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>235795.0</v>
+        <v>3289000.0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>235795.0</v>
+        <v>3289000.0</v>
       </c>
       <c r="S16" s="1">
-        <v>110000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="T16" s="1">
-        <v>110000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="U16" s="6">
-        <v>188636.0</v>
+        <v>2631200.0</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>9312.0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
-        <v>155624.7</v>
+        <v>146312.7</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
@@ -1851,28 +1851,28 @@
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>259375.0</v>
+        <v>3623400.0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>259375.0</v>
+        <v>3623400.0</v>
       </c>
       <c r="S17" s="1">
-        <v>110000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="T17" s="1">
-        <v>110000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="U17" s="6">
-        <v>207500.0</v>
+        <v>2898720.0</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>11987.2</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
-        <v>171187.5</v>
+        <v>159200.3</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
@@ -1930,28 +1930,28 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>285313.0</v>
+        <v>3991240.0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>285313.0</v>
+        <v>3991240.0</v>
       </c>
       <c r="S18" s="1">
-        <v>110000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>110000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="U18" s="6">
-        <v>228250.4</v>
+        <v>3192992.0</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>14929.92</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
-        <v>188306.8</v>
+        <v>173376.88</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
@@ -2009,28 +2009,28 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>313844.0</v>
+        <v>4395864.0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>313844.0</v>
+        <v>4395864.0</v>
       </c>
       <c r="S19" s="1">
-        <v>110000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="T19" s="1">
-        <v>110000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="U19" s="6">
-        <v>251075.2</v>
+        <v>3516691.2</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>18166.912</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
-        <v>207137.7</v>
+        <v>188970.788</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
@@ -2088,28 +2088,28 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>345228.0</v>
+        <v>4840950.0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>345228.0</v>
+        <v>4840950.0</v>
       </c>
       <c r="S20" s="1">
-        <v>110000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>110000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="U20" s="6">
-        <v>276182.4</v>
+        <v>3872760.0</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>21727.6</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
-        <v>227851.25</v>
+        <v>206123.65</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
@@ -2167,28 +2167,28 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>379751.0</v>
+        <v>5330545.0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>379751.0</v>
+        <v>5330545.0</v>
       </c>
       <c r="S21" s="1">
-        <v>110000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>110000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="U21" s="6">
-        <v>303800.8</v>
+        <v>4264436.0</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>25644.36</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
-        <v>250636.1</v>
+        <v>224991.74</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
@@ -2246,28 +2246,28 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>417726.0</v>
+        <v>5869100.0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>417726.0</v>
+        <v>5869100.0</v>
       </c>
       <c r="S22" s="1">
-        <v>110000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>110000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="U22" s="6">
-        <v>334180.8</v>
+        <v>4695280.0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>29952.8</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
-        <v>275699.6</v>
+        <v>245746.8</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
@@ -2325,28 +2325,28 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>459499.0</v>
+        <v>6461510.0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>459499.0</v>
+        <v>6461510.0</v>
       </c>
       <c r="S23" s="1">
-        <v>110000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>110000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="U23" s="6">
-        <v>367599.2</v>
+        <v>5169208.0</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>34692.08</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
-        <v>303268.9</v>
+        <v>268576.82</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
@@ -2404,28 +2404,28 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>505449.0</v>
+        <v>7113161.0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>505449.0</v>
+        <v>7113161.0</v>
       </c>
       <c r="S24" s="1">
-        <v>110000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>110000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="U24" s="6">
-        <v>404359.2</v>
+        <v>5690528.8</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>39905.288</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
-        <v>333595.35</v>
+        <v>293690.062</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
@@ -2483,28 +2483,28 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>555994.0</v>
+        <v>7829977.0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>555994.0</v>
+        <v>7829977.0</v>
       </c>
       <c r="S25" s="1">
-        <v>110000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>110000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="U25" s="6">
-        <v>444795.2</v>
+        <v>6263981.6</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>45639.816</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
-        <v>366954.5</v>
+        <v>321314.684</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
@@ -2562,28 +2562,28 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>611593.0</v>
+        <v>8618475.0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>611593.0</v>
+        <v>8618475.0</v>
       </c>
       <c r="S26" s="1">
-        <v>110000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>110000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="U26" s="6">
-        <v>489274.4</v>
+        <v>6894780.0</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>51947.8</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
-        <v>403649.4</v>
+        <v>351701.6</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
@@ -2641,28 +2641,28 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>672752.0</v>
+        <v>9485823.0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>672752.0</v>
+        <v>9485823.0</v>
       </c>
       <c r="S27" s="1">
-        <v>110000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>110000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="U27" s="6">
-        <v>538201.6</v>
+        <v>7588658.4</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>58886.584</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
-        <v>444013.9</v>
+        <v>385127.316</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
@@ -2720,28 +2720,28 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>740027.0</v>
+        <v>10439905.0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>740027.0</v>
+        <v>10439905.0</v>
       </c>
       <c r="S28" s="1">
-        <v>110000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>110000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="U28" s="6">
-        <v>592021.6</v>
+        <v>8351924.0</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>66519.24</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
-        <v>488415.4</v>
+        <v>421896.16</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
@@ -2799,28 +2799,28 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>814030.0</v>
+        <v>11489396.0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>814030.0</v>
+        <v>11489396.0</v>
       </c>
       <c r="S29" s="1">
-        <v>110000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>110000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="U29" s="6">
-        <v>651224.0</v>
+        <v>9191516.8</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>74915.168</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
-        <v>537256.5</v>
+        <v>462341.332</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
@@ -2878,28 +2878,28 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>895433.0</v>
+        <v>12643836.0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>895433.0</v>
+        <v>12643836.0</v>
       </c>
       <c r="S30" s="1">
-        <v>110000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>110000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="U30" s="6">
-        <v>716346.4</v>
+        <v>10115068.8</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>84150.688</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
-        <v>590982.7</v>
+        <v>506832.012</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
@@ -2957,28 +2957,28 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>984976.0</v>
+        <v>13913720.0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>984976.0</v>
+        <v>13913720.0</v>
       </c>
       <c r="S31" s="1">
-        <v>110000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>110000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="U31" s="6">
-        <v>787980.8</v>
+        <v>11130976.0</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>94309.76</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
-        <v>650080.75</v>
+        <v>555770.99</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
@@ -3036,28 +3036,28 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>1083474.0</v>
+        <v>15310592.0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>1083474.0</v>
+        <v>15310592.0</v>
       </c>
       <c r="S32" s="1">
-        <v>110000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>110000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="U32" s="6">
-        <v>866779.2</v>
+        <v>12248473.6</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>105484.736</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
-        <v>715088.55</v>
+        <v>609603.814</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
@@ -3115,28 +3115,28 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>1191821.0</v>
+        <v>16847151.0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>1191821.0</v>
+        <v>16847151.0</v>
       </c>
       <c r="S33" s="1">
-        <v>110000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>110000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="U33" s="6">
-        <v>953456.8</v>
+        <v>13477720.8</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>117777.208</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
-        <v>786597.9</v>
+        <v>668820.692</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
@@ -3194,28 +3194,28 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>1311003.0</v>
+        <v>18537366.0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>1311003.0</v>
+        <v>18537366.0</v>
       </c>
       <c r="S34" s="1">
-        <v>110000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>110000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="U34" s="6">
-        <v>1048802.4</v>
+        <v>14829892.8</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>131298.928</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
-        <v>865257.25</v>
+        <v>733958.322</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
@@ -3273,28 +3273,28 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>1442103.0</v>
+        <v>20396603.0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>1442103.0</v>
+        <v>20396603.0</v>
       </c>
       <c r="S35" s="1">
-        <v>110000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>110000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="U35" s="6">
-        <v>1153682.4</v>
+        <v>16317282.4</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>146172.824</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
-        <v>951782.7</v>
+        <v>805609.876</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
@@ -3352,28 +3352,28 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>1586313.0</v>
+        <v>22441763.0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>1586313.0</v>
+        <v>22441763.0</v>
       </c>
       <c r="S36" s="1">
-        <v>110000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>110000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="U36" s="6">
-        <v>1269050.4</v>
+        <v>17953410.4</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>162534.104</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
-        <v>1046960.75</v>
+        <v>884426.646</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
@@ -3431,28 +3431,28 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>1744944.0</v>
+        <v>24691439.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>1744944.0</v>
+        <v>24691439.0</v>
       </c>
       <c r="S37" s="1">
-        <v>110000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>110000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>1395955.2</v>
+        <v>19753151.2</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>180531.512</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
-        <v>1151656.55</v>
+        <v>971125.038</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
@@ -3510,28 +3510,28 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>1919438.0</v>
+        <v>27166083.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>1919438.0</v>
+        <v>27166083.0</v>
       </c>
       <c r="S38" s="1">
-        <v>110000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>110000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>1535550.4</v>
+        <v>21732866.4</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
-        <v>0.0</v>
+        <v>200328.664</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>1266822.7</v>
+        <v>1066494.036</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -3589,28 +3589,28 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>2111382.0</v>
+        <v>29888191.0</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>2111382.0</v>
+        <v>29888191.0</v>
       </c>
       <c r="S39" s="1">
-        <v>110000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>110000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="U39" s="6">
-        <v>1689105.6</v>
+        <v>23910552.8</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="1">
-        <v>0.0</v>
+        <v>222105.528</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="1">
-        <v>1393505.3</v>
+        <v>1171399.772</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
@@ -3668,28 +3668,28 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>2322520.0</v>
+        <v>32882510.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>2322520.0</v>
+        <v>32882510.0</v>
       </c>
       <c r="S40" s="11">
-        <v>110000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>110000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>1858016.0</v>
+        <v>26306008.0</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>1580.16</v>
+        <v>246060.08</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>1532856.05</v>
+        <v>1286795.97</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -3747,28 +3747,28 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>2554772.0</v>
+        <v>36176261.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>2554772.0</v>
+        <v>36176261.0</v>
       </c>
       <c r="S41" s="1">
-        <v>110000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>110000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>2043817.6</v>
+        <v>28941008.8</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>3438.176</v>
+        <v>272410.088</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>1686141.6</v>
+        <v>1413731.512</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -3826,28 +3826,28 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>2810249.0</v>
+        <v>39799387.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>2810249.0</v>
+        <v>39799387.0</v>
       </c>
       <c r="S42" s="1">
-        <v>110000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>110000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>2248199.2</v>
+        <v>31839509.6</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>5481.992</v>
+        <v>301395.096</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>1854756.2</v>
+        <v>1553361.104</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -3905,28 +3905,28 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>3091274.0</v>
+        <v>43784826.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>3091274.0</v>
+        <v>43784826.0</v>
       </c>
       <c r="S43" s="1">
-        <v>110000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>110000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>2473019.2</v>
+        <v>35027860.8</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>7730.192</v>
+        <v>333278.608</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>2040232.15</v>
+        <v>1706953.542</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -3984,28 +3984,28 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>3400401.0</v>
+        <v>48168809.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>3400401.0</v>
+        <v>48168809.0</v>
       </c>
       <c r="S44" s="1">
-        <v>110000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>110000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>2720320.8</v>
+        <v>38535047.2</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>10203.208</v>
+        <v>368350.472</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>2244255.2</v>
+        <v>1875904.728</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -4063,28 +4063,28 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>3740441.0</v>
+        <v>52991190.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>3740441.0</v>
+        <v>52991190.0</v>
       </c>
       <c r="S45" s="1">
-        <v>110000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>110000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>2992352.8</v>
+        <v>42392952.0</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>12923.528</v>
+        <v>406929.52</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>2468680.5</v>
+        <v>2061750.98</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -4142,28 +4142,28 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>4114485.0</v>
+        <v>58295809.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>4114485.0</v>
+        <v>58295809.0</v>
       </c>
       <c r="S46" s="1">
-        <v>110000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>110000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>3291588.0</v>
+        <v>46636647.2</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>15915.88</v>
+        <v>449366.472</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>2715548.55</v>
+        <v>2266182.078</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -4221,28 +4221,28 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>4525934.0</v>
+        <v>64130890.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>4525934.0</v>
+        <v>64130890.0</v>
       </c>
       <c r="S47" s="1">
-        <v>110000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>110000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>3620747.2</v>
+        <v>51304712.0</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>19207.472</v>
+        <v>496047.12</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>2987103.35</v>
+        <v>2491056.23</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -4300,28 +4300,28 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>4978527.0</v>
+        <v>70549479.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>4978527.0</v>
+        <v>70549479.0</v>
       </c>
       <c r="S48" s="1">
-        <v>110000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>110000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>3982821.6</v>
+        <v>56439583.2</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>22828.216</v>
+        <v>547395.832</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>3285813.85</v>
+        <v>2738418.018</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -4379,28 +4379,28 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>5476380.0</v>
+        <v>77609927.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>5476380.0</v>
+        <v>77609927.0</v>
       </c>
       <c r="S49" s="1">
-        <v>110000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>110000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>4381104.0</v>
+        <v>62087941.6</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>26811.04</v>
+        <v>603879.416</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>3614394.85</v>
+        <v>3010515.434</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -4458,28 +4458,28 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>6024018.0</v>
+        <v>85376420.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>6024018.0</v>
+        <v>85376420.0</v>
       </c>
       <c r="S50" s="1">
-        <v>110000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>110000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>4819214.4</v>
+        <v>68301136.0</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>31192.144</v>
+        <v>666011.36</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>3975835.05</v>
+        <v>3309823.69</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -4537,28 +4537,28 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>6626420.0</v>
+        <v>93919562.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>6626420.0</v>
+        <v>93919562.0</v>
       </c>
       <c r="S51" s="1">
-        <v>110000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>110000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>5301136.0</v>
+        <v>75135649.6</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>36011.36</v>
+        <v>734356.496</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>4373419.05</v>
+        <v>3639062.554</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -4616,28 +4616,28 @@
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>7289062.0</v>
+        <v>103317018.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>7289062.0</v>
+        <v>103317018.0</v>
       </c>
       <c r="S52" s="1">
-        <v>110000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>110000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>5831249.6</v>
+        <v>82653614.4</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
-        <v>41312.496</v>
+        <v>809536.144</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>4810760.9</v>
+        <v>4001224.756</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -4666,7 +4666,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>364453.0</v>
+        <v>5165851.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>0.0</v>
+        <v>2582925.5</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
@@ -4695,45 +4695,45 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>7617070.0</v>
+        <v>107966284.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>7617070.0</v>
+        <v>107966284.0</v>
       </c>
       <c r="S53" s="13">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T53" s="13">
         <v>0</v>
       </c>
       <c r="U53" s="13">
-        <v>6093656.0</v>
+        <v>86373027.2</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>43936.56</v>
+        <v>846730.272</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-15875591.6</v>
+        <v>-14139396.372</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0.0</v>
+        <v>5165851.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0.0</v>
+        <v>25829255.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0.0</v>
+        <v>25829255.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0.0</v>
       </c>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AG53"/>
     </row>
@@ -4745,7 +4745,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>400898.0</v>
+        <v>5682436.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>2841218.0</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
@@ -4774,45 +4774,45 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>7937789.0</v>
+        <v>112512233.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>7937789.0</v>
+        <v>112512233.0</v>
       </c>
       <c r="S54" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T54" s="1">
         <v>0</v>
       </c>
       <c r="U54" s="6">
-        <v>6350231.2</v>
+        <v>90009786.4</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>46502.312</v>
+        <v>883097.864</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-17463151.2</v>
+        <v>-15505031.064</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0.0</v>
+        <v>5682436.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0.0</v>
+        <v>28412180.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0.0</v>
+        <v>28412180.0</v>
       </c>
       <c r="AD54">
         <v>0.0</v>
       </c>
       <c r="AE54"/>
       <c r="AF54">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AG54"/>
     </row>
@@ -4824,7 +4824,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>440988.0</v>
+        <v>6250680.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>3125340.0</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
@@ -4853,45 +4853,45 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>8246481.0</v>
+        <v>116887708.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>8246481.0</v>
+        <v>116887708.0</v>
       </c>
       <c r="S55" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T55" s="1">
         <v>0</v>
       </c>
       <c r="U55" s="6">
-        <v>6597184.8</v>
+        <v>93510166.4</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>48971.848</v>
+        <v>918101.664</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-19209466.1</v>
+        <v>-17002227.764</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0.0</v>
+        <v>6250680.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0.0</v>
+        <v>31253400.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0.0</v>
+        <v>31253400.0</v>
       </c>
       <c r="AD55">
         <v>0.0</v>
       </c>
       <c r="AE55"/>
       <c r="AF55">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AG55"/>
     </row>
@@ -4903,7 +4903,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>485087.0</v>
+        <v>6875748.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>3437874.0</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
@@ -4932,45 +4932,45 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>8537533.0</v>
+        <v>121013156.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>8537533.0</v>
+        <v>121013156.0</v>
       </c>
       <c r="S56" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
       </c>
       <c r="U56" s="6">
-        <v>6830026.4</v>
+        <v>96810524.8</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>51300.264</v>
+        <v>951105.248</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-21130412.6</v>
+        <v>-18643643.848</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0.0</v>
+        <v>6875748.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0.0</v>
+        <v>34378740.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0.0</v>
+        <v>34378740.0</v>
       </c>
       <c r="AD56">
         <v>0.0</v>
       </c>
       <c r="AE56"/>
       <c r="AF56">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AG56"/>
     </row>
@@ -4982,7 +4982,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>533596.0</v>
+        <v>7563322.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0.0</v>
+        <v>3781661.0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
@@ -5011,45 +5011,45 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>8804331.0</v>
+        <v>124794817.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>8804331.0</v>
+        <v>124794817.0</v>
       </c>
       <c r="S57" s="13">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T57" s="13">
         <v>0</v>
       </c>
       <c r="U57" s="13">
-        <v>7043464.8</v>
+        <v>99835853.6</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>53434.648</v>
+        <v>981358.536</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-23243454.3</v>
+        <v>-20443151.836</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0.0</v>
+        <v>7563322.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0.0</v>
+        <v>37816610.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0.0</v>
+        <v>37816610.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0.0</v>
       </c>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG57"/>
     </row>
@@ -5061,7 +5061,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>586955.0</v>
+        <v>8319654.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>4159827.0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1">
@@ -5090,45 +5090,45 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>9039114.0</v>
+        <v>128122679.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>9039114.0</v>
+        <v>128122679.0</v>
       </c>
       <c r="S58" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T58" s="1">
         <v>0</v>
       </c>
       <c r="U58" s="6">
-        <v>7231291.2</v>
+        <v>102498143.2</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>55312.912</v>
+        <v>1007981.432</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-25567799.4</v>
+        <v>-22415953.832</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0.0</v>
+        <v>8319654.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0.0</v>
+        <v>41598270.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0.0</v>
+        <v>41598270.0</v>
       </c>
       <c r="AD58">
         <v>0.0</v>
       </c>
       <c r="AE58"/>
       <c r="AF58">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG58"/>
     </row>
@@ -5140,7 +5140,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>645651.0</v>
+        <v>9151620.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>4575810.0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1">
@@ -5169,45 +5169,45 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>9232809.0</v>
+        <v>130868165.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>9232809.0</v>
+        <v>130868165.0</v>
       </c>
       <c r="S59" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
       </c>
       <c r="U59" s="6">
-        <v>7386247.2</v>
+        <v>104694532.0</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>56862.472</v>
+        <v>1029945.32</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-28124578.9</v>
+        <v>-24578714.22</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0.0</v>
+        <v>9151620.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0.0</v>
+        <v>45758100.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0.0</v>
+        <v>45758100.0</v>
       </c>
       <c r="AD59">
         <v>0.0</v>
       </c>
       <c r="AE59"/>
       <c r="AF59">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AG59"/>
     </row>
@@ -5219,7 +5219,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>710216.0</v>
+        <v>10066782.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>5033391.0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1">
@@ -5248,45 +5248,45 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>9374852.0</v>
+        <v>132881521.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>9374852.0</v>
+        <v>132881521.0</v>
       </c>
       <c r="S60" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
       </c>
       <c r="U60" s="6">
-        <v>7499881.6</v>
+        <v>106305216.8</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>57998.816</v>
+        <v>1046052.168</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-30937036.9</v>
+        <v>-26949698.068</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0.0</v>
+        <v>10066782.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0.0</v>
+        <v>50333910.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0.0</v>
+        <v>50333910.0</v>
       </c>
       <c r="AD60">
         <v>0.0</v>
       </c>
       <c r="AE60"/>
       <c r="AF60">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="AG60"/>
     </row>
@@ -5298,7 +5298,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>781238.0</v>
+        <v>11073460.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>5536730.0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1">
@@ -5327,45 +5327,45 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>9452975.0</v>
+        <v>133988867.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>9452975.0</v>
+        <v>133988867.0</v>
       </c>
       <c r="S61" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T61" s="1">
         <v>0</v>
       </c>
       <c r="U61" s="6">
-        <v>7562380.0</v>
+        <v>107191093.6</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>58623.8</v>
+        <v>1054910.936</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-34030740.7</v>
+        <v>-29548921.636</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0.0</v>
+        <v>11073460.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0.0</v>
+        <v>55367300.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0.0</v>
+        <v>55367300.0</v>
       </c>
       <c r="AD61">
         <v>0.0</v>
       </c>
       <c r="AE61"/>
       <c r="AF61">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
       <c r="AG61"/>
     </row>
@@ -5377,7 +5377,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>859361.0</v>
+        <v>12180806.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>6090403.0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1">
@@ -5406,45 +5406,45 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>9452975.0</v>
+        <v>133988867.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>9452975.0</v>
+        <v>133988867.0</v>
       </c>
       <c r="S62" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
       </c>
       <c r="U62" s="6">
-        <v>7562380.0</v>
+        <v>107191093.6</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>58623.8</v>
+        <v>1054910.936</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-37433815.1</v>
+        <v>-32398323.036</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0.0</v>
+        <v>12180806.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0.0</v>
+        <v>60904030.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0.0</v>
+        <v>60904030.0</v>
       </c>
       <c r="AD62">
         <v>0.0</v>
       </c>
       <c r="AE62"/>
       <c r="AF62">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="AG62"/>
     </row>
@@ -5456,7 +5456,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>945298.0</v>
+        <v>13398887.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>6699443.5</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1">
@@ -5485,45 +5485,45 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>9358445.0</v>
+        <v>132648978.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>9358445.0</v>
+        <v>132648978.0</v>
       </c>
       <c r="S63" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
       </c>
       <c r="U63" s="6">
-        <v>7486756.0</v>
+        <v>106119182.4</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>57867.56</v>
+        <v>1044191.824</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-41177196.5</v>
+        <v>-35521944.824</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0.0</v>
+        <v>13398887.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0.0</v>
+        <v>66994435.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0.0</v>
+        <v>66994435.0</v>
       </c>
       <c r="AD63">
         <v>0.0</v>
       </c>
       <c r="AE63"/>
       <c r="AF63">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="AG63"/>
     </row>
@@ -5535,7 +5535,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>1039827.0</v>
+        <v>14738775.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>7369387.5</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1">
@@ -5564,45 +5564,45 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>9150480.0</v>
+        <v>129701223.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>9150480.0</v>
+        <v>129701223.0</v>
       </c>
       <c r="S64" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
       </c>
       <c r="U64" s="6">
-        <v>7320384.0</v>
+        <v>103760978.4</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>56203.84</v>
+        <v>1020609.784</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-45294916.7</v>
+        <v>-38946138.984</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0.0</v>
+        <v>14738775.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0.0</v>
+        <v>73693875.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0.0</v>
+        <v>73693875.0</v>
       </c>
       <c r="AD64">
         <v>0.0</v>
       </c>
       <c r="AE64"/>
       <c r="AF64">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="AG64"/>
     </row>
@@ -5614,7 +5614,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>1143810.0</v>
+        <v>16212653.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>8106326.5</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1">
@@ -5643,45 +5643,45 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>8807337.0</v>
+        <v>124837427.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>8807337.0</v>
+        <v>124837427.0</v>
       </c>
       <c r="S65" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
       </c>
       <c r="U65" s="6">
-        <v>7045869.6</v>
+        <v>99869941.6</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>53458.696</v>
+        <v>981699.416</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-49824408.7</v>
+        <v>-42699781.616</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0.0</v>
+        <v>16212653.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0.0</v>
+        <v>81063265.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0.0</v>
+        <v>81063265.0</v>
       </c>
       <c r="AD65">
         <v>0.0</v>
       </c>
       <c r="AE65"/>
       <c r="AF65">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="AG65"/>
     </row>
@@ -5693,7 +5693,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>1258191.0</v>
+        <v>17833918.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>8916959.0</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1">
@@ -5722,45 +5722,45 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>8304061.0</v>
+        <v>117703860.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>8304061.0</v>
+        <v>117703860.0</v>
       </c>
       <c r="S66" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
       </c>
       <c r="U66" s="6">
-        <v>6643248.8</v>
+        <v>94163088.0</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>49432.488</v>
+        <v>924630.88</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-54806849.9</v>
+        <v>-46814521.78</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0.0</v>
+        <v>17833918.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0.0</v>
+        <v>89169590.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0.0</v>
+        <v>89169590.0</v>
       </c>
       <c r="AD66">
         <v>0.0</v>
       </c>
       <c r="AE66"/>
       <c r="AF66">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="AG66"/>
     </row>
@@ -5772,7 +5772,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>1384010.0</v>
+        <v>19617310.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>9808655.0</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1">
@@ -5801,45 +5801,45 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>7612056.0</v>
+        <v>107895205.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>7612056.0</v>
+        <v>107895205.0</v>
       </c>
       <c r="S67" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <v>6089644.8</v>
+        <v>86316164.0</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>43896.448</v>
+        <v>846161.64</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-60287535.0</v>
+        <v>-51325041.64</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0.0</v>
+        <v>19617310.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0.0</v>
+        <v>98086550.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0.0</v>
+        <v>98086550.0</v>
       </c>
       <c r="AD67">
         <v>0.0</v>
       </c>
       <c r="AE67"/>
       <c r="AF67">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="AG67"/>
     </row>
@@ -5851,7 +5851,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>1522411.0</v>
+        <v>21579041.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>10789520.5</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1">
@@ -5880,45 +5880,45 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>6698610.0</v>
+        <v>94947780.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>6698610.0</v>
+        <v>94947780.0</v>
       </c>
       <c r="S68" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
       </c>
       <c r="U68" s="6">
-        <v>5358888.0</v>
+        <v>75958224.0</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>36588.88</v>
+        <v>742582.24</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-66316288.5</v>
+        <v>-56269350.24</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0.0</v>
+        <v>21579041.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0.0</v>
+        <v>107895205.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0.0</v>
+        <v>107895205.0</v>
       </c>
       <c r="AD68">
         <v>0.0</v>
       </c>
       <c r="AE68"/>
       <c r="AF68">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="AG68"/>
     </row>
@@ -5930,7 +5930,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>1674653.0</v>
+        <v>23736945.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>11868472.5</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1">
@@ -5959,45 +5959,45 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>5526353.0</v>
+        <v>78331919.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>5526353.0</v>
+        <v>78331919.0</v>
       </c>
       <c r="S69" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
       </c>
       <c r="U69" s="6">
-        <v>4421082.4</v>
+        <v>62665535.2</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>27210.824</v>
+        <v>609655.352</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-72947917.9</v>
+        <v>-61689100.752</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0.0</v>
+        <v>23736945.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0.0</v>
+        <v>118684725.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0.0</v>
+        <v>118684725.0</v>
       </c>
       <c r="AD69">
         <v>0.0</v>
       </c>
       <c r="AE69"/>
       <c r="AF69">
-        <v>0.37</v>
+        <v>0.01</v>
       </c>
       <c r="AG69"/>
     </row>
@@ -6009,7 +6009,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>1842118.0</v>
+        <v>26110640.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>13055320.0</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1">
@@ -6038,45 +6038,45 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>4052659.0</v>
+        <v>57443407.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>4052659.0</v>
+        <v>57443407.0</v>
       </c>
       <c r="S70" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
       </c>
       <c r="U70" s="6">
-        <v>3242127.2</v>
+        <v>45954725.6</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>15421.272</v>
+        <v>442547.256</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-80242709.8</v>
+        <v>-67629937.056</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0.0</v>
+        <v>26110640.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0.0</v>
+        <v>130553200.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0.0</v>
+        <v>130553200.0</v>
       </c>
       <c r="AD70">
         <v>0.0</v>
       </c>
       <c r="AE70"/>
       <c r="AF70">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="AG70"/>
     </row>
@@ -6088,7 +6088,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>2026330.0</v>
+        <v>28721704.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>14360852.0</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1">
@@ -6117,45 +6117,45 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>2228962.0</v>
+        <v>31593873.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>2228962.0</v>
+        <v>31593873.0</v>
       </c>
       <c r="S71" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
       </c>
       <c r="U71" s="6">
-        <v>1783169.6</v>
+        <v>25275098.4</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>831.696</v>
+        <v>235750.984</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-88266981.0</v>
+        <v>-74141879.984</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0.0</v>
+        <v>28721704.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0.0</v>
+        <v>143608520.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0.0</v>
+        <v>143608520.0</v>
       </c>
       <c r="AD71">
         <v>0.0</v>
       </c>
       <c r="AE71"/>
       <c r="AF71">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="AG71"/>
     </row>
@@ -6167,7 +6167,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>2228962.0</v>
+        <v>31593873.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>0.0</v>
+        <v>15796936.5</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="5">
@@ -6217,24 +6217,24 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-97093679.1</v>
+        <v>-81296742.6</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0.0</v>
+        <v>31593873.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0.0</v>
+        <v>157969365.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0.0</v>
+        <v>157969365.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0.0</v>
       </c>
       <c r="AE72" s="15"/>
       <c r="AF72" s="15">
-        <v>0.42</v>
+        <v>0.02</v>
       </c>
       <c r="AG72"/>
     </row>
@@ -6526,7 +6526,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="8">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="1">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
@@ -10184,7 +10184,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>364453.0</v>
+        <v>5165851.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -10194,7 +10194,7 @@
         <v>0.1</v>
       </c>
       <c r="G53" s="13">
-        <v>0.0</v>
+        <v>2582925.5</v>
       </c>
       <c r="H53" s="14">
         <v>0.5</v>
@@ -10224,21 +10224,21 @@
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-15875591.6</v>
+        <v>-13292666.1</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0.0</v>
+        <v>5165851.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0.0</v>
+        <v>25829255.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0.0</v>
+        <v>25829255.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -10257,7 +10257,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>400898.0</v>
+        <v>5682436.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -10267,7 +10267,7 @@
         <v>0.1</v>
       </c>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>2841218.0</v>
       </c>
       <c r="H54" s="2">
         <v>0.5</v>
@@ -10297,21 +10297,21 @@
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-17463151.2</v>
+        <v>-14621933.2</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0.0</v>
+        <v>5682436.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0.0</v>
+        <v>28412180.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0.0</v>
+        <v>28412180.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -10329,7 +10329,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>440988.0</v>
+        <v>6250680.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -10339,7 +10339,7 @@
         <v>0.1</v>
       </c>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>3125340.0</v>
       </c>
       <c r="H55" s="2">
         <v>0.5</v>
@@ -10369,21 +10369,21 @@
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-19209466.1</v>
+        <v>-16084126.1</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0.0</v>
+        <v>6250680.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0.0</v>
+        <v>31253400.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0.0</v>
+        <v>31253400.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -10401,7 +10401,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>485087.0</v>
+        <v>6875748.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -10411,7 +10411,7 @@
         <v>0.1</v>
       </c>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>3437874.0</v>
       </c>
       <c r="H56" s="2">
         <v>0.5</v>
@@ -10441,21 +10441,21 @@
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-21130412.6</v>
+        <v>-17692538.6</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0.0</v>
+        <v>6875748.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0.0</v>
+        <v>34378740.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0.0</v>
+        <v>34378740.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>533596.0</v>
+        <v>7563322.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -10483,7 +10483,7 @@
         <v>0.1</v>
       </c>
       <c r="G57" s="13">
-        <v>0.0</v>
+        <v>3781661.0</v>
       </c>
       <c r="H57" s="14">
         <v>0.5</v>
@@ -10513,21 +10513,21 @@
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-23243454.3</v>
+        <v>-19461793.3</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0.0</v>
+        <v>7563322.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0.0</v>
+        <v>37816610.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0.0</v>
+        <v>37816610.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -10546,7 +10546,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>586955.0</v>
+        <v>8319654.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -10556,7 +10556,7 @@
         <v>0.1</v>
       </c>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>4159827.0</v>
       </c>
       <c r="H58" s="2">
         <v>0.5</v>
@@ -10586,21 +10586,21 @@
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-25567799.4</v>
+        <v>-21407972.4</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0.0</v>
+        <v>8319654.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0.0</v>
+        <v>41598270.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0.0</v>
+        <v>41598270.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -10618,7 +10618,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>645651.0</v>
+        <v>9151620.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -10628,7 +10628,7 @@
         <v>0.1</v>
       </c>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>4575810.0</v>
       </c>
       <c r="H59" s="2">
         <v>0.5</v>
@@ -10658,21 +10658,21 @@
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-28124578.9</v>
+        <v>-23548768.9</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0.0</v>
+        <v>9151620.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0.0</v>
+        <v>45758100.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0.0</v>
+        <v>45758100.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>710216.0</v>
+        <v>10066782.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -10700,7 +10700,7 @@
         <v>0.1</v>
       </c>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>5033391.0</v>
       </c>
       <c r="H60" s="2">
         <v>0.5</v>
@@ -10730,21 +10730,21 @@
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-30937036.9</v>
+        <v>-25903645.9</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0.0</v>
+        <v>10066782.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0.0</v>
+        <v>50333910.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0.0</v>
+        <v>50333910.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -10762,7 +10762,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>781238.0</v>
+        <v>11073460.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -10772,7 +10772,7 @@
         <v>0.1</v>
       </c>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>5536730.0</v>
       </c>
       <c r="H61" s="2">
         <v>0.5</v>
@@ -10802,21 +10802,21 @@
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-34030740.7</v>
+        <v>-28494010.7</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0.0</v>
+        <v>11073460.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0.0</v>
+        <v>55367300.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0.0</v>
+        <v>55367300.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>859361.0</v>
+        <v>12180806.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10844,7 +10844,7 @@
         <v>0.1</v>
       </c>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>6090403.0</v>
       </c>
       <c r="H62" s="2">
         <v>0.5</v>
@@ -10874,21 +10874,21 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-37433815.1</v>
+        <v>-31343412.1</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0.0</v>
+        <v>12180806.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0.0</v>
+        <v>60904030.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0.0</v>
+        <v>60904030.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>945298.0</v>
+        <v>13398887.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10916,7 +10916,7 @@
         <v>0.1</v>
       </c>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>6699443.5</v>
       </c>
       <c r="H63" s="2">
         <v>0.5</v>
@@ -10946,21 +10946,21 @@
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-41177196.5</v>
+        <v>-34477753.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0.0</v>
+        <v>13398887.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0.0</v>
+        <v>66994435.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0.0</v>
+        <v>66994435.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>1039827.0</v>
+        <v>14738775.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10988,7 +10988,7 @@
         <v>0.1</v>
       </c>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>7369387.5</v>
       </c>
       <c r="H64" s="2">
         <v>0.5</v>
@@ -11018,21 +11018,21 @@
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-45294916.7</v>
+        <v>-37925529.2</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0.0</v>
+        <v>14738775.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0.0</v>
+        <v>73693875.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0.0</v>
+        <v>73693875.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>1143810.0</v>
+        <v>16212653.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -11060,7 +11060,7 @@
         <v>0.1</v>
       </c>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>8106326.5</v>
       </c>
       <c r="H65" s="2">
         <v>0.5</v>
@@ -11090,21 +11090,21 @@
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-49824408.7</v>
+        <v>-41718082.2</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0.0</v>
+        <v>16212653.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0.0</v>
+        <v>81063265.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0.0</v>
+        <v>81063265.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -11122,7 +11122,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>1258191.0</v>
+        <v>17833918.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -11132,7 +11132,7 @@
         <v>0.1</v>
       </c>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>8916959.0</v>
       </c>
       <c r="H66" s="2">
         <v>0.5</v>
@@ -11162,21 +11162,21 @@
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-54806849.9</v>
+        <v>-45889890.9</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0.0</v>
+        <v>17833918.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0.0</v>
+        <v>89169590.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0.0</v>
+        <v>89169590.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -11194,7 +11194,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>1384010.0</v>
+        <v>19617310.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -11204,7 +11204,7 @@
         <v>0.1</v>
       </c>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>9808655.0</v>
       </c>
       <c r="H67" s="2">
         <v>0.5</v>
@@ -11234,21 +11234,21 @@
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-60287535.0</v>
+        <v>-50478880.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0.0</v>
+        <v>19617310.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0.0</v>
+        <v>98086550.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0.0</v>
+        <v>98086550.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -11266,7 +11266,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>1522411.0</v>
+        <v>21579041.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -11276,7 +11276,7 @@
         <v>0.1</v>
       </c>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>10789520.5</v>
       </c>
       <c r="H68" s="2">
         <v>0.5</v>
@@ -11306,21 +11306,21 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-66316288.5</v>
+        <v>-55526768.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0.0</v>
+        <v>21579041.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0.0</v>
+        <v>107895205.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0.0</v>
+        <v>107895205.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -11338,7 +11338,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>1674653.0</v>
+        <v>23736945.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -11348,7 +11348,7 @@
         <v>0.1</v>
       </c>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>11868472.5</v>
       </c>
       <c r="H69" s="2">
         <v>0.5</v>
@@ -11378,21 +11378,21 @@
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-72947917.9</v>
+        <v>-61079445.4</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0.0</v>
+        <v>23736945.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0.0</v>
+        <v>118684725.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0.0</v>
+        <v>118684725.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>1842118.0</v>
+        <v>26110640.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -11420,7 +11420,7 @@
         <v>0.1</v>
       </c>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>13055320.0</v>
       </c>
       <c r="H70" s="2">
         <v>0.5</v>
@@ -11450,21 +11450,21 @@
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-80242709.8</v>
+        <v>-67187389.8</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0.0</v>
+        <v>26110640.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0.0</v>
+        <v>130553200.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0.0</v>
+        <v>130553200.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>2026330.0</v>
+        <v>28721704.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -11492,7 +11492,7 @@
         <v>0.1</v>
       </c>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>14360852.0</v>
       </c>
       <c r="H71" s="2">
         <v>0.5</v>
@@ -11522,21 +11522,21 @@
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-88266981.0</v>
+        <v>-73906129.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0.0</v>
+        <v>28721704.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0.0</v>
+        <v>143608520.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0.0</v>
+        <v>143608520.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>2228962.0</v>
+        <v>31593873.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -11564,7 +11564,7 @@
         <v>0.1</v>
       </c>
       <c r="G72" s="5">
-        <v>0.0</v>
+        <v>15796936.5</v>
       </c>
       <c r="H72" s="16">
         <v>0.5</v>
@@ -11594,21 +11594,21 @@
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-97093679.1</v>
+        <v>-81296742.6</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0.0</v>
+        <v>31593873.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0.0</v>
+        <v>157969365.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0.0</v>
+        <v>157969365.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -11907,12 +11907,12 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -12123,21 +12123,21 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0.0</v>
@@ -12191,21 +12191,21 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0.0</v>
@@ -12242,44 +12242,44 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>110000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="Q8" s="2">
         <v>0.1</v>
       </c>
       <c r="R8" s="1">
-        <v>110000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="S8" s="1">
-        <v>110000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="T8" s="1">
-        <v>110000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="U8" s="6">
-        <v>88000.0</v>
+        <v>1204000.0</v>
       </c>
       <c r="V8" s="2">
         <v>0.8</v>
       </c>
       <c r="W8" s="1">
-        <v>880.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2">
         <v>0.01</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0.0</v>
@@ -12316,44 +12316,44 @@
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
       <c r="P9" s="8">
-        <v>121000.0</v>
+        <v>1661000.0</v>
       </c>
       <c r="Q9" s="9">
         <v>0.1</v>
       </c>
       <c r="R9" s="8">
-        <v>121000.0</v>
+        <v>1661000.0</v>
       </c>
       <c r="S9" s="8">
-        <v>110000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="T9" s="8">
-        <v>110000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="U9" s="8">
-        <v>96800.0</v>
+        <v>1328800.0</v>
       </c>
       <c r="V9" s="9">
         <v>0.8</v>
       </c>
       <c r="W9" s="8">
-        <v>968.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="9">
         <v>0.01</v>
       </c>
       <c r="Y9" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9" s="7">
         <v>0.0</v>
@@ -12391,44 +12391,44 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>133100.0</v>
+        <v>1832600.0</v>
       </c>
       <c r="Q10" s="2">
         <v>0.1</v>
       </c>
       <c r="R10" s="1">
-        <v>133100.0</v>
+        <v>1832600.0</v>
       </c>
       <c r="S10" s="1">
-        <v>110000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="T10" s="1">
-        <v>110000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="U10" s="6">
-        <v>106480.0</v>
+        <v>1466080.0</v>
       </c>
       <c r="V10" s="2">
         <v>0.8</v>
       </c>
       <c r="W10" s="1">
-        <v>1064.8</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2">
         <v>0.01</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0.0</v>
@@ -12465,44 +12465,44 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>146410.0</v>
+        <v>2021360.0</v>
       </c>
       <c r="Q11" s="2">
         <v>0.1</v>
       </c>
       <c r="R11" s="1">
-        <v>146410.0</v>
+        <v>2021360.0</v>
       </c>
       <c r="S11" s="1">
-        <v>110000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="T11" s="1">
-        <v>110000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="U11" s="6">
-        <v>117128.0</v>
+        <v>1617088.0</v>
       </c>
       <c r="V11" s="2">
         <v>0.8</v>
       </c>
       <c r="W11" s="1">
-        <v>1171.28</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
         <v>0.01</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0.0</v>
@@ -12539,44 +12539,44 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>161051.0</v>
+        <v>2228996.0</v>
       </c>
       <c r="Q12" s="2">
         <v>0.1</v>
       </c>
       <c r="R12" s="1">
-        <v>161051.0</v>
+        <v>2228996.0</v>
       </c>
       <c r="S12" s="1">
-        <v>110000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="T12" s="1">
-        <v>110000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="U12" s="6">
-        <v>128840.8</v>
+        <v>1783196.8</v>
       </c>
       <c r="V12" s="2">
         <v>0.8</v>
       </c>
       <c r="W12" s="1">
-        <v>1288.408</v>
+        <v>831.968</v>
       </c>
       <c r="X12" s="2">
         <v>0.01</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>-831.968</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0.0</v>
@@ -12613,44 +12613,44 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>177156.0</v>
+        <v>2457396.0</v>
       </c>
       <c r="Q13" s="2">
         <v>0.1</v>
       </c>
       <c r="R13" s="1">
-        <v>177156.0</v>
+        <v>2457396.0</v>
       </c>
       <c r="S13" s="1">
-        <v>110000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="T13" s="1">
-        <v>110000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="U13" s="6">
-        <v>141724.8</v>
+        <v>1965916.8</v>
       </c>
       <c r="V13" s="2">
         <v>0.8</v>
       </c>
       <c r="W13" s="1">
-        <v>1417.248</v>
+        <v>2659.168</v>
       </c>
       <c r="X13" s="2">
         <v>0.01</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>-2659.168</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0.0</v>
@@ -12687,44 +12687,44 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>194872.0</v>
+        <v>2708636.0</v>
       </c>
       <c r="Q14" s="2">
         <v>0.1</v>
       </c>
       <c r="R14" s="1">
-        <v>194872.0</v>
+        <v>2708636.0</v>
       </c>
       <c r="S14" s="1">
-        <v>110000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T14" s="1">
-        <v>110000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U14" s="6">
-        <v>155897.6</v>
+        <v>2166908.8</v>
       </c>
       <c r="V14" s="2">
         <v>0.8</v>
       </c>
       <c r="W14" s="1">
-        <v>1558.976</v>
+        <v>4669.088</v>
       </c>
       <c r="X14" s="2">
         <v>0.01</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>-4669.088</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0.0</v>
@@ -12761,44 +12761,44 @@
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>214359.0</v>
+        <v>2985000.0</v>
       </c>
       <c r="Q15" s="2">
         <v>0.1</v>
       </c>
       <c r="R15" s="1">
-        <v>214359.0</v>
+        <v>2985000.0</v>
       </c>
       <c r="S15" s="1">
-        <v>110000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="T15" s="1">
-        <v>110000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="U15" s="6">
-        <v>171487.2</v>
+        <v>2388000.0</v>
       </c>
       <c r="V15" s="2">
         <v>0.8</v>
       </c>
       <c r="W15" s="1">
-        <v>1714.872</v>
+        <v>6880.0</v>
       </c>
       <c r="X15" s="2">
         <v>0.01</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>-6880.0</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0.0</v>
@@ -12835,44 +12835,44 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>235795.0</v>
+        <v>3289000.0</v>
       </c>
       <c r="Q16" s="2">
         <v>0.1</v>
       </c>
       <c r="R16" s="1">
-        <v>235795.0</v>
+        <v>3289000.0</v>
       </c>
       <c r="S16" s="1">
-        <v>110000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="T16" s="1">
-        <v>110000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="U16" s="6">
-        <v>188636.0</v>
+        <v>2631200.0</v>
       </c>
       <c r="V16" s="2">
         <v>0.8</v>
       </c>
       <c r="W16" s="1">
-        <v>1886.36</v>
+        <v>9312.0</v>
       </c>
       <c r="X16" s="2">
         <v>0.01</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>-9312.0</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0.0</v>
@@ -12909,44 +12909,44 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>259375.0</v>
+        <v>3623400.0</v>
       </c>
       <c r="Q17" s="2">
         <v>0.1</v>
       </c>
       <c r="R17" s="1">
-        <v>259375.0</v>
+        <v>3623400.0</v>
       </c>
       <c r="S17" s="1">
-        <v>110000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="T17" s="1">
-        <v>110000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="U17" s="6">
-        <v>207500.0</v>
+        <v>2898720.0</v>
       </c>
       <c r="V17" s="2">
         <v>0.8</v>
       </c>
       <c r="W17" s="1">
-        <v>2075.0</v>
+        <v>11987.2</v>
       </c>
       <c r="X17" s="2">
         <v>0.01</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>-11987.2</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0.0</v>
@@ -12983,44 +12983,44 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>285313.0</v>
+        <v>3991240.0</v>
       </c>
       <c r="Q18" s="2">
         <v>0.1</v>
       </c>
       <c r="R18" s="1">
-        <v>285313.0</v>
+        <v>3991240.0</v>
       </c>
       <c r="S18" s="1">
-        <v>110000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>110000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="U18" s="6">
-        <v>228250.4</v>
+        <v>3192992.0</v>
       </c>
       <c r="V18" s="2">
         <v>0.8</v>
       </c>
       <c r="W18" s="1">
-        <v>2282.504</v>
+        <v>14929.92</v>
       </c>
       <c r="X18" s="2">
         <v>0.01</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>-14929.92</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0.0</v>
@@ -13057,44 +13057,44 @@
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>313844.0</v>
+        <v>4395864.0</v>
       </c>
       <c r="Q19" s="2">
         <v>0.1</v>
       </c>
       <c r="R19" s="1">
-        <v>313844.0</v>
+        <v>4395864.0</v>
       </c>
       <c r="S19" s="1">
-        <v>110000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="T19" s="1">
-        <v>110000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="U19" s="6">
-        <v>251075.2</v>
+        <v>3516691.2</v>
       </c>
       <c r="V19" s="2">
         <v>0.8</v>
       </c>
       <c r="W19" s="1">
-        <v>2510.752</v>
+        <v>18166.912</v>
       </c>
       <c r="X19" s="2">
         <v>0.01</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>-18166.912</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0.0</v>
@@ -13131,44 +13131,44 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>345228.0</v>
+        <v>4840950.0</v>
       </c>
       <c r="Q20" s="2">
         <v>0.1</v>
       </c>
       <c r="R20" s="1">
-        <v>345228.0</v>
+        <v>4840950.0</v>
       </c>
       <c r="S20" s="1">
-        <v>110000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>110000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="U20" s="6">
-        <v>276182.4</v>
+        <v>3872760.0</v>
       </c>
       <c r="V20" s="2">
         <v>0.8</v>
       </c>
       <c r="W20" s="1">
-        <v>2761.824</v>
+        <v>21727.6</v>
       </c>
       <c r="X20" s="2">
         <v>0.01</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>-21727.6</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0.0</v>
@@ -13205,44 +13205,44 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>379751.0</v>
+        <v>5330545.0</v>
       </c>
       <c r="Q21" s="2">
         <v>0.1</v>
       </c>
       <c r="R21" s="1">
-        <v>379751.0</v>
+        <v>5330545.0</v>
       </c>
       <c r="S21" s="1">
-        <v>110000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>110000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="U21" s="6">
-        <v>303800.8</v>
+        <v>4264436.0</v>
       </c>
       <c r="V21" s="2">
         <v>0.8</v>
       </c>
       <c r="W21" s="1">
-        <v>3038.008</v>
+        <v>25644.36</v>
       </c>
       <c r="X21" s="2">
         <v>0.01</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>-25644.36</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0.0</v>
@@ -13279,44 +13279,44 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>417726.0</v>
+        <v>5869100.0</v>
       </c>
       <c r="Q22" s="2">
         <v>0.1</v>
       </c>
       <c r="R22" s="1">
-        <v>417726.0</v>
+        <v>5869100.0</v>
       </c>
       <c r="S22" s="1">
-        <v>110000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>110000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="U22" s="6">
-        <v>334180.8</v>
+        <v>4695280.0</v>
       </c>
       <c r="V22" s="2">
         <v>0.8</v>
       </c>
       <c r="W22" s="1">
-        <v>3341.808</v>
+        <v>29952.8</v>
       </c>
       <c r="X22" s="2">
         <v>0.01</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>-29952.8</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0.0</v>
@@ -13353,44 +13353,44 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>459499.0</v>
+        <v>6461510.0</v>
       </c>
       <c r="Q23" s="2">
         <v>0.1</v>
       </c>
       <c r="R23" s="1">
-        <v>459499.0</v>
+        <v>6461510.0</v>
       </c>
       <c r="S23" s="1">
-        <v>110000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>110000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="U23" s="6">
-        <v>367599.2</v>
+        <v>5169208.0</v>
       </c>
       <c r="V23" s="2">
         <v>0.8</v>
       </c>
       <c r="W23" s="1">
-        <v>3675.992</v>
+        <v>34692.08</v>
       </c>
       <c r="X23" s="2">
         <v>0.01</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>-34692.08</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0.0</v>
@@ -13427,44 +13427,44 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>505449.0</v>
+        <v>7113161.0</v>
       </c>
       <c r="Q24" s="2">
         <v>0.1</v>
       </c>
       <c r="R24" s="1">
-        <v>505449.0</v>
+        <v>7113161.0</v>
       </c>
       <c r="S24" s="1">
-        <v>110000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>110000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="U24" s="6">
-        <v>404359.2</v>
+        <v>5690528.8</v>
       </c>
       <c r="V24" s="2">
         <v>0.8</v>
       </c>
       <c r="W24" s="1">
-        <v>4043.592</v>
+        <v>39905.288</v>
       </c>
       <c r="X24" s="2">
         <v>0.01</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>-39905.288</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0.0</v>
@@ -13501,44 +13501,44 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>555994.0</v>
+        <v>7829977.0</v>
       </c>
       <c r="Q25" s="2">
         <v>0.1</v>
       </c>
       <c r="R25" s="1">
-        <v>555994.0</v>
+        <v>7829977.0</v>
       </c>
       <c r="S25" s="1">
-        <v>110000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>110000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="U25" s="6">
-        <v>444795.2</v>
+        <v>6263981.6</v>
       </c>
       <c r="V25" s="2">
         <v>0.8</v>
       </c>
       <c r="W25" s="1">
-        <v>4447.952</v>
+        <v>45639.816</v>
       </c>
       <c r="X25" s="2">
         <v>0.01</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>-45639.816</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0.0</v>
@@ -13575,44 +13575,44 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>611593.0</v>
+        <v>8618475.0</v>
       </c>
       <c r="Q26" s="2">
         <v>0.1</v>
       </c>
       <c r="R26" s="1">
-        <v>611593.0</v>
+        <v>8618475.0</v>
       </c>
       <c r="S26" s="1">
-        <v>110000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>110000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="U26" s="6">
-        <v>489274.4</v>
+        <v>6894780.0</v>
       </c>
       <c r="V26" s="2">
         <v>0.8</v>
       </c>
       <c r="W26" s="1">
-        <v>4892.744</v>
+        <v>51947.8</v>
       </c>
       <c r="X26" s="2">
         <v>0.01</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>-51947.8</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0.0</v>
@@ -13649,44 +13649,44 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>672752.0</v>
+        <v>9485823.0</v>
       </c>
       <c r="Q27" s="2">
         <v>0.1</v>
       </c>
       <c r="R27" s="1">
-        <v>672752.0</v>
+        <v>9485823.0</v>
       </c>
       <c r="S27" s="1">
-        <v>110000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>110000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="U27" s="6">
-        <v>538201.6</v>
+        <v>7588658.4</v>
       </c>
       <c r="V27" s="2">
         <v>0.8</v>
       </c>
       <c r="W27" s="1">
-        <v>5382.016</v>
+        <v>58886.584</v>
       </c>
       <c r="X27" s="2">
         <v>0.01</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>-58886.584</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0.0</v>
@@ -13723,44 +13723,44 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>740027.0</v>
+        <v>10439905.0</v>
       </c>
       <c r="Q28" s="2">
         <v>0.1</v>
       </c>
       <c r="R28" s="1">
-        <v>740027.0</v>
+        <v>10439905.0</v>
       </c>
       <c r="S28" s="1">
-        <v>110000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>110000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="U28" s="6">
-        <v>592021.6</v>
+        <v>8351924.0</v>
       </c>
       <c r="V28" s="2">
         <v>0.8</v>
       </c>
       <c r="W28" s="1">
-        <v>5920.216</v>
+        <v>66519.24</v>
       </c>
       <c r="X28" s="2">
         <v>0.01</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>-66519.24</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0.0</v>
@@ -13797,44 +13797,44 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>814030.0</v>
+        <v>11489396.0</v>
       </c>
       <c r="Q29" s="2">
         <v>0.1</v>
       </c>
       <c r="R29" s="1">
-        <v>814030.0</v>
+        <v>11489396.0</v>
       </c>
       <c r="S29" s="1">
-        <v>110000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>110000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="U29" s="6">
-        <v>651224.0</v>
+        <v>9191516.8</v>
       </c>
       <c r="V29" s="2">
         <v>0.8</v>
       </c>
       <c r="W29" s="1">
-        <v>6512.24</v>
+        <v>74915.168</v>
       </c>
       <c r="X29" s="2">
         <v>0.01</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>-74915.168</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0.0</v>
@@ -13871,44 +13871,44 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>895433.0</v>
+        <v>12643836.0</v>
       </c>
       <c r="Q30" s="2">
         <v>0.1</v>
       </c>
       <c r="R30" s="1">
-        <v>895433.0</v>
+        <v>12643836.0</v>
       </c>
       <c r="S30" s="1">
-        <v>110000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>110000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="U30" s="6">
-        <v>716346.4</v>
+        <v>10115068.8</v>
       </c>
       <c r="V30" s="2">
         <v>0.8</v>
       </c>
       <c r="W30" s="1">
-        <v>7163.464</v>
+        <v>84150.688</v>
       </c>
       <c r="X30" s="2">
         <v>0.01</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>-84150.688</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0.0</v>
@@ -13945,44 +13945,44 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>984976.0</v>
+        <v>13913720.0</v>
       </c>
       <c r="Q31" s="2">
         <v>0.1</v>
       </c>
       <c r="R31" s="1">
-        <v>984976.0</v>
+        <v>13913720.0</v>
       </c>
       <c r="S31" s="1">
-        <v>110000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>110000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="U31" s="6">
-        <v>787980.8</v>
+        <v>11130976.0</v>
       </c>
       <c r="V31" s="2">
         <v>0.8</v>
       </c>
       <c r="W31" s="1">
-        <v>7879.808</v>
+        <v>94309.76</v>
       </c>
       <c r="X31" s="2">
         <v>0.01</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>-94309.76</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0.0</v>
@@ -14019,44 +14019,44 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>1083474.0</v>
+        <v>15310592.0</v>
       </c>
       <c r="Q32" s="2">
         <v>0.1</v>
       </c>
       <c r="R32" s="1">
-        <v>1083474.0</v>
+        <v>15310592.0</v>
       </c>
       <c r="S32" s="1">
-        <v>110000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>110000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="U32" s="6">
-        <v>866779.2</v>
+        <v>12248473.6</v>
       </c>
       <c r="V32" s="2">
         <v>0.8</v>
       </c>
       <c r="W32" s="1">
-        <v>8667.792</v>
+        <v>105484.736</v>
       </c>
       <c r="X32" s="2">
         <v>0.01</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>-105484.736</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0.0</v>
@@ -14093,44 +14093,44 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>1191821.0</v>
+        <v>16847151.0</v>
       </c>
       <c r="Q33" s="2">
         <v>0.1</v>
       </c>
       <c r="R33" s="1">
-        <v>1191821.0</v>
+        <v>16847151.0</v>
       </c>
       <c r="S33" s="1">
-        <v>110000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>110000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="U33" s="6">
-        <v>953456.8</v>
+        <v>13477720.8</v>
       </c>
       <c r="V33" s="2">
         <v>0.8</v>
       </c>
       <c r="W33" s="1">
-        <v>9534.568</v>
+        <v>117777.208</v>
       </c>
       <c r="X33" s="2">
         <v>0.01</v>
       </c>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>-117777.208</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0.0</v>
@@ -14167,44 +14167,44 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>1311003.0</v>
+        <v>18537366.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.1</v>
       </c>
       <c r="R34" s="1">
-        <v>1311003.0</v>
+        <v>18537366.0</v>
       </c>
       <c r="S34" s="1">
-        <v>110000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>110000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="U34" s="6">
-        <v>1048802.4</v>
+        <v>14829892.8</v>
       </c>
       <c r="V34" s="2">
         <v>0.8</v>
       </c>
       <c r="W34" s="1">
-        <v>10488.024</v>
+        <v>131298.928</v>
       </c>
       <c r="X34" s="2">
         <v>0.01</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>-131298.928</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0.0</v>
@@ -14241,44 +14241,44 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>1442103.0</v>
+        <v>20396603.0</v>
       </c>
       <c r="Q35" s="2">
         <v>0.1</v>
       </c>
       <c r="R35" s="1">
-        <v>1442103.0</v>
+        <v>20396603.0</v>
       </c>
       <c r="S35" s="1">
-        <v>110000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>110000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="U35" s="6">
-        <v>1153682.4</v>
+        <v>16317282.4</v>
       </c>
       <c r="V35" s="2">
         <v>0.8</v>
       </c>
       <c r="W35" s="1">
-        <v>11536.824</v>
+        <v>146172.824</v>
       </c>
       <c r="X35" s="2">
         <v>0.01</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>-146172.824</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0.0</v>
@@ -14315,44 +14315,44 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>1586313.0</v>
+        <v>22441763.0</v>
       </c>
       <c r="Q36" s="2">
         <v>0.1</v>
       </c>
       <c r="R36" s="1">
-        <v>1586313.0</v>
+        <v>22441763.0</v>
       </c>
       <c r="S36" s="1">
-        <v>110000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>110000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="U36" s="6">
-        <v>1269050.4</v>
+        <v>17953410.4</v>
       </c>
       <c r="V36" s="2">
         <v>0.8</v>
       </c>
       <c r="W36" s="1">
-        <v>12690.504</v>
+        <v>162534.104</v>
       </c>
       <c r="X36" s="2">
         <v>0.01</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>-162534.104</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0.0</v>
@@ -14389,44 +14389,44 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>1744944.0</v>
+        <v>24691439.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>1744944.0</v>
+        <v>24691439.0</v>
       </c>
       <c r="S37" s="1">
-        <v>110000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>110000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>1395955.2</v>
+        <v>19753151.2</v>
       </c>
       <c r="V37" s="2">
         <v>0.8</v>
       </c>
       <c r="W37" s="1">
-        <v>13959.552</v>
+        <v>180531.512</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>-180531.512</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0.0</v>
@@ -14463,44 +14463,44 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>1919438.0</v>
+        <v>27166083.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>1919438.0</v>
+        <v>27166083.0</v>
       </c>
       <c r="S38" s="1">
-        <v>110000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>110000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>1535550.4</v>
+        <v>21732866.4</v>
       </c>
       <c r="V38" s="2">
         <v>0.8</v>
       </c>
       <c r="W38" s="1">
-        <v>15355.504</v>
+        <v>200328.664</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>-200328.664</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0.0</v>
@@ -14537,44 +14537,44 @@
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>2111382.0</v>
+        <v>29888191.0</v>
       </c>
       <c r="Q39" s="2">
         <v>0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>2111382.0</v>
+        <v>29888191.0</v>
       </c>
       <c r="S39" s="1">
-        <v>110000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>110000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="U39" s="6">
-        <v>1689105.6</v>
+        <v>23910552.8</v>
       </c>
       <c r="V39" s="2">
         <v>0.8</v>
       </c>
       <c r="W39" s="1">
-        <v>16891.056</v>
+        <v>222105.528</v>
       </c>
       <c r="X39" s="2">
         <v>0.01</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>-222105.528</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39">
         <v>0.0</v>
@@ -14611,44 +14611,44 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>2322520.0</v>
+        <v>32882510.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>2322520.0</v>
+        <v>32882510.0</v>
       </c>
       <c r="S40" s="11">
-        <v>110000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>110000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>1858016.0</v>
+        <v>26306008.0</v>
       </c>
       <c r="V40" s="12">
         <v>0.8</v>
       </c>
       <c r="W40" s="11">
-        <v>18580.16</v>
+        <v>246060.08</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>0</v>
+        <v>-246060.08</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0.0</v>
@@ -14686,44 +14686,44 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>2554772.0</v>
+        <v>36176261.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>2554772.0</v>
+        <v>36176261.0</v>
       </c>
       <c r="S41" s="1">
-        <v>110000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>110000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>2043817.6</v>
+        <v>28941008.8</v>
       </c>
       <c r="V41" s="2">
         <v>0.8</v>
       </c>
       <c r="W41" s="1">
-        <v>20438.176</v>
+        <v>272410.088</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>-272410.088</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0.0</v>
@@ -14760,44 +14760,44 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>2810249.0</v>
+        <v>39799387.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>2810249.0</v>
+        <v>39799387.0</v>
       </c>
       <c r="S42" s="1">
-        <v>110000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>110000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>2248199.2</v>
+        <v>31839509.6</v>
       </c>
       <c r="V42" s="2">
         <v>0.8</v>
       </c>
       <c r="W42" s="1">
-        <v>22481.992</v>
+        <v>301395.096</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>-301395.096</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0.0</v>
@@ -14834,44 +14834,44 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>3091274.0</v>
+        <v>43784826.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>3091274.0</v>
+        <v>43784826.0</v>
       </c>
       <c r="S43" s="1">
-        <v>110000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>110000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>2473019.2</v>
+        <v>35027860.8</v>
       </c>
       <c r="V43" s="2">
         <v>0.8</v>
       </c>
       <c r="W43" s="1">
-        <v>24730.192</v>
+        <v>333278.608</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>-333278.608</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0.0</v>
@@ -14908,44 +14908,44 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>3400401.0</v>
+        <v>48168809.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>3400401.0</v>
+        <v>48168809.0</v>
       </c>
       <c r="S44" s="1">
-        <v>110000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>110000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>2720320.8</v>
+        <v>38535047.2</v>
       </c>
       <c r="V44" s="2">
         <v>0.8</v>
       </c>
       <c r="W44" s="1">
-        <v>27203.208</v>
+        <v>368350.472</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
+        <v>-368350.472</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0.0</v>
@@ -14982,44 +14982,44 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>3740441.0</v>
+        <v>52991190.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>3740441.0</v>
+        <v>52991190.0</v>
       </c>
       <c r="S45" s="1">
-        <v>110000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>110000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>2992352.8</v>
+        <v>42392952.0</v>
       </c>
       <c r="V45" s="2">
         <v>0.8</v>
       </c>
       <c r="W45" s="1">
-        <v>29923.528</v>
+        <v>406929.52</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>0</v>
+        <v>-406929.52</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0.0</v>
@@ -15056,44 +15056,44 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>4114485.0</v>
+        <v>58295809.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>4114485.0</v>
+        <v>58295809.0</v>
       </c>
       <c r="S46" s="1">
-        <v>110000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>110000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>3291588.0</v>
+        <v>46636647.2</v>
       </c>
       <c r="V46" s="2">
         <v>0.8</v>
       </c>
       <c r="W46" s="1">
-        <v>32915.88</v>
+        <v>449366.472</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>-449366.472</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0.0</v>
@@ -15130,44 +15130,44 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>4525934.0</v>
+        <v>64130890.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>4525934.0</v>
+        <v>64130890.0</v>
       </c>
       <c r="S47" s="1">
-        <v>110000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>110000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>3620747.2</v>
+        <v>51304712.0</v>
       </c>
       <c r="V47" s="2">
         <v>0.8</v>
       </c>
       <c r="W47" s="1">
-        <v>36207.472</v>
+        <v>496047.12</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>-496047.12</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0.0</v>
@@ -15204,44 +15204,44 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>4978527.0</v>
+        <v>70549479.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>4978527.0</v>
+        <v>70549479.0</v>
       </c>
       <c r="S48" s="1">
-        <v>110000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>110000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>3982821.6</v>
+        <v>56439583.2</v>
       </c>
       <c r="V48" s="2">
         <v>0.8</v>
       </c>
       <c r="W48" s="1">
-        <v>39828.216</v>
+        <v>547395.832</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>-547395.832</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0.0</v>
@@ -15278,44 +15278,44 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>5476380.0</v>
+        <v>77609927.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>5476380.0</v>
+        <v>77609927.0</v>
       </c>
       <c r="S49" s="1">
-        <v>110000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>110000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>4381104.0</v>
+        <v>62087941.6</v>
       </c>
       <c r="V49" s="2">
         <v>0.8</v>
       </c>
       <c r="W49" s="1">
-        <v>43811.04</v>
+        <v>603879.416</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>-603879.416</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0.0</v>
@@ -15352,44 +15352,44 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>6024018.0</v>
+        <v>85376420.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>6024018.0</v>
+        <v>85376420.0</v>
       </c>
       <c r="S50" s="1">
-        <v>110000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>110000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>4819214.4</v>
+        <v>68301136.0</v>
       </c>
       <c r="V50" s="2">
         <v>0.8</v>
       </c>
       <c r="W50" s="1">
-        <v>48192.144</v>
+        <v>666011.36</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>-666011.36</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0.0</v>
@@ -15426,44 +15426,44 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>6626420.0</v>
+        <v>93919562.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>6626420.0</v>
+        <v>93919562.0</v>
       </c>
       <c r="S51" s="1">
-        <v>110000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>110000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>5301136.0</v>
+        <v>75135649.6</v>
       </c>
       <c r="V51" s="2">
         <v>0.8</v>
       </c>
       <c r="W51" s="1">
-        <v>53011.36</v>
+        <v>734356.496</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>-734356.496</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0.0</v>
@@ -15500,44 +15500,44 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>7289062.0</v>
+        <v>103317018.0</v>
       </c>
       <c r="Q52" s="2">
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>7289062.0</v>
+        <v>103317018.0</v>
       </c>
       <c r="S52" s="1">
-        <v>110000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>110000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>5831249.6</v>
+        <v>82653614.4</v>
       </c>
       <c r="V52" s="2">
         <v>0.8</v>
       </c>
       <c r="W52" s="1">
-        <v>58312.496</v>
+        <v>809536.144</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>-809536.144</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0.0</v>
@@ -15574,44 +15574,44 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>7617070.0</v>
+        <v>107966284.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>7617070.0</v>
+        <v>107966284.0</v>
       </c>
       <c r="S53" s="13">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T53" s="13">
         <v>0</v>
       </c>
       <c r="U53" s="13">
-        <v>6093656.0</v>
+        <v>86373027.2</v>
       </c>
       <c r="V53" s="14">
         <v>0.8</v>
       </c>
       <c r="W53" s="13">
-        <v>60936.56</v>
+        <v>846730.272</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>0</v>
+        <v>-846730.272</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0.0</v>
@@ -15649,44 +15649,44 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>7937789.0</v>
+        <v>112512233.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>7937789.0</v>
+        <v>112512233.0</v>
       </c>
       <c r="S54" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T54" s="1">
         <v>0</v>
       </c>
       <c r="U54" s="6">
-        <v>6350231.2</v>
+        <v>90009786.4</v>
       </c>
       <c r="V54" s="2">
         <v>0.8</v>
       </c>
       <c r="W54" s="1">
-        <v>63502.312</v>
+        <v>883097.864</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>0</v>
+        <v>-883097.864</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0.0</v>
@@ -15723,44 +15723,44 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>8246481.0</v>
+        <v>116887708.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>8246481.0</v>
+        <v>116887708.0</v>
       </c>
       <c r="S55" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T55" s="1">
         <v>0</v>
       </c>
       <c r="U55" s="6">
-        <v>6597184.8</v>
+        <v>93510166.4</v>
       </c>
       <c r="V55" s="2">
         <v>0.8</v>
       </c>
       <c r="W55" s="1">
-        <v>65971.848</v>
+        <v>918101.664</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>-918101.664</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0.0</v>
@@ -15797,44 +15797,44 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>8537533.0</v>
+        <v>121013156.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>8537533.0</v>
+        <v>121013156.0</v>
       </c>
       <c r="S56" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
       </c>
       <c r="U56" s="6">
-        <v>6830026.4</v>
+        <v>96810524.8</v>
       </c>
       <c r="V56" s="2">
         <v>0.8</v>
       </c>
       <c r="W56" s="1">
-        <v>68300.264</v>
+        <v>951105.248</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>0</v>
+        <v>-951105.248</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0.0</v>
@@ -15871,44 +15871,44 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>8804331.0</v>
+        <v>124794817.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>8804331.0</v>
+        <v>124794817.0</v>
       </c>
       <c r="S57" s="13">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T57" s="13">
         <v>0</v>
       </c>
       <c r="U57" s="13">
-        <v>7043464.8</v>
+        <v>99835853.6</v>
       </c>
       <c r="V57" s="14">
         <v>0.8</v>
       </c>
       <c r="W57" s="13">
-        <v>70434.648</v>
+        <v>981358.536</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>-981358.536</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0.0</v>
@@ -15946,44 +15946,44 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>9039114.0</v>
+        <v>128122679.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>9039114.0</v>
+        <v>128122679.0</v>
       </c>
       <c r="S58" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T58" s="1">
         <v>0</v>
       </c>
       <c r="U58" s="6">
-        <v>7231291.2</v>
+        <v>102498143.2</v>
       </c>
       <c r="V58" s="2">
         <v>0.8</v>
       </c>
       <c r="W58" s="1">
-        <v>72312.912</v>
+        <v>1007981.432</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
       <c r="Y58" s="1">
-        <v>0</v>
+        <v>-1007981.432</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0.0</v>
@@ -16020,44 +16020,44 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>9232809.0</v>
+        <v>130868165.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>9232809.0</v>
+        <v>130868165.0</v>
       </c>
       <c r="S59" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
       </c>
       <c r="U59" s="6">
-        <v>7386247.2</v>
+        <v>104694532.0</v>
       </c>
       <c r="V59" s="2">
         <v>0.8</v>
       </c>
       <c r="W59" s="1">
-        <v>73862.472</v>
+        <v>1029945.32</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
       <c r="Y59" s="1">
-        <v>0</v>
+        <v>-1029945.32</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0.0</v>
@@ -16094,44 +16094,44 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>9374852.0</v>
+        <v>132881521.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>9374852.0</v>
+        <v>132881521.0</v>
       </c>
       <c r="S60" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
       </c>
       <c r="U60" s="6">
-        <v>7499881.6</v>
+        <v>106305216.8</v>
       </c>
       <c r="V60" s="2">
         <v>0.8</v>
       </c>
       <c r="W60" s="1">
-        <v>74998.816</v>
+        <v>1046052.168</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>-1046052.168</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0.0</v>
@@ -16168,44 +16168,44 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>9452975.0</v>
+        <v>133988867.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>9452975.0</v>
+        <v>133988867.0</v>
       </c>
       <c r="S61" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T61" s="1">
         <v>0</v>
       </c>
       <c r="U61" s="6">
-        <v>7562380.0</v>
+        <v>107191093.6</v>
       </c>
       <c r="V61" s="2">
         <v>0.8</v>
       </c>
       <c r="W61" s="1">
-        <v>75623.8</v>
+        <v>1054910.936</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>-1054910.936</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0.0</v>
@@ -16242,44 +16242,44 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>9452975.0</v>
+        <v>133988867.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>9452975.0</v>
+        <v>133988867.0</v>
       </c>
       <c r="S62" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
       </c>
       <c r="U62" s="6">
-        <v>7562380.0</v>
+        <v>107191093.6</v>
       </c>
       <c r="V62" s="2">
         <v>0.8</v>
       </c>
       <c r="W62" s="1">
-        <v>75623.8</v>
+        <v>1054910.936</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>-1054910.936</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0.0</v>
@@ -16316,44 +16316,44 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>9358445.0</v>
+        <v>132648978.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>9358445.0</v>
+        <v>132648978.0</v>
       </c>
       <c r="S63" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
       </c>
       <c r="U63" s="6">
-        <v>7486756.0</v>
+        <v>106119182.4</v>
       </c>
       <c r="V63" s="2">
         <v>0.8</v>
       </c>
       <c r="W63" s="1">
-        <v>74867.56</v>
+        <v>1044191.824</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
       <c r="Y63" s="1">
-        <v>0</v>
+        <v>-1044191.824</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0.0</v>
@@ -16390,44 +16390,44 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>9150480.0</v>
+        <v>129701223.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>9150480.0</v>
+        <v>129701223.0</v>
       </c>
       <c r="S64" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
       </c>
       <c r="U64" s="6">
-        <v>7320384.0</v>
+        <v>103760978.4</v>
       </c>
       <c r="V64" s="2">
         <v>0.8</v>
       </c>
       <c r="W64" s="1">
-        <v>73203.84</v>
+        <v>1020609.784</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
       <c r="Y64" s="1">
-        <v>0</v>
+        <v>-1020609.784</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0.0</v>
@@ -16464,44 +16464,44 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>8807337.0</v>
+        <v>124837427.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>8807337.0</v>
+        <v>124837427.0</v>
       </c>
       <c r="S65" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
       </c>
       <c r="U65" s="6">
-        <v>7045869.6</v>
+        <v>99869941.6</v>
       </c>
       <c r="V65" s="2">
         <v>0.8</v>
       </c>
       <c r="W65" s="1">
-        <v>70458.696</v>
+        <v>981699.416</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
       <c r="Y65" s="1">
-        <v>0</v>
+        <v>-981699.416</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0.0</v>
@@ -16538,44 +16538,44 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>8304061.0</v>
+        <v>117703860.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>8304061.0</v>
+        <v>117703860.0</v>
       </c>
       <c r="S66" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
       </c>
       <c r="U66" s="6">
-        <v>6643248.8</v>
+        <v>94163088.0</v>
       </c>
       <c r="V66" s="2">
         <v>0.8</v>
       </c>
       <c r="W66" s="1">
-        <v>66432.488</v>
+        <v>924630.88</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
       <c r="Y66" s="1">
-        <v>0</v>
+        <v>-924630.88</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0.0</v>
@@ -16612,44 +16612,44 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>7612056.0</v>
+        <v>107895205.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>7612056.0</v>
+        <v>107895205.0</v>
       </c>
       <c r="S67" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <v>6089644.8</v>
+        <v>86316164.0</v>
       </c>
       <c r="V67" s="2">
         <v>0.8</v>
       </c>
       <c r="W67" s="1">
-        <v>60896.448</v>
+        <v>846161.64</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
       <c r="Y67" s="1">
-        <v>0</v>
+        <v>-846161.64</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0.0</v>
@@ -16686,44 +16686,44 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>6698610.0</v>
+        <v>94947780.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>6698610.0</v>
+        <v>94947780.0</v>
       </c>
       <c r="S68" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
       </c>
       <c r="U68" s="6">
-        <v>5358888.0</v>
+        <v>75958224.0</v>
       </c>
       <c r="V68" s="2">
         <v>0.8</v>
       </c>
       <c r="W68" s="1">
-        <v>53588.88</v>
+        <v>742582.24</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
       <c r="Y68" s="1">
-        <v>0</v>
+        <v>-742582.24</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0.0</v>
@@ -16760,44 +16760,44 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>5526353.0</v>
+        <v>78331919.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>5526353.0</v>
+        <v>78331919.0</v>
       </c>
       <c r="S69" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
       </c>
       <c r="U69" s="6">
-        <v>4421082.4</v>
+        <v>62665535.2</v>
       </c>
       <c r="V69" s="2">
         <v>0.8</v>
       </c>
       <c r="W69" s="1">
-        <v>44210.824</v>
+        <v>609655.352</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>-609655.352</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0.0</v>
@@ -16834,44 +16834,44 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>4052659.0</v>
+        <v>57443407.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>4052659.0</v>
+        <v>57443407.0</v>
       </c>
       <c r="S70" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
       </c>
       <c r="U70" s="6">
-        <v>3242127.2</v>
+        <v>45954725.6</v>
       </c>
       <c r="V70" s="2">
         <v>0.8</v>
       </c>
       <c r="W70" s="1">
-        <v>32421.272</v>
+        <v>442547.256</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
       <c r="Y70" s="1">
-        <v>0</v>
+        <v>-442547.256</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0.0</v>
@@ -16908,44 +16908,44 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>2228962.0</v>
+        <v>31593873.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>2228962.0</v>
+        <v>31593873.0</v>
       </c>
       <c r="S71" s="1">
-        <v>110000.0</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
       </c>
       <c r="U71" s="6">
-        <v>1783169.6</v>
+        <v>25275098.4</v>
       </c>
       <c r="V71" s="2">
         <v>0.8</v>
       </c>
       <c r="W71" s="1">
-        <v>17831.696</v>
+        <v>235750.984</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>-235750.984</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0.0</v>
@@ -16999,21 +16999,21 @@
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0.0</v>

--- a/tests/Feature/config/fond_tenpercent.xlsx
+++ b/tests/Feature/config/fond_tenpercent.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>private</t>
   </si>
@@ -164,61 +164,64 @@
     <t>income</t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 5363552 - 1248788 (tax) = 4114764 from fond.2068.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 5363552 - 1256937.856 (tax) = 4106614.144 from fond.2068.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 5589386 - 2115024 (tax) = 3474362 from fond.2069.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 5899907 - 2102727.046 (tax) = 3797179.954 from fond.2069.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 5806751 - 2197275 (tax) = 3609476 from fond.2070.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 6489898 - 2312999.244 (tax) = 4176898.756 from fond.2070.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6011695 - 2274825 (tax) = 3736870 from fond.2071.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 7138888 - 2544299.464 (tax) = 4594588.536 from fond.2071.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6199560 - 2345914 (tax) = 3853646 from fond.2072.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 7852776 - 2798728.928 (tax) = 5054047.072 from fond.2072.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6364882 - 2408471 (tax) = 3956411 from fond.2073.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 8638054 - 3078602.812 (tax) = 5559451.188 from fond.2073.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6501272 - 2460081 (tax) = 4041191 from fond.2074.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 9501859 - 3386462.102 (tax) = 6115396.898 from fond.2074.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6601292 - 2497929 (tax) = 4103363 from fond.2075.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 10452045 - 3725109.01 (tax) = 6726935.99 from fond.2075.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6656303 - 2518745 (tax) = 4137558 from fond.2076.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 11497250 - 4097619.5 (tax) = 7399630.5 from fond.2076.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6656302 - 2518745 (tax) = 4137557 from fond.2077.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 12646975 - 4507381.55 (tax) = 8139593.45 from fond.2077.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6589740 - 2493558 (tax) = 4096182 from fond.2078.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 13911672 - 4958120.216 (tax) = 8953551.784 from fond.2078.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6443301 - 2438145 (tax) = 4005156 from fond.2079.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 15302840 - 5453932.52 (tax) = 9848907.48 from fond.2079.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6201677 - 2346715 (tax) = 3854962 from fond.2080.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 16833124 - 5999325.272 (tax) = 10833798.728 from fond.2080.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 5847296 - 2212617 (tax) = 3634679 from fond.2081.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 18516436 - 6599257.408 (tax) = 11917178.592 from fond.2081.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 5360021 - 2028232 (tax) = 3331789 from fond.2082.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 20368080 - 7259183.24 (tax) = 13108896.76 from fond.2082.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 4716818 - 1784844 (tax) = 2931974 from fond.2083.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 22404887 - 7985101.486 (tax) = 14419785.514 from fond.2083.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 3891375 - 1472496 (tax) = 2418879 from fond.2084.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 24645376 - 8783611.728 (tax) = 15861764.272 from fond.2084.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 2853675 - 1079831 (tax) = 1773844 from fond.2085.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 27109914 - 9661972.892 (tax) = 17447941.108 from fond.2085.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 1569521 - 593907 (tax) = 975614 from fond.2086.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 29820906 - 10628171.068 (tax) = 19192734.932 from fond.2086.asset.marketAmount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfered 32802995 - 11690987.11 (tax) = 21112007.89 from fond.2087.asset.marketAmount </t>
   </si>
   <si>
     <t>fond</t>
@@ -227,193 +230,199 @@
     <t>equityfund</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1505000 = 1500000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1500000+(5000*1)=1505000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1515500 = 1510500 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1510500+(5000*1)=1515500 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1677550 = 1672550 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1672550+(5000*1)=1677550 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1855805 = 1850805 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1850805+(5000*1)=1855805 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 2051886 = 2046886 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2046886+(5000*1)=2051886 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 2267575 = 2262575 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2262575+(5000*1)=2267575 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 2504833 = 2499833 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2499833+(5000*1)=2504833 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 2765816 = 2760816 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 2760816+(5000*1)=2765816 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 3052898 = 3047898 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 3047898+(5000*1)=3052898 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 3368688 = 3363688 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 3363688+(5000*1)=3368688 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 3716057 = 3711057 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 3711057+(5000*1)=3716057 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 4098163 = 4093163 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 4093163+(5000*1)=4098163 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 4518479 = 4513479 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 4513479+(5000*1)=4518479 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 4980827 = 4975827 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 4975827+(5000*1)=4980827 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 5489410 = 5484410 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 5484410+(5000*1)=5489410 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 6048851 = 6043851 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 6043851+(5000*1)=6048851 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 6664236 = 6659236 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 6659236+(5000*1)=6664236 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 7341160 = 7336160 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 7336160+(5000*1)=7341160 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 8085776 = 8080776 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 8080776+(5000*1)=8085776 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 8904854 = 8899854 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 8899854+(5000*1)=8904854 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 9805839 = 9800839 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 9800839+(5000*1)=9805839 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 10796923 = 10791923 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 10791923+(5000*1)=10796923 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 11887115 = 11882115 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 11882115+(5000*1)=11887115 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 13086327 = 13081327 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 13081327+(5000*1)=13086327 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 14405460 = 14400460 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 14400460+(5000*1)=14405460 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 15856506 = 15851506 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 15851506+(5000*1)=15856506 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 17452657 = 17447657 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 17447657+(5000*1)=17452657 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 19208423 = 19203423 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 19203423+(5000*1)=19208423 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 21139765 = 21134765 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 21134765+(5000*1)=21139765 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 23264242 = 23259242 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 23259242+(5000*1)=23264242 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 25601166 = 25596166 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 25596166+(5000*1)=25601166 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 28171783 = 28166783 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 28166783+(5000*1)=28171783 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 30999461 = 30994461 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 30994461+(5000*1)=30999461 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 34109907 = 34104907 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 34104907+(5000*1)=34109907 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 37531398 = 37526398 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 37526398+(5000*1)=37531398 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 41295038 = 41290038 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 41290038+(5000*1)=41295038 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 45435042 = 45430042 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 45430042+(5000*1)=45435042 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 49989046 = 49984046 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 49984046+(5000*1)=49989046 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 54998451 = 54993451 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 54993451+(5000*1)=54998451 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 60508796 = 60503796 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 60503796+(5000*1)=60508796 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 66570176 = 66565176 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 66565176+(5000*1)=66570176 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 73237694 = 73232694 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 73232694+(5000*1)=73237694 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 80571963 = 80566963 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 80566963+(5000*1)=80571963 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 88639659 = 88634659 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 88634659+(5000*1)=88639659 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 97514125 = 97509125 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 97509125+(5000*1)=97514125 </t>
   </si>
   <si>
-    <t>Uttak fra 2068, 1|20 Asset rule:1|20 Adding divisor: 5363552 rewritten rule: 1|19</t>
+    <t>Uttak fra 2068, 1|20 Asset rule:1|20 Division: 107271038/20=5363552 rewritten rule: 1|19</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|19 Adding divisor: 5589386 rewritten rule: 1|18</t>
+    <t xml:space="preserve"> Asset rule:1|19 Division: 112098235/19=5899907 rewritten rule: 1|18</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|18 Adding divisor: 5806751 rewritten rule: 1|17</t>
+    <t xml:space="preserve"> Asset rule:1|18 Division: 116818161/18=6489898 rewritten rule: 1|17</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|17 Adding divisor: 6011695 rewritten rule: 1|16</t>
+    <t xml:space="preserve"> Asset rule:1|17 Division: 121361089/17=7138888 rewritten rule: 1|16</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|16 Adding divisor: 6199560 rewritten rule: 1|15</t>
+    <t xml:space="preserve"> Asset rule:1|16 Division: 125644421/16=7852776 rewritten rule: 1|15</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|15 Adding divisor: 6364882 rewritten rule: 1|14</t>
+    <t xml:space="preserve"> Asset rule:1|15 Division: 129570809/15=8638054 rewritten rule: 1|14</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|14 Adding divisor: 6501272 rewritten rule: 1|13</t>
+    <t xml:space="preserve"> Asset rule:1|14 Division: 133026031/14=9501859 rewritten rule: 1|13</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|13 Adding divisor: 6601292 rewritten rule: 1|12</t>
+    <t xml:space="preserve"> Asset rule:1|13 Division: 135876589/13=10452045 rewritten rule: 1|12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|12 Adding divisor: 6656303 rewritten rule: 1|11</t>
+    <t xml:space="preserve"> Asset rule:1|12 Division: 137966999/12=11497250 rewritten rule: 1|11</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|11 Adding divisor: 6656302 rewritten rule: 1|10</t>
+    <t xml:space="preserve"> Asset rule:1|11 Division: 139116724/11=12646975 rewritten rule: 1|10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|10 Adding divisor: 6589740 rewritten rule: 1|9</t>
+    <t xml:space="preserve"> Asset rule:1|10 Division: 139116724/10=13911672 rewritten rule: 1|9</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|9 Adding divisor: 6443301 rewritten rule: 1|8</t>
+    <t xml:space="preserve"> Asset rule:1|9 Division: 137725557/9=15302840 rewritten rule: 1|8</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|8 Adding divisor: 6201677 rewritten rule: 1|7</t>
+    <t xml:space="preserve"> Asset rule:1|8 Division: 134664989/8=16833124 rewritten rule: 1|7</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|7 Adding divisor: 5847296 rewritten rule: 1|6</t>
+    <t xml:space="preserve"> Asset rule:1|7 Division: 129615052/7=18516436 rewritten rule: 1|6</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|6 Adding divisor: 5360021 rewritten rule: 1|5</t>
+    <t xml:space="preserve"> Asset rule:1|6 Division: 122208477/6=20368080 rewritten rule: 1|5</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|5 Adding divisor: 4716818 rewritten rule: 1|4</t>
+    <t xml:space="preserve"> Asset rule:1|5 Division: 112024437/5=22404887 rewritten rule: 1|4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|4 Adding divisor: 3891375 rewritten rule: 1|3</t>
+    <t xml:space="preserve"> Asset rule:1|4 Division: 98581505/4=24645376 rewritten rule: 1|3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|3 Adding divisor: 2853675 rewritten rule: 1|2</t>
+    <t xml:space="preserve"> Asset rule:1|3 Division: 81329742/3=27109914 rewritten rule: 1|2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|2 Division: 59641811/2=29820906 rewritten rule: 1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|1 Division: 32802995/1=32802995 rewritten rule: </t>
   </si>
   <si>
     <t>total</t>
@@ -841,11 +850,11 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -1317,7 +1326,7 @@
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1">
-        <v>48320.0</v>
+        <v>48336.0</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="1">
@@ -1384,10 +1393,10 @@
         <v>1672550.0</v>
       </c>
       <c r="S9" s="8">
-        <v>1520000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="T9" s="8">
-        <v>1520000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="U9" s="8">
         <v>1333640.0</v>
@@ -1405,14 +1414,14 @@
         <v>1672550.0</v>
       </c>
       <c r="AB9" s="8">
-        <v>152550.0</v>
+        <v>157550.0</v>
       </c>
       <c r="AC9" s="8">
         <v>0</v>
       </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="8">
-        <v>96960.0</v>
+        <v>101857.6</v>
       </c>
       <c r="AF9" s="9"/>
       <c r="AG9" s="8">
@@ -1429,7 +1438,7 @@
         <v>3194400.0</v>
       </c>
       <c r="AL9" s="8">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM9" s="8"/>
       <c r="AN9" s="9"/>
@@ -1479,10 +1488,10 @@
         <v>1850805.0</v>
       </c>
       <c r="S10" s="1">
-        <v>1530000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="T10" s="1">
-        <v>1530000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="U10" s="6">
         <v>1476244.0</v>
@@ -1500,14 +1509,14 @@
         <v>1850805.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>320805.0</v>
+        <v>330805.0</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1">
-        <v>130620.0</v>
+        <v>142575.31</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="1">
@@ -1524,7 +1533,7 @@
         <v>3513840.0</v>
       </c>
       <c r="AL10" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="2"/>
@@ -1574,10 +1583,10 @@
         <v>2046886.0</v>
       </c>
       <c r="S11" s="1">
-        <v>1540000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="T11" s="1">
-        <v>1540000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="U11" s="6">
         <v>1633108.8</v>
@@ -1592,17 +1601,17 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>2019580.0</v>
+        <v>2037010.802</v>
       </c>
       <c r="AB11" s="1">
-        <v>506886.0</v>
+        <v>521886.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>27306.0</v>
+        <v>9875.198</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1">
-        <v>164500.0</v>
+        <v>187606.802</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="1">
@@ -1619,7 +1628,7 @@
         <v>3865224.0</v>
       </c>
       <c r="AL11" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="2"/>
@@ -1669,10 +1678,10 @@
         <v>2262575.0</v>
       </c>
       <c r="S12" s="1">
-        <v>1550000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="T12" s="1">
-        <v>1550000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="U12" s="6">
         <v>1805660.0</v>
@@ -1687,17 +1696,17 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>2191537.0</v>
+        <v>2222752.452</v>
       </c>
       <c r="AB12" s="1">
-        <v>712575.0</v>
+        <v>732575.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>71038.0</v>
+        <v>39822.548</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1">
-        <v>198600.0</v>
+        <v>237383.452</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="1">
@@ -1714,7 +1723,7 @@
         <v>4251747.5</v>
       </c>
       <c r="AL12" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="2"/>
@@ -1764,10 +1773,10 @@
         <v>2499833.0</v>
       </c>
       <c r="S13" s="1">
-        <v>1560000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T13" s="1">
-        <v>1560000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U13" s="6">
         <v>1995466.4</v>
@@ -1782,17 +1791,17 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>2377120.0</v>
+        <v>2427119.778</v>
       </c>
       <c r="AB13" s="1">
-        <v>939833.0</v>
+        <v>964833.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>122713.0</v>
+        <v>72713.222</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1">
-        <v>232920.0</v>
+        <v>292379.778</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="1">
@@ -1809,7 +1818,7 @@
         <v>4676925.0</v>
       </c>
       <c r="AL13" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="2"/>
@@ -1859,10 +1868,10 @@
         <v>2760816.0</v>
       </c>
       <c r="S14" s="1">
-        <v>1570000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="T14" s="1">
-        <v>1570000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="U14" s="6">
         <v>2204252.8</v>
@@ -1877,17 +1886,17 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>2577671.0</v>
+        <v>2651976.73</v>
       </c>
       <c r="AB14" s="1">
-        <v>1190816.0</v>
+        <v>1220816.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>183145.0</v>
+        <v>108839.27</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1">
-        <v>267460.0</v>
+        <v>353117.73</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="1">
@@ -1904,7 +1913,7 @@
         <v>5144617.5</v>
       </c>
       <c r="AL14" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="2"/>
@@ -1954,10 +1963,10 @@
         <v>3047898.0</v>
       </c>
       <c r="S15" s="1">
-        <v>1580000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="T15" s="1">
-        <v>1580000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="U15" s="6">
         <v>2433918.4</v>
@@ -1972,17 +1981,17 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>2794665.0</v>
+        <v>2899372.486</v>
       </c>
       <c r="AB15" s="1">
-        <v>1467898.0</v>
+        <v>1502898.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>253233.0</v>
+        <v>148525.514</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1">
-        <v>302220.0</v>
+        <v>420171.486</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="1">
@@ -1999,7 +2008,7 @@
         <v>5659082.0</v>
       </c>
       <c r="AL15" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="2"/>
@@ -2049,10 +2058,10 @@
         <v>3363688.0</v>
       </c>
       <c r="S16" s="1">
-        <v>1590000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="T16" s="1">
-        <v>1590000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="U16" s="6">
         <v>2686550.4</v>
@@ -2067,17 +2076,17 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>3029724.0</v>
+        <v>3171560.622</v>
       </c>
       <c r="AB16" s="1">
-        <v>1773688.0</v>
+        <v>1813688.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>333964.0</v>
+        <v>192127.378</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1">
-        <v>337200.0</v>
+        <v>494172.622</v>
       </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="1">
@@ -2094,7 +2103,7 @@
         <v>6224988.0</v>
       </c>
       <c r="AL16" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="2"/>
@@ -2144,10 +2153,10 @@
         <v>3711057.0</v>
       </c>
       <c r="S17" s="1">
-        <v>1600000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="T17" s="1">
-        <v>1600000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="U17" s="6">
         <v>2964445.6</v>
@@ -2162,17 +2171,17 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>3284633.0</v>
+        <v>3471020.876</v>
       </c>
       <c r="AB17" s="1">
-        <v>2111057.0</v>
+        <v>2156057.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>426424.0</v>
+        <v>240036.124</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1">
-        <v>372400.0</v>
+        <v>575815.876</v>
       </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="1">
@@ -2189,7 +2198,7 @@
         <v>6847489.0</v>
       </c>
       <c r="AL17" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM17" s="1"/>
       <c r="AN17" s="2"/>
@@ -2239,10 +2248,10 @@
         <v>4093163.0</v>
       </c>
       <c r="S18" s="1">
-        <v>1610000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>1610000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="U18" s="6">
         <v>3270130.4</v>
@@ -2257,17 +2266,17 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>3561354.0</v>
+        <v>3800479.462</v>
       </c>
       <c r="AB18" s="1">
-        <v>2483163.0</v>
+        <v>2533163.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>531809.0</v>
+        <v>292683.538</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="1">
-        <v>407820.0</v>
+        <v>665865.462</v>
       </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="1">
@@ -2284,7 +2293,7 @@
         <v>7532239.0</v>
       </c>
       <c r="AL18" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
@@ -2334,10 +2343,10 @@
         <v>4513479.0</v>
       </c>
       <c r="S19" s="1">
-        <v>1620000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="T19" s="1">
-        <v>1620000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="U19" s="6">
         <v>3606383.2</v>
@@ -2352,17 +2361,17 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>3862047.0</v>
+        <v>4162937.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>2893479.0</v>
+        <v>2948479.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>651432.0</v>
+        <v>350542.0</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1">
-        <v>443460.0</v>
+        <v>765162.0</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="1">
@@ -2379,7 +2388,7 @@
         <v>8285464.0</v>
       </c>
       <c r="AL19" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="2"/>
@@ -2429,10 +2438,10 @@
         <v>4975827.0</v>
       </c>
       <c r="S20" s="1">
-        <v>1630000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>1630000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="U20" s="6">
         <v>3976261.6</v>
@@ -2447,17 +2456,17 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>4189086.0</v>
+        <v>4561692.194</v>
       </c>
       <c r="AB20" s="1">
-        <v>3345827.0</v>
+        <v>3405827.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>786741.0</v>
+        <v>414134.806</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>479320.0</v>
+        <v>874630.194</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
@@ -2474,7 +2483,7 @@
         <v>9114011.5</v>
       </c>
       <c r="AL20" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
@@ -2524,10 +2533,10 @@
         <v>5484410.0</v>
       </c>
       <c r="S21" s="1">
-        <v>1640000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>1640000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="U21" s="6">
         <v>4383128.0</v>
@@ -2542,17 +2551,17 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>4545085.0</v>
+        <v>5000376.214</v>
       </c>
       <c r="AB21" s="1">
-        <v>3844410.0</v>
+        <v>3909410.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>939325.0</v>
+        <v>484033.786</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>515400.0</v>
+        <v>995287.214</v>
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
@@ -2569,7 +2578,7 @@
         <v>10025411.0</v>
       </c>
       <c r="AL21" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
@@ -2619,10 +2628,10 @@
         <v>6043851.0</v>
       </c>
       <c r="S22" s="1">
-        <v>1650000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>1650000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="U22" s="6">
         <v>4830680.8</v>
@@ -2637,17 +2646,17 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>4932918.0</v>
+        <v>5482981.936</v>
       </c>
       <c r="AB22" s="1">
-        <v>4393851.0</v>
+        <v>4463851.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>1110933.0</v>
+        <v>560869.064</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>551700.0</v>
+        <v>1128251.936</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
@@ -2664,7 +2673,7 @@
         <v>11027951.0</v>
       </c>
       <c r="AL22" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
@@ -2714,10 +2723,10 @@
         <v>6659236.0</v>
       </c>
       <c r="S23" s="1">
-        <v>1660000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>1660000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="U23" s="6">
         <v>5322988.8</v>
@@ -2732,17 +2741,17 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>5355745.0</v>
+        <v>6013900.128</v>
       </c>
       <c r="AB23" s="1">
-        <v>4999236.0</v>
+        <v>5074236.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>1303491.0</v>
+        <v>645335.872</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>588220.0</v>
+        <v>1274755.128</v>
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
@@ -2759,7 +2768,7 @@
         <v>12130745.0</v>
       </c>
       <c r="AL23" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
@@ -2809,10 +2818,10 @@
         <v>7336160.0</v>
       </c>
       <c r="S24" s="1">
-        <v>1670000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>1670000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="U24" s="6">
         <v>5864528.0</v>
@@ -2827,17 +2836,17 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>5817045.0</v>
+        <v>6597963.648</v>
       </c>
       <c r="AB24" s="1">
-        <v>5666160.0</v>
+        <v>5746160.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>1519115.0</v>
+        <v>738196.352</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>624960.0</v>
+        <v>1436150.648</v>
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
@@ -2854,7 +2863,7 @@
         <v>13343819.5</v>
       </c>
       <c r="AL24" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
@@ -2904,10 +2913,10 @@
         <v>8080776.0</v>
       </c>
       <c r="S25" s="1">
-        <v>1680000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>1680000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="U25" s="6">
         <v>6460220.8</v>
@@ -2922,17 +2931,17 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>6320642.0</v>
+        <v>7240485.72</v>
       </c>
       <c r="AB25" s="1">
-        <v>6400776.0</v>
+        <v>6485776.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>1760134.0</v>
+        <v>840290.28</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>661920.0</v>
+        <v>1613927.72</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
@@ -2949,7 +2958,7 @@
         <v>14678202.0</v>
       </c>
       <c r="AL25" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
@@ -2999,10 +3008,10 @@
         <v>8899854.0</v>
       </c>
       <c r="S26" s="1">
-        <v>1690000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>1690000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="U26" s="6">
         <v>7115483.2</v>
@@ -3017,17 +3026,17 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>6870745.0</v>
+        <v>7947313.508</v>
       </c>
       <c r="AB26" s="1">
-        <v>7209854.0</v>
+        <v>7299854.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>2029109.0</v>
+        <v>952540.492</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
-        <v>699100.0</v>
+        <v>1809724.508</v>
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
@@ -3044,7 +3053,7 @@
         <v>16146020.0</v>
       </c>
       <c r="AL26" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
@@ -3094,10 +3103,10 @@
         <v>9800839.0</v>
       </c>
       <c r="S27" s="1">
-        <v>1700000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>1700000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="U27" s="6">
         <v>7836271.2</v>
@@ -3112,17 +3121,17 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>7471982.0</v>
+        <v>8724876.966</v>
       </c>
       <c r="AB27" s="1">
-        <v>8100839.0</v>
+        <v>8195839.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>2328857.0</v>
+        <v>1075962.034</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
-        <v>736500.0</v>
+        <v>2025342.966</v>
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1">
@@ -3139,7 +3148,7 @@
         <v>17760622.0</v>
       </c>
       <c r="AL27" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
@@ -3189,10 +3198,10 @@
         <v>10791923.0</v>
       </c>
       <c r="S28" s="1">
-        <v>1710000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>1710000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="U28" s="6">
         <v>8629138.4</v>
@@ -3207,17 +3216,17 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>8129443.0</v>
+        <v>9580248.272</v>
       </c>
       <c r="AB28" s="1">
-        <v>9081923.0</v>
+        <v>9181923.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>2662480.0</v>
+        <v>1211674.728</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
-        <v>774120.0</v>
+        <v>2262765.272</v>
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="1">
@@ -3234,7 +3243,7 @@
         <v>19536682.0</v>
       </c>
       <c r="AL28" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
@@ -3284,10 +3293,10 @@
         <v>11882115.0</v>
       </c>
       <c r="S29" s="1">
-        <v>1720000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>1720000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="U29" s="6">
         <v>9501292.0</v>
@@ -3302,17 +3311,17 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>8848731.0</v>
+        <v>10521210.802</v>
       </c>
       <c r="AB29" s="1">
-        <v>10162115.0</v>
+        <v>10267115.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>3033384.0</v>
+        <v>1360904.198</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
-        <v>811960.0</v>
+        <v>2524171.802</v>
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1">
@@ -3329,7 +3338,7 @@
         <v>21490348.0</v>
       </c>
       <c r="AL29" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="2"/>
@@ -3379,10 +3388,10 @@
         <v>13081327.0</v>
       </c>
       <c r="S30" s="1">
-        <v>1730000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>1730000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="U30" s="6">
         <v>10460661.6</v>
@@ -3397,17 +3406,17 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>9636005.0</v>
+        <v>11556321.996</v>
       </c>
       <c r="AB30" s="1">
-        <v>11351327.0</v>
+        <v>11461327.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>3445322.0</v>
+        <v>1525005.004</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
-        <v>850020.0</v>
+        <v>2811960.996</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="1">
@@ -3424,7 +3433,7 @@
         <v>23639385.0</v>
       </c>
       <c r="AL30" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="2"/>
@@ -3474,10 +3483,10 @@
         <v>14400460.0</v>
       </c>
       <c r="S31" s="1">
-        <v>1740000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>1740000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="U31" s="6">
         <v>11515968.0</v>
@@ -3492,17 +3501,17 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>10498042.0</v>
+        <v>12694997.116</v>
       </c>
       <c r="AB31" s="1">
-        <v>12660460.0</v>
+        <v>12775460.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>3902418.0</v>
+        <v>1705462.884</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
-        <v>888300.0</v>
+        <v>3128771.116</v>
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="1">
@@ -3519,7 +3528,7 @@
         <v>26003323.5</v>
       </c>
       <c r="AL31" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="2"/>
@@ -3569,10 +3578,10 @@
         <v>15851506.0</v>
       </c>
       <c r="S32" s="1">
-        <v>1750000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>1750000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="U32" s="6">
         <v>12676804.8</v>
@@ -3587,17 +3596,17 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>11442296.0</v>
+        <v>13947592.248</v>
       </c>
       <c r="AB32" s="1">
-        <v>14101506.0</v>
+        <v>14221506.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>4409210.0</v>
+        <v>1903913.752</v>
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
-        <v>926800.0</v>
+        <v>3477504.248</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="1">
@@ -3614,7 +3623,7 @@
         <v>28603657.5</v>
       </c>
       <c r="AL32" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="2"/>
@@ -3664,10 +3673,10 @@
         <v>17447657.0</v>
       </c>
       <c r="S33" s="1">
-        <v>1760000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>1760000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="U33" s="6">
         <v>13953725.6</v>
@@ -3682,17 +3691,17 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>12476968.0</v>
+        <v>15325500.702</v>
       </c>
       <c r="AB33" s="1">
-        <v>15687657.0</v>
+        <v>15812657.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>4970689.0</v>
+        <v>2122156.298</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
-        <v>965520.0</v>
+        <v>3861352.702</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="1">
@@ -3709,7 +3718,7 @@
         <v>31464026.0</v>
       </c>
       <c r="AL33" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="2"/>
@@ -3759,10 +3768,10 @@
         <v>19203423.0</v>
       </c>
       <c r="S34" s="1">
-        <v>1770000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>1770000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="U34" s="6">
         <v>15358338.4</v>
@@ -3777,17 +3786,17 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>13611076.0</v>
+        <v>16841252.008</v>
       </c>
       <c r="AB34" s="1">
-        <v>17433423.0</v>
+        <v>17563423.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>5592347.0</v>
+        <v>2362170.992</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
-        <v>1004460.0</v>
+        <v>4283828.008</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
@@ -3804,7 +3813,7 @@
         <v>34610427.5</v>
       </c>
       <c r="AL34" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="2"/>
@@ -3854,10 +3863,10 @@
         <v>21134765.0</v>
       </c>
       <c r="S35" s="1">
-        <v>1780000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>1780000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="U35" s="6">
         <v>16903412.0</v>
@@ -3872,17 +3881,17 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>14854542.0</v>
+        <v>18508630.838</v>
       </c>
       <c r="AB35" s="1">
-        <v>19354765.0</v>
+        <v>19489765.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>6280223.0</v>
+        <v>2626134.162</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
-        <v>1043620.0</v>
+        <v>4748792.838</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="1">
@@ -3899,7 +3908,7 @@
         <v>38071473.0</v>
       </c>
       <c r="AL35" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="2"/>
@@ -3949,10 +3958,10 @@
         <v>23259242.0</v>
       </c>
       <c r="S36" s="1">
-        <v>1790000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>1790000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="U36" s="6">
         <v>18602993.6</v>
@@ -3967,17 +3976,17 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>16218281.0</v>
+        <v>20342801.162</v>
       </c>
       <c r="AB36" s="1">
-        <v>21469242.0</v>
+        <v>21609242.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>7040961.0</v>
+        <v>2916440.838</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
-        <v>1083000.0</v>
+        <v>5260496.162</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
@@ -3994,7 +4003,7 @@
         <v>41878622.5</v>
       </c>
       <c r="AL36" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="2"/>
@@ -4044,10 +4053,10 @@
         <v>25596166.0</v>
       </c>
       <c r="S37" s="1">
-        <v>1800000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>1800000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="U37" s="6">
         <v>20472532.8</v>
@@ -4062,17 +4071,17 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>17714297.0</v>
+        <v>22360440.814</v>
       </c>
       <c r="AB37" s="1">
-        <v>23796166.0</v>
+        <v>23941166.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>7881869.0</v>
+        <v>3235725.186</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>1122600.0</v>
+        <v>5823611.814</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
@@ -4089,7 +4098,7 @@
         <v>46066487.5</v>
       </c>
       <c r="AL37" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="2"/>
@@ -4139,10 +4148,10 @@
         <v>28166783.0</v>
       </c>
       <c r="S38" s="1">
-        <v>1810000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>1810000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="U38" s="6">
         <v>22529026.4</v>
@@ -4157,17 +4166,17 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>19355796.0</v>
+        <v>24579897.04</v>
       </c>
       <c r="AB38" s="1">
-        <v>26356783.0</v>
+        <v>26506783.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>8810987.0</v>
+        <v>3586885.96</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>1162420.0</v>
+        <v>6443281.04</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="1">
@@ -4184,7 +4193,7 @@
         <v>50673139.0</v>
       </c>
       <c r="AL38" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="2"/>
@@ -4234,10 +4243,10 @@
         <v>30994461.0</v>
       </c>
       <c r="S39" s="1">
-        <v>1820000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>1820000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="U39" s="6">
         <v>24791168.8</v>
@@ -4252,17 +4261,17 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>21157305.0</v>
+        <v>27021352.182</v>
       </c>
       <c r="AB39" s="1">
-        <v>29174461.0</v>
+        <v>29329461.0</v>
       </c>
       <c r="AC39" s="1">
-        <v>9837156.0</v>
+        <v>3973108.818</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
-        <v>1202460.0</v>
+        <v>7125159.182</v>
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="1">
@@ -4279,7 +4288,7 @@
         <v>55740454.0</v>
       </c>
       <c r="AL39" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="2"/>
@@ -4329,10 +4338,10 @@
         <v>34104907.0</v>
       </c>
       <c r="S40" s="11">
-        <v>1830000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>1830000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="U40" s="11">
         <v>27279525.6</v>
@@ -4347,17 +4356,17 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>23134802.0</v>
+        <v>29707005.136</v>
       </c>
       <c r="AB40" s="11">
-        <v>32274907.0</v>
+        <v>32434907.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>10970105.0</v>
+        <v>4397901.864</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>1242720.0</v>
+        <v>7875467.136</v>
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
@@ -4374,7 +4383,7 @@
         <v>61314500.5</v>
       </c>
       <c r="AL40" s="11">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM40" s="11"/>
       <c r="AN40" s="12"/>
@@ -4424,10 +4433,10 @@
         <v>37526398.0</v>
       </c>
       <c r="S41" s="1">
-        <v>1840000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>1840000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="U41" s="6">
         <v>30016718.4</v>
@@ -4442,17 +4451,17 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>25305865.0</v>
+        <v>32661276.892</v>
       </c>
       <c r="AB41" s="1">
-        <v>35686398.0</v>
+        <v>35851398.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>12220533.0</v>
+        <v>4865121.108</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>1283200.0</v>
+        <v>8701047.892</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="1">
@@ -4469,7 +4478,7 @@
         <v>67445950.0</v>
       </c>
       <c r="AL41" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="2"/>
@@ -4519,10 +4528,10 @@
         <v>41290038.0</v>
       </c>
       <c r="S42" s="1">
-        <v>1850000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>1850000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="U42" s="6">
         <v>33027630.4</v>
@@ -4537,17 +4546,17 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>27689828.0</v>
+        <v>35911028.728</v>
       </c>
       <c r="AB42" s="1">
-        <v>39440038.0</v>
+        <v>39610038.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>13600210.0</v>
+        <v>5379009.272</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>1323900.0</v>
+        <v>9609428.728</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="1">
@@ -4564,7 +4573,7 @@
         <v>74190545.0</v>
       </c>
       <c r="AL42" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="2"/>
@@ -4614,10 +4623,10 @@
         <v>45430042.0</v>
       </c>
       <c r="S43" s="1">
-        <v>1860000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>1860000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="U43" s="6">
         <v>36339633.6</v>
@@ -4632,17 +4641,17 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>30307958.0</v>
+        <v>39485807.652</v>
       </c>
       <c r="AB43" s="1">
-        <v>43570042.0</v>
+        <v>43745042.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>15122084.0</v>
+        <v>5944234.348</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>1364820.0</v>
+        <v>10608889.652</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="1">
@@ -4659,7 +4668,7 @@
         <v>81609599.5</v>
       </c>
       <c r="AL43" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="2"/>
@@ -4709,10 +4718,10 @@
         <v>49984046.0</v>
       </c>
       <c r="S44" s="1">
-        <v>1870000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>1870000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="U44" s="6">
         <v>39982836.8</v>
@@ -4727,17 +4736,17 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>33183651.0</v>
+        <v>43418117.664</v>
       </c>
       <c r="AB44" s="1">
-        <v>48114046.0</v>
+        <v>48294046.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>16800395.0</v>
+        <v>6565928.336</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>1405960.0</v>
+        <v>11708538.664</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="1">
@@ -4754,7 +4763,7 @@
         <v>89770560.0</v>
       </c>
       <c r="AL44" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM44" s="1"/>
       <c r="AN44" s="2"/>
@@ -4804,10 +4813,10 @@
         <v>54993451.0</v>
       </c>
       <c r="S45" s="1">
-        <v>1880000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>1880000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="U45" s="6">
         <v>43990360.8</v>
@@ -4822,17 +4831,17 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>36342641.0</v>
+        <v>47743711.586</v>
       </c>
       <c r="AB45" s="1">
-        <v>53113451.0</v>
+        <v>53298451.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>18650810.0</v>
+        <v>7249739.414</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>1447320.0</v>
+        <v>12918394.586</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="1">
@@ -4849,7 +4858,7 @@
         <v>98747616.0</v>
       </c>
       <c r="AL45" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM45" s="1"/>
       <c r="AN45" s="2"/>
@@ -4899,10 +4908,10 @@
         <v>60503796.0</v>
       </c>
       <c r="S46" s="1">
-        <v>1890000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>1890000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="U46" s="6">
         <v>48398636.8</v>
@@ -4917,17 +4926,17 @@
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>39813236.0</v>
+        <v>52501918.098</v>
       </c>
       <c r="AB46" s="1">
-        <v>58613796.0</v>
+        <v>58803796.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>20690560.0</v>
+        <v>8001877.902</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>1488900.0</v>
+        <v>14249478.098</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="1">
@@ -4944,7 +4953,7 @@
         <v>108622376.5</v>
       </c>
       <c r="AL46" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM46" s="1"/>
       <c r="AN46" s="2"/>
@@ -4994,10 +5003,10 @@
         <v>66565176.0</v>
       </c>
       <c r="S47" s="1">
-        <v>1900000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>1900000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="U47" s="6">
         <v>53247740.8</v>
@@ -5012,17 +5021,17 @@
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>43626573.0</v>
+        <v>57735996.97</v>
       </c>
       <c r="AB47" s="1">
-        <v>64665176.0</v>
+        <v>64860176.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>22938603.0</v>
+        <v>8829179.03</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>1530700.0</v>
+        <v>15713911.97</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="1">
@@ -5039,7 +5048,7 @@
         <v>119484612.5</v>
       </c>
       <c r="AL47" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM47" s="1"/>
       <c r="AN47" s="2"/>
@@ -5089,10 +5098,10 @@
         <v>73232694.0</v>
       </c>
       <c r="S48" s="1">
-        <v>1910000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>1910000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="U48" s="6">
         <v>58581755.2</v>
@@ -5107,17 +5116,17 @@
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>47816907.0</v>
+        <v>63493538.238</v>
       </c>
       <c r="AB48" s="1">
-        <v>71322694.0</v>
+        <v>71522694.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>25415787.0</v>
+        <v>9739155.762</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>1572720.0</v>
+        <v>17325031.238</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="1">
@@ -5134,7 +5143,7 @@
         <v>131433076.5</v>
       </c>
       <c r="AL48" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM48" s="1"/>
       <c r="AN48" s="2"/>
@@ -5184,10 +5193,10 @@
         <v>80566963.0</v>
       </c>
       <c r="S49" s="1">
-        <v>1920000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>1920000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="U49" s="6">
         <v>64449170.4</v>
@@ -5202,17 +5211,17 @@
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>52421912.0</v>
+        <v>69826884.424</v>
       </c>
       <c r="AB49" s="1">
-        <v>78646963.0</v>
+        <v>78851963.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>28145051.0</v>
+        <v>10740078.576</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>1614960.0</v>
+        <v>19097504.424</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="1">
@@ -5229,7 +5238,7 @@
         <v>144576382.5</v>
       </c>
       <c r="AL49" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM49" s="1"/>
       <c r="AN49" s="2"/>
@@ -5279,10 +5288,10 @@
         <v>88634659.0</v>
       </c>
       <c r="S50" s="1">
-        <v>1930000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>1930000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="U50" s="6">
         <v>70903327.2</v>
@@ -5297,17 +5306,17 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>57483036.0</v>
+        <v>76793618.922</v>
       </c>
       <c r="AB50" s="1">
-        <v>86704659.0</v>
+        <v>86914659.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>31151623.0</v>
+        <v>11841040.078</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>1657420.0</v>
+        <v>21047466.922</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="1">
@@ -5324,7 +5333,7 @@
         <v>159034023.5</v>
       </c>
       <c r="AL50" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM50" s="1"/>
       <c r="AN50" s="2"/>
@@ -5374,10 +5383,10 @@
         <v>97509125.0</v>
       </c>
       <c r="S51" s="1">
-        <v>1940000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>1940000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="U51" s="6">
         <v>78002900.0</v>
@@ -5392,17 +5401,17 @@
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>63045868.0</v>
+        <v>84457079.672</v>
       </c>
       <c r="AB51" s="1">
-        <v>95569125.0</v>
+        <v>95784125.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>34463257.0</v>
+        <v>13052045.328</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>1700100.0</v>
+        <v>23192667.672</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="1">
@@ -5419,7 +5428,7 @@
         <v>174937427.5</v>
       </c>
       <c r="AL51" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM51" s="1"/>
       <c r="AN51" s="2"/>
@@ -5469,10 +5478,10 @@
         <v>107271038.0</v>
       </c>
       <c r="S52" s="1">
-        <v>1950000.0</v>
+        <v>1730000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>1950000.0</v>
+        <v>1730000.0</v>
       </c>
       <c r="U52" s="6">
         <v>85812430.4</v>
@@ -5487,17 +5496,17 @@
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>69160557.0</v>
+        <v>92886939.508</v>
       </c>
       <c r="AB52" s="1">
-        <v>105321038.0</v>
+        <v>105541038.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>38110481.0</v>
+        <v>14384098.492</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>1743000.0</v>
+        <v>25552630.508</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="1">
@@ -5514,7 +5523,7 @@
         <v>192431173.0</v>
       </c>
       <c r="AL52" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM52" s="1"/>
       <c r="AN52" s="2"/>
@@ -5528,7 +5537,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>4114764.0</v>
+        <v>4106614.144</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -5557,11 +5566,11 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>106198327.8</v>
+        <v>112098234.8</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>106198327.8</v>
+        <v>112098234.8</v>
       </c>
       <c r="S53" s="13">
         <v>0</v>
@@ -5570,11 +5579,11 @@
         <v>0</v>
       </c>
       <c r="U53" s="13">
-        <v>89678588.0</v>
+        <v>94398513.6</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>879785.88</v>
+        <v>926985.136</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
@@ -5582,34 +5591,34 @@
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>64241528.512</v>
+        <v>96324118.4736</v>
       </c>
       <c r="AB53" s="13">
-        <v>114975431.8</v>
+        <v>115731786.8</v>
       </c>
       <c r="AC53" s="13">
-        <v>41956799.288</v>
+        <v>15774116.3264</v>
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>1549903.712</v>
+        <v>28018791.6736</v>
       </c>
       <c r="AF53" s="14"/>
       <c r="AG53" s="13">
-        <v>-16755377.48</v>
+        <v>-16802576.736</v>
       </c>
       <c r="AH53" s="13">
-        <v>26978158.586</v>
+        <v>26930959.33</v>
       </c>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
-        <v>4114764.0</v>
+        <v>4106614.144</v>
       </c>
       <c r="AK53" s="13">
-        <v>20573820.0</v>
+        <v>20533070.72</v>
       </c>
       <c r="AL53" s="13">
-        <v>-1950000.0</v>
+        <v>-1730000.0</v>
       </c>
       <c r="AM53" s="13"/>
       <c r="AN53" s="14"/>
@@ -5623,7 +5632,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>3474362.0</v>
+        <v>3797179.954</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -5652,11 +5661,11 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>104521511.4</v>
+        <v>116818161.3</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>104521511.4</v>
+        <v>116818161.3</v>
       </c>
       <c r="S54" s="1">
         <v>0</v>
@@ -5665,11 +5674,11 @@
         <v>0</v>
       </c>
       <c r="U54" s="6">
-        <v>88535868.8</v>
+        <v>98646447.2</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>868358.688</v>
+        <v>969464.472</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
@@ -5677,31 +5686,31 @@
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>62044495.128</v>
+        <v>100970435.5222</v>
       </c>
       <c r="AB54" s="1">
-        <v>115700283.4</v>
+        <v>122718068.3</v>
       </c>
       <c r="AC54" s="1">
-        <v>42477016.272</v>
+        <v>15847725.7778</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>1303970.728</v>
+        <v>30588791.2222</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="1">
-        <v>-18331509.888</v>
+        <v>-18432615.672</v>
       </c>
       <c r="AH54" s="1">
-        <v>8646648.698</v>
+        <v>8498343.658</v>
       </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
-        <v>3474362.0</v>
+        <v>3797179.954</v>
       </c>
       <c r="AK54" s="1">
-        <v>17371810.0</v>
+        <v>18985899.77</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -5718,7 +5727,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>3609476.0</v>
+        <v>4176898.756</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -5747,11 +5756,11 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>102198809.9</v>
+        <v>121361089.2</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>102198809.9</v>
+        <v>121361089.2</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
@@ -5760,11 +5769,11 @@
         <v>0</v>
       </c>
       <c r="U55" s="6">
-        <v>86868988.8</v>
+        <v>102799981.6</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>851689.888</v>
+        <v>1010999.816</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
@@ -5772,31 +5781,31 @@
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>60180704.584</v>
+        <v>106241010.3846</v>
       </c>
       <c r="AB55" s="1">
-        <v>113812311.9</v>
+        <v>127850987.2</v>
       </c>
       <c r="AC55" s="1">
-        <v>42018105.316</v>
+        <v>15120078.8154</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>1048473.684</v>
+        <v>33258735.1846</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="1">
-        <v>-20061155.988</v>
+        <v>-20220465.916</v>
       </c>
       <c r="AH55" s="1">
-        <v>-11414507.29</v>
+        <v>-11722122.258</v>
       </c>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
-        <v>3609476.0</v>
+        <v>4176898.756</v>
       </c>
       <c r="AK55" s="1">
-        <v>18047380.0</v>
+        <v>20884493.78</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -5813,7 +5822,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>3736870.0</v>
+        <v>4594588.536</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -5842,11 +5851,11 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>99192962.5</v>
+        <v>125644421.2</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>99192962.5</v>
+        <v>125644421.2</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
@@ -5855,11 +5864,11 @@
         <v>0</v>
       </c>
       <c r="U56" s="6">
-        <v>84644661.6</v>
+        <v>106797758.4</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>829446.616</v>
+        <v>1050977.584</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
@@ -5867,31 +5876,31 @@
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>57892653.604</v>
+        <v>111422129.651</v>
       </c>
       <c r="AB56" s="1">
-        <v>111216352.5</v>
+        <v>132783309.2</v>
       </c>
       <c r="AC56" s="1">
-        <v>41300308.896</v>
+        <v>14222291.549</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>783959.104</v>
+        <v>36022912.451</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="1">
-        <v>-21959859.216</v>
+        <v>-22181390.184</v>
       </c>
       <c r="AH56" s="1">
-        <v>-33374366.506</v>
+        <v>-33903512.442</v>
       </c>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
-        <v>3736870.0</v>
+        <v>4594588.536</v>
       </c>
       <c r="AK56" s="1">
-        <v>18684350.0</v>
+        <v>22972942.68</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -5908,7 +5917,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>3853646.0</v>
+        <v>5054047.072</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -5937,11 +5946,11 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>95473227.0</v>
+        <v>129570809.4</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>95473227.0</v>
+        <v>129570809.4</v>
       </c>
       <c r="S57" s="13">
         <v>0</v>
@@ -5950,11 +5959,11 @@
         <v>0</v>
       </c>
       <c r="U57" s="13">
-        <v>81834194.4</v>
+        <v>110567090.4</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>801341.944</v>
+        <v>1088670.904</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
@@ -5962,31 +5971,31 @@
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>55165509.464</v>
+        <v>116443194.6578</v>
       </c>
       <c r="AB57" s="13">
-        <v>107872347.0</v>
+        <v>137423585.4</v>
       </c>
       <c r="AC57" s="13">
-        <v>40307717.536</v>
+        <v>13127614.7422</v>
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>511178.464</v>
+        <v>38873470.2578</v>
       </c>
       <c r="AF57" s="14"/>
       <c r="AG57" s="13">
-        <v>-24044796.244</v>
+        <v>-24332125.204</v>
       </c>
       <c r="AH57" s="13">
-        <v>-57419162.75</v>
+        <v>-58235637.646</v>
       </c>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
-        <v>3853646.0</v>
+        <v>5054047.072</v>
       </c>
       <c r="AK57" s="13">
-        <v>19268230.0</v>
+        <v>25270235.36</v>
       </c>
       <c r="AL57" s="13">
         <v>0</v>
@@ -6003,7 +6012,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>3956411.0</v>
+        <v>5559451.188</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -6032,11 +6041,11 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>91017809.8</v>
+        <v>133026030.6</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>91017809.8</v>
+        <v>133026030.6</v>
       </c>
       <c r="S58" s="1">
         <v>0</v>
@@ -6045,11 +6054,11 @@
         <v>0</v>
       </c>
       <c r="U58" s="6">
-        <v>78415344.0</v>
+        <v>114022312.0</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>767153.44</v>
+        <v>1123223.12</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
@@ -6057,31 +6066,31 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>51990851.456</v>
+        <v>121220383.531</v>
       </c>
       <c r="AB58" s="1">
-        <v>103747573.8</v>
+        <v>141664084.6</v>
       </c>
       <c r="AC58" s="1">
-        <v>39026958.344</v>
+        <v>11805647.069</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>231123.656</v>
+        <v>41800042.931</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="1">
-        <v>-26334952.84</v>
+        <v>-26691022.52</v>
       </c>
       <c r="AH58" s="1">
-        <v>-83754115.59</v>
+        <v>-84926660.166</v>
       </c>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
-        <v>3956411.0</v>
+        <v>5559451.188</v>
       </c>
       <c r="AK58" s="1">
-        <v>19782055.0</v>
+        <v>27797255.94</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -6098,7 +6107,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>4041191.0</v>
+        <v>6115396.898</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -6127,11 +6136,11 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>85816792.8</v>
+        <v>135876589.1</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>85816792.8</v>
+        <v>135876589.1</v>
       </c>
       <c r="S59" s="1">
         <v>0</v>
@@ -6140,11 +6149,11 @@
         <v>0</v>
       </c>
       <c r="U59" s="6">
-        <v>74374553.6</v>
+        <v>117062907.2</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>726745.536</v>
+        <v>1153629.072</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
@@ -6152,31 +6161,31 @@
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>48423555.8</v>
+        <v>125654711.9912</v>
       </c>
       <c r="AB59" s="1">
-        <v>98819336.8</v>
+        <v>145378448.1</v>
       </c>
       <c r="AC59" s="1">
-        <v>37393237.0</v>
+        <v>10221877.1088</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0</v>
+        <v>44789327.8912</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="1">
-        <v>-28851324.436</v>
+        <v>-29278207.972</v>
       </c>
       <c r="AH59" s="1">
-        <v>-112605440.026</v>
+        <v>-114204868.138</v>
       </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
-        <v>4041191.0</v>
+        <v>6115396.898</v>
       </c>
       <c r="AK59" s="1">
-        <v>20205955.0</v>
+        <v>30576984.49</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -6193,7 +6202,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>4103363.0</v>
+        <v>6726935.99</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -6222,11 +6231,11 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>79875629.8</v>
+        <v>137966998.5</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>79875629.8</v>
+        <v>137966998.5</v>
       </c>
       <c r="S60" s="1">
         <v>0</v>
@@ -6235,11 +6244,11 @@
         <v>0</v>
       </c>
       <c r="U60" s="6">
-        <v>69709640.8</v>
+        <v>119571398.4</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>680096.408</v>
+        <v>1178713.984</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
@@ -6247,31 +6256,31 @@
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>44654833.8</v>
+        <v>129629834.3582</v>
       </c>
       <c r="AB60" s="1">
-        <v>93078213.8</v>
+        <v>148419043.5</v>
       </c>
       <c r="AC60" s="1">
-        <v>35220796.0</v>
+        <v>8337164.1418</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>0</v>
+        <v>47824601.8582</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="1">
-        <v>-31617133.308</v>
+        <v>-32115750.884</v>
       </c>
       <c r="AH60" s="1">
-        <v>-144222573.334</v>
+        <v>-146320619.022</v>
       </c>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="1">
-        <v>4103363.0</v>
+        <v>6726935.99</v>
       </c>
       <c r="AK60" s="1">
-        <v>20516815.0</v>
+        <v>33634679.95</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -6288,7 +6297,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>4137558.0</v>
+        <v>7399630.5</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -6317,11 +6326,11 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>73219326.7</v>
+        <v>139116724.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>73219326.7</v>
+        <v>139116724.0</v>
       </c>
       <c r="S61" s="1">
         <v>0</v>
@@ -6330,11 +6339,11 @@
         <v>0</v>
       </c>
       <c r="U61" s="6">
-        <v>64433008.0</v>
+        <v>121410959.2</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>627330.08</v>
+        <v>1197109.592</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
@@ -6342,31 +6351,31 @@
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>40475643.7</v>
+        <v>133009565.7862</v>
       </c>
       <c r="AB61" s="1">
-        <v>86531932.7</v>
+        <v>150613974.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>32743683.0</v>
+        <v>6107158.2138</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>0</v>
+        <v>50885169.7862</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="1">
-        <v>-34658070.78</v>
+        <v>-35227850.292</v>
       </c>
       <c r="AH61" s="1">
-        <v>-178880644.114</v>
+        <v>-181548469.314</v>
       </c>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="1">
-        <v>4137558.0</v>
+        <v>7399630.5</v>
       </c>
       <c r="AK61" s="1">
-        <v>20687790.0</v>
+        <v>36998152.5</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -6383,7 +6392,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>4137557.0</v>
+        <v>8139593.45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -6412,11 +6421,11 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>65897395.8</v>
+        <v>139116723.5</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>65897395.8</v>
+        <v>139116723.5</v>
       </c>
       <c r="S62" s="1">
         <v>0</v>
@@ -6425,11 +6434,11 @@
         <v>0</v>
       </c>
       <c r="U62" s="6">
-        <v>58575462.4</v>
+        <v>122422716.8</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>568754.624</v>
+        <v>1207227.168</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
@@ -6437,31 +6446,31 @@
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>35924331.8</v>
+        <v>135635077.2032</v>
       </c>
       <c r="AB62" s="1">
-        <v>79209999.8</v>
+        <v>151763698.5</v>
       </c>
       <c r="AC62" s="1">
-        <v>29973064.0</v>
+        <v>3481646.2968</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>0</v>
+        <v>53945737.7032</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="1">
-        <v>-38002569.724</v>
+        <v>-38641042.268</v>
       </c>
       <c r="AH62" s="1">
-        <v>-216883213.838</v>
+        <v>-220189511.582</v>
       </c>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="1">
-        <v>4137557.0</v>
+        <v>8139593.45</v>
       </c>
       <c r="AK62" s="1">
-        <v>20687785.0</v>
+        <v>40697967.25</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -6478,7 +6487,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>4096182.0</v>
+        <v>8953551.784</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -6507,11 +6516,11 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>57989708.0</v>
+        <v>137725556.8</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>57989708.0</v>
+        <v>137725556.8</v>
       </c>
       <c r="S63" s="1">
         <v>0</v>
@@ -6520,11 +6529,11 @@
         <v>0</v>
       </c>
       <c r="U63" s="6">
-        <v>52190737.6</v>
+        <v>122422716.8</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>504907.376</v>
+        <v>1207227.168</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
@@ -6532,31 +6541,31 @@
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>31059287.0</v>
+        <v>137321729.7528</v>
       </c>
       <c r="AB63" s="1">
-        <v>71169188.0</v>
+        <v>151637228.8</v>
       </c>
       <c r="AC63" s="1">
-        <v>26930421.0</v>
+        <v>403827.04719999</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>0</v>
+        <v>56975699.9528</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="1">
-        <v>-41682103.876</v>
+        <v>-42384423.668</v>
       </c>
       <c r="AH63" s="1">
-        <v>-258565317.714</v>
+        <v>-262573935.25</v>
       </c>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="1">
-        <v>4096182.0</v>
+        <v>8953551.784</v>
       </c>
       <c r="AK63" s="1">
-        <v>20480910.0</v>
+        <v>44767758.92</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -6573,7 +6582,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>4005156.0</v>
+        <v>9848907.48</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -6602,11 +6611,11 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>49613416.9</v>
+        <v>134664989.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>49613416.9</v>
+        <v>134664989.0</v>
       </c>
       <c r="S64" s="1">
         <v>0</v>
@@ -6615,11 +6624,11 @@
         <v>0</v>
       </c>
       <c r="U64" s="6">
-        <v>45360838.4</v>
+        <v>121198490.4</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>436608.384</v>
+        <v>1194984.904</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
@@ -6627,31 +6636,31 @@
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>25963409.9</v>
+        <v>134664989.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>62500018.9</v>
+        <v>149967829.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>23650007.0</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>0</v>
+        <v>59938329.7108</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="1">
-        <v>-45731525.084</v>
+        <v>-46489901.604</v>
       </c>
       <c r="AH64" s="1">
-        <v>-304296842.798</v>
+        <v>-309063836.854</v>
       </c>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="1">
-        <v>4005156.0</v>
+        <v>9848907.48</v>
       </c>
       <c r="AK64" s="1">
-        <v>20025780.0</v>
+        <v>49244537.4</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -6668,7 +6677,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>3854962.0</v>
+        <v>10833798.728</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -6697,11 +6706,11 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>40931069.3</v>
+        <v>129615051.6</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>40931069.3</v>
+        <v>129615051.6</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -6710,11 +6719,11 @@
         <v>0</v>
       </c>
       <c r="U65" s="6">
-        <v>38202331.2</v>
+        <v>118505190.4</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>365023.312</v>
+        <v>1168051.904</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
@@ -6722,31 +6731,31 @@
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>20749323.3</v>
+        <v>129615051.6</v>
       </c>
       <c r="AB65" s="1">
-        <v>53334423.3</v>
+        <v>146448175.6</v>
       </c>
       <c r="AC65" s="1">
-        <v>20181746.0</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>0</v>
+        <v>62789860.846</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="1">
-        <v>-50189432.012</v>
+        <v>-50992460.604</v>
       </c>
       <c r="AH65" s="1">
-        <v>-354486274.81</v>
+        <v>-360056297.458</v>
       </c>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="1">
-        <v>3854962.0</v>
+        <v>10833798.728</v>
       </c>
       <c r="AK65" s="1">
-        <v>19274810.0</v>
+        <v>54168993.64</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -6763,7 +6772,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>3634679.0</v>
+        <v>11917178.592</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -6792,11 +6801,11 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>32160124.4</v>
+        <v>122208477.4</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>32160124.4</v>
+        <v>122208477.4</v>
       </c>
       <c r="S66" s="1">
         <v>0</v>
@@ -6805,11 +6814,11 @@
         <v>0</v>
       </c>
       <c r="U66" s="6">
-        <v>30873720.0</v>
+        <v>114061245.6</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>291737.2</v>
+        <v>1123612.456</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
@@ -6817,31 +6826,31 @@
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>15565499.4</v>
+        <v>122208477.4</v>
       </c>
       <c r="AB66" s="1">
-        <v>43854716.4</v>
+        <v>140724913.4</v>
       </c>
       <c r="AC66" s="1">
-        <v>16594625.0</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>0</v>
+        <v>65478447.3488</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="1">
-        <v>-55098587.1</v>
+        <v>-55930462.356</v>
       </c>
       <c r="AH66" s="1">
-        <v>-409584861.91</v>
+        <v>-415986759.814</v>
       </c>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="1">
-        <v>3634679.0</v>
+        <v>11917178.592</v>
       </c>
       <c r="AK66" s="1">
-        <v>18173395.0</v>
+        <v>59585892.96</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -6858,7 +6867,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>3331789.0</v>
+        <v>13108896.76</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -6887,11 +6896,11 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>23584089.9</v>
+        <v>112024437.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>23584089.9</v>
+        <v>112024437.0</v>
       </c>
       <c r="S67" s="1">
         <v>0</v>
@@ -6900,11 +6909,11 @@
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <v>23584090.4</v>
+        <v>107543460.0</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>218840.904</v>
+        <v>1058434.6</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
@@ -6912,31 +6921,31 @@
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>10603405.9</v>
+        <v>112024437.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>34304131.9</v>
+        <v>132392517.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>12980684.0</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>0</v>
+        <v>67942984.9628</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="1">
-        <v>-60506375.904</v>
+        <v>-61345969.6</v>
       </c>
       <c r="AH67" s="1">
-        <v>-470091237.814</v>
+        <v>-477332729.414</v>
       </c>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="1">
-        <v>3331789.0</v>
+        <v>13108896.76</v>
       </c>
       <c r="AK67" s="1">
-        <v>16658945.0</v>
+        <v>65544483.8</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -6953,7 +6962,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>2931974.0</v>
+        <v>14419785.514</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -6982,11 +6991,11 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>15565499.2</v>
+        <v>98581505.3</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>15565499.2</v>
+        <v>98581505.3</v>
       </c>
       <c r="S68" s="1">
         <v>0</v>
@@ -6995,11 +7004,11 @@
         <v>0</v>
       </c>
       <c r="U68" s="6">
-        <v>16603199.2</v>
+        <v>98581504.8</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>149031.992</v>
+        <v>968815.048</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
@@ -7007,31 +7016,31 @@
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>6105826.2</v>
+        <v>98581505.3</v>
       </c>
       <c r="AB68" s="1">
-        <v>24999135.2</v>
+        <v>120986392.3</v>
       </c>
       <c r="AC68" s="1">
-        <v>9459673.0</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>0</v>
+        <v>70111778.0794</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="1">
-        <v>-66465320.492</v>
+        <v>-67285103.548</v>
       </c>
       <c r="AH68" s="1">
-        <v>-536556558.306</v>
+        <v>-544617832.962</v>
       </c>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="1">
-        <v>2931974.0</v>
+        <v>14419785.514</v>
       </c>
       <c r="AK68" s="1">
-        <v>14659870.0</v>
+        <v>72098927.57</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -7048,7 +7057,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>2418879.0</v>
+        <v>15861764.272</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -7077,11 +7086,11 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>8561023.5</v>
+        <v>81329742.4</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>8561023.5</v>
+        <v>81329742.4</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -7090,11 +7099,11 @@
         <v>0</v>
       </c>
       <c r="U69" s="6">
-        <v>10273228.8</v>
+        <v>86751724.8</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>85732.288</v>
+        <v>850517.248</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
@@ -7102,31 +7111,31 @@
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>2376539.5</v>
+        <v>81329742.4</v>
       </c>
       <c r="AB69" s="1">
-        <v>16343773.5</v>
+        <v>105975118.4</v>
       </c>
       <c r="AC69" s="1">
-        <v>6184484.0</v>
+        <v>0</v>
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>0</v>
+        <v>71901032.4122</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="1">
-        <v>-73033650.188</v>
+        <v>-73798435.148</v>
       </c>
       <c r="AH69" s="1">
-        <v>-609590208.494</v>
+        <v>-618416268.11</v>
       </c>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="1">
-        <v>2418879.0</v>
+        <v>15861764.272</v>
       </c>
       <c r="AK69" s="1">
-        <v>12094395.0</v>
+        <v>79308821.36</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -7143,7 +7152,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>1773844.0</v>
+        <v>17447941.108</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -7172,11 +7181,11 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>3139041.5</v>
+        <v>59641810.6</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>3139041.5</v>
+        <v>59641810.6</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
@@ -7185,11 +7194,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="6">
-        <v>5022467.2</v>
+        <v>71570172.8</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>33224.672</v>
+        <v>698701.728</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
@@ -7197,31 +7206,31 @@
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>-208433.5</v>
+        <v>59641810.6</v>
       </c>
       <c r="AB70" s="1">
-        <v>8846391.5</v>
+        <v>86751724.6</v>
       </c>
       <c r="AC70" s="1">
-        <v>3347475.0</v>
+        <v>0</v>
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>0</v>
+        <v>73213152.2454</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="1">
-        <v>-80275934.472</v>
+        <v>-80941411.528</v>
       </c>
       <c r="AH70" s="1">
-        <v>-689866142.966</v>
+        <v>-699357679.638</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="1">
-        <v>1773844.0</v>
+        <v>17447941.108</v>
       </c>
       <c r="AK70" s="1">
-        <v>8869220.0</v>
+        <v>87239705.54</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -7238,7 +7247,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>975614.0</v>
+        <v>19192734.932</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -7267,11 +7276,11 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>0</v>
+        <v>32802995.4</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0</v>
+        <v>32802995.4</v>
       </c>
       <c r="S71" s="1">
         <v>0</v>
@@ -7280,11 +7289,11 @@
         <v>0</v>
       </c>
       <c r="U71" s="6">
-        <v>0</v>
+        <v>52484793.6</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>0.0</v>
+        <v>507847.936</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
@@ -7292,31 +7301,31 @@
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>32802995.4</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>62623901.4</v>
       </c>
       <c r="AC71" s="1">
         <v>0</v>
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>0</v>
+        <v>73934818.1442</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="1">
-        <v>-88266981.0</v>
+        <v>-88774828.936</v>
       </c>
       <c r="AH71" s="1">
-        <v>-778133123.966</v>
+        <v>-788132508.574</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="1">
-        <v>975614.0</v>
+        <v>19192734.932</v>
       </c>
       <c r="AK71" s="1">
-        <v>4878070.0</v>
+        <v>95963674.66</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -7333,7 +7342,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>21112007.89</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -7362,11 +7371,11 @@
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S72" s="5">
         <v>0</v>
@@ -7375,11 +7384,11 @@
         <v>0</v>
       </c>
       <c r="U72" s="5">
-        <v>0</v>
+        <v>28866636.0</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>271666.36</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
@@ -7387,31 +7396,31 @@
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>32802995.5</v>
       </c>
       <c r="AC72" s="5">
         <v>0</v>
       </c>
       <c r="AD72" s="16"/>
       <c r="AE72" s="5">
-        <v>0</v>
+        <v>73934818.1552</v>
       </c>
       <c r="AF72" s="16"/>
       <c r="AG72" s="5">
-        <v>-97093679.1</v>
+        <v>-97365345.46</v>
       </c>
       <c r="AH72" s="5">
-        <v>-875226803.066</v>
+        <v>-885497854.034</v>
       </c>
       <c r="AI72" s="16"/>
       <c r="AJ72" s="5">
-        <v>0</v>
+        <v>21112007.89</v>
       </c>
       <c r="AK72" s="5">
-        <v>0</v>
+        <v>105560039.45</v>
       </c>
       <c r="AL72" s="5">
         <v>0</v>
@@ -11260,7 +11269,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>4114764.0</v>
+        <v>4106614.144</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -11305,10 +11314,10 @@
       </c>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
-        <v>4114764.0</v>
+        <v>4106614.144</v>
       </c>
       <c r="AK53" s="13">
-        <v>20573820.0</v>
+        <v>20533070.72</v>
       </c>
       <c r="AL53" s="13">
         <v>0</v>
@@ -11327,7 +11336,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>3474362.0</v>
+        <v>3797179.954</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -11372,10 +11381,10 @@
       </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
-        <v>3474362.0</v>
+        <v>3797179.954</v>
       </c>
       <c r="AK54" s="1">
-        <v>17371810.0</v>
+        <v>18985899.77</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -11394,7 +11403,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>3609476.0</v>
+        <v>4176898.756</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -11439,10 +11448,10 @@
       </c>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
-        <v>3609476.0</v>
+        <v>4176898.756</v>
       </c>
       <c r="AK55" s="1">
-        <v>18047380.0</v>
+        <v>20884493.78</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -11461,7 +11470,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>3736870.0</v>
+        <v>4594588.536</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -11506,10 +11515,10 @@
       </c>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
-        <v>3736870.0</v>
+        <v>4594588.536</v>
       </c>
       <c r="AK56" s="1">
-        <v>18684350.0</v>
+        <v>22972942.68</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -11528,7 +11537,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>3853646.0</v>
+        <v>5054047.072</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -11573,10 +11582,10 @@
       </c>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
-        <v>3853646.0</v>
+        <v>5054047.072</v>
       </c>
       <c r="AK57" s="13">
-        <v>19268230.0</v>
+        <v>25270235.36</v>
       </c>
       <c r="AL57" s="13">
         <v>0</v>
@@ -11595,7 +11604,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>3956411.0</v>
+        <v>5559451.188</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -11640,10 +11649,10 @@
       </c>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
-        <v>3956411.0</v>
+        <v>5559451.188</v>
       </c>
       <c r="AK58" s="1">
-        <v>19782055.0</v>
+        <v>27797255.94</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -11662,7 +11671,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>4041191.0</v>
+        <v>6115396.898</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -11707,10 +11716,10 @@
       </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
-        <v>4041191.0</v>
+        <v>6115396.898</v>
       </c>
       <c r="AK59" s="1">
-        <v>20205955.0</v>
+        <v>30576984.49</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -11729,7 +11738,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>4103363.0</v>
+        <v>6726935.99</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -11774,10 +11783,10 @@
       </c>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="1">
-        <v>4103363.0</v>
+        <v>6726935.99</v>
       </c>
       <c r="AK60" s="1">
-        <v>20516815.0</v>
+        <v>33634679.95</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -11796,7 +11805,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>4137558.0</v>
+        <v>7399630.5</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -11841,10 +11850,10 @@
       </c>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="1">
-        <v>4137558.0</v>
+        <v>7399630.5</v>
       </c>
       <c r="AK61" s="1">
-        <v>20687790.0</v>
+        <v>36998152.5</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -11863,7 +11872,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>4137557.0</v>
+        <v>8139593.45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -11908,10 +11917,10 @@
       </c>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="1">
-        <v>4137557.0</v>
+        <v>8139593.45</v>
       </c>
       <c r="AK62" s="1">
-        <v>20687785.0</v>
+        <v>40697967.25</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -11930,7 +11939,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>4096182.0</v>
+        <v>8953551.784</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -11975,10 +11984,10 @@
       </c>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="1">
-        <v>4096182.0</v>
+        <v>8953551.784</v>
       </c>
       <c r="AK63" s="1">
-        <v>20480910.0</v>
+        <v>44767758.92</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -11997,7 +12006,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>4005156.0</v>
+        <v>9848907.48</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -12042,10 +12051,10 @@
       </c>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="1">
-        <v>4005156.0</v>
+        <v>9848907.48</v>
       </c>
       <c r="AK64" s="1">
-        <v>20025780.0</v>
+        <v>49244537.4</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -12064,7 +12073,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>3854962.0</v>
+        <v>10833798.728</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -12109,10 +12118,10 @@
       </c>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="1">
-        <v>3854962.0</v>
+        <v>10833798.728</v>
       </c>
       <c r="AK65" s="1">
-        <v>19274810.0</v>
+        <v>54168993.64</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -12131,7 +12140,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>3634679.0</v>
+        <v>11917178.592</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -12176,10 +12185,10 @@
       </c>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="1">
-        <v>3634679.0</v>
+        <v>11917178.592</v>
       </c>
       <c r="AK66" s="1">
-        <v>18173395.0</v>
+        <v>59585892.96</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -12198,7 +12207,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>3331789.0</v>
+        <v>13108896.76</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -12243,10 +12252,10 @@
       </c>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="1">
-        <v>3331789.0</v>
+        <v>13108896.76</v>
       </c>
       <c r="AK67" s="1">
-        <v>16658945.0</v>
+        <v>65544483.8</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -12265,7 +12274,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>2931974.0</v>
+        <v>14419785.514</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -12310,10 +12319,10 @@
       </c>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="1">
-        <v>2931974.0</v>
+        <v>14419785.514</v>
       </c>
       <c r="AK68" s="1">
-        <v>14659870.0</v>
+        <v>72098927.57</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -12332,7 +12341,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>2418879.0</v>
+        <v>15861764.272</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -12377,10 +12386,10 @@
       </c>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="1">
-        <v>2418879.0</v>
+        <v>15861764.272</v>
       </c>
       <c r="AK69" s="1">
-        <v>12094395.0</v>
+        <v>79308821.36</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -12399,7 +12408,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>1773844.0</v>
+        <v>17447941.108</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -12444,10 +12453,10 @@
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="1">
-        <v>1773844.0</v>
+        <v>17447941.108</v>
       </c>
       <c r="AK70" s="1">
-        <v>8869220.0</v>
+        <v>87239705.54</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -12466,7 +12475,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>975614.0</v>
+        <v>19192734.932</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -12511,10 +12520,10 @@
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="1">
-        <v>975614.0</v>
+        <v>19192734.932</v>
       </c>
       <c r="AK71" s="1">
-        <v>4878070.0</v>
+        <v>95963674.66</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -12532,7 +12541,9 @@
       <c r="B72" s="5">
         <v>82</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="5">
+        <v>21112007.89</v>
+      </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
         <v>97093679.1</v>
@@ -12576,17 +12587,19 @@
       </c>
       <c r="AI72" s="16"/>
       <c r="AJ72" s="5">
-        <v>0</v>
+        <v>21112007.89</v>
       </c>
       <c r="AK72" s="5">
-        <v>0</v>
+        <v>105560039.45</v>
       </c>
       <c r="AL72" s="5">
         <v>0</v>
       </c>
       <c r="AM72" s="5"/>
       <c r="AN72" s="16"/>
-      <c r="AO72" s="15"/>
+      <c r="AO72" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="73" spans="1:41">
       <c r="B73" s="1"/>
@@ -12967,17 +12980,17 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -12987,7 +13000,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -12995,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -13007,7 +13020,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -13365,7 +13378,7 @@
         <v>0.3784</v>
       </c>
       <c r="AE8" s="1">
-        <v>48320.0</v>
+        <v>48336.0</v>
       </c>
       <c r="AF8" s="2">
         <v>0.032</v>
@@ -13391,7 +13404,7 @@
         <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -13426,10 +13439,10 @@
         <v>1672550.0</v>
       </c>
       <c r="S9" s="8">
-        <v>1520000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="T9" s="8">
-        <v>1520000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="U9" s="8">
         <v>1333640.0</v>
@@ -13449,7 +13462,7 @@
         <v>1672550.0</v>
       </c>
       <c r="AB9" s="8">
-        <v>152550.0</v>
+        <v>157550.0</v>
       </c>
       <c r="AC9" s="8">
         <v>0</v>
@@ -13458,7 +13471,7 @@
         <v>0.3784</v>
       </c>
       <c r="AE9" s="8">
-        <v>96960.0</v>
+        <v>101857.6</v>
       </c>
       <c r="AF9" s="9">
         <v>0.032</v>
@@ -13477,14 +13490,14 @@
         <v>0</v>
       </c>
       <c r="AL9" s="8">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM9" s="8"/>
       <c r="AN9" s="9">
         <v>1</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -13519,10 +13532,10 @@
         <v>1850805.0</v>
       </c>
       <c r="S10" s="1">
-        <v>1530000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="T10" s="1">
-        <v>1530000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="U10" s="6">
         <v>1476244.0</v>
@@ -13542,7 +13555,7 @@
         <v>1850805.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>320805.0</v>
+        <v>330805.0</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
@@ -13551,7 +13564,7 @@
         <v>0.3784</v>
       </c>
       <c r="AE10" s="1">
-        <v>130620.0</v>
+        <v>142575.31</v>
       </c>
       <c r="AF10" s="2">
         <v>0.022</v>
@@ -13570,14 +13583,14 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="2">
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -13612,10 +13625,10 @@
         <v>2046886.0</v>
       </c>
       <c r="S11" s="1">
-        <v>1540000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="T11" s="1">
-        <v>1540000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="U11" s="6">
         <v>1633108.8</v>
@@ -13632,19 +13645,19 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>2019580.0</v>
+        <v>2037010.802</v>
       </c>
       <c r="AB11" s="1">
-        <v>506886.0</v>
+        <v>521886.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>27306.0</v>
+        <v>9875.198</v>
       </c>
       <c r="AD11" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE11" s="1">
-        <v>164500.0</v>
+        <v>187606.802</v>
       </c>
       <c r="AF11" s="2">
         <v>0.022</v>
@@ -13663,14 +13676,14 @@
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="2">
         <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -13705,10 +13718,10 @@
         <v>2262575.0</v>
       </c>
       <c r="S12" s="1">
-        <v>1550000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="T12" s="1">
-        <v>1550000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="U12" s="6">
         <v>1805660.0</v>
@@ -13725,19 +13738,19 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>2191537.0</v>
+        <v>2222752.452</v>
       </c>
       <c r="AB12" s="1">
-        <v>712575.0</v>
+        <v>732575.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>71038.0</v>
+        <v>39822.548</v>
       </c>
       <c r="AD12" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE12" s="1">
-        <v>198600.0</v>
+        <v>237383.452</v>
       </c>
       <c r="AF12" s="2">
         <v>0.022</v>
@@ -13756,14 +13769,14 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="2">
         <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -13798,10 +13811,10 @@
         <v>2499833.0</v>
       </c>
       <c r="S13" s="1">
-        <v>1560000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T13" s="1">
-        <v>1560000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U13" s="6">
         <v>1995466.4</v>
@@ -13818,19 +13831,19 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>2377120.0</v>
+        <v>2427119.778</v>
       </c>
       <c r="AB13" s="1">
-        <v>939833.0</v>
+        <v>964833.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>122713.0</v>
+        <v>72713.222</v>
       </c>
       <c r="AD13" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE13" s="1">
-        <v>232920.0</v>
+        <v>292379.778</v>
       </c>
       <c r="AF13" s="2">
         <v>0.022</v>
@@ -13849,14 +13862,14 @@
         <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="2">
         <v>1</v>
       </c>
       <c r="AO13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -13891,10 +13904,10 @@
         <v>2760816.0</v>
       </c>
       <c r="S14" s="1">
-        <v>1570000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="T14" s="1">
-        <v>1570000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="U14" s="6">
         <v>2204252.8</v>
@@ -13911,19 +13924,19 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>2577671.0</v>
+        <v>2651976.73</v>
       </c>
       <c r="AB14" s="1">
-        <v>1190816.0</v>
+        <v>1220816.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>183145.0</v>
+        <v>108839.27</v>
       </c>
       <c r="AD14" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE14" s="1">
-        <v>267460.0</v>
+        <v>353117.73</v>
       </c>
       <c r="AF14" s="2">
         <v>0.022</v>
@@ -13942,14 +13955,14 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="2">
         <v>1</v>
       </c>
       <c r="AO14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -13984,10 +13997,10 @@
         <v>3047898.0</v>
       </c>
       <c r="S15" s="1">
-        <v>1580000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="T15" s="1">
-        <v>1580000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="U15" s="6">
         <v>2433918.4</v>
@@ -14004,19 +14017,19 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>2794665.0</v>
+        <v>2899372.486</v>
       </c>
       <c r="AB15" s="1">
-        <v>1467898.0</v>
+        <v>1502898.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>253233.0</v>
+        <v>148525.514</v>
       </c>
       <c r="AD15" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE15" s="1">
-        <v>302220.0</v>
+        <v>420171.486</v>
       </c>
       <c r="AF15" s="2">
         <v>0.022</v>
@@ -14035,14 +14048,14 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="2">
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -14077,10 +14090,10 @@
         <v>3363688.0</v>
       </c>
       <c r="S16" s="1">
-        <v>1590000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="T16" s="1">
-        <v>1590000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="U16" s="6">
         <v>2686550.4</v>
@@ -14097,19 +14110,19 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>3029724.0</v>
+        <v>3171560.622</v>
       </c>
       <c r="AB16" s="1">
-        <v>1773688.0</v>
+        <v>1813688.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>333964.0</v>
+        <v>192127.378</v>
       </c>
       <c r="AD16" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE16" s="1">
-        <v>337200.0</v>
+        <v>494172.622</v>
       </c>
       <c r="AF16" s="2">
         <v>0.022</v>
@@ -14128,14 +14141,14 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="2">
         <v>1</v>
       </c>
       <c r="AO16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -14170,10 +14183,10 @@
         <v>3711057.0</v>
       </c>
       <c r="S17" s="1">
-        <v>1600000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="T17" s="1">
-        <v>1600000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="U17" s="6">
         <v>2964445.6</v>
@@ -14190,19 +14203,19 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>3284633.0</v>
+        <v>3471020.876</v>
       </c>
       <c r="AB17" s="1">
-        <v>2111057.0</v>
+        <v>2156057.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>426424.0</v>
+        <v>240036.124</v>
       </c>
       <c r="AD17" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE17" s="1">
-        <v>372400.0</v>
+        <v>575815.876</v>
       </c>
       <c r="AF17" s="2">
         <v>0.022</v>
@@ -14221,14 +14234,14 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM17" s="1"/>
       <c r="AN17" s="2">
         <v>1</v>
       </c>
       <c r="AO17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -14263,10 +14276,10 @@
         <v>4093163.0</v>
       </c>
       <c r="S18" s="1">
-        <v>1610000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>1610000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="U18" s="6">
         <v>3270130.4</v>
@@ -14283,19 +14296,19 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>3561354.0</v>
+        <v>3800479.462</v>
       </c>
       <c r="AB18" s="1">
-        <v>2483163.0</v>
+        <v>2533163.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>531809.0</v>
+        <v>292683.538</v>
       </c>
       <c r="AD18" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE18" s="1">
-        <v>407820.0</v>
+        <v>665865.462</v>
       </c>
       <c r="AF18" s="2">
         <v>0.022</v>
@@ -14314,14 +14327,14 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="2">
         <v>1</v>
       </c>
       <c r="AO18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -14356,10 +14369,10 @@
         <v>4513479.0</v>
       </c>
       <c r="S19" s="1">
-        <v>1620000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="T19" s="1">
-        <v>1620000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="U19" s="6">
         <v>3606383.2</v>
@@ -14376,19 +14389,19 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>3862047.0</v>
+        <v>4162937.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>2893479.0</v>
+        <v>2948479.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>651432.0</v>
+        <v>350542.0</v>
       </c>
       <c r="AD19" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE19" s="1">
-        <v>443460.0</v>
+        <v>765162.0</v>
       </c>
       <c r="AF19" s="2">
         <v>0.022</v>
@@ -14407,14 +14420,14 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="2">
         <v>1</v>
       </c>
       <c r="AO19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -14449,10 +14462,10 @@
         <v>4975827.0</v>
       </c>
       <c r="S20" s="1">
-        <v>1630000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>1630000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="U20" s="6">
         <v>3976261.6</v>
@@ -14469,19 +14482,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>4189086.0</v>
+        <v>4561692.194</v>
       </c>
       <c r="AB20" s="1">
-        <v>3345827.0</v>
+        <v>3405827.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>786741.0</v>
+        <v>414134.806</v>
       </c>
       <c r="AD20" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE20" s="1">
-        <v>479320.0</v>
+        <v>874630.194</v>
       </c>
       <c r="AF20" s="2">
         <v>0.022</v>
@@ -14500,14 +14513,14 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2">
         <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -14542,10 +14555,10 @@
         <v>5484410.0</v>
       </c>
       <c r="S21" s="1">
-        <v>1640000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>1640000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="U21" s="6">
         <v>4383128.0</v>
@@ -14562,19 +14575,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>4545085.0</v>
+        <v>5000376.214</v>
       </c>
       <c r="AB21" s="1">
-        <v>3844410.0</v>
+        <v>3909410.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>939325.0</v>
+        <v>484033.786</v>
       </c>
       <c r="AD21" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE21" s="1">
-        <v>515400.0</v>
+        <v>995287.214</v>
       </c>
       <c r="AF21" s="2">
         <v>0.022</v>
@@ -14593,14 +14606,14 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2">
         <v>1</v>
       </c>
       <c r="AO21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -14635,10 +14648,10 @@
         <v>6043851.0</v>
       </c>
       <c r="S22" s="1">
-        <v>1650000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>1650000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="U22" s="6">
         <v>4830680.8</v>
@@ -14655,19 +14668,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>4932918.0</v>
+        <v>5482981.936</v>
       </c>
       <c r="AB22" s="1">
-        <v>4393851.0</v>
+        <v>4463851.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>1110933.0</v>
+        <v>560869.064</v>
       </c>
       <c r="AD22" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE22" s="1">
-        <v>551700.0</v>
+        <v>1128251.936</v>
       </c>
       <c r="AF22" s="2">
         <v>0.022</v>
@@ -14686,14 +14699,14 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2">
         <v>1</v>
       </c>
       <c r="AO22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -14728,10 +14741,10 @@
         <v>6659236.0</v>
       </c>
       <c r="S23" s="1">
-        <v>1660000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>1660000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="U23" s="6">
         <v>5322988.8</v>
@@ -14748,19 +14761,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>5355745.0</v>
+        <v>6013900.128</v>
       </c>
       <c r="AB23" s="1">
-        <v>4999236.0</v>
+        <v>5074236.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>1303491.0</v>
+        <v>645335.872</v>
       </c>
       <c r="AD23" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE23" s="1">
-        <v>588220.0</v>
+        <v>1274755.128</v>
       </c>
       <c r="AF23" s="2">
         <v>0.022</v>
@@ -14779,14 +14792,14 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2">
         <v>1</v>
       </c>
       <c r="AO23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -14821,10 +14834,10 @@
         <v>7336160.0</v>
       </c>
       <c r="S24" s="1">
-        <v>1670000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>1670000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="U24" s="6">
         <v>5864528.0</v>
@@ -14841,19 +14854,19 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>5817045.0</v>
+        <v>6597963.648</v>
       </c>
       <c r="AB24" s="1">
-        <v>5666160.0</v>
+        <v>5746160.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>1519115.0</v>
+        <v>738196.352</v>
       </c>
       <c r="AD24" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE24" s="1">
-        <v>624960.0</v>
+        <v>1436150.648</v>
       </c>
       <c r="AF24" s="2">
         <v>0.022</v>
@@ -14872,14 +14885,14 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2">
         <v>1</v>
       </c>
       <c r="AO24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -14914,10 +14927,10 @@
         <v>8080776.0</v>
       </c>
       <c r="S25" s="1">
-        <v>1680000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>1680000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="U25" s="6">
         <v>6460220.8</v>
@@ -14934,19 +14947,19 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>6320642.0</v>
+        <v>7240485.72</v>
       </c>
       <c r="AB25" s="1">
-        <v>6400776.0</v>
+        <v>6485776.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>1760134.0</v>
+        <v>840290.28</v>
       </c>
       <c r="AD25" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE25" s="1">
-        <v>661920.0</v>
+        <v>1613927.72</v>
       </c>
       <c r="AF25" s="2">
         <v>0.022</v>
@@ -14965,14 +14978,14 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2">
         <v>1</v>
       </c>
       <c r="AO25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -15007,10 +15020,10 @@
         <v>8899854.0</v>
       </c>
       <c r="S26" s="1">
-        <v>1690000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>1690000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="U26" s="6">
         <v>7115483.2</v>
@@ -15027,19 +15040,19 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>6870745.0</v>
+        <v>7947313.508</v>
       </c>
       <c r="AB26" s="1">
-        <v>7209854.0</v>
+        <v>7299854.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>2029109.0</v>
+        <v>952540.492</v>
       </c>
       <c r="AD26" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE26" s="1">
-        <v>699100.0</v>
+        <v>1809724.508</v>
       </c>
       <c r="AF26" s="2">
         <v>0.022</v>
@@ -15058,14 +15071,14 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2">
         <v>1</v>
       </c>
       <c r="AO26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -15100,10 +15113,10 @@
         <v>9800839.0</v>
       </c>
       <c r="S27" s="1">
-        <v>1700000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>1700000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="U27" s="6">
         <v>7836271.2</v>
@@ -15120,19 +15133,19 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>7471982.0</v>
+        <v>8724876.966</v>
       </c>
       <c r="AB27" s="1">
-        <v>8100839.0</v>
+        <v>8195839.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>2328857.0</v>
+        <v>1075962.034</v>
       </c>
       <c r="AD27" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE27" s="1">
-        <v>736500.0</v>
+        <v>2025342.966</v>
       </c>
       <c r="AF27" s="2">
         <v>0.022</v>
@@ -15151,14 +15164,14 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2">
         <v>1</v>
       </c>
       <c r="AO27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -15193,10 +15206,10 @@
         <v>10791923.0</v>
       </c>
       <c r="S28" s="1">
-        <v>1710000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>1710000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="U28" s="6">
         <v>8629138.4</v>
@@ -15213,19 +15226,19 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>8129443.0</v>
+        <v>9580248.272</v>
       </c>
       <c r="AB28" s="1">
-        <v>9081923.0</v>
+        <v>9181923.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>2662480.0</v>
+        <v>1211674.728</v>
       </c>
       <c r="AD28" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE28" s="1">
-        <v>774120.0</v>
+        <v>2262765.272</v>
       </c>
       <c r="AF28" s="2">
         <v>0.022</v>
@@ -15244,14 +15257,14 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2">
         <v>1</v>
       </c>
       <c r="AO28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -15286,10 +15299,10 @@
         <v>11882115.0</v>
       </c>
       <c r="S29" s="1">
-        <v>1720000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>1720000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="U29" s="6">
         <v>9501292.0</v>
@@ -15306,19 +15319,19 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>8848731.0</v>
+        <v>10521210.802</v>
       </c>
       <c r="AB29" s="1">
-        <v>10162115.0</v>
+        <v>10267115.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>3033384.0</v>
+        <v>1360904.198</v>
       </c>
       <c r="AD29" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE29" s="1">
-        <v>811960.0</v>
+        <v>2524171.802</v>
       </c>
       <c r="AF29" s="2">
         <v>0.022</v>
@@ -15337,14 +15350,14 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="2">
         <v>1</v>
       </c>
       <c r="AO29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -15379,10 +15392,10 @@
         <v>13081327.0</v>
       </c>
       <c r="S30" s="1">
-        <v>1730000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>1730000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="U30" s="6">
         <v>10460661.6</v>
@@ -15399,19 +15412,19 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>9636005.0</v>
+        <v>11556321.996</v>
       </c>
       <c r="AB30" s="1">
-        <v>11351327.0</v>
+        <v>11461327.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>3445322.0</v>
+        <v>1525005.004</v>
       </c>
       <c r="AD30" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE30" s="1">
-        <v>850020.0</v>
+        <v>2811960.996</v>
       </c>
       <c r="AF30" s="2">
         <v>0.022</v>
@@ -15430,14 +15443,14 @@
         <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="2">
         <v>1</v>
       </c>
       <c r="AO30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -15472,10 +15485,10 @@
         <v>14400460.0</v>
       </c>
       <c r="S31" s="1">
-        <v>1740000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>1740000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="U31" s="6">
         <v>11515968.0</v>
@@ -15492,19 +15505,19 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>10498042.0</v>
+        <v>12694997.116</v>
       </c>
       <c r="AB31" s="1">
-        <v>12660460.0</v>
+        <v>12775460.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>3902418.0</v>
+        <v>1705462.884</v>
       </c>
       <c r="AD31" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE31" s="1">
-        <v>888300.0</v>
+        <v>3128771.116</v>
       </c>
       <c r="AF31" s="2">
         <v>0.022</v>
@@ -15523,14 +15536,14 @@
         <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="2">
         <v>1</v>
       </c>
       <c r="AO31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -15565,10 +15578,10 @@
         <v>15851506.0</v>
       </c>
       <c r="S32" s="1">
-        <v>1750000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>1750000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="U32" s="6">
         <v>12676804.8</v>
@@ -15585,19 +15598,19 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>11442296.0</v>
+        <v>13947592.248</v>
       </c>
       <c r="AB32" s="1">
-        <v>14101506.0</v>
+        <v>14221506.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>4409210.0</v>
+        <v>1903913.752</v>
       </c>
       <c r="AD32" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE32" s="1">
-        <v>926800.0</v>
+        <v>3477504.248</v>
       </c>
       <c r="AF32" s="2">
         <v>0.022</v>
@@ -15616,14 +15629,14 @@
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="2">
         <v>1</v>
       </c>
       <c r="AO32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -15658,10 +15671,10 @@
         <v>17447657.0</v>
       </c>
       <c r="S33" s="1">
-        <v>1760000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>1760000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="U33" s="6">
         <v>13953725.6</v>
@@ -15678,19 +15691,19 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>12476968.0</v>
+        <v>15325500.702</v>
       </c>
       <c r="AB33" s="1">
-        <v>15687657.0</v>
+        <v>15812657.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>4970689.0</v>
+        <v>2122156.298</v>
       </c>
       <c r="AD33" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE33" s="1">
-        <v>965520.0</v>
+        <v>3861352.702</v>
       </c>
       <c r="AF33" s="2">
         <v>0.022</v>
@@ -15709,14 +15722,14 @@
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="2">
         <v>1</v>
       </c>
       <c r="AO33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -15751,10 +15764,10 @@
         <v>19203423.0</v>
       </c>
       <c r="S34" s="1">
-        <v>1770000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>1770000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="U34" s="6">
         <v>15358338.4</v>
@@ -15771,19 +15784,19 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>13611076.0</v>
+        <v>16841252.008</v>
       </c>
       <c r="AB34" s="1">
-        <v>17433423.0</v>
+        <v>17563423.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>5592347.0</v>
+        <v>2362170.992</v>
       </c>
       <c r="AD34" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE34" s="1">
-        <v>1004460.0</v>
+        <v>4283828.008</v>
       </c>
       <c r="AF34" s="2">
         <v>0.022</v>
@@ -15802,14 +15815,14 @@
         <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="2">
         <v>1</v>
       </c>
       <c r="AO34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -15844,10 +15857,10 @@
         <v>21134765.0</v>
       </c>
       <c r="S35" s="1">
-        <v>1780000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>1780000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="U35" s="6">
         <v>16903412.0</v>
@@ -15864,19 +15877,19 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>14854542.0</v>
+        <v>18508630.838</v>
       </c>
       <c r="AB35" s="1">
-        <v>19354765.0</v>
+        <v>19489765.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>6280223.0</v>
+        <v>2626134.162</v>
       </c>
       <c r="AD35" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE35" s="1">
-        <v>1043620.0</v>
+        <v>4748792.838</v>
       </c>
       <c r="AF35" s="2">
         <v>0.022</v>
@@ -15895,14 +15908,14 @@
         <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="2">
         <v>1</v>
       </c>
       <c r="AO35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -15937,10 +15950,10 @@
         <v>23259242.0</v>
       </c>
       <c r="S36" s="1">
-        <v>1790000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>1790000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="U36" s="6">
         <v>18602993.6</v>
@@ -15957,19 +15970,19 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>16218281.0</v>
+        <v>20342801.162</v>
       </c>
       <c r="AB36" s="1">
-        <v>21469242.0</v>
+        <v>21609242.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>7040961.0</v>
+        <v>2916440.838</v>
       </c>
       <c r="AD36" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE36" s="1">
-        <v>1083000.0</v>
+        <v>5260496.162</v>
       </c>
       <c r="AF36" s="2">
         <v>0.022</v>
@@ -15988,14 +16001,14 @@
         <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="2">
         <v>1</v>
       </c>
       <c r="AO36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -16030,10 +16043,10 @@
         <v>25596166.0</v>
       </c>
       <c r="S37" s="1">
-        <v>1800000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>1800000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="U37" s="6">
         <v>20472532.8</v>
@@ -16050,19 +16063,19 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>17714297.0</v>
+        <v>22360440.814</v>
       </c>
       <c r="AB37" s="1">
-        <v>23796166.0</v>
+        <v>23941166.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>7881869.0</v>
+        <v>3235725.186</v>
       </c>
       <c r="AD37" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE37" s="1">
-        <v>1122600.0</v>
+        <v>5823611.814</v>
       </c>
       <c r="AF37" s="2">
         <v>0.022</v>
@@ -16081,14 +16094,14 @@
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="2">
         <v>1</v>
       </c>
       <c r="AO37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -16123,10 +16136,10 @@
         <v>28166783.0</v>
       </c>
       <c r="S38" s="1">
-        <v>1810000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>1810000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="U38" s="6">
         <v>22529026.4</v>
@@ -16143,19 +16156,19 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>19355796.0</v>
+        <v>24579897.04</v>
       </c>
       <c r="AB38" s="1">
-        <v>26356783.0</v>
+        <v>26506783.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>8810987.0</v>
+        <v>3586885.96</v>
       </c>
       <c r="AD38" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE38" s="1">
-        <v>1162420.0</v>
+        <v>6443281.04</v>
       </c>
       <c r="AF38" s="2">
         <v>0.022</v>
@@ -16174,14 +16187,14 @@
         <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="2">
         <v>1</v>
       </c>
       <c r="AO38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -16216,10 +16229,10 @@
         <v>30994461.0</v>
       </c>
       <c r="S39" s="1">
-        <v>1820000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>1820000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="U39" s="6">
         <v>24791168.8</v>
@@ -16236,19 +16249,19 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>21157305.0</v>
+        <v>27021352.182</v>
       </c>
       <c r="AB39" s="1">
-        <v>29174461.0</v>
+        <v>29329461.0</v>
       </c>
       <c r="AC39" s="1">
-        <v>9837156.0</v>
+        <v>3973108.818</v>
       </c>
       <c r="AD39" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE39" s="1">
-        <v>1202460.0</v>
+        <v>7125159.182</v>
       </c>
       <c r="AF39" s="2">
         <v>0.022</v>
@@ -16267,14 +16280,14 @@
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="2">
         <v>1</v>
       </c>
       <c r="AO39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -16309,10 +16322,10 @@
         <v>34104907.0</v>
       </c>
       <c r="S40" s="11">
-        <v>1830000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>1830000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="U40" s="11">
         <v>27279525.6</v>
@@ -16329,19 +16342,19 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>23134802.0</v>
+        <v>29707005.136</v>
       </c>
       <c r="AB40" s="11">
-        <v>32274907.0</v>
+        <v>32434907.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>10970105.0</v>
+        <v>4397901.864</v>
       </c>
       <c r="AD40" s="12">
         <v>0.3784</v>
       </c>
       <c r="AE40" s="11">
-        <v>1242720.0</v>
+        <v>7875467.136</v>
       </c>
       <c r="AF40" s="12">
         <v>0.022</v>
@@ -16360,14 +16373,14 @@
         <v>0</v>
       </c>
       <c r="AL40" s="11">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM40" s="11"/>
       <c r="AN40" s="12">
         <v>1</v>
       </c>
       <c r="AO40" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -16402,10 +16415,10 @@
         <v>37526398.0</v>
       </c>
       <c r="S41" s="1">
-        <v>1840000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>1840000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="U41" s="6">
         <v>30016718.4</v>
@@ -16422,19 +16435,19 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>25305865.0</v>
+        <v>32661276.892</v>
       </c>
       <c r="AB41" s="1">
-        <v>35686398.0</v>
+        <v>35851398.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>12220533.0</v>
+        <v>4865121.108</v>
       </c>
       <c r="AD41" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE41" s="1">
-        <v>1283200.0</v>
+        <v>8701047.892</v>
       </c>
       <c r="AF41" s="2">
         <v>0.022</v>
@@ -16453,14 +16466,14 @@
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="2">
         <v>1</v>
       </c>
       <c r="AO41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -16495,10 +16508,10 @@
         <v>41290038.0</v>
       </c>
       <c r="S42" s="1">
-        <v>1850000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>1850000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="U42" s="6">
         <v>33027630.4</v>
@@ -16515,19 +16528,19 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>27689828.0</v>
+        <v>35911028.728</v>
       </c>
       <c r="AB42" s="1">
-        <v>39440038.0</v>
+        <v>39610038.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>13600210.0</v>
+        <v>5379009.272</v>
       </c>
       <c r="AD42" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE42" s="1">
-        <v>1323900.0</v>
+        <v>9609428.728</v>
       </c>
       <c r="AF42" s="2">
         <v>0.022</v>
@@ -16546,14 +16559,14 @@
         <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="2">
         <v>1</v>
       </c>
       <c r="AO42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -16588,10 +16601,10 @@
         <v>45430042.0</v>
       </c>
       <c r="S43" s="1">
-        <v>1860000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>1860000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="U43" s="6">
         <v>36339633.6</v>
@@ -16608,19 +16621,19 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>30307958.0</v>
+        <v>39485807.652</v>
       </c>
       <c r="AB43" s="1">
-        <v>43570042.0</v>
+        <v>43745042.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>15122084.0</v>
+        <v>5944234.348</v>
       </c>
       <c r="AD43" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE43" s="1">
-        <v>1364820.0</v>
+        <v>10608889.652</v>
       </c>
       <c r="AF43" s="2">
         <v>0.022</v>
@@ -16639,14 +16652,14 @@
         <v>0</v>
       </c>
       <c r="AL43" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="2">
         <v>1</v>
       </c>
       <c r="AO43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -16681,10 +16694,10 @@
         <v>49984046.0</v>
       </c>
       <c r="S44" s="1">
-        <v>1870000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>1870000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="U44" s="6">
         <v>39982836.8</v>
@@ -16701,19 +16714,19 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>33183651.0</v>
+        <v>43418117.664</v>
       </c>
       <c r="AB44" s="1">
-        <v>48114046.0</v>
+        <v>48294046.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>16800395.0</v>
+        <v>6565928.336</v>
       </c>
       <c r="AD44" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE44" s="1">
-        <v>1405960.0</v>
+        <v>11708538.664</v>
       </c>
       <c r="AF44" s="2">
         <v>0.022</v>
@@ -16732,14 +16745,14 @@
         <v>0</v>
       </c>
       <c r="AL44" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM44" s="1"/>
       <c r="AN44" s="2">
         <v>1</v>
       </c>
       <c r="AO44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -16774,10 +16787,10 @@
         <v>54993451.0</v>
       </c>
       <c r="S45" s="1">
-        <v>1880000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>1880000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="U45" s="6">
         <v>43990360.8</v>
@@ -16794,19 +16807,19 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>36342641.0</v>
+        <v>47743711.586</v>
       </c>
       <c r="AB45" s="1">
-        <v>53113451.0</v>
+        <v>53298451.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>18650810.0</v>
+        <v>7249739.414</v>
       </c>
       <c r="AD45" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE45" s="1">
-        <v>1447320.0</v>
+        <v>12918394.586</v>
       </c>
       <c r="AF45" s="2">
         <v>0.022</v>
@@ -16825,14 +16838,14 @@
         <v>0</v>
       </c>
       <c r="AL45" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM45" s="1"/>
       <c r="AN45" s="2">
         <v>1</v>
       </c>
       <c r="AO45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -16867,10 +16880,10 @@
         <v>60503796.0</v>
       </c>
       <c r="S46" s="1">
-        <v>1890000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>1890000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="U46" s="6">
         <v>48398636.8</v>
@@ -16887,19 +16900,19 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>39813236.0</v>
+        <v>52501918.098</v>
       </c>
       <c r="AB46" s="1">
-        <v>58613796.0</v>
+        <v>58803796.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>20690560.0</v>
+        <v>8001877.902</v>
       </c>
       <c r="AD46" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE46" s="1">
-        <v>1488900.0</v>
+        <v>14249478.098</v>
       </c>
       <c r="AF46" s="2">
         <v>0.022</v>
@@ -16918,14 +16931,14 @@
         <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM46" s="1"/>
       <c r="AN46" s="2">
         <v>1</v>
       </c>
       <c r="AO46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -16960,10 +16973,10 @@
         <v>66565176.0</v>
       </c>
       <c r="S47" s="1">
-        <v>1900000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>1900000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="U47" s="6">
         <v>53247740.8</v>
@@ -16980,19 +16993,19 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>43626573.0</v>
+        <v>57735996.97</v>
       </c>
       <c r="AB47" s="1">
-        <v>64665176.0</v>
+        <v>64860176.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>22938603.0</v>
+        <v>8829179.03</v>
       </c>
       <c r="AD47" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE47" s="1">
-        <v>1530700.0</v>
+        <v>15713911.97</v>
       </c>
       <c r="AF47" s="2">
         <v>0.022</v>
@@ -17011,14 +17024,14 @@
         <v>0</v>
       </c>
       <c r="AL47" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM47" s="1"/>
       <c r="AN47" s="2">
         <v>1</v>
       </c>
       <c r="AO47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -17053,10 +17066,10 @@
         <v>73232694.0</v>
       </c>
       <c r="S48" s="1">
-        <v>1910000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>1910000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="U48" s="6">
         <v>58581755.2</v>
@@ -17073,19 +17086,19 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>47816907.0</v>
+        <v>63493538.238</v>
       </c>
       <c r="AB48" s="1">
-        <v>71322694.0</v>
+        <v>71522694.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>25415787.0</v>
+        <v>9739155.762</v>
       </c>
       <c r="AD48" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE48" s="1">
-        <v>1572720.0</v>
+        <v>17325031.238</v>
       </c>
       <c r="AF48" s="2">
         <v>0.022</v>
@@ -17104,14 +17117,14 @@
         <v>0</v>
       </c>
       <c r="AL48" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM48" s="1"/>
       <c r="AN48" s="2">
         <v>1</v>
       </c>
       <c r="AO48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -17146,10 +17159,10 @@
         <v>80566963.0</v>
       </c>
       <c r="S49" s="1">
-        <v>1920000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>1920000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="U49" s="6">
         <v>64449170.4</v>
@@ -17166,19 +17179,19 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>52421912.0</v>
+        <v>69826884.424</v>
       </c>
       <c r="AB49" s="1">
-        <v>78646963.0</v>
+        <v>78851963.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>28145051.0</v>
+        <v>10740078.576</v>
       </c>
       <c r="AD49" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE49" s="1">
-        <v>1614960.0</v>
+        <v>19097504.424</v>
       </c>
       <c r="AF49" s="2">
         <v>0.022</v>
@@ -17197,14 +17210,14 @@
         <v>0</v>
       </c>
       <c r="AL49" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM49" s="1"/>
       <c r="AN49" s="2">
         <v>1</v>
       </c>
       <c r="AO49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -17239,10 +17252,10 @@
         <v>88634659.0</v>
       </c>
       <c r="S50" s="1">
-        <v>1930000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>1930000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="U50" s="6">
         <v>70903327.2</v>
@@ -17259,19 +17272,19 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>57483036.0</v>
+        <v>76793618.922</v>
       </c>
       <c r="AB50" s="1">
-        <v>86704659.0</v>
+        <v>86914659.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>31151623.0</v>
+        <v>11841040.078</v>
       </c>
       <c r="AD50" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE50" s="1">
-        <v>1657420.0</v>
+        <v>21047466.922</v>
       </c>
       <c r="AF50" s="2">
         <v>0.022</v>
@@ -17290,14 +17303,14 @@
         <v>0</v>
       </c>
       <c r="AL50" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM50" s="1"/>
       <c r="AN50" s="2">
         <v>1</v>
       </c>
       <c r="AO50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -17332,10 +17345,10 @@
         <v>97509125.0</v>
       </c>
       <c r="S51" s="1">
-        <v>1940000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>1940000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="U51" s="6">
         <v>78002900.0</v>
@@ -17352,19 +17365,19 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>63045868.0</v>
+        <v>84457079.672</v>
       </c>
       <c r="AB51" s="1">
-        <v>95569125.0</v>
+        <v>95784125.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>34463257.0</v>
+        <v>13052045.328</v>
       </c>
       <c r="AD51" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE51" s="1">
-        <v>1700100.0</v>
+        <v>23192667.672</v>
       </c>
       <c r="AF51" s="2">
         <v>0.022</v>
@@ -17383,14 +17396,14 @@
         <v>0</v>
       </c>
       <c r="AL51" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM51" s="1"/>
       <c r="AN51" s="2">
         <v>1</v>
       </c>
       <c r="AO51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -17425,10 +17438,10 @@
         <v>107271038.0</v>
       </c>
       <c r="S52" s="1">
-        <v>1950000.0</v>
+        <v>1730000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>1950000.0</v>
+        <v>1730000.0</v>
       </c>
       <c r="U52" s="6">
         <v>85812430.4</v>
@@ -17445,19 +17458,19 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>69160557.0</v>
+        <v>92886939.508</v>
       </c>
       <c r="AB52" s="1">
-        <v>105321038.0</v>
+        <v>105541038.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>38110481.0</v>
+        <v>14384098.492</v>
       </c>
       <c r="AD52" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE52" s="1">
-        <v>1743000.0</v>
+        <v>25552630.508</v>
       </c>
       <c r="AF52" s="2">
         <v>0.022</v>
@@ -17476,14 +17489,14 @@
         <v>0</v>
       </c>
       <c r="AL52" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM52" s="1"/>
       <c r="AN52" s="2">
         <v>1</v>
       </c>
       <c r="AO52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -17509,13 +17522,13 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>106198327.8</v>
+        <v>112098234.8</v>
       </c>
       <c r="Q53" s="14">
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>106198327.8</v>
+        <v>112098234.8</v>
       </c>
       <c r="S53" s="13">
         <v>0</v>
@@ -17524,13 +17537,13 @@
         <v>0</v>
       </c>
       <c r="U53" s="13">
-        <v>89678588.0</v>
+        <v>94398513.6</v>
       </c>
       <c r="V53" s="14">
         <v>0.8</v>
       </c>
       <c r="W53" s="13">
-        <v>879785.88</v>
+        <v>926985.136</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
@@ -17538,28 +17551,28 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>64241528.512</v>
+        <v>96324118.4736</v>
       </c>
       <c r="AB53" s="13">
-        <v>114975431.8</v>
+        <v>115731786.8</v>
       </c>
       <c r="AC53" s="13">
-        <v>41956799.288</v>
+        <v>15774116.3264</v>
       </c>
       <c r="AD53" s="14">
         <v>0.3784</v>
       </c>
       <c r="AE53" s="13">
-        <v>1549903.712</v>
+        <v>28018791.6736</v>
       </c>
       <c r="AF53" s="14">
         <v>0.022</v>
       </c>
       <c r="AG53" s="13">
-        <v>-879785.88</v>
+        <v>-926985.136</v>
       </c>
       <c r="AH53" s="13">
-        <v>-9404626.864</v>
+        <v>-9451826.12</v>
       </c>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
@@ -17569,12 +17582,12 @@
         <v>0</v>
       </c>
       <c r="AL53" s="13">
-        <v>-1950000.0</v>
+        <v>-1730000.0</v>
       </c>
       <c r="AM53" s="13"/>
       <c r="AN53" s="14"/>
       <c r="AO53" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -17600,13 +17613,13 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>104521511.4</v>
+        <v>116818161.3</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>104521511.4</v>
+        <v>116818161.3</v>
       </c>
       <c r="S54" s="1">
         <v>0</v>
@@ -17615,13 +17628,13 @@
         <v>0</v>
       </c>
       <c r="U54" s="6">
-        <v>88535868.8</v>
+        <v>98646447.2</v>
       </c>
       <c r="V54" s="2">
         <v>0.8</v>
       </c>
       <c r="W54" s="1">
-        <v>868358.688</v>
+        <v>969464.472</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
@@ -17629,28 +17642,28 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>62044495.128</v>
+        <v>100970435.5222</v>
       </c>
       <c r="AB54" s="1">
-        <v>115700283.4</v>
+        <v>122718068.3</v>
       </c>
       <c r="AC54" s="1">
-        <v>42477016.272</v>
+        <v>15847725.7778</v>
       </c>
       <c r="AD54" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE54" s="1">
-        <v>1303970.728</v>
+        <v>30588791.2222</v>
       </c>
       <c r="AF54" s="2">
         <v>0.022</v>
       </c>
       <c r="AG54" s="1">
-        <v>-868358.688</v>
+        <v>-969464.472</v>
       </c>
       <c r="AH54" s="1">
-        <v>-10272985.552</v>
+        <v>-10421290.592</v>
       </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
@@ -17665,7 +17678,7 @@
       <c r="AM54" s="1"/>
       <c r="AN54" s="2"/>
       <c r="AO54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -17691,13 +17704,13 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>102198809.9</v>
+        <v>121361089.2</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>102198809.9</v>
+        <v>121361089.2</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
@@ -17706,13 +17719,13 @@
         <v>0</v>
       </c>
       <c r="U55" s="6">
-        <v>86868988.8</v>
+        <v>102799981.6</v>
       </c>
       <c r="V55" s="2">
         <v>0.8</v>
       </c>
       <c r="W55" s="1">
-        <v>851689.888</v>
+        <v>1010999.816</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
@@ -17720,28 +17733,28 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>60180704.584</v>
+        <v>106241010.3846</v>
       </c>
       <c r="AB55" s="1">
-        <v>113812311.9</v>
+        <v>127850987.2</v>
       </c>
       <c r="AC55" s="1">
-        <v>42018105.316</v>
+        <v>15120078.8154</v>
       </c>
       <c r="AD55" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE55" s="1">
-        <v>1048473.684</v>
+        <v>33258735.1846</v>
       </c>
       <c r="AF55" s="2">
         <v>0.022</v>
       </c>
       <c r="AG55" s="1">
-        <v>-851689.888</v>
+        <v>-1010999.816</v>
       </c>
       <c r="AH55" s="1">
-        <v>-11124675.44</v>
+        <v>-11432290.408</v>
       </c>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
@@ -17756,7 +17769,7 @@
       <c r="AM55" s="1"/>
       <c r="AN55" s="2"/>
       <c r="AO55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -17782,13 +17795,13 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>99192962.5</v>
+        <v>125644421.2</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>99192962.5</v>
+        <v>125644421.2</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
@@ -17797,13 +17810,13 @@
         <v>0</v>
       </c>
       <c r="U56" s="6">
-        <v>84644661.6</v>
+        <v>106797758.4</v>
       </c>
       <c r="V56" s="2">
         <v>0.8</v>
       </c>
       <c r="W56" s="1">
-        <v>829446.616</v>
+        <v>1050977.584</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
@@ -17811,28 +17824,28 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>57892653.604</v>
+        <v>111422129.651</v>
       </c>
       <c r="AB56" s="1">
-        <v>111216352.5</v>
+        <v>132783309.2</v>
       </c>
       <c r="AC56" s="1">
-        <v>41300308.896</v>
+        <v>14222291.549</v>
       </c>
       <c r="AD56" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE56" s="1">
-        <v>783959.104</v>
+        <v>36022912.451</v>
       </c>
       <c r="AF56" s="2">
         <v>0.022</v>
       </c>
       <c r="AG56" s="1">
-        <v>-829446.616</v>
+        <v>-1050977.584</v>
       </c>
       <c r="AH56" s="1">
-        <v>-11954122.056</v>
+        <v>-12483267.992</v>
       </c>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
@@ -17847,7 +17860,7 @@
       <c r="AM56" s="1"/>
       <c r="AN56" s="2"/>
       <c r="AO56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -17873,13 +17886,13 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>95473227.0</v>
+        <v>129570809.4</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>95473227.0</v>
+        <v>129570809.4</v>
       </c>
       <c r="S57" s="13">
         <v>0</v>
@@ -17888,13 +17901,13 @@
         <v>0</v>
       </c>
       <c r="U57" s="13">
-        <v>81834194.4</v>
+        <v>110567090.4</v>
       </c>
       <c r="V57" s="14">
         <v>0.8</v>
       </c>
       <c r="W57" s="13">
-        <v>801341.944</v>
+        <v>1088670.904</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
@@ -17902,28 +17915,28 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>55165509.464</v>
+        <v>116443194.6578</v>
       </c>
       <c r="AB57" s="13">
-        <v>107872347.0</v>
+        <v>137423585.4</v>
       </c>
       <c r="AC57" s="13">
-        <v>40307717.536</v>
+        <v>13127614.7422</v>
       </c>
       <c r="AD57" s="14">
         <v>0.3784</v>
       </c>
       <c r="AE57" s="13">
-        <v>511178.464</v>
+        <v>38873470.2578</v>
       </c>
       <c r="AF57" s="14">
         <v>0.022</v>
       </c>
       <c r="AG57" s="13">
-        <v>-801341.944</v>
+        <v>-1088670.904</v>
       </c>
       <c r="AH57" s="13">
-        <v>-12755464.0</v>
+        <v>-13571938.896</v>
       </c>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
@@ -17938,7 +17951,7 @@
       <c r="AM57" s="13"/>
       <c r="AN57" s="14"/>
       <c r="AO57" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -17964,13 +17977,13 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>91017809.8</v>
+        <v>133026030.6</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>91017809.8</v>
+        <v>133026030.6</v>
       </c>
       <c r="S58" s="1">
         <v>0</v>
@@ -17979,13 +17992,13 @@
         <v>0</v>
       </c>
       <c r="U58" s="6">
-        <v>78415344.0</v>
+        <v>114022312.0</v>
       </c>
       <c r="V58" s="2">
         <v>0.8</v>
       </c>
       <c r="W58" s="1">
-        <v>767153.44</v>
+        <v>1123223.12</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
@@ -17993,28 +18006,28 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>51990851.456</v>
+        <v>121220383.531</v>
       </c>
       <c r="AB58" s="1">
-        <v>103747573.8</v>
+        <v>141664084.6</v>
       </c>
       <c r="AC58" s="1">
-        <v>39026958.344</v>
+        <v>11805647.069</v>
       </c>
       <c r="AD58" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE58" s="1">
-        <v>231123.656</v>
+        <v>41800042.931</v>
       </c>
       <c r="AF58" s="2">
         <v>0.022</v>
       </c>
       <c r="AG58" s="1">
-        <v>-767153.44</v>
+        <v>-1123223.12</v>
       </c>
       <c r="AH58" s="1">
-        <v>-13522617.44</v>
+        <v>-14695162.016</v>
       </c>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
@@ -18029,7 +18042,7 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="2"/>
       <c r="AO58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -18055,13 +18068,13 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>85816792.8</v>
+        <v>135876589.1</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>85816792.8</v>
+        <v>135876589.1</v>
       </c>
       <c r="S59" s="1">
         <v>0</v>
@@ -18070,13 +18083,13 @@
         <v>0</v>
       </c>
       <c r="U59" s="6">
-        <v>74374553.6</v>
+        <v>117062907.2</v>
       </c>
       <c r="V59" s="2">
         <v>0.8</v>
       </c>
       <c r="W59" s="1">
-        <v>726745.536</v>
+        <v>1153629.072</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
@@ -18084,26 +18097,28 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>48423555.8</v>
+        <v>125654711.9912</v>
       </c>
       <c r="AB59" s="1">
-        <v>98819336.8</v>
+        <v>145378448.1</v>
       </c>
       <c r="AC59" s="1">
-        <v>37393237.0</v>
+        <v>10221877.1088</v>
       </c>
       <c r="AD59" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="2"/>
+        <v>44789327.8912</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG59" s="1">
-        <v>-726745.536</v>
+        <v>-1153629.072</v>
       </c>
       <c r="AH59" s="1">
-        <v>-14249362.976</v>
+        <v>-15848791.088</v>
       </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
@@ -18118,7 +18133,7 @@
       <c r="AM59" s="1"/>
       <c r="AN59" s="2"/>
       <c r="AO59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -18144,13 +18159,13 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>79875629.8</v>
+        <v>137966998.5</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>79875629.8</v>
+        <v>137966998.5</v>
       </c>
       <c r="S60" s="1">
         <v>0</v>
@@ -18159,13 +18174,13 @@
         <v>0</v>
       </c>
       <c r="U60" s="6">
-        <v>69709640.8</v>
+        <v>119571398.4</v>
       </c>
       <c r="V60" s="2">
         <v>0.8</v>
       </c>
       <c r="W60" s="1">
-        <v>680096.408</v>
+        <v>1178713.984</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
@@ -18173,26 +18188,28 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>44654833.8</v>
+        <v>129629834.3582</v>
       </c>
       <c r="AB60" s="1">
-        <v>93078213.8</v>
+        <v>148419043.5</v>
       </c>
       <c r="AC60" s="1">
-        <v>35220796.0</v>
+        <v>8337164.1418</v>
       </c>
       <c r="AD60" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="2"/>
+        <v>47824601.8582</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG60" s="1">
-        <v>-680096.408</v>
+        <v>-1178713.984</v>
       </c>
       <c r="AH60" s="1">
-        <v>-14929459.384</v>
+        <v>-17027505.072</v>
       </c>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="1">
@@ -18207,7 +18224,7 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="2"/>
       <c r="AO60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -18233,13 +18250,13 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>73219326.7</v>
+        <v>139116724.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>73219326.7</v>
+        <v>139116724.0</v>
       </c>
       <c r="S61" s="1">
         <v>0</v>
@@ -18248,13 +18265,13 @@
         <v>0</v>
       </c>
       <c r="U61" s="6">
-        <v>64433008.0</v>
+        <v>121410959.2</v>
       </c>
       <c r="V61" s="2">
         <v>0.8</v>
       </c>
       <c r="W61" s="1">
-        <v>627330.08</v>
+        <v>1197109.592</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
@@ -18262,26 +18279,28 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>40475643.7</v>
+        <v>133009565.7862</v>
       </c>
       <c r="AB61" s="1">
-        <v>86531932.7</v>
+        <v>150613974.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>32743683.0</v>
+        <v>6107158.2138</v>
       </c>
       <c r="AD61" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="2"/>
+        <v>50885169.7862</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG61" s="1">
-        <v>-627330.08</v>
+        <v>-1197109.592</v>
       </c>
       <c r="AH61" s="1">
-        <v>-15556789.464</v>
+        <v>-18224614.664</v>
       </c>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="1">
@@ -18296,7 +18315,7 @@
       <c r="AM61" s="1"/>
       <c r="AN61" s="2"/>
       <c r="AO61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -18322,13 +18341,13 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>65897395.8</v>
+        <v>139116723.5</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>65897395.8</v>
+        <v>139116723.5</v>
       </c>
       <c r="S62" s="1">
         <v>0</v>
@@ -18337,13 +18356,13 @@
         <v>0</v>
       </c>
       <c r="U62" s="6">
-        <v>58575462.4</v>
+        <v>122422716.8</v>
       </c>
       <c r="V62" s="2">
         <v>0.8</v>
       </c>
       <c r="W62" s="1">
-        <v>568754.624</v>
+        <v>1207227.168</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
@@ -18351,26 +18370,28 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>35924331.8</v>
+        <v>135635077.2032</v>
       </c>
       <c r="AB62" s="1">
-        <v>79209999.8</v>
+        <v>151763698.5</v>
       </c>
       <c r="AC62" s="1">
-        <v>29973064.0</v>
+        <v>3481646.2968</v>
       </c>
       <c r="AD62" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="2"/>
+        <v>53945737.7032</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG62" s="1">
-        <v>-568754.624</v>
+        <v>-1207227.168</v>
       </c>
       <c r="AH62" s="1">
-        <v>-16125544.088</v>
+        <v>-19431841.832</v>
       </c>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="1">
@@ -18385,7 +18406,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="2"/>
       <c r="AO62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -18411,13 +18432,13 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>57989708.0</v>
+        <v>137725556.8</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>57989708.0</v>
+        <v>137725556.8</v>
       </c>
       <c r="S63" s="1">
         <v>0</v>
@@ -18426,13 +18447,13 @@
         <v>0</v>
       </c>
       <c r="U63" s="6">
-        <v>52190737.6</v>
+        <v>122422716.8</v>
       </c>
       <c r="V63" s="2">
         <v>0.8</v>
       </c>
       <c r="W63" s="1">
-        <v>504907.376</v>
+        <v>1207227.168</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
@@ -18440,26 +18461,28 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>31059287.0</v>
+        <v>137321729.7528</v>
       </c>
       <c r="AB63" s="1">
-        <v>71169188.0</v>
+        <v>151637228.8</v>
       </c>
       <c r="AC63" s="1">
-        <v>26930421.0</v>
+        <v>403827.04719999</v>
       </c>
       <c r="AD63" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="2"/>
+        <v>56975699.9528</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG63" s="1">
-        <v>-504907.376</v>
+        <v>-1207227.168</v>
       </c>
       <c r="AH63" s="1">
-        <v>-16630451.464</v>
+        <v>-20639069.0</v>
       </c>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="1">
@@ -18474,7 +18497,7 @@
       <c r="AM63" s="1"/>
       <c r="AN63" s="2"/>
       <c r="AO63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -18500,13 +18523,13 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>49613416.9</v>
+        <v>134664989.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>49613416.9</v>
+        <v>134664989.0</v>
       </c>
       <c r="S64" s="1">
         <v>0</v>
@@ -18515,13 +18538,13 @@
         <v>0</v>
       </c>
       <c r="U64" s="6">
-        <v>45360838.4</v>
+        <v>121198490.4</v>
       </c>
       <c r="V64" s="2">
         <v>0.8</v>
       </c>
       <c r="W64" s="1">
-        <v>436608.384</v>
+        <v>1194984.904</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
@@ -18529,26 +18552,28 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>25963409.9</v>
+        <v>134664989.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>62500018.9</v>
+        <v>149967829.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>23650007.0</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="2"/>
+        <v>59938329.7108</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG64" s="1">
-        <v>-436608.384</v>
+        <v>-1194984.904</v>
       </c>
       <c r="AH64" s="1">
-        <v>-17067059.848</v>
+        <v>-21834053.904</v>
       </c>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="1">
@@ -18563,7 +18588,7 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="2"/>
       <c r="AO64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -18589,13 +18614,13 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>40931069.3</v>
+        <v>129615051.6</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>40931069.3</v>
+        <v>129615051.6</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -18604,13 +18629,13 @@
         <v>0</v>
       </c>
       <c r="U65" s="6">
-        <v>38202331.2</v>
+        <v>118505190.4</v>
       </c>
       <c r="V65" s="2">
         <v>0.8</v>
       </c>
       <c r="W65" s="1">
-        <v>365023.312</v>
+        <v>1168051.904</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
@@ -18618,26 +18643,28 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>20749323.3</v>
+        <v>129615051.6</v>
       </c>
       <c r="AB65" s="1">
-        <v>53334423.3</v>
+        <v>146448175.6</v>
       </c>
       <c r="AC65" s="1">
-        <v>20181746.0</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="2"/>
+        <v>62789860.846</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG65" s="1">
-        <v>-365023.312</v>
+        <v>-1168051.904</v>
       </c>
       <c r="AH65" s="1">
-        <v>-17432083.16</v>
+        <v>-23002105.808</v>
       </c>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="1">
@@ -18652,7 +18679,7 @@
       <c r="AM65" s="1"/>
       <c r="AN65" s="2"/>
       <c r="AO65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:41">
@@ -18678,13 +18705,13 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>32160124.4</v>
+        <v>122208477.4</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>32160124.4</v>
+        <v>122208477.4</v>
       </c>
       <c r="S66" s="1">
         <v>0</v>
@@ -18693,13 +18720,13 @@
         <v>0</v>
       </c>
       <c r="U66" s="6">
-        <v>30873720.0</v>
+        <v>114061245.6</v>
       </c>
       <c r="V66" s="2">
         <v>0.8</v>
       </c>
       <c r="W66" s="1">
-        <v>291737.2</v>
+        <v>1123612.456</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
@@ -18707,26 +18734,28 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>15565499.4</v>
+        <v>122208477.4</v>
       </c>
       <c r="AB66" s="1">
-        <v>43854716.4</v>
+        <v>140724913.4</v>
       </c>
       <c r="AC66" s="1">
-        <v>16594625.0</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="2"/>
+        <v>65478447.3488</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG66" s="1">
-        <v>-291737.2</v>
+        <v>-1123612.456</v>
       </c>
       <c r="AH66" s="1">
-        <v>-17723820.36</v>
+        <v>-24125718.264</v>
       </c>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="1">
@@ -18741,7 +18770,7 @@
       <c r="AM66" s="1"/>
       <c r="AN66" s="2"/>
       <c r="AO66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -18767,13 +18796,13 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>23584089.9</v>
+        <v>112024437.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>23584089.9</v>
+        <v>112024437.0</v>
       </c>
       <c r="S67" s="1">
         <v>0</v>
@@ -18782,13 +18811,13 @@
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <v>23584090.4</v>
+        <v>107543460.0</v>
       </c>
       <c r="V67" s="2">
         <v>0.8</v>
       </c>
       <c r="W67" s="1">
-        <v>218840.904</v>
+        <v>1058434.6</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
@@ -18796,26 +18825,28 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>10603405.9</v>
+        <v>112024437.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>34304131.9</v>
+        <v>132392517.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>12980684.0</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="2"/>
+        <v>67942984.9628</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG67" s="1">
-        <v>-218840.904</v>
+        <v>-1058434.6</v>
       </c>
       <c r="AH67" s="1">
-        <v>-17942661.264</v>
+        <v>-25184152.864</v>
       </c>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="1">
@@ -18830,7 +18861,7 @@
       <c r="AM67" s="1"/>
       <c r="AN67" s="2"/>
       <c r="AO67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -18856,13 +18887,13 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>15565499.2</v>
+        <v>98581505.3</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>15565499.2</v>
+        <v>98581505.3</v>
       </c>
       <c r="S68" s="1">
         <v>0</v>
@@ -18871,13 +18902,13 @@
         <v>0</v>
       </c>
       <c r="U68" s="6">
-        <v>16603199.2</v>
+        <v>98581504.8</v>
       </c>
       <c r="V68" s="2">
         <v>0.8</v>
       </c>
       <c r="W68" s="1">
-        <v>149031.992</v>
+        <v>968815.048</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
@@ -18885,26 +18916,28 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>6105826.2</v>
+        <v>98581505.3</v>
       </c>
       <c r="AB68" s="1">
-        <v>24999135.2</v>
+        <v>120986392.3</v>
       </c>
       <c r="AC68" s="1">
-        <v>9459673.0</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="2"/>
+        <v>70111778.0794</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG68" s="1">
-        <v>-149031.992</v>
+        <v>-968815.048</v>
       </c>
       <c r="AH68" s="1">
-        <v>-18091693.256</v>
+        <v>-26152967.912</v>
       </c>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="1">
@@ -18919,7 +18952,7 @@
       <c r="AM68" s="1"/>
       <c r="AN68" s="2"/>
       <c r="AO68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -18945,13 +18978,13 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>8561023.5</v>
+        <v>81329742.4</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>8561023.5</v>
+        <v>81329742.4</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -18960,13 +18993,13 @@
         <v>0</v>
       </c>
       <c r="U69" s="6">
-        <v>10273228.8</v>
+        <v>86751724.8</v>
       </c>
       <c r="V69" s="2">
         <v>0.8</v>
       </c>
       <c r="W69" s="1">
-        <v>85732.288</v>
+        <v>850517.248</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
@@ -18974,26 +19007,28 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>2376539.5</v>
+        <v>81329742.4</v>
       </c>
       <c r="AB69" s="1">
-        <v>16343773.5</v>
+        <v>105975118.4</v>
       </c>
       <c r="AC69" s="1">
-        <v>6184484.0</v>
+        <v>0</v>
       </c>
       <c r="AD69" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="2"/>
+        <v>71901032.4122</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG69" s="1">
-        <v>-85732.288</v>
+        <v>-850517.248</v>
       </c>
       <c r="AH69" s="1">
-        <v>-18177425.544</v>
+        <v>-27003485.16</v>
       </c>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="1">
@@ -19008,7 +19043,7 @@
       <c r="AM69" s="1"/>
       <c r="AN69" s="2"/>
       <c r="AO69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:41">
@@ -19034,13 +19069,13 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>3139041.5</v>
+        <v>59641810.6</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>3139041.5</v>
+        <v>59641810.6</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
@@ -19049,13 +19084,13 @@
         <v>0</v>
       </c>
       <c r="U70" s="6">
-        <v>5022467.2</v>
+        <v>71570172.8</v>
       </c>
       <c r="V70" s="2">
         <v>0.8</v>
       </c>
       <c r="W70" s="1">
-        <v>33224.672</v>
+        <v>698701.728</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
@@ -19063,26 +19098,28 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>-208433.5</v>
+        <v>59641810.6</v>
       </c>
       <c r="AB70" s="1">
-        <v>8846391.5</v>
+        <v>86751724.6</v>
       </c>
       <c r="AC70" s="1">
-        <v>3347475.0</v>
+        <v>0</v>
       </c>
       <c r="AD70" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="2"/>
+        <v>73213152.2454</v>
+      </c>
+      <c r="AF70" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG70" s="1">
-        <v>-33224.672</v>
+        <v>-698701.728</v>
       </c>
       <c r="AH70" s="1">
-        <v>-18210650.216</v>
+        <v>-27702186.888</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="1">
@@ -19097,7 +19134,7 @@
       <c r="AM70" s="1"/>
       <c r="AN70" s="2"/>
       <c r="AO70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -19122,28 +19159,58 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="2"/>
+      <c r="P71" s="6">
+        <v>32802995.4</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R71" s="1">
+        <v>32802995.4</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="6">
+        <v>52484793.6</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="W71" s="1">
+        <v>507847.936</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="2"/>
+      <c r="AA71" s="1">
+        <v>32802995.4</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>62623901.4</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>0.3784</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>73934818.1442</v>
+      </c>
+      <c r="AF71" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG71" s="1">
-        <v>0.0</v>
+        <v>-507847.936</v>
       </c>
       <c r="AH71" s="1">
-        <v>-18210650.216</v>
+        <v>-28210034.824</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="1">
@@ -19157,7 +19224,9 @@
       </c>
       <c r="AM71" s="1"/>
       <c r="AN71" s="2"/>
-      <c r="AO71"/>
+      <c r="AO71" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="15">
@@ -19181,28 +19250,58 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="16"/>
+      <c r="P72" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q72" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="R72" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S72" s="5">
+        <v>0</v>
+      </c>
+      <c r="T72" s="5">
+        <v>0</v>
+      </c>
+      <c r="U72" s="5">
+        <v>28866636.0</v>
+      </c>
+      <c r="V72" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="W72" s="5">
+        <v>271666.36</v>
+      </c>
+      <c r="X72" s="16">
+        <v>0.01</v>
+      </c>
       <c r="Y72" s="5"/>
       <c r="Z72" s="16"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="16"/>
+      <c r="AA72" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB72" s="5">
+        <v>32802995.5</v>
+      </c>
+      <c r="AC72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="16">
+        <v>0.3784</v>
+      </c>
+      <c r="AE72" s="5">
+        <v>73934818.1552</v>
+      </c>
+      <c r="AF72" s="16">
+        <v>0.022</v>
+      </c>
       <c r="AG72" s="5">
-        <v>0.0</v>
+        <v>-271666.36</v>
       </c>
       <c r="AH72" s="5">
-        <v>-18210650.216</v>
+        <v>-28481701.184</v>
       </c>
       <c r="AI72" s="16"/>
       <c r="AJ72" s="5">
@@ -19216,7 +19315,9 @@
       </c>
       <c r="AM72" s="5"/>
       <c r="AN72" s="16"/>
-      <c r="AO72" s="15"/>
+      <c r="AO72" s="15" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="73" spans="1:41">
       <c r="B73" s="1"/>
@@ -19577,10 +19678,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -20290,10 +20391,22 @@
       <c r="A71">
         <v>2086</v>
       </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
         <v>2087</v>
+      </c>
+      <c r="B72">
+        <v>100.0</v>
+      </c>
+      <c r="C72">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/Feature/config/fond_tenpercent.xlsx
+++ b/tests/Feature/config/fond_tenpercent.xlsx
@@ -164,28 +164,28 @@
     <t>income</t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 7978710 - 2381964.38 (tax) = 5596745.62 from fond.2068.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 7978710 - 0 (tax) = 7978710 from fond.2068.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 8776581 - 3127973.218 (tax) = 5648607.782 from fond.2069.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 8776581 - 0 (tax) = 8776581 from fond.2069.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 9654239 - 3440770.742 (tax) = 6213468.258 from fond.2070.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 9654239 - 0 (tax) = 9654239 from fond.2070.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 10619663 - 3784847.414 (tax) = 6834815.586 from fond.2071.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 10619663 - 0 (tax) = 10619663 from fond.2071.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 11681630 - 4163333.14 (tax) = 7518296.86 from fond.2072.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 11681630 - 1715290 (tax) = 9966340 from fond.2072.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 12849793 - 4579666.554 (tax) = 8270126.446 from fond.2073.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 12849793 - 4579667 (tax) = 8270126 from fond.2073.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 14134772 - 5037633.016 (tax) = 9097138.984 from fond.2074.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 14134772 - 4415703 (tax) = 9719069 from fond.2074.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 15548249 - 5541395.522 (tax) = 10006853.478 from fond.2075.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 15548249 - 5541396 (tax) = 10006853 from fond.2075.asset.marketAmount </t>
   </si>
   <si>
     <t>fond</t>
@@ -781,7 +781,7 @@
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="8">
-        <v>1005500.0</v>
+        <v>1005311.0</v>
       </c>
       <c r="AB9" s="8">
         <v>500.0</v>
       </c>
       <c r="AC9" s="8">
-        <v>0</v>
+        <v>189.0</v>
       </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="8">
@@ -1431,17 +1431,17 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>1111550.0</v>
+        <v>1073123.0</v>
       </c>
       <c r="AB10" s="1">
         <v>101550.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>38427.0</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1">
-        <v>56630.1</v>
+        <v>56630.0</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="1">
@@ -1526,17 +1526,17 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>1228205.0</v>
+        <v>1147528.0</v>
       </c>
       <c r="AB11" s="1">
         <v>213205.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>80677.0</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1">
-        <v>83650.61</v>
+        <v>83651.0</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="1">
@@ -1621,17 +1621,17 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>1342679.182</v>
+        <v>1229185.0</v>
       </c>
       <c r="AB12" s="1">
         <v>336526.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>13846.818</v>
+        <v>127341.0</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1">
-        <v>113494.182</v>
+        <v>113495.0</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="1">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>1465260.12</v>
+        <v>1318817.0</v>
       </c>
       <c r="AB13" s="1">
         <v>472679.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>32418.88</v>
+        <v>178862.0</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1">
-        <v>146443.12</v>
+        <v>146444.0</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="1">
@@ -1811,17 +1811,17 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>1600031.954</v>
+        <v>1417224.0</v>
       </c>
       <c r="AB14" s="1">
         <v>622947.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>52915.046</v>
+        <v>235723.0</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1">
-        <v>182807.954</v>
+        <v>182809.0</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="1">
@@ -1906,17 +1906,17 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>1748212.278</v>
+        <v>1525282.0</v>
       </c>
       <c r="AB15" s="1">
         <v>788742.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>75529.722</v>
+        <v>298460.0</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1">
-        <v>222930.278</v>
+        <v>222931.0</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="1">
@@ -2001,17 +2001,17 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>1911142.83</v>
+        <v>1643957.0</v>
       </c>
       <c r="AB16" s="1">
         <v>971616.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>100473.17</v>
+        <v>367659.0</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1">
-        <v>267185.83</v>
+        <v>267187.0</v>
       </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="1">
@@ -2096,17 +2096,17 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>2090297.946</v>
+        <v>1774310.0</v>
       </c>
       <c r="AB17" s="1">
         <v>1173278.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>127980.054</v>
+        <v>443968.0</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1">
-        <v>315987.946</v>
+        <v>315989.0</v>
       </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="1">
@@ -2191,17 +2191,17 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>2287300.278</v>
+        <v>1917509.0</v>
       </c>
       <c r="AB18" s="1">
         <v>1395606.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>158305.722</v>
+        <v>528097.0</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="1">
-        <v>369791.278</v>
+        <v>369792.0</v>
       </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="1">
@@ -2286,17 +2286,17 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>2503934.952</v>
+        <v>2074839.0</v>
       </c>
       <c r="AB19" s="1">
         <v>1640667.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>191732.048</v>
+        <v>620828.0</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1">
-        <v>429095.952</v>
+        <v>429097.0</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="1">
@@ -2381,17 +2381,17 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>2742164.1</v>
+        <v>2247712.0</v>
       </c>
       <c r="AB20" s="1">
         <v>1910734.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>228569.9</v>
+        <v>723022.0</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>494452.1</v>
+        <v>494453.0</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>3004148.854</v>
+        <v>2437684.0</v>
       </c>
       <c r="AB21" s="1">
         <v>2208307.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>269158.146</v>
+        <v>835623.0</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>566464.854</v>
+        <v>566466.0</v>
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
@@ -2571,17 +2571,17 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>3292262.89</v>
+        <v>2646463.0</v>
       </c>
       <c r="AB22" s="1">
         <v>2536138.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>313875.11</v>
+        <v>959675.0</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>645799.89</v>
+        <v>645801.0</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
@@ -2666,17 +2666,17 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>3609121.434</v>
+        <v>2875932.0</v>
       </c>
       <c r="AB23" s="1">
         <v>2897252.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>363130.566</v>
+        <v>1096320.0</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>733189.434</v>
+        <v>733191.0</v>
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>3957596.928</v>
+        <v>3128158.0</v>
       </c>
       <c r="AB24" s="1">
         <v>3294977.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>417380.072</v>
+        <v>1246819.0</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>829438.928</v>
+        <v>829440.0</v>
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
@@ -2856,17 +2856,17 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>4340851.378</v>
+        <v>3405417.0</v>
       </c>
       <c r="AB25" s="1">
         <v>3732975.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>477123.622</v>
+        <v>1412558.0</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>935434.378</v>
+        <v>935435.0</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>4762364.384</v>
+        <v>3710214.0</v>
       </c>
       <c r="AB26" s="1">
         <v>4215273.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>542908.616</v>
+        <v>1595059.0</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
-        <v>1052150.384</v>
+        <v>1052151.0</v>
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
@@ -3046,17 +3046,17 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>5225958.984</v>
+        <v>4045300.0</v>
       </c>
       <c r="AB27" s="1">
         <v>4746300.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>615341.016</v>
+        <v>1796000.0</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
-        <v>1180658.984</v>
+        <v>1180660.0</v>
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1">
@@ -3141,17 +3141,17 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>5735845.444</v>
+        <v>4413706.0</v>
       </c>
       <c r="AB28" s="1">
         <v>5330930.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>695084.556</v>
+        <v>2017224.0</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
-        <v>1322139.444</v>
+        <v>1322140.0</v>
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="1">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>6296651.95</v>
+        <v>4818763.0</v>
       </c>
       <c r="AB29" s="1">
         <v>5974523.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>782871.05</v>
+        <v>2260760.0</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
-        <v>1477888.95</v>
+        <v>1477890.0</v>
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1">
@@ -3331,17 +3331,17 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>6913471.4</v>
+        <v>5264137.0</v>
       </c>
       <c r="AB30" s="1">
         <v>6682975.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>879503.6</v>
+        <v>2528838.0</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
-        <v>1649334.4</v>
+        <v>1649335.0</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="1">
@@ -3426,17 +3426,17 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>7591905.406</v>
+        <v>5753860.0</v>
       </c>
       <c r="AB31" s="1">
         <v>7462773.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>985867.594</v>
+        <v>2823913.0</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
-        <v>1838045.406</v>
+        <v>1838046.0</v>
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="1">
@@ -3521,17 +3521,17 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>8338113.506</v>
+        <v>6292365.0</v>
       </c>
       <c r="AB32" s="1">
         <v>8321050.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>1102936.494</v>
+        <v>3148685.0</v>
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
-        <v>2045748.506</v>
+        <v>2045749.0</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="1">
@@ -3616,17 +3616,17 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>9158873.916</v>
+        <v>6884531.0</v>
       </c>
       <c r="AB33" s="1">
         <v>9265655.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>1231781.084</v>
+        <v>3506124.0</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
-        <v>2274342.916</v>
+        <v>2274343.0</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="1">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>10061642.778</v>
+        <v>7535725.0</v>
       </c>
       <c r="AB34" s="1">
         <v>10305221.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>1373578.222</v>
+        <v>3899496.0</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
-        <v>2525917.778</v>
+        <v>2525918.0</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
@@ -3806,17 +3806,17 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>11054620.124</v>
+        <v>8251849.0</v>
       </c>
       <c r="AB35" s="1">
         <v>11449243.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>1529622.876</v>
+        <v>4332394.0</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
-        <v>2802771.124</v>
+        <v>2802771.0</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="1">
@@ -3901,17 +3901,17 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>12146827.798</v>
+        <v>9039397.0</v>
       </c>
       <c r="AB36" s="1">
         <v>12708167.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>1701339.202</v>
+        <v>4808770.0</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
-        <v>3107430.798</v>
+        <v>3107431.0</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
@@ -3996,17 +3996,17 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>13348187.446</v>
+        <v>9905510.0</v>
       </c>
       <c r="AB37" s="1">
         <v>14093484.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>1890296.554</v>
+        <v>5332974.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>3442677.446</v>
+        <v>3442678.0</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>14669613.75</v>
+        <v>10858044.0</v>
       </c>
       <c r="AB38" s="1">
         <v>15617832.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>2098218.25</v>
+        <v>5909788.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>3811569.75</v>
+        <v>3811570.0</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="1">
@@ -4186,17 +4186,17 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>16123115.28</v>
+        <v>11905643.0</v>
       </c>
       <c r="AB39" s="1">
         <v>17295115.0</v>
       </c>
       <c r="AC39" s="1">
-        <v>2326999.72</v>
+        <v>6544472.0</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
-        <v>4217472.28</v>
+        <v>4217473.0</v>
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="1">
@@ -4281,17 +4281,17 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>17721900.074</v>
+        <v>13057814.0</v>
       </c>
       <c r="AB40" s="11">
         <v>19140627.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>2578726.926</v>
+        <v>7242813.0</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>4664086.074</v>
+        <v>4664087.0</v>
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
@@ -4376,17 +4376,17 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>19480494.254</v>
+        <v>14325012.0</v>
       </c>
       <c r="AB41" s="1">
         <v>21171190.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>2855695.746</v>
+        <v>8011178.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>5155482.254</v>
+        <v>5155483.0</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="1">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>21414879.052</v>
+        <v>15718740.0</v>
       </c>
       <c r="AB42" s="1">
         <v>23405309.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>3160429.948</v>
+        <v>8856569.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>5696139.052</v>
+        <v>5696140.0</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="1">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>23542634.532</v>
+        <v>17251652.0</v>
       </c>
       <c r="AB43" s="1">
         <v>25863340.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>3495705.468</v>
+        <v>9786688.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>6290982.532</v>
+        <v>6290983.0</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="1">
@@ -4661,17 +4661,17 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>25883097.36</v>
+        <v>18937666.0</v>
       </c>
       <c r="AB44" s="1">
         <v>28567674.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>3864576.64</v>
+        <v>10810008.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>6945431.36</v>
+        <v>6945432.0</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="1">
@@ -4756,17 +4756,17 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>28457538.062</v>
+        <v>20792092.0</v>
       </c>
       <c r="AB45" s="1">
         <v>31542941.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>4270402.938</v>
+        <v>11935849.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>7665446.062</v>
+        <v>7665447.0</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="1">
@@ -4851,17 +4851,17 @@
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>31289355.232</v>
+        <v>22831772.0</v>
       </c>
       <c r="AB46" s="1">
         <v>34816235.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>4716879.768</v>
+        <v>13174463.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>8457583.232</v>
+        <v>8457584.0</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="1">
@@ -4946,17 +4946,17 @@
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>34404285.13</v>
+        <v>25075230.0</v>
       </c>
       <c r="AB47" s="1">
         <v>38417359.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>5208073.87</v>
+        <v>14537129.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>9329055.13</v>
+        <v>9329056.0</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="1">
@@ -5041,17 +5041,17 @@
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>37830640.22</v>
+        <v>27542845.0</v>
       </c>
       <c r="AB48" s="1">
         <v>42379095.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>5748454.78</v>
+        <v>16036250.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>10287795.22</v>
+        <v>10287796.0</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="1">
@@ -5136,17 +5136,17 @@
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>41599563.33</v>
+        <v>30257033.0</v>
       </c>
       <c r="AB49" s="1">
         <v>46737505.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>6342941.67</v>
+        <v>17685472.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>11342530.33</v>
+        <v>11342531.0</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="1">
@@ -5231,17 +5231,17 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>45745309.962</v>
+        <v>33242450.0</v>
       </c>
       <c r="AB50" s="1">
         <v>51532256.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>6996946.038</v>
+        <v>19499806.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>12502859.962</v>
+        <v>12502861.0</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="1">
@@ -5326,17 +5326,17 @@
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>50305563.566</v>
+        <v>36526220.0</v>
       </c>
       <c r="AB51" s="1">
         <v>56806982.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>7716418.434</v>
+        <v>21495762.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>13779343.566</v>
+        <v>13779345.0</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="1">
@@ -5421,17 +5421,17 @@
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>55321773.526</v>
+        <v>40138177.0</v>
       </c>
       <c r="AB52" s="1">
         <v>62609680.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>8507906.474</v>
+        <v>23691503.0</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>15183596.526</v>
+        <v>15183598.0</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="1">
@@ -5462,7 +5462,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>5596745.62</v>
+        <v>7978710.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -5516,17 +5516,17 @@
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>52166353.0</v>
+        <v>35631163.0</v>
       </c>
       <c r="AB53" s="13">
         <v>68194777.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>9269714.0</v>
+        <v>25804904.0</v>
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>16535190.0</v>
+        <v>12801634.0</v>
       </c>
       <c r="AF53" s="14"/>
       <c r="AG53" s="13">
@@ -5537,10 +5537,10 @@
       </c>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
-        <v>5596745.62</v>
+        <v>7978710.0</v>
       </c>
       <c r="AK53" s="13">
-        <v>27983728.1</v>
+        <v>39893550.0</v>
       </c>
       <c r="AL53" s="13">
         <v>-1220000.0</v>
@@ -5557,7 +5557,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>5648607.782</v>
+        <v>8776581.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -5611,17 +5611,17 @@
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>50494941.4678</v>
+        <v>32685391.9</v>
       </c>
       <c r="AB54" s="1">
         <v>66702015.9</v>
       </c>
       <c r="AC54" s="1">
-        <v>7430493.4322</v>
+        <v>25240043.0</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>17809549.5678</v>
+        <v>9673661.0</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="1">
@@ -5632,10 +5632,10 @@
       </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
-        <v>5648607.782</v>
+        <v>8776581.0</v>
       </c>
       <c r="AK54" s="1">
-        <v>28243038.91</v>
+        <v>43882905.0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>6213468.258</v>
+        <v>9654239.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -5706,17 +5706,17 @@
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>48330461.622</v>
+        <v>29352749.1</v>
       </c>
       <c r="AB55" s="1">
         <v>62752555.1</v>
       </c>
       <c r="AC55" s="1">
-        <v>4767854.478</v>
+        <v>23745567.0</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>18977712.522</v>
+        <v>6232890.0</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="1">
@@ -5727,10 +5727,10 @@
       </c>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
-        <v>6213468.258</v>
+        <v>9654239.0</v>
       </c>
       <c r="AK55" s="1">
-        <v>31067341.29</v>
+        <v>48271195.0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>6834815.586</v>
+        <v>10619663.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -5801,17 +5801,17 @@
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>45032419.6334</v>
+        <v>25026723.7</v>
       </c>
       <c r="AB56" s="1">
         <v>57346181.7</v>
       </c>
       <c r="AC56" s="1">
-        <v>1694099.0666</v>
+        <v>21699795.0</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>20005695.9334</v>
+        <v>2448043.0</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="1">
@@ -5822,10 +5822,10 @@
       </c>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
-        <v>6834815.586</v>
+        <v>10619663.0</v>
       </c>
       <c r="AK56" s="1">
-        <v>34174077.93</v>
+        <v>53098315.0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -5842,7 +5842,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>7518296.86</v>
+        <v>9966340.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -5896,17 +5896,17 @@
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>38549378.0</v>
+        <v>19541965.0</v>
       </c>
       <c r="AB57" s="13">
         <v>50231008.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>19007413.0</v>
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>20853782.2494</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="14"/>
       <c r="AG57" s="13">
@@ -5917,10 +5917,10 @@
       </c>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
-        <v>7518296.86</v>
+        <v>9966340.0</v>
       </c>
       <c r="AK57" s="13">
-        <v>37591484.3</v>
+        <v>49831700.0</v>
       </c>
       <c r="AL57" s="13">
         <v>0</v>
@@ -5937,7 +5937,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>8270126.446</v>
+        <v>8270126.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -5991,17 +5991,17 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>28269543.7</v>
+        <v>12709986.7</v>
       </c>
       <c r="AB58" s="1">
         <v>41119336.7</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>15559557.0</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>21475712.2108</v>
+        <v>621930.0</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="1">
@@ -6012,10 +6012,10 @@
       </c>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
-        <v>8270126.446</v>
+        <v>8270126.0</v>
       </c>
       <c r="AK58" s="1">
-        <v>41350632.23</v>
+        <v>41350630.0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -6032,7 +6032,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>9097138.984</v>
+        <v>9719069.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -6086,17 +6086,17 @@
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>15548248.8</v>
+        <v>4316193.8</v>
       </c>
       <c r="AB59" s="1">
         <v>29683020.8</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>11232055.0</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>21817773.6844</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="1">
@@ -6107,10 +6107,10 @@
       </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
-        <v>9097138.984</v>
+        <v>9719069.0</v>
       </c>
       <c r="AK59" s="1">
-        <v>45485694.92</v>
+        <v>48595345.0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <v>10006853.478</v>
+        <v>10006853.0</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="5">
@@ -6181,17 +6181,17 @@
       </c>
       <c r="Z60" s="16"/>
       <c r="AA60" s="5">
-        <v>0.099999997764826</v>
+        <v>-5883456.9</v>
       </c>
       <c r="AB60" s="5">
         <v>15548249.1</v>
       </c>
       <c r="AC60" s="5">
-        <v>0</v>
+        <v>5883457.0</v>
       </c>
       <c r="AD60" s="16"/>
       <c r="AE60" s="5">
-        <v>21817773.6866</v>
+        <v>0.0</v>
       </c>
       <c r="AF60" s="16"/>
       <c r="AG60" s="5">
@@ -6202,10 +6202,10 @@
       </c>
       <c r="AI60" s="16"/>
       <c r="AJ60" s="5">
-        <v>10006853.478</v>
+        <v>10006853.0</v>
       </c>
       <c r="AK60" s="5">
-        <v>50034267.39</v>
+        <v>50034265.0</v>
       </c>
       <c r="AL60" s="5">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>5596745.62</v>
+        <v>7978710.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -10571,10 +10571,10 @@
       </c>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
-        <v>5596745.62</v>
+        <v>7978710.0</v>
       </c>
       <c r="AK53" s="13">
-        <v>27983728.1</v>
+        <v>39893550.0</v>
       </c>
       <c r="AL53" s="13">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>5648607.782</v>
+        <v>8776581.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -10638,10 +10638,10 @@
       </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
-        <v>5648607.782</v>
+        <v>8776581.0</v>
       </c>
       <c r="AK54" s="1">
-        <v>28243038.91</v>
+        <v>43882905.0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -10660,7 +10660,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>6213468.258</v>
+        <v>9654239.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -10705,10 +10705,10 @@
       </c>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
-        <v>6213468.258</v>
+        <v>9654239.0</v>
       </c>
       <c r="AK55" s="1">
-        <v>31067341.29</v>
+        <v>48271195.0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>6834815.586</v>
+        <v>10619663.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -10772,10 +10772,10 @@
       </c>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
-        <v>6834815.586</v>
+        <v>10619663.0</v>
       </c>
       <c r="AK56" s="1">
-        <v>34174077.93</v>
+        <v>53098315.0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -10794,7 +10794,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>7518296.86</v>
+        <v>9966340.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -10839,10 +10839,10 @@
       </c>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
-        <v>7518296.86</v>
+        <v>9966340.0</v>
       </c>
       <c r="AK57" s="13">
-        <v>37591484.3</v>
+        <v>49831700.0</v>
       </c>
       <c r="AL57" s="13">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>8270126.446</v>
+        <v>8270126.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -10906,10 +10906,10 @@
       </c>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
-        <v>8270126.446</v>
+        <v>8270126.0</v>
       </c>
       <c r="AK58" s="1">
-        <v>41350632.23</v>
+        <v>41350630.0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -10928,7 +10928,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>9097138.984</v>
+        <v>9719069.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -10973,10 +10973,10 @@
       </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
-        <v>9097138.984</v>
+        <v>9719069.0</v>
       </c>
       <c r="AK59" s="1">
-        <v>45485694.92</v>
+        <v>48595345.0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <v>10006853.478</v>
+        <v>10006853.0</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="5">
@@ -11040,10 +11040,10 @@
       </c>
       <c r="AI60" s="16"/>
       <c r="AJ60" s="5">
-        <v>10006853.478</v>
+        <v>10006853.0</v>
       </c>
       <c r="AK60" s="5">
-        <v>50034267.39</v>
+        <v>50034265.0</v>
       </c>
       <c r="AL60" s="5">
         <v>0</v>
@@ -11931,7 +11931,7 @@
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
@@ -12370,13 +12370,13 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="8">
-        <v>1005500.0</v>
+        <v>1005311.0</v>
       </c>
       <c r="AB9" s="8">
         <v>500.0</v>
       </c>
       <c r="AC9" s="8">
-        <v>0</v>
+        <v>189.0</v>
       </c>
       <c r="AD9" s="9">
         <v>0.3784</v>
@@ -12463,19 +12463,19 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>1111550.0</v>
+        <v>1073123.0</v>
       </c>
       <c r="AB10" s="1">
         <v>101550.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>38427.0</v>
       </c>
       <c r="AD10" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE10" s="1">
-        <v>56630.1</v>
+        <v>56630.0</v>
       </c>
       <c r="AF10" s="2">
         <v>0.022</v>
@@ -12556,19 +12556,19 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>1228205.0</v>
+        <v>1147528.0</v>
       </c>
       <c r="AB11" s="1">
         <v>213205.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>80677.0</v>
       </c>
       <c r="AD11" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE11" s="1">
-        <v>83650.61</v>
+        <v>83651.0</v>
       </c>
       <c r="AF11" s="2">
         <v>0.022</v>
@@ -12649,19 +12649,19 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>1342679.182</v>
+        <v>1229185.0</v>
       </c>
       <c r="AB12" s="1">
         <v>336526.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>13846.818</v>
+        <v>127341.0</v>
       </c>
       <c r="AD12" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE12" s="1">
-        <v>113494.182</v>
+        <v>113495.0</v>
       </c>
       <c r="AF12" s="2">
         <v>0.022</v>
@@ -12742,19 +12742,19 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>1465260.12</v>
+        <v>1318817.0</v>
       </c>
       <c r="AB13" s="1">
         <v>472679.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>32418.88</v>
+        <v>178862.0</v>
       </c>
       <c r="AD13" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE13" s="1">
-        <v>146443.12</v>
+        <v>146444.0</v>
       </c>
       <c r="AF13" s="2">
         <v>0.022</v>
@@ -12835,19 +12835,19 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>1600031.954</v>
+        <v>1417224.0</v>
       </c>
       <c r="AB14" s="1">
         <v>622947.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>52915.046</v>
+        <v>235723.0</v>
       </c>
       <c r="AD14" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE14" s="1">
-        <v>182807.954</v>
+        <v>182809.0</v>
       </c>
       <c r="AF14" s="2">
         <v>0.022</v>
@@ -12928,19 +12928,19 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>1748212.278</v>
+        <v>1525282.0</v>
       </c>
       <c r="AB15" s="1">
         <v>788742.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>75529.722</v>
+        <v>298460.0</v>
       </c>
       <c r="AD15" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE15" s="1">
-        <v>222930.278</v>
+        <v>222931.0</v>
       </c>
       <c r="AF15" s="2">
         <v>0.022</v>
@@ -13021,19 +13021,19 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>1911142.83</v>
+        <v>1643957.0</v>
       </c>
       <c r="AB16" s="1">
         <v>971616.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>100473.17</v>
+        <v>367659.0</v>
       </c>
       <c r="AD16" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE16" s="1">
-        <v>267185.83</v>
+        <v>267187.0</v>
       </c>
       <c r="AF16" s="2">
         <v>0.022</v>
@@ -13114,19 +13114,19 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>2090297.946</v>
+        <v>1774310.0</v>
       </c>
       <c r="AB17" s="1">
         <v>1173278.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>127980.054</v>
+        <v>443968.0</v>
       </c>
       <c r="AD17" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE17" s="1">
-        <v>315987.946</v>
+        <v>315989.0</v>
       </c>
       <c r="AF17" s="2">
         <v>0.022</v>
@@ -13207,19 +13207,19 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>2287300.278</v>
+        <v>1917509.0</v>
       </c>
       <c r="AB18" s="1">
         <v>1395606.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>158305.722</v>
+        <v>528097.0</v>
       </c>
       <c r="AD18" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE18" s="1">
-        <v>369791.278</v>
+        <v>369792.0</v>
       </c>
       <c r="AF18" s="2">
         <v>0.022</v>
@@ -13300,19 +13300,19 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>2503934.952</v>
+        <v>2074839.0</v>
       </c>
       <c r="AB19" s="1">
         <v>1640667.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>191732.048</v>
+        <v>620828.0</v>
       </c>
       <c r="AD19" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE19" s="1">
-        <v>429095.952</v>
+        <v>429097.0</v>
       </c>
       <c r="AF19" s="2">
         <v>0.022</v>
@@ -13393,19 +13393,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>2742164.1</v>
+        <v>2247712.0</v>
       </c>
       <c r="AB20" s="1">
         <v>1910734.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>228569.9</v>
+        <v>723022.0</v>
       </c>
       <c r="AD20" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE20" s="1">
-        <v>494452.1</v>
+        <v>494453.0</v>
       </c>
       <c r="AF20" s="2">
         <v>0.022</v>
@@ -13486,19 +13486,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>3004148.854</v>
+        <v>2437684.0</v>
       </c>
       <c r="AB21" s="1">
         <v>2208307.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>269158.146</v>
+        <v>835623.0</v>
       </c>
       <c r="AD21" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE21" s="1">
-        <v>566464.854</v>
+        <v>566466.0</v>
       </c>
       <c r="AF21" s="2">
         <v>0.022</v>
@@ -13579,19 +13579,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>3292262.89</v>
+        <v>2646463.0</v>
       </c>
       <c r="AB22" s="1">
         <v>2536138.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>313875.11</v>
+        <v>959675.0</v>
       </c>
       <c r="AD22" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE22" s="1">
-        <v>645799.89</v>
+        <v>645801.0</v>
       </c>
       <c r="AF22" s="2">
         <v>0.022</v>
@@ -13672,19 +13672,19 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>3609121.434</v>
+        <v>2875932.0</v>
       </c>
       <c r="AB23" s="1">
         <v>2897252.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>363130.566</v>
+        <v>1096320.0</v>
       </c>
       <c r="AD23" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE23" s="1">
-        <v>733189.434</v>
+        <v>733191.0</v>
       </c>
       <c r="AF23" s="2">
         <v>0.022</v>
@@ -13765,19 +13765,19 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>3957596.928</v>
+        <v>3128158.0</v>
       </c>
       <c r="AB24" s="1">
         <v>3294977.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>417380.072</v>
+        <v>1246819.0</v>
       </c>
       <c r="AD24" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE24" s="1">
-        <v>829438.928</v>
+        <v>829440.0</v>
       </c>
       <c r="AF24" s="2">
         <v>0.022</v>
@@ -13858,19 +13858,19 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>4340851.378</v>
+        <v>3405417.0</v>
       </c>
       <c r="AB25" s="1">
         <v>3732975.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>477123.622</v>
+        <v>1412558.0</v>
       </c>
       <c r="AD25" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE25" s="1">
-        <v>935434.378</v>
+        <v>935435.0</v>
       </c>
       <c r="AF25" s="2">
         <v>0.022</v>
@@ -13951,19 +13951,19 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>4762364.384</v>
+        <v>3710214.0</v>
       </c>
       <c r="AB26" s="1">
         <v>4215273.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>542908.616</v>
+        <v>1595059.0</v>
       </c>
       <c r="AD26" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE26" s="1">
-        <v>1052150.384</v>
+        <v>1052151.0</v>
       </c>
       <c r="AF26" s="2">
         <v>0.022</v>
@@ -14044,19 +14044,19 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>5225958.984</v>
+        <v>4045300.0</v>
       </c>
       <c r="AB27" s="1">
         <v>4746300.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>615341.016</v>
+        <v>1796000.0</v>
       </c>
       <c r="AD27" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE27" s="1">
-        <v>1180658.984</v>
+        <v>1180660.0</v>
       </c>
       <c r="AF27" s="2">
         <v>0.022</v>
@@ -14137,19 +14137,19 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>5735845.444</v>
+        <v>4413706.0</v>
       </c>
       <c r="AB28" s="1">
         <v>5330930.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>695084.556</v>
+        <v>2017224.0</v>
       </c>
       <c r="AD28" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE28" s="1">
-        <v>1322139.444</v>
+        <v>1322140.0</v>
       </c>
       <c r="AF28" s="2">
         <v>0.022</v>
@@ -14230,19 +14230,19 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>6296651.95</v>
+        <v>4818763.0</v>
       </c>
       <c r="AB29" s="1">
         <v>5974523.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>782871.05</v>
+        <v>2260760.0</v>
       </c>
       <c r="AD29" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE29" s="1">
-        <v>1477888.95</v>
+        <v>1477890.0</v>
       </c>
       <c r="AF29" s="2">
         <v>0.022</v>
@@ -14323,19 +14323,19 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>6913471.4</v>
+        <v>5264137.0</v>
       </c>
       <c r="AB30" s="1">
         <v>6682975.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>879503.6</v>
+        <v>2528838.0</v>
       </c>
       <c r="AD30" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE30" s="1">
-        <v>1649334.4</v>
+        <v>1649335.0</v>
       </c>
       <c r="AF30" s="2">
         <v>0.022</v>
@@ -14416,19 +14416,19 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>7591905.406</v>
+        <v>5753860.0</v>
       </c>
       <c r="AB31" s="1">
         <v>7462773.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>985867.594</v>
+        <v>2823913.0</v>
       </c>
       <c r="AD31" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE31" s="1">
-        <v>1838045.406</v>
+        <v>1838046.0</v>
       </c>
       <c r="AF31" s="2">
         <v>0.022</v>
@@ -14509,19 +14509,19 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>8338113.506</v>
+        <v>6292365.0</v>
       </c>
       <c r="AB32" s="1">
         <v>8321050.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>1102936.494</v>
+        <v>3148685.0</v>
       </c>
       <c r="AD32" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE32" s="1">
-        <v>2045748.506</v>
+        <v>2045749.0</v>
       </c>
       <c r="AF32" s="2">
         <v>0.022</v>
@@ -14602,19 +14602,19 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>9158873.916</v>
+        <v>6884531.0</v>
       </c>
       <c r="AB33" s="1">
         <v>9265655.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>1231781.084</v>
+        <v>3506124.0</v>
       </c>
       <c r="AD33" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE33" s="1">
-        <v>2274342.916</v>
+        <v>2274343.0</v>
       </c>
       <c r="AF33" s="2">
         <v>0.022</v>
@@ -14695,19 +14695,19 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>10061642.778</v>
+        <v>7535725.0</v>
       </c>
       <c r="AB34" s="1">
         <v>10305221.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>1373578.222</v>
+        <v>3899496.0</v>
       </c>
       <c r="AD34" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE34" s="1">
-        <v>2525917.778</v>
+        <v>2525918.0</v>
       </c>
       <c r="AF34" s="2">
         <v>0.022</v>
@@ -14788,19 +14788,19 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>11054620.124</v>
+        <v>8251849.0</v>
       </c>
       <c r="AB35" s="1">
         <v>11449243.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>1529622.876</v>
+        <v>4332394.0</v>
       </c>
       <c r="AD35" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE35" s="1">
-        <v>2802771.124</v>
+        <v>2802771.0</v>
       </c>
       <c r="AF35" s="2">
         <v>0.022</v>
@@ -14881,19 +14881,19 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>12146827.798</v>
+        <v>9039397.0</v>
       </c>
       <c r="AB36" s="1">
         <v>12708167.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>1701339.202</v>
+        <v>4808770.0</v>
       </c>
       <c r="AD36" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE36" s="1">
-        <v>3107430.798</v>
+        <v>3107431.0</v>
       </c>
       <c r="AF36" s="2">
         <v>0.022</v>
@@ -14974,19 +14974,19 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>13348187.446</v>
+        <v>9905510.0</v>
       </c>
       <c r="AB37" s="1">
         <v>14093484.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>1890296.554</v>
+        <v>5332974.0</v>
       </c>
       <c r="AD37" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE37" s="1">
-        <v>3442677.446</v>
+        <v>3442678.0</v>
       </c>
       <c r="AF37" s="2">
         <v>0.022</v>
@@ -15067,19 +15067,19 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>14669613.75</v>
+        <v>10858044.0</v>
       </c>
       <c r="AB38" s="1">
         <v>15617832.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>2098218.25</v>
+        <v>5909788.0</v>
       </c>
       <c r="AD38" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE38" s="1">
-        <v>3811569.75</v>
+        <v>3811570.0</v>
       </c>
       <c r="AF38" s="2">
         <v>0.022</v>
@@ -15160,19 +15160,19 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>16123115.28</v>
+        <v>11905643.0</v>
       </c>
       <c r="AB39" s="1">
         <v>17295115.0</v>
       </c>
       <c r="AC39" s="1">
-        <v>2326999.72</v>
+        <v>6544472.0</v>
       </c>
       <c r="AD39" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE39" s="1">
-        <v>4217472.28</v>
+        <v>4217473.0</v>
       </c>
       <c r="AF39" s="2">
         <v>0.022</v>
@@ -15253,19 +15253,19 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>17721900.074</v>
+        <v>13057814.0</v>
       </c>
       <c r="AB40" s="11">
         <v>19140627.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>2578726.926</v>
+        <v>7242813.0</v>
       </c>
       <c r="AD40" s="12">
         <v>0.3784</v>
       </c>
       <c r="AE40" s="11">
-        <v>4664086.074</v>
+        <v>4664087.0</v>
       </c>
       <c r="AF40" s="12">
         <v>0.022</v>
@@ -15346,19 +15346,19 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>19480494.254</v>
+        <v>14325012.0</v>
       </c>
       <c r="AB41" s="1">
         <v>21171190.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>2855695.746</v>
+        <v>8011178.0</v>
       </c>
       <c r="AD41" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE41" s="1">
-        <v>5155482.254</v>
+        <v>5155483.0</v>
       </c>
       <c r="AF41" s="2">
         <v>0.022</v>
@@ -15439,19 +15439,19 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>21414879.052</v>
+        <v>15718740.0</v>
       </c>
       <c r="AB42" s="1">
         <v>23405309.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>3160429.948</v>
+        <v>8856569.0</v>
       </c>
       <c r="AD42" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE42" s="1">
-        <v>5696139.052</v>
+        <v>5696140.0</v>
       </c>
       <c r="AF42" s="2">
         <v>0.022</v>
@@ -15532,19 +15532,19 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>23542634.532</v>
+        <v>17251652.0</v>
       </c>
       <c r="AB43" s="1">
         <v>25863340.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>3495705.468</v>
+        <v>9786688.0</v>
       </c>
       <c r="AD43" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE43" s="1">
-        <v>6290982.532</v>
+        <v>6290983.0</v>
       </c>
       <c r="AF43" s="2">
         <v>0.022</v>
@@ -15625,19 +15625,19 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>25883097.36</v>
+        <v>18937666.0</v>
       </c>
       <c r="AB44" s="1">
         <v>28567674.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>3864576.64</v>
+        <v>10810008.0</v>
       </c>
       <c r="AD44" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE44" s="1">
-        <v>6945431.36</v>
+        <v>6945432.0</v>
       </c>
       <c r="AF44" s="2">
         <v>0.022</v>
@@ -15718,19 +15718,19 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>28457538.062</v>
+        <v>20792092.0</v>
       </c>
       <c r="AB45" s="1">
         <v>31542941.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>4270402.938</v>
+        <v>11935849.0</v>
       </c>
       <c r="AD45" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE45" s="1">
-        <v>7665446.062</v>
+        <v>7665447.0</v>
       </c>
       <c r="AF45" s="2">
         <v>0.022</v>
@@ -15811,19 +15811,19 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>31289355.232</v>
+        <v>22831772.0</v>
       </c>
       <c r="AB46" s="1">
         <v>34816235.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>4716879.768</v>
+        <v>13174463.0</v>
       </c>
       <c r="AD46" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE46" s="1">
-        <v>8457583.232</v>
+        <v>8457584.0</v>
       </c>
       <c r="AF46" s="2">
         <v>0.022</v>
@@ -15904,19 +15904,19 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>34404285.13</v>
+        <v>25075230.0</v>
       </c>
       <c r="AB47" s="1">
         <v>38417359.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>5208073.87</v>
+        <v>14537129.0</v>
       </c>
       <c r="AD47" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE47" s="1">
-        <v>9329055.13</v>
+        <v>9329056.0</v>
       </c>
       <c r="AF47" s="2">
         <v>0.022</v>
@@ -15997,19 +15997,19 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>37830640.22</v>
+        <v>27542845.0</v>
       </c>
       <c r="AB48" s="1">
         <v>42379095.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>5748454.78</v>
+        <v>16036250.0</v>
       </c>
       <c r="AD48" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE48" s="1">
-        <v>10287795.22</v>
+        <v>10287796.0</v>
       </c>
       <c r="AF48" s="2">
         <v>0.022</v>
@@ -16090,19 +16090,19 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>41599563.33</v>
+        <v>30257033.0</v>
       </c>
       <c r="AB49" s="1">
         <v>46737505.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>6342941.67</v>
+        <v>17685472.0</v>
       </c>
       <c r="AD49" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE49" s="1">
-        <v>11342530.33</v>
+        <v>11342531.0</v>
       </c>
       <c r="AF49" s="2">
         <v>0.022</v>
@@ -16183,19 +16183,19 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>45745309.962</v>
+        <v>33242450.0</v>
       </c>
       <c r="AB50" s="1">
         <v>51532256.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>6996946.038</v>
+        <v>19499806.0</v>
       </c>
       <c r="AD50" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE50" s="1">
-        <v>12502859.962</v>
+        <v>12502861.0</v>
       </c>
       <c r="AF50" s="2">
         <v>0.022</v>
@@ -16276,19 +16276,19 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>50305563.566</v>
+        <v>36526220.0</v>
       </c>
       <c r="AB51" s="1">
         <v>56806982.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>7716418.434</v>
+        <v>21495762.0</v>
       </c>
       <c r="AD51" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE51" s="1">
-        <v>13779343.566</v>
+        <v>13779345.0</v>
       </c>
       <c r="AF51" s="2">
         <v>0.022</v>
@@ -16369,19 +16369,19 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>55321773.526</v>
+        <v>40138177.0</v>
       </c>
       <c r="AB52" s="1">
         <v>62609680.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>8507906.474</v>
+        <v>23691503.0</v>
       </c>
       <c r="AD52" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE52" s="1">
-        <v>15183596.526</v>
+        <v>15183598.0</v>
       </c>
       <c r="AF52" s="2">
         <v>0.022</v>
@@ -16462,19 +16462,19 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>52166353.0</v>
+        <v>35631163.0</v>
       </c>
       <c r="AB53" s="13">
         <v>68194777.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>9269714.0</v>
+        <v>25804904.0</v>
       </c>
       <c r="AD53" s="14">
         <v>0.3784</v>
       </c>
       <c r="AE53" s="13">
-        <v>16535190.0</v>
+        <v>12801634.0</v>
       </c>
       <c r="AF53" s="14">
         <v>0.022</v>
@@ -16553,19 +16553,19 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>50494941.4678</v>
+        <v>32685391.9</v>
       </c>
       <c r="AB54" s="1">
         <v>66702015.9</v>
       </c>
       <c r="AC54" s="1">
-        <v>7430493.4322</v>
+        <v>25240043.0</v>
       </c>
       <c r="AD54" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE54" s="1">
-        <v>17809549.5678</v>
+        <v>9673661.0</v>
       </c>
       <c r="AF54" s="2">
         <v>0.022</v>
@@ -16644,19 +16644,19 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>48330461.622</v>
+        <v>29352749.1</v>
       </c>
       <c r="AB55" s="1">
         <v>62752555.1</v>
       </c>
       <c r="AC55" s="1">
-        <v>4767854.478</v>
+        <v>23745567.0</v>
       </c>
       <c r="AD55" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE55" s="1">
-        <v>18977712.522</v>
+        <v>6232890.0</v>
       </c>
       <c r="AF55" s="2">
         <v>0.022</v>
@@ -16735,19 +16735,19 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>45032419.6334</v>
+        <v>25026723.7</v>
       </c>
       <c r="AB56" s="1">
         <v>57346181.7</v>
       </c>
       <c r="AC56" s="1">
-        <v>1694099.0666</v>
+        <v>21699795.0</v>
       </c>
       <c r="AD56" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE56" s="1">
-        <v>20005695.9334</v>
+        <v>2448043.0</v>
       </c>
       <c r="AF56" s="2">
         <v>0.022</v>
@@ -16826,23 +16826,21 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>38549378.0</v>
+        <v>19541965.0</v>
       </c>
       <c r="AB57" s="13">
         <v>50231008.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>19007413.0</v>
       </c>
       <c r="AD57" s="14">
         <v>0.3784</v>
       </c>
       <c r="AE57" s="13">
-        <v>20853782.2494</v>
-      </c>
-      <c r="AF57" s="14">
-        <v>0.022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="14"/>
       <c r="AG57" s="13">
         <v>-394193.368</v>
       </c>
@@ -16917,19 +16915,19 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>28269543.7</v>
+        <v>12709986.7</v>
       </c>
       <c r="AB58" s="1">
         <v>41119336.7</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>15559557.0</v>
       </c>
       <c r="AD58" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE58" s="1">
-        <v>21475712.2108</v>
+        <v>621930.0</v>
       </c>
       <c r="AF58" s="2">
         <v>0.022</v>
@@ -17008,23 +17006,21 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>15548248.8</v>
+        <v>4316193.8</v>
       </c>
       <c r="AB59" s="1">
         <v>29683020.8</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>11232055.0</v>
       </c>
       <c r="AD59" s="2">
         <v>0.3784</v>
       </c>
       <c r="AE59" s="1">
-        <v>21817773.6844</v>
-      </c>
-      <c r="AF59" s="2">
-        <v>0.022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="2"/>
       <c r="AG59" s="1">
         <v>-231771.984</v>
       </c>
@@ -17099,23 +17095,21 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="16"/>
       <c r="AA60" s="5">
-        <v>0.099999997764826</v>
+        <v>-5883456.9</v>
       </c>
       <c r="AB60" s="5">
         <v>15548249.1</v>
       </c>
       <c r="AC60" s="5">
-        <v>0</v>
+        <v>5883457.0</v>
       </c>
       <c r="AD60" s="16">
         <v>0.3784</v>
       </c>
       <c r="AE60" s="5">
-        <v>21817773.6866</v>
-      </c>
-      <c r="AF60" s="16">
-        <v>0.022</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AF60" s="16"/>
       <c r="AG60" s="5">
         <v>-119824.592</v>
       </c>
